--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="90" windowWidth="16545" windowHeight="13350"/>
+    <workbookView xWindow="75" yWindow="-135" windowWidth="16545" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Review Comments" sheetId="1" r:id="rId1"/>
     <sheet name="Reviewed, no comments" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$B$1:$G$610</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$B$1:$G$614</definedName>
     <definedName name="Resources">#REF!</definedName>
     <definedName name="Topics">#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="897">
   <si>
     <t>Resource</t>
   </si>
@@ -2906,9 +2908,6 @@
     <t>Subject should be broader.  Questionaires can be about all sorts of things - hospitals, drugs, etc.  Not all will be patient-specific.  And some of those that are may be anonymous.</t>
   </si>
   <si>
-    <t>Resoruce e</t>
-  </si>
-  <si>
     <t>Is visit in the 80% for a questionaire?  I think very few systems would capture encounter details on a questionaire form.</t>
   </si>
   <si>
@@ -2994,13 +2993,563 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Not sure what this means</t>
+  </si>
+  <si>
+    <t>All resources have ids.  Are you saying all resources need "external" ids?  Not sure we can make a blanket statement that that's in the 80% for all.  For device log, external ids are unlikely.  They're only for communication from device to server and unlikely the device will be assigning an id (or capable of recognizing such an id in the future)</t>
+  </si>
+  <si>
+    <t>Not clear what this means or how it's different from previous comment</t>
+  </si>
+  <si>
+    <t>Are you responding to specific places where a different term is used?</t>
+  </si>
+  <si>
+    <t>ID and modified date are part of the metadata for every resource</t>
+  </si>
+  <si>
+    <t>Identifier isn't essential for group to exist.  Modified date exists everywhere.  Why do you think status is in the 80% for group and what do you think it needs to have.</t>
+  </si>
+  <si>
+    <t>Do you see a use for IssueReports as persisted things as opposed to just being sent back in response to whatever submission caused the problem.</t>
+  </si>
+  <si>
+    <t>id &amp; modified exist.  What sort of status do you think a list needs?  (That's in the 80%)</t>
+  </si>
+  <si>
+    <t>All resources have an id.  Not sure messages need a "business" identifier.</t>
+  </si>
+  <si>
+    <t>Should we rename "instant" to "timestamp"?</t>
+  </si>
+  <si>
+    <t>data is the logical reference.  Atom is the transmission mechanism.</t>
+  </si>
+  <si>
+    <t>Would need evidence status is actually needed on the other resources</t>
+  </si>
+  <si>
+    <t>Questionaire may evolve to be both definition and completed version.  However, "Questionaire" is a common term for both versions</t>
+  </si>
+  <si>
+    <t>Answered above</t>
+  </si>
+  <si>
+    <t>It's an individual question, so Questionaire wouldn't be appropriate</t>
+  </si>
+  <si>
+    <t>Device is found by the reference to DeviceCapabilities.  Same for identifier</t>
+  </si>
+  <si>
+    <t>Do we need to record any procedure modifiers (Radio-opaic meterial used, etc)?</t>
+  </si>
+  <si>
+    <t>Grahame to answer - non-urgent</t>
+  </si>
+  <si>
+    <t>Change definition of Picture.deviceName to "Name assigned to device by manufacturer, e.g. …"</t>
+  </si>
+  <si>
+    <t>Should we standardize on either "content" or "data"?</t>
+  </si>
+  <si>
+    <t>Call out in a "note" that the content type is conveyed as part of the Picture.content Attachment data type</t>
+  </si>
+  <si>
+    <t>Verify that DocumentReference and Document attributes are aligned</t>
+  </si>
+  <si>
+    <t>Change Provenance.activity.location to use Location resource</t>
+  </si>
+  <si>
+    <t>In terms of priority &amp; size in the instance, ordering is ok</t>
+  </si>
+  <si>
+    <t>Only add them where you think it's in the 80%.  Note that these are *business* identifier and versionIdentifier.</t>
+  </si>
+  <si>
+    <t>Not essential.  I can reference a syringe without giving it an id.</t>
+  </si>
+  <si>
+    <t>Need a convention on use and interpretation of 0..1 boolean, 0..1 code</t>
+  </si>
+  <si>
+    <t>Make clearer to WGs exactly what the rules are for mustUnderstand and ensure all of our resources are up-to-date.  Specifically "This element changes the interpretation of other elements in the resource"</t>
+  </si>
+  <si>
+    <t>Add numbers to constraints in the publication</t>
+  </si>
+  <si>
+    <t>Will need to do this in a profile, and profile can/should be referenced from resource.  However details of XDS interoperability don't belong in the resources because the intention is that they be useable for other things too.</t>
+  </si>
+  <si>
+    <t>Add checks for capitalization patterns on resource names, resource entries and periods at the end of sentences to the automatic validation</t>
+  </si>
+  <si>
+    <t>Some of this has to do with the level of WG review that's happened on respective resources, but yes, more descriptions are needed in some places.  If you can explicitly flag those you see as being "weak", that would be helpful.</t>
+  </si>
+  <si>
+    <t>Add the resource "category" to part of the heading of the resource (with a link back to that category on the Resource List) page.</t>
+  </si>
+  <si>
+    <t>Understood</t>
+  </si>
+  <si>
+    <t>Provide guidance on use of name "recorder" vs. "author" - when appropriate for business usage</t>
+  </si>
+  <si>
+    <t>Provide guidance on use of name "type" vs. "code" - when appropriate for business usage</t>
+  </si>
+  <si>
+    <t>Methodology discussion on correspondance between elements in "referenced" resources (subject, visit, etc.)</t>
+  </si>
+  <si>
+    <t>The HTML rendering for search parameters will be modified to explicitly identify the related element(s) by path name in addition to providing a human-readable description.</t>
+  </si>
+  <si>
+    <t>The search parameters are selected on the basis of "what most systems will need to search by".  In some cases, this may be everything, in other cases it may be a small subset.  And it's not necessarily related to what's required.</t>
+  </si>
+  <si>
+    <t>Specific example already noted above.  We need other inconsistencies explicitly enumerated</t>
+  </si>
+  <si>
+    <t>Put ever separate question/issue on a separate line.</t>
+  </si>
+  <si>
+    <t>Be explicit - don't say "there's an issue with consistency in many of your resources" - enumerate exactly which ones unless you think the list is going be hundreds rather than tens.</t>
+  </si>
+  <si>
+    <t>Populate the resource name on every comment line</t>
+  </si>
+  <si>
+    <t>Define naming guidelines for search parameters</t>
+  </si>
+  <si>
+    <t>Don't understand the issue</t>
+  </si>
+  <si>
+    <t>Not clear why this would be needed.  We're not trying to express profiles created elsewhere, and there's a unique id on every instance already - expressed as a URI.  Do you have a use-case that would suggest this is in the 80%?</t>
+  </si>
+  <si>
+    <t>The premise is that there should be sufficient information in a conformance statement to allow a client application to auto-configure to talk to that server based on what operations it supports as well as to allow conformance testing.
+Use of the Conformance resource is mandatory for all RESTful implementations.  We will see during the DSTU whether the benefits outweighs the costs of having this data as discrete.</t>
+  </si>
+  <si>
+    <t>What more do you want other than the examples provided - part of architectural design, part of RFP?</t>
+  </si>
+  <si>
+    <t>Move the last paragraph of the description to the top</t>
+  </si>
+  <si>
+    <t>Have already agreed to move first paragraph up.  The primary purpose of the Conformance statement is to just define the interface, not the behavior behind the scenes.  So it should cover "list of interfaces", but not architecture diagram - though you could certainly add the latter as an extension :&gt;</t>
+  </si>
+  <si>
+    <t>Will reword to "Profiles of each of these 3 types can be used together" to help avoid confusion.  (Each profile has a single type, but you can have all 3 types of profiles playing together.)</t>
+  </si>
+  <si>
+    <t>Determined by the code - value sets are orthogonal</t>
+  </si>
+  <si>
+    <t>Will be handled by exposing explicit path.</t>
+  </si>
+  <si>
+    <t>Correct the enumeration of group types.</t>
+  </si>
+  <si>
+    <t>See above</t>
+  </si>
+  <si>
+    <t>Add a "how to read" section that describes the various sections of each resource, including covering search.  The section should note that additional elements and search parameters can be defined using profiles and point to the appropriate section.
+Need to explain things like the fly-overs, what you can click on, etc.</t>
+  </si>
+  <si>
+    <t>If not sure, click through to the full definition.  (The "how to read" section will identify the fact you can do this)</t>
+  </si>
+  <si>
+    <t>Will add Quantity as a type for characteristic.value</t>
+  </si>
+  <si>
+    <t>Will make characteristics.exclude 1..1</t>
+  </si>
+  <si>
+    <t>Well, for animals, you can use code to distinguish chickens, cows, etc. (even specific breeds or strains).  I'm not aware of any similar coding system for people.  However, it's not a "firm" prohibition, so will move it to a note and remove it from constraint.</t>
+  </si>
+  <si>
+    <t>Should we rename "IssueReport" to "SystemIssueReport"?</t>
+  </si>
+  <si>
+    <t>Will add "description"</t>
+  </si>
+  <si>
+    <t>Will change to "IssueReport resources"</t>
+  </si>
+  <si>
+    <t>Will fix formatting</t>
+  </si>
+  <si>
+    <t>I think the codes do define what "error" and "warning" means.  If you think they could be clearer, please suggest enhancements.  If you're asking whether we should declare what should cause an error vs. a warning, that's going to be determined by the design of the system (and its tolerance for various problems)</t>
+  </si>
+  <si>
+    <t>Will make "type" 1..1</t>
+  </si>
+  <si>
+    <t>Agree.  "ordered" should be 1..1, must understand=Y</t>
+  </si>
+  <si>
+    <t>Fill in the rest of the human readable description for first constraint</t>
+  </si>
+  <si>
+    <t>Will accept proposed wording</t>
+  </si>
+  <si>
+    <t>Will change the first sentence of "Empty Reason": "There can be clinical significance to having a list, even if that list is empty.  There are several reasons a list might be empty and it's useful to disambiguate these circumstances.  For example:"</t>
+  </si>
+  <si>
+    <t>Will clarify that the contact is for issues with the message/transmission, not clinical issues</t>
+  </si>
+  <si>
+    <t>Discuss</t>
+  </si>
+  <si>
+    <t>Will add text explaining how this list is maintained &amp; supplemented</t>
+  </si>
+  <si>
+    <t>Fix typo</t>
+  </si>
+  <si>
+    <t>Will institute a QA process that flags all paragraphs containing "should", "shall", "must", "may", "might", "can" and allows for human review.  Will also provide a style guide of what terms to use for conformance criteria assertions, such as whether conformance labeling should be made for non-testable assertions.</t>
+  </si>
+  <si>
+    <t>Will add a constraint that, if members and quantity are both present, number of members can't be more than quantity.  Will also add a note that says that if the quantity is greater than the number of members, that means that the set of listed members is not complete.
+There's lots of value in having a group that doesn't list members.  E.g. "All people within 2 miles of point X" or "females aged 40-65".</t>
+  </si>
+  <si>
+    <t>Will change these phrases to be in quotes and add more descriptive text:
+"transactions of consequence" (transactions which change data must only be processed once, such as inserts, updates, etc.) and "transactions of currency" (transactions that do not change data and can be processed multiple times without effect, such as queries)
+However (before you wave your hand), will add the question of "are queries 'of consequence' when they result in updates to audit and other logs"</t>
+  </si>
+  <si>
+    <t>Should we be consistent in always saying "listener" or "receiver" or should we provide an explanation of the different terms?</t>
+  </si>
+  <si>
+    <t>Bundles are the collection of stuff that makes up a single message.  Batch is a mechanism of processing multiple resources simultaneously in a single transaction.  We're likely going to rename Batch to Transaction.  Take a look at the definition of bundle as specified in the link.  If things are still unclear, suggest an enhancement.</t>
+  </si>
+  <si>
+    <t>Will change label from "background" to "purpose" and will add more guidance on the use of Profile.binding.concept vs. ValueSet.
+Need to determine what that guidance should be.</t>
+  </si>
+  <si>
+    <t>Need guidance on naming of search parameters: someName, somename, some_name</t>
+  </si>
+  <si>
+    <t>Will change to proposed wording</t>
+  </si>
+  <si>
+    <t>Good question :&gt;  Will drop link</t>
+  </si>
+  <si>
+    <t>We have an issue: Most systems that capture coverage are only "referencing" coverage, not defining it.  If we design the 80% based on this, we'd have to use a tonne of extensions for any system that's actually communicating Coverage definition.  Alternatives are separate resources for coverage reference and coverage definition (problematic as there'll always be use-cases for stuff in between) or create the resource based on the Coverage Definition and then create a profile that gets referenced by systems that need to refer to coverage.  We need to provide guidance.  Same sort of issue is going to be encountered with medications, devices, locations and a bunch of other areas.</t>
+  </si>
+  <si>
+    <t>Will remove bullet.  Closed has been dropped from scope</t>
+  </si>
+  <si>
+    <t>Look to this to extract guidelines for best practices</t>
+  </si>
+  <si>
+    <t>Including the full path should help resolve this.</t>
+  </si>
+  <si>
+    <t>Suggest requiring either Substance or Reaction.  Would also say that substance should be required on exposure</t>
+  </si>
+  <si>
+    <t>It already states this on the next sentence.  What exactly are you looking for?</t>
+  </si>
+  <si>
+    <t>Covered by #253</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Will drop this sentence - no longer relevant</t>
+  </si>
+  <si>
+    <t>Will add a paragraph in the introduction of AdverseReaction, Problem, Observation and AllergyIntolerance that explains the difference between them.</t>
+  </si>
+  <si>
+    <t>Will move paragraph</t>
+  </si>
+  <si>
+    <t>In the 80%, Message won't generally be searched.  Will add a note indicating that and reminding that extension search parameters can be used if needed</t>
+  </si>
+  <si>
+    <t>In the 80%, Issue won't generally be searched.  Will add a note indicating that and reminding that extension search parameters can be used if needed</t>
+  </si>
+  <si>
+    <t>See #48</t>
+  </si>
+  <si>
+    <t>Suggest changing to "AdverseReaction resources are used to provide information about specific instances where a reaction has occurred that is potentially related to the administration of a substance.  The nature of the reaction or the nature of the implicated substance(s) may be unknown."</t>
+  </si>
+  <si>
+    <t>See 259</t>
+  </si>
+  <si>
+    <t>will change "purely a statement of timing" to "purely a statement that the exposure preceded the onset or escallation of the symptom"</t>
+  </si>
+  <si>
+    <t>Suggest changing to codeable concept to allow translations from other code systems as well as originalText.</t>
+  </si>
+  <si>
+    <t>Will make exposureDate exposure[x] date|Range</t>
+  </si>
+  <si>
+    <t>There is no AdverseReaction.substance anymore.  Exposure.substance should probably be 1..1 rather than 0..1 as it's not clear "exposure" has any use without identifying the substance.</t>
+  </si>
+  <si>
+    <t>Symptom is the term chosen to encompass both.  Challenge coming up with an appropriate name that is intuitive to implementers and meets naming constraints (s&amp;s isn't intuitive to implementers and '&amp;' isn't an allowed character)</t>
+  </si>
+  <si>
+    <t>Consider accepting proposed wording</t>
+  </si>
+  <si>
+    <t>Shorter names are better.  Should only qualify if necessary to disambiguate or semantic wouldn't be obvious to the reasonable reader, and I think neither is the case here.</t>
+  </si>
+  <si>
+    <t>Will move the third paragraph</t>
+  </si>
+  <si>
+    <t>Will make the proposed wording change</t>
+  </si>
+  <si>
+    <t>That sounds about right.  Usually, but do not always.  What's the conflict?</t>
+  </si>
+  <si>
+    <t>Will improve the descriptions of the date search parameters</t>
+  </si>
+  <si>
+    <t>Will make names consistent</t>
+  </si>
+  <si>
+    <t>Will add a rule that short descriptions for "code" elements should be a full or partial enumeration of the code list.</t>
+  </si>
+  <si>
+    <t>Timing can do this somewhat.  More formal linkages can be accomplished through extensions.  Not clear that including formal linkages is within the 80%.  Do you have evidence it is?</t>
+  </si>
+  <si>
+    <t>Could constrain to require one of notes, activity, goal or participant.  However, this would preclude Patient + status + extensions.  What should we do?</t>
+  </si>
+  <si>
+    <t>Consider adding "completed" and modifying "ended" to indicate premature termination as well as resource link to superseding CarePlan.</t>
+  </si>
+  <si>
+    <t>Accept proposed wording</t>
+  </si>
+  <si>
+    <t>It gives implementers a sense of the scope of the resource.</t>
+  </si>
+  <si>
+    <t>Will add note on "notes" indicating that it is for information the system is not capable of capturing in discrete elements or extensions or which the user is unwilling to capture discretely"</t>
+  </si>
+  <si>
+    <t>Will drop "the intention" and extraneous period.</t>
+  </si>
+  <si>
+    <t>Adopt proposed wording, except change "Use the CarePlan resource both for" to "For example:" and use bullets.  (And perhaps add another example or two.)</t>
+  </si>
+  <si>
+    <t>Will add differentiation between care plans and various orders.  (Will also add a place-holder noting differentiation from Protocol)</t>
+  </si>
+  <si>
+    <t>Will reword as described above</t>
+  </si>
+  <si>
+    <t>Will adopt the wording "The subject of the X" wording for the "subject" search criteria across the board (and consider a validation check or even overriding other wording)</t>
+  </si>
+  <si>
+    <t>Will have both human-readable description and path everwhere.</t>
+  </si>
+  <si>
+    <t>Will await outcome of discussion on boolean methodology and either make it an optional boolean or a code.</t>
+  </si>
+  <si>
+    <t>Will modify definition to incorporate this</t>
+  </si>
+  <si>
+    <t>Will add heading and drop informal comment</t>
+  </si>
+  <si>
+    <t>Will be reviewing with CG</t>
+  </si>
+  <si>
+    <t>Given that a FamilyHistory resource encompasses an entire history, there needs to be a means of selecting from multiple instances.  Suggest adding recordedDate and recorder to allow grabbing the most recent and/or distinguishing relevance based on who recorded it.  Also, is it possible for family histories to be "typed" - e.g. a family history focused on oncology vs. cardiac health vs. general vs. psychological?  If so, that might be useful to add too - if it's reasonably part of the 80%.</t>
+  </si>
+  <si>
+    <t>Will change rendering of constraints that aren't on root to be prefixed with "Within [element path], [constraint description]" to make it clear that constraints only apply within a particular context.</t>
+  </si>
+  <si>
+    <t>Correct typo</t>
+  </si>
+  <si>
+    <t>Lloyd: DocumentReference can still be used for documents that are assembled in FHIR too, so definitely some correction needed to the wording</t>
+  </si>
+  <si>
+    <t>Why?  There's only one type element in the resource, so it doesn't seem to be unclear</t>
+  </si>
+  <si>
+    <t>Will change search name to "visit" and "visit associated with document"</t>
+  </si>
+  <si>
+    <t>Will rename to sectionCode</t>
+  </si>
+  <si>
+    <t>Will change to "resource defining content for section" - the search parameter is a resource reference</t>
+  </si>
+  <si>
+    <t>Will change "can" to "are allowed or recommended to"</t>
+  </si>
+  <si>
+    <t>Will move this to the "notes" section and provide more background for the sentence</t>
+  </si>
+  <si>
+    <t>Will explain relationship to Profile.binding and Questionaire</t>
+  </si>
+  <si>
+    <t>This wording depends on understanding a whole lot of defined terms such as "concept identifier" "concept code", "Code System", etc.  We don't expect consumers of FHIR to be familiar with any of these terms.  Reading HL7 Core Principles and/or the CTS2 spec is not a pre-requisite for using the FHIR spec.</t>
+  </si>
+  <si>
+    <t>Will correct definition</t>
+  </si>
+  <si>
+    <t>Will remove "an"</t>
+  </si>
+  <si>
+    <t>Will make consistent</t>
+  </si>
+  <si>
+    <t>Will make consistent and enforce in tools</t>
+  </si>
+  <si>
+    <t>Will use suggested wording</t>
+  </si>
+  <si>
+    <t>Will improve search criteria description</t>
+  </si>
+  <si>
+    <t>Will use "compartment"</t>
+  </si>
+  <si>
+    <t>Will provide more robust definitions for domains</t>
+  </si>
+  <si>
+    <t>Will remove duplicate paragraph</t>
+  </si>
+  <si>
+    <t>Will add this to the definition</t>
+  </si>
+  <si>
+    <t>Will fix spelling</t>
+  </si>
+  <si>
+    <t>Will reword</t>
+  </si>
+  <si>
+    <t>Will correct the short name</t>
+  </si>
+  <si>
+    <t>Will adopt proposed wording</t>
+  </si>
+  <si>
+    <t>Will fix typo and capitalization &amp; formatting</t>
+  </si>
+  <si>
+    <t>Will correct spelling and add hyperlinks where possible</t>
+  </si>
+  <si>
+    <t>Numbers are references to DICOM spec.  Will move them to a mapping column so they show up in mappings.</t>
+  </si>
+  <si>
+    <t>Will fix wording</t>
+  </si>
+  <si>
+    <t>Will fix typo</t>
+  </si>
+  <si>
+    <t>Not critical and consistent order makes copy &amp; paste easier and makes it easier for people to see the wording's the same in all 3 places.</t>
+  </si>
+  <si>
+    <t>Will make this 0..1 in DocumentReference too.</t>
+  </si>
+  <si>
+    <t>There isn't information on them in FHIR.  However, CDA should be a reference to the CDA spec given that not all FHIR readers will be familiar with CDA.</t>
+  </si>
+  <si>
+    <t>Will consider adding Binary to the LH side</t>
+  </si>
+  <si>
+    <t>No.  Will be changing Document to DocumentRoot to better distinguish the resource from the bundle.</t>
+  </si>
+  <si>
+    <t>Will make change</t>
+  </si>
+  <si>
+    <t>"code" should be used only for those elements that are "structural" to the resource - where it is either unlikely or irrelevant if the application has some local or other code representation for the concept.  CodeableConcept everywhere else.  Are there places you're finding we're not following those rules?</t>
+  </si>
+  <si>
+    <t>Will reword to be consistent with general search naming pattern</t>
+  </si>
+  <si>
+    <t>Will clarify description</t>
+  </si>
+  <si>
+    <t>The only period element in the resource? What's unclear?</t>
+  </si>
+  <si>
+    <t>Will make name consistent</t>
+  </si>
+  <si>
+    <t>This work is primariliy based on ATNA with the intention that it would provide a RESTful way of doing ATNA.  Will correct the RFC reference.
+To discuss - updating to whatever supersedes 3881?</t>
+  </si>
+  <si>
+    <t>Use these as a guidelines for best practices</t>
+  </si>
+  <si>
+    <t>There's inconsistency in search names - do we use all lower-case or mixed case or underscores or what?</t>
+  </si>
+  <si>
+    <t>Description of code elements is inconsistent</t>
+  </si>
+  <si>
+    <t>It may not be obvious to everyone that wherever we reference "Attachment" that they can send (and return) the content as a Binary</t>
+  </si>
+  <si>
+    <t>Add a note under the Attachment data type that it's possible to use $include to bring back the content referenced in the URL if that URL is a resource and that they can choose to send it as a "contained" Binary resource (if they always want it to come back on query) or a sibling Binary resource in a Batch if not.</t>
+  </si>
+  <si>
+    <t>Duplicate of 89</t>
+  </si>
+  <si>
+    <t>The patient is the subject, query on source would be querying on who gave the information (which may also be the patient)</t>
+  </si>
+  <si>
+    <t>No, it's the name of the _Q_ uestionnaire, but there's no real reason why it should not be name (since this Resource is questionnaire)</t>
+  </si>
+  <si>
+    <t>It's referring to the future resource RelatedPerson, should I drop that?</t>
+  </si>
+  <si>
+    <t>Legal to have a section with both questions and sub-sections.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3045,13 +3594,49 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3063,10 +3648,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3089,8 +3677,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3390,13 +4011,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H610"/>
+  <dimension ref="A1:H614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3414,7 +4035,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>466</v>
@@ -3429,13 +4050,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3445,7 +4066,7 @@
       <c r="B2" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3454,11 +4075,14 @@
       <c r="E2" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>716</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3468,7 +4092,7 @@
       <c r="B3" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3477,21 +4101,24 @@
       <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="F3" s="8" t="s">
+        <v>716</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -3500,11 +4127,14 @@
       <c r="E4" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="F4" s="8" t="s">
+        <v>717</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3514,7 +4144,7 @@
       <c r="B5" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -3523,11 +4153,14 @@
       <c r="E5" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="F5" s="8" t="s">
+        <v>718</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3537,7 +4170,7 @@
       <c r="B6" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -3546,11 +4179,14 @@
       <c r="E6" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="F6" s="8" t="s">
+        <v>719</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3569,14 +4205,17 @@
       <c r="E7" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="F7" s="9" t="s">
+        <v>742</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3592,11 +4231,14 @@
       <c r="E8" s="2" t="s">
         <v>354</v>
       </c>
+      <c r="F8" s="11" t="s">
+        <v>743</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3615,12 +4257,14 @@
       <c r="E9" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="12" t="s">
+        <v>744</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -3639,11 +4283,14 @@
       <c r="E10" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>745</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3662,11 +4309,14 @@
       <c r="E11" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>746</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3685,11 +4335,14 @@
       <c r="E12" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="F12" s="8" t="s">
+        <v>747</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>248</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3708,11 +4361,14 @@
       <c r="E13" s="2" t="s">
         <v>410</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>748</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>407</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3731,11 +4387,14 @@
       <c r="E14" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>749</v>
+      </c>
       <c r="G14" s="2" t="s">
         <v>407</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3754,11 +4413,14 @@
       <c r="E15" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F15" s="9" t="s">
+        <v>750</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3777,11 +4439,14 @@
       <c r="E16" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="F16" s="9" t="s">
+        <v>751</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -3800,12 +4465,14 @@
       <c r="E17" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="10" t="s">
+        <v>752</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3824,11 +4491,14 @@
       <c r="E18" s="2" t="s">
         <v>482</v>
       </c>
+      <c r="F18" s="11" t="s">
+        <v>753</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3847,11 +4517,14 @@
       <c r="E19" s="2" t="s">
         <v>479</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>754</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3870,11 +4543,14 @@
       <c r="E20" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>755</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3893,11 +4569,14 @@
       <c r="E21" s="2" t="s">
         <v>480</v>
       </c>
+      <c r="F21" s="9" t="s">
+        <v>759</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -3916,14 +4595,17 @@
       <c r="E22" s="2" t="s">
         <v>481</v>
       </c>
+      <c r="F22" s="8" t="s">
+        <v>760</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3939,14 +4621,17 @@
       <c r="E23" s="2" t="s">
         <v>483</v>
       </c>
+      <c r="F23" s="11" t="s">
+        <v>771</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3962,11 +4647,14 @@
       <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="F24" s="8" t="s">
+        <v>761</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3976,7 +4664,7 @@
       <c r="B25" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -3985,11 +4673,14 @@
       <c r="E25" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="F25" s="2" t="s">
+        <v>720</v>
+      </c>
       <c r="G25" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="240" x14ac:dyDescent="0.25">
@@ -4008,11 +4699,14 @@
       <c r="E26" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="F26" s="2" t="s">
+        <v>762</v>
+      </c>
       <c r="G26" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4031,12 +4725,14 @@
       <c r="E27" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="13" t="s">
+        <v>763</v>
+      </c>
       <c r="G27" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4055,12 +4751,14 @@
       <c r="E28" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="14" t="s">
+        <v>764</v>
+      </c>
       <c r="G28" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="330" x14ac:dyDescent="0.25">
@@ -4079,11 +4777,14 @@
       <c r="E29" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="F29" s="2" t="s">
+        <v>765</v>
+      </c>
       <c r="G29" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -4102,11 +4803,14 @@
       <c r="E30" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="F30" s="2" t="s">
+        <v>766</v>
+      </c>
       <c r="G30" s="2" t="s">
         <v>248</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4125,11 +4829,14 @@
       <c r="E31" s="2" t="s">
         <v>485</v>
       </c>
+      <c r="F31" s="2" t="s">
+        <v>767</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4148,11 +4855,14 @@
       <c r="E32" s="2" t="s">
         <v>484</v>
       </c>
+      <c r="F32" s="2" t="s">
+        <v>768</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4171,11 +4881,14 @@
       <c r="E33" s="2" t="s">
         <v>486</v>
       </c>
+      <c r="F33" s="2" t="s">
+        <v>768</v>
+      </c>
       <c r="G33" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -4194,11 +4907,14 @@
       <c r="E34" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="F34" s="11" t="s">
+        <v>791</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4208,7 +4924,7 @@
       <c r="B35" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -4217,11 +4933,14 @@
       <c r="E35" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="F35" s="8" t="s">
+        <v>721</v>
+      </c>
       <c r="G35" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -4240,11 +4959,14 @@
       <c r="E36" s="2" t="s">
         <v>489</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>769</v>
+      </c>
       <c r="G36" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -4263,11 +4985,14 @@
       <c r="E37" s="2" t="s">
         <v>487</v>
       </c>
+      <c r="F37" s="2" t="s">
+        <v>772</v>
+      </c>
       <c r="G37" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -4286,11 +5011,14 @@
       <c r="E38" s="2" t="s">
         <v>488</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>773</v>
+      </c>
       <c r="G38" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4309,14 +5037,17 @@
       <c r="E39" s="2" t="s">
         <v>490</v>
       </c>
+      <c r="F39" s="11" t="s">
+        <v>774</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4332,11 +5063,14 @@
       <c r="E40" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>775</v>
+      </c>
       <c r="G40" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4355,11 +5089,14 @@
       <c r="E41" s="2" t="s">
         <v>417</v>
       </c>
+      <c r="F41" s="2" t="s">
+        <v>770</v>
+      </c>
       <c r="G41" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4378,11 +5115,14 @@
       <c r="E42" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="F42" s="9" t="s">
+        <v>776</v>
+      </c>
       <c r="G42" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4392,7 +5132,7 @@
       <c r="B43" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -4401,11 +5141,14 @@
       <c r="E43" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="F43" s="8" t="s">
+        <v>722</v>
+      </c>
       <c r="G43" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -4424,11 +5167,14 @@
       <c r="E44" s="2" t="s">
         <v>491</v>
       </c>
+      <c r="F44" s="11" t="s">
+        <v>777</v>
+      </c>
       <c r="G44" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4447,11 +5193,14 @@
       <c r="E45" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="F45" s="11" t="s">
+        <v>778</v>
+      </c>
       <c r="G45" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -4470,14 +5219,17 @@
       <c r="E46" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="F46" s="11" t="s">
+        <v>779</v>
+      </c>
       <c r="G46" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4493,11 +5245,14 @@
       <c r="E47" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="F47" s="8" t="s">
+        <v>780</v>
+      </c>
       <c r="G47" s="2" t="s">
         <v>248</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4516,14 +5271,17 @@
       <c r="E48" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="F48" s="11" t="s">
+        <v>781</v>
+      </c>
       <c r="G48" s="2" t="s">
         <v>351</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4539,11 +5297,14 @@
       <c r="E49" s="2" t="s">
         <v>447</v>
       </c>
+      <c r="F49" s="11" t="s">
+        <v>811</v>
+      </c>
       <c r="G49" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4562,11 +5323,14 @@
       <c r="E50" s="2" t="s">
         <v>418</v>
       </c>
+      <c r="F50" s="17" t="s">
+        <v>812</v>
+      </c>
       <c r="G50" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4576,7 +5340,7 @@
       <c r="B51" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -4585,11 +5349,14 @@
       <c r="E51" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="F51" s="2" t="s">
+        <v>723</v>
+      </c>
       <c r="G51" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -4608,11 +5375,14 @@
       <c r="E52" s="2" t="s">
         <v>514</v>
       </c>
+      <c r="F52" s="11" t="s">
+        <v>782</v>
+      </c>
       <c r="G52" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4631,11 +5401,14 @@
       <c r="E53" s="2" t="s">
         <v>513</v>
       </c>
+      <c r="F53" s="11" t="s">
+        <v>783</v>
+      </c>
       <c r="G53" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4654,14 +5427,17 @@
       <c r="E54" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="F54" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="G54" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4677,11 +5453,14 @@
       <c r="E55" s="2" t="s">
         <v>492</v>
       </c>
+      <c r="F55" s="11" t="s">
+        <v>785</v>
+      </c>
       <c r="G55" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4700,11 +5479,14 @@
       <c r="E56" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="F56" s="11" t="s">
+        <v>786</v>
+      </c>
       <c r="G56" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4714,7 +5496,7 @@
       <c r="B57" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -4723,11 +5505,14 @@
       <c r="E57" s="2" t="s">
         <v>654</v>
       </c>
+      <c r="F57" s="2" t="s">
+        <v>724</v>
+      </c>
       <c r="G57" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4737,7 +5522,7 @@
       <c r="B58" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -4746,12 +5531,14 @@
       <c r="E58" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="F58" s="6"/>
+      <c r="F58" s="10" t="s">
+        <v>725</v>
+      </c>
       <c r="G58" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4761,7 +5548,7 @@
       <c r="B59" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -4770,12 +5557,14 @@
       <c r="E59" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="F59" s="6"/>
+      <c r="F59" s="6" t="s">
+        <v>726</v>
+      </c>
       <c r="G59" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="240" x14ac:dyDescent="0.25">
@@ -4794,11 +5583,14 @@
       <c r="E60" s="2" t="s">
         <v>515</v>
       </c>
+      <c r="F60" s="9" t="s">
+        <v>787</v>
+      </c>
       <c r="G60" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4817,11 +5609,14 @@
       <c r="E61" s="2" t="s">
         <v>516</v>
       </c>
+      <c r="F61" s="11" t="s">
+        <v>788</v>
+      </c>
       <c r="G61" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4840,11 +5635,14 @@
       <c r="E62" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="F62" s="11" t="s">
+        <v>789</v>
+      </c>
       <c r="G62" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -4863,14 +5661,17 @@
       <c r="E63" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="F63" s="9" t="s">
+        <v>790</v>
+      </c>
       <c r="G63" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4886,11 +5687,14 @@
       <c r="E64" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="F64" s="9" t="s">
+        <v>792</v>
+      </c>
       <c r="G64" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4909,11 +5713,14 @@
       <c r="E65" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="F65" s="9" t="s">
+        <v>793</v>
+      </c>
       <c r="G65" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4932,14 +5739,17 @@
       <c r="E66" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="F66" s="8" t="s">
+        <v>794</v>
+      </c>
       <c r="G66" s="2" t="s">
         <v>248</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4955,11 +5765,14 @@
       <c r="E67" s="2" t="s">
         <v>418</v>
       </c>
+      <c r="F67" s="11" t="s">
+        <v>810</v>
+      </c>
       <c r="G67" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4969,7 +5782,7 @@
       <c r="B68" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4978,11 +5791,14 @@
       <c r="E68" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="F68" s="8" t="s">
+        <v>727</v>
+      </c>
       <c r="G68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -5001,11 +5817,14 @@
       <c r="E69" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="F69" s="9" t="s">
+        <v>795</v>
+      </c>
       <c r="G69" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5024,11 +5843,14 @@
       <c r="E70" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="F70" s="11" t="s">
+        <v>797</v>
+      </c>
       <c r="G70" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5047,11 +5869,14 @@
       <c r="E71" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="F71" s="11" t="s">
+        <v>797</v>
+      </c>
       <c r="G71" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5070,11 +5895,14 @@
       <c r="E72" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="F72" s="11" t="s">
+        <v>798</v>
+      </c>
       <c r="G72" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -5093,11 +5921,14 @@
       <c r="E73" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="F73" s="11" t="s">
+        <v>800</v>
+      </c>
       <c r="G73" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5116,11 +5947,14 @@
       <c r="E74" s="2" t="s">
         <v>459</v>
       </c>
+      <c r="F74" s="11" t="s">
+        <v>801</v>
+      </c>
       <c r="G74" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5139,11 +5973,14 @@
       <c r="E75" s="2" t="s">
         <v>517</v>
       </c>
+      <c r="F75" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="G75" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5162,11 +5999,14 @@
       <c r="E76" s="2" t="s">
         <v>518</v>
       </c>
+      <c r="F76" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="G76" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5176,7 +6016,7 @@
       <c r="B77" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -5185,11 +6025,12 @@
       <c r="E77" s="2" t="s">
         <v>682</v>
       </c>
+      <c r="F77" s="9"/>
       <c r="G77" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5199,30 +6040,31 @@
       <c r="B78" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>688</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="F78" s="9"/>
       <c r="G78" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -5231,11 +6073,14 @@
       <c r="E79" s="2" t="s">
         <v>664</v>
       </c>
+      <c r="F79" s="9" t="s">
+        <v>728</v>
+      </c>
       <c r="G79" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5245,7 +6090,7 @@
       <c r="B80" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -5254,11 +6099,14 @@
       <c r="E80" s="2" t="s">
         <v>663</v>
       </c>
+      <c r="F80" s="2" t="s">
+        <v>729</v>
+      </c>
       <c r="G80" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5268,7 +6116,7 @@
       <c r="B81" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -5277,11 +6125,14 @@
       <c r="E81" s="2" t="s">
         <v>665</v>
       </c>
+      <c r="F81" s="2" t="s">
+        <v>730</v>
+      </c>
       <c r="G81" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -5300,11 +6151,12 @@
       <c r="E82" s="2" t="s">
         <v>424</v>
       </c>
+      <c r="F82" s="9"/>
       <c r="G82" s="2" t="s">
         <v>420</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5314,7 +6166,7 @@
       <c r="B83" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -5323,11 +6175,12 @@
       <c r="E83" s="2" t="s">
         <v>683</v>
       </c>
+      <c r="F83" s="11"/>
       <c r="G83" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5337,7 +6190,7 @@
       <c r="B84" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -5346,11 +6199,12 @@
       <c r="E84" s="2" t="s">
         <v>684</v>
       </c>
+      <c r="F84" s="11"/>
       <c r="G84" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5360,7 +6214,7 @@
       <c r="B85" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -5369,11 +6223,12 @@
       <c r="E85" s="2" t="s">
         <v>686</v>
       </c>
+      <c r="F85" s="9"/>
       <c r="G85" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5383,20 +6238,23 @@
       <c r="B86" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>896</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5406,20 +6264,23 @@
       <c r="B87" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>687</v>
+        <v>45</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>685</v>
       </c>
+      <c r="F87" s="2" t="s">
+        <v>895</v>
+      </c>
       <c r="G87" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5438,12 +6299,12 @@
       <c r="E88" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F88" s="4"/>
+      <c r="F88" s="15"/>
       <c r="G88" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5462,12 +6323,12 @@
       <c r="E89" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="14"/>
       <c r="G89" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5486,12 +6347,12 @@
       <c r="E90" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="F90" s="4"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -5510,12 +6371,12 @@
       <c r="E91" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="14"/>
       <c r="G91" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5534,12 +6395,12 @@
       <c r="E92" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5558,11 +6419,12 @@
       <c r="E93" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="F93" s="11"/>
       <c r="G93" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="240" x14ac:dyDescent="0.25">
@@ -5581,11 +6443,12 @@
       <c r="E94" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="F94" s="11"/>
       <c r="G94" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -5604,11 +6467,12 @@
       <c r="E95" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="F95" s="11"/>
       <c r="G95" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -5627,11 +6491,12 @@
       <c r="E96" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="F96" s="11"/>
       <c r="G96" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -5650,11 +6515,12 @@
       <c r="E97" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="F97" s="11"/>
       <c r="G97" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -5673,11 +6539,12 @@
       <c r="E98" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="F98" s="11"/>
       <c r="G98" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5696,11 +6563,12 @@
       <c r="E99" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="F99" s="11"/>
       <c r="G99" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -5719,11 +6587,12 @@
       <c r="E100" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="F100" s="11"/>
       <c r="G100" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -5742,11 +6611,12 @@
       <c r="E101" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="F101" s="9"/>
       <c r="G101" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -5756,7 +6626,7 @@
       <c r="B102" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -5765,11 +6635,12 @@
       <c r="E102" s="2" t="s">
         <v>681</v>
       </c>
+      <c r="F102" s="9"/>
       <c r="G102" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -5788,11 +6659,14 @@
       <c r="E103" s="2" t="s">
         <v>462</v>
       </c>
+      <c r="F103" s="2" t="s">
+        <v>892</v>
+      </c>
       <c r="G103" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5811,14 +6685,17 @@
       <c r="E104" s="2" t="s">
         <v>519</v>
       </c>
+      <c r="F104" s="2" t="s">
+        <v>893</v>
+      </c>
       <c r="G104" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5834,11 +6711,14 @@
       <c r="E105" s="2" t="s">
         <v>520</v>
       </c>
+      <c r="F105" s="11" t="s">
+        <v>894</v>
+      </c>
       <c r="G105" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5848,7 +6728,7 @@
       <c r="B106" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -5857,11 +6737,14 @@
       <c r="E106" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="F106" s="8" t="s">
+        <v>733</v>
+      </c>
       <c r="G106" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5880,11 +6763,14 @@
       <c r="E107" s="2" t="s">
         <v>599</v>
       </c>
+      <c r="F107" s="11" t="s">
+        <v>856</v>
+      </c>
       <c r="G107" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5907,7 +6793,7 @@
         <v>352</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5930,7 +6816,7 @@
         <v>547</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -5953,7 +6839,7 @@
         <v>547</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -5972,12 +6858,14 @@
       <c r="E111" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F111" s="4"/>
+      <c r="F111" s="14" t="s">
+        <v>857</v>
+      </c>
       <c r="G111" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5996,11 +6884,14 @@
       <c r="E112" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="F112" s="11" t="s">
+        <v>858</v>
+      </c>
       <c r="G112" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -6023,7 +6914,7 @@
         <v>120</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6042,11 +6933,14 @@
       <c r="E114" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="F114" s="11" t="s">
+        <v>859</v>
+      </c>
       <c r="G114" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -6069,7 +6963,7 @@
         <v>547</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6092,7 +6986,7 @@
         <v>547</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6115,7 +7009,7 @@
         <v>547</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6138,7 +7032,7 @@
         <v>547</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6157,11 +7051,14 @@
       <c r="E119" s="2" t="s">
         <v>436</v>
       </c>
+      <c r="F119" s="11" t="s">
+        <v>861</v>
+      </c>
       <c r="G119" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6180,11 +7077,14 @@
       <c r="E120" s="2" t="s">
         <v>437</v>
       </c>
+      <c r="F120" s="11" t="s">
+        <v>860</v>
+      </c>
       <c r="G120" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -6203,11 +7103,14 @@
       <c r="E121" s="2" t="s">
         <v>493</v>
       </c>
+      <c r="F121" s="11" t="s">
+        <v>862</v>
+      </c>
       <c r="G121" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6226,11 +7129,14 @@
       <c r="E122" s="2" t="s">
         <v>586</v>
       </c>
+      <c r="F122" s="11" t="s">
+        <v>863</v>
+      </c>
       <c r="G122" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -6240,7 +7146,7 @@
       <c r="B123" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -6249,11 +7155,14 @@
       <c r="E123" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="F123" s="2" t="s">
+        <v>731</v>
+      </c>
       <c r="G123" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -6276,7 +7185,7 @@
         <v>238</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6299,7 +7208,7 @@
         <v>352</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6318,12 +7227,14 @@
       <c r="E126" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F126" s="4"/>
+      <c r="F126" s="14" t="s">
+        <v>864</v>
+      </c>
       <c r="G126" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6342,11 +7253,14 @@
       <c r="E127" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="F127" s="11" t="s">
+        <v>865</v>
+      </c>
       <c r="G127" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -6365,11 +7279,14 @@
       <c r="E128" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="F128" s="11" t="s">
+        <v>858</v>
+      </c>
       <c r="G128" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6388,11 +7305,14 @@
       <c r="E129" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="F129" s="11" t="s">
+        <v>866</v>
+      </c>
       <c r="G129" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6411,11 +7331,14 @@
       <c r="E130" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="F130" s="11" t="s">
+        <v>867</v>
+      </c>
       <c r="G130" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6438,7 +7361,7 @@
         <v>248</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6461,7 +7384,7 @@
         <v>547</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -6480,11 +7403,14 @@
       <c r="E133" s="2" t="s">
         <v>438</v>
       </c>
+      <c r="F133" s="11" t="s">
+        <v>858</v>
+      </c>
       <c r="G133" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6507,7 +7433,7 @@
         <v>416</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6530,7 +7456,7 @@
         <v>352</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -6554,7 +7480,7 @@
         <v>369</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6573,11 +7499,14 @@
       <c r="E137" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="F137" s="11" t="s">
+        <v>858</v>
+      </c>
       <c r="G137" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6600,7 +7529,7 @@
         <v>120</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6623,7 +7552,7 @@
         <v>351</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6646,7 +7575,7 @@
         <v>351</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6669,7 +7598,7 @@
         <v>351</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6692,7 +7621,7 @@
         <v>351</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -6715,7 +7644,7 @@
         <v>547</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6738,7 +7667,7 @@
         <v>547</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6748,7 +7677,7 @@
       <c r="B145" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -6757,11 +7686,14 @@
       <c r="E145" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="F145" s="9" t="s">
+        <v>732</v>
+      </c>
       <c r="G145" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -6780,11 +7712,14 @@
       <c r="E146" s="2" t="s">
         <v>495</v>
       </c>
+      <c r="F146" s="11" t="s">
+        <v>868</v>
+      </c>
       <c r="G146" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6808,7 +7743,7 @@
         <v>369</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -6832,7 +7767,7 @@
         <v>369</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6851,11 +7786,14 @@
       <c r="E149" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="F149" s="11" t="s">
+        <v>869</v>
+      </c>
       <c r="G149" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6874,11 +7812,14 @@
       <c r="E150" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="F150" s="11" t="s">
+        <v>870</v>
+      </c>
       <c r="G150" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6897,11 +7838,14 @@
       <c r="E151" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="F151" s="11" t="s">
+        <v>871</v>
+      </c>
       <c r="G151" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -6924,7 +7868,7 @@
         <v>248</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6947,7 +7891,7 @@
         <v>351</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6970,7 +7914,7 @@
         <v>351</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6989,11 +7933,14 @@
       <c r="E155" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="F155" s="11" t="s">
+        <v>872</v>
+      </c>
       <c r="G155" s="2" t="s">
         <v>351</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7016,7 +7963,7 @@
         <v>351</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7039,7 +7986,7 @@
         <v>351</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -7062,7 +8009,7 @@
         <v>351</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7085,7 +8032,7 @@
         <v>351</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7108,7 +8055,7 @@
         <v>351</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7131,7 +8078,7 @@
         <v>351</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -7154,7 +8101,7 @@
         <v>351</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7177,7 +8124,7 @@
         <v>351</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -7200,7 +8147,7 @@
         <v>351</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -7223,7 +8170,7 @@
         <v>351</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7246,7 +8193,7 @@
         <v>547</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7265,11 +8212,14 @@
       <c r="E167" s="2" t="s">
         <v>445</v>
       </c>
+      <c r="F167" s="11" t="s">
+        <v>873</v>
+      </c>
       <c r="G167" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7292,7 +8242,7 @@
         <v>416</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7315,7 +8265,7 @@
         <v>416</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7338,7 +8288,7 @@
         <v>416</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -7361,7 +8311,7 @@
         <v>59</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -7384,7 +8334,7 @@
         <v>59</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -7394,7 +8344,7 @@
       <c r="B173" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D173" s="3" t="s">
@@ -7403,11 +8353,14 @@
       <c r="E173" s="2" t="s">
         <v>658</v>
       </c>
+      <c r="F173" s="2" t="s">
+        <v>729</v>
+      </c>
       <c r="G173" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7417,7 +8370,7 @@
       <c r="B174" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C174" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D174" s="3" t="s">
@@ -7426,11 +8379,14 @@
       <c r="E174" s="2" t="s">
         <v>656</v>
       </c>
+      <c r="F174" s="11" t="s">
+        <v>734</v>
+      </c>
       <c r="G174" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7440,7 +8396,7 @@
       <c r="B175" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C175" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D175" s="3" t="s">
@@ -7449,11 +8405,14 @@
       <c r="E175" s="2" t="s">
         <v>657</v>
       </c>
+      <c r="F175" s="9" t="s">
+        <v>735</v>
+      </c>
       <c r="G175" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7463,7 +8422,7 @@
       <c r="B176" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D176" s="3" t="s">
@@ -7472,11 +8431,14 @@
       <c r="E176" s="2" t="s">
         <v>659</v>
       </c>
+      <c r="F176" s="11" t="s">
+        <v>736</v>
+      </c>
       <c r="G176" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7499,7 +8461,7 @@
         <v>420</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -7518,12 +8480,14 @@
       <c r="E178" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="F178" s="4"/>
+      <c r="F178" s="14" t="s">
+        <v>874</v>
+      </c>
       <c r="G178" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7546,7 +8510,7 @@
         <v>120</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -7569,7 +8533,7 @@
         <v>547</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7592,7 +8556,7 @@
         <v>248</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7615,7 +8579,7 @@
         <v>416</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7634,11 +8598,14 @@
       <c r="E183" s="2" t="s">
         <v>524</v>
       </c>
+      <c r="F183" s="11" t="s">
+        <v>858</v>
+      </c>
       <c r="G183" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7657,11 +8624,14 @@
       <c r="E184" s="2" t="s">
         <v>525</v>
       </c>
+      <c r="F184" s="11" t="s">
+        <v>858</v>
+      </c>
       <c r="G184" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -7680,11 +8650,14 @@
       <c r="E185" s="2" t="s">
         <v>526</v>
       </c>
+      <c r="F185" s="11" t="s">
+        <v>858</v>
+      </c>
       <c r="G185" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7707,7 +8680,7 @@
         <v>416</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7730,7 +8703,7 @@
         <v>59</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7753,7 +8726,7 @@
         <v>238</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="255" x14ac:dyDescent="0.25">
@@ -7776,7 +8749,7 @@
         <v>352</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -7800,7 +8773,7 @@
         <v>369</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -7823,7 +8796,7 @@
         <v>120</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7842,11 +8815,14 @@
       <c r="E192" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="F192" s="2" t="s">
+        <v>875</v>
+      </c>
       <c r="G192" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7869,7 +8845,7 @@
         <v>120</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7892,7 +8868,7 @@
         <v>248</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -7915,7 +8891,7 @@
         <v>248</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7938,7 +8914,7 @@
         <v>351</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7961,7 +8937,7 @@
         <v>351</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -7984,7 +8960,7 @@
         <v>351</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -7994,7 +8970,7 @@
       <c r="B199" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C199" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D199" s="3" t="s">
@@ -8003,11 +8979,14 @@
       <c r="E199" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="F199" s="11" t="s">
+        <v>737</v>
+      </c>
       <c r="G199" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -8026,11 +9005,14 @@
       <c r="E200" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="F200" s="11" t="s">
+        <v>876</v>
+      </c>
       <c r="G200" s="2" t="s">
         <v>238</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -8053,7 +9035,7 @@
         <v>352</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -8076,7 +9058,7 @@
         <v>352</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -8099,7 +9081,7 @@
         <v>352</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8122,7 +9104,7 @@
         <v>547</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -8145,7 +9127,7 @@
         <v>547</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8169,7 +9151,7 @@
         <v>369</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -8193,7 +9175,7 @@
         <v>369</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8212,12 +9194,14 @@
       <c r="E208" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F208" s="4"/>
+      <c r="F208" s="14" t="s">
+        <v>877</v>
+      </c>
       <c r="G208" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -8236,12 +9220,14 @@
       <c r="E209" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F209" s="4"/>
+      <c r="F209" s="14" t="s">
+        <v>880</v>
+      </c>
       <c r="G209" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8260,12 +9246,14 @@
       <c r="E210" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F210" s="4"/>
+      <c r="F210" s="14" t="s">
+        <v>879</v>
+      </c>
       <c r="G210" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -8284,12 +9272,14 @@
       <c r="E211" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="F211" s="4"/>
+      <c r="F211" s="4" t="s">
+        <v>806</v>
+      </c>
       <c r="G211" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -8312,7 +9302,7 @@
         <v>120</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -8335,7 +9325,7 @@
         <v>547</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -8358,7 +9348,7 @@
         <v>547</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8377,11 +9367,14 @@
       <c r="E215" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="F215" s="9" t="s">
+        <v>878</v>
+      </c>
       <c r="G215" s="2" t="s">
         <v>351</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -8404,7 +9397,7 @@
         <v>351</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -8427,7 +9420,7 @@
         <v>351</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -8450,7 +9443,7 @@
         <v>351</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8473,7 +9466,7 @@
         <v>351</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -8496,7 +9489,7 @@
         <v>351</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -8519,10 +9512,10 @@
         <v>351</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -8538,11 +9531,14 @@
       <c r="E222" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="F222" s="8" t="s">
+        <v>881</v>
+      </c>
       <c r="G222" s="2" t="s">
         <v>351</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -8565,7 +9561,7 @@
         <v>351</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -8588,7 +9584,7 @@
         <v>351</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -8611,7 +9607,7 @@
         <v>351</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8634,7 +9630,7 @@
         <v>351</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8657,7 +9653,7 @@
         <v>351</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8680,7 +9676,7 @@
         <v>351</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -8703,7 +9699,7 @@
         <v>351</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -8726,7 +9722,7 @@
         <v>351</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -8749,7 +9745,7 @@
         <v>351</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -8772,7 +9768,7 @@
         <v>351</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -8795,7 +9791,7 @@
         <v>547</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8814,11 +9810,14 @@
       <c r="E234" s="2" t="s">
         <v>443</v>
       </c>
+      <c r="F234" s="11" t="s">
+        <v>882</v>
+      </c>
       <c r="G234" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -8841,7 +9840,7 @@
         <v>416</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8860,11 +9859,14 @@
       <c r="E236" s="2" t="s">
         <v>529</v>
       </c>
+      <c r="F236" s="11" t="s">
+        <v>826</v>
+      </c>
       <c r="G236" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -8887,7 +9889,7 @@
         <v>59</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -8897,7 +9899,7 @@
       <c r="B238" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D238" s="3" t="s">
@@ -8906,11 +9908,14 @@
       <c r="E238" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="F238" s="9" t="s">
+        <v>738</v>
+      </c>
       <c r="G238" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8933,7 +9938,7 @@
         <v>352</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8956,7 +9961,7 @@
         <v>352</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -8979,7 +9984,7 @@
         <v>120</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -8998,11 +10003,14 @@
       <c r="E242" s="2" t="s">
         <v>460</v>
       </c>
+      <c r="F242" s="11" t="s">
+        <v>883</v>
+      </c>
       <c r="G242" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9021,11 +10029,14 @@
       <c r="E243" s="2" t="s">
         <v>461</v>
       </c>
+      <c r="F243" s="8" t="s">
+        <v>884</v>
+      </c>
       <c r="G243" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9048,7 +10059,7 @@
         <v>416</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -9067,11 +10078,14 @@
       <c r="E245" s="2" t="s">
         <v>532</v>
       </c>
+      <c r="F245" s="11" t="s">
+        <v>885</v>
+      </c>
       <c r="G245" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -9081,7 +10095,7 @@
       <c r="B246" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C246" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D246" s="3" t="s">
@@ -9090,11 +10104,14 @@
       <c r="E246" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="F246" s="2" t="s">
+        <v>729</v>
+      </c>
       <c r="G246" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="270" x14ac:dyDescent="0.25">
@@ -9113,11 +10130,14 @@
       <c r="E247" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="F247" s="9" t="s">
+        <v>886</v>
+      </c>
       <c r="G247" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9140,7 +10160,7 @@
         <v>248</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9163,7 +10183,7 @@
         <v>351</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -9182,11 +10202,14 @@
       <c r="E250" s="2" t="s">
         <v>463</v>
       </c>
+      <c r="F250" s="11" t="s">
+        <v>887</v>
+      </c>
       <c r="G250" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9205,11 +10228,14 @@
       <c r="E251" s="2" t="s">
         <v>534</v>
       </c>
+      <c r="F251" s="11" t="s">
+        <v>858</v>
+      </c>
       <c r="G251" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9228,11 +10254,14 @@
       <c r="E252" s="2" t="s">
         <v>533</v>
       </c>
+      <c r="F252" s="11" t="s">
+        <v>858</v>
+      </c>
       <c r="G252" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -9255,7 +10284,7 @@
         <v>416</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -9274,11 +10303,14 @@
       <c r="E254" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="F254" s="9" t="s">
+        <v>803</v>
+      </c>
       <c r="G254" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -9288,7 +10320,7 @@
       <c r="B255" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C255" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D255" s="3" t="s">
@@ -9297,11 +10329,14 @@
       <c r="E255" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="F255" s="2" t="s">
+        <v>729</v>
+      </c>
       <c r="G255" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -9320,11 +10355,14 @@
       <c r="E256" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="F256" s="8" t="s">
+        <v>804</v>
+      </c>
       <c r="G256" s="2" t="s">
         <v>238</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="210" x14ac:dyDescent="0.25">
@@ -9343,11 +10381,14 @@
       <c r="E257" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="F257" s="2" t="s">
+        <v>805</v>
+      </c>
       <c r="G257" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9366,11 +10407,14 @@
       <c r="E258" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="F258" s="2" t="s">
+        <v>806</v>
+      </c>
       <c r="G258" s="2" t="s">
         <v>230</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9389,12 +10433,14 @@
       <c r="E259" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F259" s="4"/>
+      <c r="F259" s="2" t="s">
+        <v>805</v>
+      </c>
       <c r="G259" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -9413,12 +10459,14 @@
       <c r="E260" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F260" s="4"/>
+      <c r="F260" s="14" t="s">
+        <v>807</v>
+      </c>
       <c r="G260" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -9437,11 +10485,14 @@
       <c r="E261" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="F261" s="11" t="s">
+        <v>808</v>
+      </c>
       <c r="G261" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -9460,11 +10511,14 @@
       <c r="E262" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="F262" s="11" t="s">
+        <v>809</v>
+      </c>
       <c r="G262" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -9483,11 +10537,14 @@
       <c r="E263" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="F263" s="9" t="s">
+        <v>813</v>
+      </c>
       <c r="G263" s="2" t="s">
         <v>248</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -9506,11 +10563,14 @@
       <c r="E264" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="F264" s="2" t="s">
+        <v>814</v>
+      </c>
       <c r="G264" s="2" t="s">
         <v>248</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -9529,11 +10589,14 @@
       <c r="E265" s="2" t="s">
         <v>408</v>
       </c>
+      <c r="F265" s="11" t="s">
+        <v>815</v>
+      </c>
       <c r="G265" s="2" t="s">
         <v>407</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9552,11 +10615,14 @@
       <c r="E266" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="F266" s="9" t="s">
+        <v>816</v>
+      </c>
       <c r="G266" s="2" t="s">
         <v>351</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -9575,11 +10641,14 @@
       <c r="E267" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="F267" s="11" t="s">
+        <v>817</v>
+      </c>
       <c r="G267" s="2" t="s">
         <v>351</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9598,11 +10667,14 @@
       <c r="E268" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="F268" s="9" t="s">
+        <v>816</v>
+      </c>
       <c r="G268" s="2" t="s">
         <v>351</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9621,11 +10693,14 @@
       <c r="E269" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="F269" s="9" t="s">
+        <v>818</v>
+      </c>
       <c r="G269" s="2" t="s">
         <v>351</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9644,14 +10719,17 @@
       <c r="E270" s="2" t="s">
         <v>430</v>
       </c>
+      <c r="F270" s="8" t="s">
+        <v>760</v>
+      </c>
       <c r="G270" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -9667,11 +10745,14 @@
       <c r="E271" s="2" t="s">
         <v>431</v>
       </c>
+      <c r="F271" s="2" t="s">
+        <v>819</v>
+      </c>
       <c r="G271" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9681,7 +10762,7 @@
       <c r="B272" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D272" s="3" t="s">
@@ -9690,11 +10771,14 @@
       <c r="E272" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="F272" s="2" t="s">
+        <v>739</v>
+      </c>
       <c r="G272" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -9713,11 +10797,14 @@
       <c r="E273" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="F273" s="2" t="s">
+        <v>806</v>
+      </c>
       <c r="G273" s="2" t="s">
         <v>230</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9736,12 +10823,14 @@
       <c r="E274" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="F274" s="4"/>
+      <c r="F274" s="15" t="s">
+        <v>820</v>
+      </c>
       <c r="G274" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9760,12 +10849,14 @@
       <c r="E275" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F275" s="4"/>
+      <c r="F275" s="4" t="s">
+        <v>821</v>
+      </c>
       <c r="G275" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -9784,11 +10875,14 @@
       <c r="E276" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="F276" s="11" t="s">
+        <v>822</v>
+      </c>
       <c r="G276" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -9807,11 +10901,14 @@
       <c r="E277" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="F277" s="11" t="s">
+        <v>823</v>
+      </c>
       <c r="G277" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -9830,11 +10927,14 @@
       <c r="E278" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="F278" s="8" t="s">
+        <v>824</v>
+      </c>
       <c r="G278" s="2" t="s">
         <v>248</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9853,11 +10953,14 @@
       <c r="E279" s="2" t="s">
         <v>432</v>
       </c>
+      <c r="F279" s="8" t="s">
+        <v>760</v>
+      </c>
       <c r="G279" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9876,11 +10979,14 @@
       <c r="E280" s="2" t="s">
         <v>433</v>
       </c>
+      <c r="F280" s="11" t="s">
+        <v>825</v>
+      </c>
       <c r="G280" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9899,11 +11005,14 @@
       <c r="E281" s="2" t="s">
         <v>496</v>
       </c>
+      <c r="F281" s="11" t="s">
+        <v>826</v>
+      </c>
       <c r="G281" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9922,11 +11031,14 @@
       <c r="E282" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="F282" s="8" t="s">
+        <v>828</v>
+      </c>
       <c r="G282" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9945,11 +11057,14 @@
       <c r="E283" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="F283" s="9" t="s">
+        <v>829</v>
+      </c>
       <c r="G283" s="2" t="s">
         <v>238</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="240" x14ac:dyDescent="0.25">
@@ -9968,11 +11083,14 @@
       <c r="E284" s="2" t="s">
         <v>357</v>
       </c>
+      <c r="F284" s="9" t="s">
+        <v>830</v>
+      </c>
       <c r="G284" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -9991,12 +11109,14 @@
       <c r="E285" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F285" s="4"/>
+      <c r="F285" s="14" t="s">
+        <v>831</v>
+      </c>
       <c r="G285" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -10015,12 +11135,14 @@
       <c r="E286" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F286" s="4"/>
+      <c r="F286" s="4" t="s">
+        <v>832</v>
+      </c>
       <c r="G286" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -10039,12 +11161,14 @@
       <c r="E287" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F287" s="4"/>
+      <c r="F287" s="14" t="s">
+        <v>833</v>
+      </c>
       <c r="G287" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10063,11 +11187,14 @@
       <c r="E288" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="F288" s="11" t="s">
+        <v>834</v>
+      </c>
       <c r="G288" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -10086,11 +11213,14 @@
       <c r="E289" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="F289" s="11" t="s">
+        <v>835</v>
+      </c>
       <c r="G289" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -10109,11 +11239,14 @@
       <c r="E290" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="F290" s="11" t="s">
+        <v>831</v>
+      </c>
       <c r="G290" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10132,11 +11265,14 @@
       <c r="E291" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="F291" s="11" t="s">
+        <v>836</v>
+      </c>
       <c r="G291" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10155,11 +11291,14 @@
       <c r="E292" s="2" t="s">
         <v>409</v>
       </c>
+      <c r="F292" s="2" t="s">
+        <v>837</v>
+      </c>
       <c r="G292" s="2" t="s">
         <v>407</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10178,11 +11317,14 @@
       <c r="E293" s="2" t="s">
         <v>434</v>
       </c>
+      <c r="F293" s="11" t="s">
+        <v>838</v>
+      </c>
       <c r="G293" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10201,11 +11343,14 @@
       <c r="E294" s="2" t="s">
         <v>497</v>
       </c>
+      <c r="F294" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="G294" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10224,11 +11369,14 @@
       <c r="E295" s="2" t="s">
         <v>621</v>
       </c>
+      <c r="F295" s="9" t="s">
+        <v>787</v>
+      </c>
       <c r="G295" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -10247,11 +11395,14 @@
       <c r="E296" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="F296" s="9" t="s">
+        <v>840</v>
+      </c>
       <c r="G296" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -10270,11 +11421,14 @@
       <c r="E297" s="2" t="s">
         <v>620</v>
       </c>
+      <c r="F297" s="9" t="s">
+        <v>787</v>
+      </c>
       <c r="G297" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -10293,11 +11447,14 @@
       <c r="E298" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="F298" s="11" t="s">
+        <v>841</v>
+      </c>
       <c r="G298" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -10316,11 +11473,14 @@
       <c r="E299" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="F299" s="11" t="s">
+        <v>842</v>
+      </c>
       <c r="G299" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10339,11 +11499,14 @@
       <c r="E300" s="2" t="s">
         <v>413</v>
       </c>
+      <c r="F300" s="2" t="s">
+        <v>843</v>
+      </c>
       <c r="G300" s="2" t="s">
         <v>407</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10362,11 +11525,14 @@
       <c r="E301" s="2" t="s">
         <v>622</v>
       </c>
+      <c r="F301" s="9" t="s">
+        <v>787</v>
+      </c>
       <c r="G301" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -10385,11 +11551,14 @@
       <c r="E302" s="2" t="s">
         <v>444</v>
       </c>
+      <c r="F302" s="8" t="s">
+        <v>760</v>
+      </c>
       <c r="G302" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -10399,7 +11568,7 @@
       <c r="B303" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C303" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D303" s="3" t="s">
@@ -10408,11 +11577,14 @@
       <c r="E303" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="F303" s="2" t="s">
+        <v>729</v>
+      </c>
       <c r="G303" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10431,11 +11603,14 @@
       <c r="E304" s="2" t="s">
         <v>423</v>
       </c>
+      <c r="F304" s="11" t="s">
+        <v>845</v>
+      </c>
       <c r="G304" s="2" t="s">
         <v>420</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -10454,11 +11629,14 @@
       <c r="E305" s="2" t="s">
         <v>605</v>
       </c>
+      <c r="F305" s="9" t="s">
+        <v>787</v>
+      </c>
       <c r="G305" s="2" t="s">
         <v>352</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -10477,11 +11655,14 @@
       <c r="E306" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="F306" s="11" t="s">
+        <v>846</v>
+      </c>
       <c r="G306" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -10504,7 +11685,7 @@
         <v>120</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10527,7 +11708,7 @@
         <v>429</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10550,7 +11731,7 @@
         <v>416</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -10573,7 +11754,7 @@
         <v>352</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10596,7 +11777,7 @@
         <v>352</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10619,7 +11800,7 @@
         <v>547</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10642,7 +11823,7 @@
         <v>547</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10666,7 +11847,7 @@
         <v>369</v>
       </c>
       <c r="H314" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10689,7 +11870,7 @@
         <v>120</v>
       </c>
       <c r="H315" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10712,7 +11893,7 @@
         <v>120</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -10735,7 +11916,7 @@
         <v>248</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10758,7 +11939,7 @@
         <v>248</v>
       </c>
       <c r="H318" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10781,7 +11962,7 @@
         <v>547</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
@@ -10804,7 +11985,7 @@
         <v>547</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10827,7 +12008,7 @@
         <v>547</v>
       </c>
       <c r="H321" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10850,7 +12031,7 @@
         <v>429</v>
       </c>
       <c r="H322" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10873,7 +12054,7 @@
         <v>429</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10896,7 +12077,7 @@
         <v>416</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -10906,7 +12087,7 @@
       <c r="B325" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="C325" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D325" s="3" t="s">
@@ -10915,11 +12096,14 @@
       <c r="E325" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="F325" s="8" t="s">
+        <v>740</v>
+      </c>
       <c r="G325" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H325" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
@@ -10942,7 +12126,7 @@
         <v>238</v>
       </c>
       <c r="H326" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="270" x14ac:dyDescent="0.25">
@@ -10965,7 +12149,7 @@
         <v>352</v>
       </c>
       <c r="H327" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -10988,7 +12172,7 @@
         <v>352</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -11011,7 +12195,7 @@
         <v>352</v>
       </c>
       <c r="H329" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="240" x14ac:dyDescent="0.25">
@@ -11034,7 +12218,7 @@
         <v>352</v>
       </c>
       <c r="H330" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -11057,7 +12241,7 @@
         <v>547</v>
       </c>
       <c r="H331" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -11080,7 +12264,7 @@
         <v>547</v>
       </c>
       <c r="H332" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -11103,7 +12287,7 @@
         <v>547</v>
       </c>
       <c r="H333" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -11126,7 +12310,7 @@
         <v>547</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -11149,7 +12333,7 @@
         <v>120</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -11172,7 +12356,7 @@
         <v>248</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -11191,11 +12375,14 @@
       <c r="E337" s="2" t="s">
         <v>412</v>
       </c>
+      <c r="F337" s="16" t="s">
+        <v>847</v>
+      </c>
       <c r="G337" s="2" t="s">
         <v>407</v>
       </c>
       <c r="H337" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -11218,7 +12405,7 @@
         <v>429</v>
       </c>
       <c r="H338" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
@@ -11237,11 +12424,14 @@
       <c r="E339" s="2" t="s">
         <v>442</v>
       </c>
+      <c r="F339" s="8" t="s">
+        <v>848</v>
+      </c>
       <c r="G339" s="2" t="s">
         <v>429</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11260,11 +12450,14 @@
       <c r="E340" s="2" t="s">
         <v>538</v>
       </c>
+      <c r="F340" s="11" t="s">
+        <v>849</v>
+      </c>
       <c r="G340" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H340" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11283,11 +12476,14 @@
       <c r="E341" s="2" t="s">
         <v>536</v>
       </c>
+      <c r="F341" s="11" t="s">
+        <v>850</v>
+      </c>
       <c r="G341" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H341" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -11306,11 +12502,14 @@
       <c r="E342" s="2" t="s">
         <v>537</v>
       </c>
+      <c r="F342" s="11" t="s">
+        <v>851</v>
+      </c>
       <c r="G342" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H342" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -11329,11 +12528,14 @@
       <c r="E343" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="F343" s="11" t="s">
+        <v>852</v>
+      </c>
       <c r="G343" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H343" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -11352,11 +12554,14 @@
       <c r="E344" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="F344" s="11" t="s">
+        <v>853</v>
+      </c>
       <c r="G344" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
@@ -11375,11 +12580,14 @@
       <c r="E345" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="F345" s="11" t="s">
+        <v>854</v>
+      </c>
       <c r="G345" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H345" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -11398,11 +12606,14 @@
       <c r="E346" s="2" t="s">
         <v>411</v>
       </c>
+      <c r="F346" s="2" t="s">
+        <v>855</v>
+      </c>
       <c r="G346" s="2" t="s">
         <v>407</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
@@ -11421,21 +12632,24 @@
       <c r="E347" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="F347" s="9" t="s">
+        <v>787</v>
+      </c>
       <c r="G347" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C348" s="7" t="s">
+      <c r="C348" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D348" s="3" t="s">
@@ -11444,11 +12658,14 @@
       <c r="E348" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="F348" s="9" t="s">
+        <v>799</v>
+      </c>
       <c r="G348" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
@@ -11471,7 +12688,7 @@
         <v>238</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="350" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -11494,7 +12711,7 @@
         <v>352</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -11517,7 +12734,7 @@
         <v>547</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
@@ -11541,7 +12758,7 @@
         <v>369</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -11564,7 +12781,7 @@
         <v>120</v>
       </c>
       <c r="H353" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -11587,7 +12804,7 @@
         <v>547</v>
       </c>
       <c r="H354" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -11610,7 +12827,7 @@
         <v>248</v>
       </c>
       <c r="H355" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -11633,7 +12850,7 @@
         <v>547</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11656,7 +12873,7 @@
         <v>416</v>
       </c>
       <c r="H357" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="358" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -11679,7 +12896,7 @@
         <v>547</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11689,7 +12906,7 @@
       <c r="B359" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C359" s="7" t="s">
+      <c r="C359" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D359" s="3" t="s">
@@ -11698,11 +12915,14 @@
       <c r="E359" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="F359" s="2" t="s">
+        <v>741</v>
+      </c>
       <c r="G359" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="360" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -11725,7 +12945,7 @@
         <v>238</v>
       </c>
       <c r="H360" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="361" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -11749,7 +12969,7 @@
         <v>369</v>
       </c>
       <c r="H361" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
@@ -11772,7 +12992,7 @@
         <v>120</v>
       </c>
       <c r="H362" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11795,7 +13015,7 @@
         <v>547</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -11818,7 +13038,7 @@
         <v>547</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11841,7 +13061,7 @@
         <v>547</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
@@ -11864,7 +13084,7 @@
         <v>547</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
@@ -11887,7 +13107,7 @@
         <v>547</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -11910,7 +13130,7 @@
         <v>248</v>
       </c>
       <c r="H368" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11933,7 +13153,7 @@
         <v>248</v>
       </c>
       <c r="H369" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -11956,7 +13176,7 @@
         <v>351</v>
       </c>
       <c r="H370" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11979,7 +13199,7 @@
         <v>351</v>
       </c>
       <c r="H371" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12002,7 +13222,7 @@
         <v>351</v>
       </c>
       <c r="H372" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -12025,7 +13245,7 @@
         <v>547</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -12048,7 +13268,7 @@
         <v>547</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -12071,7 +13291,7 @@
         <v>429</v>
       </c>
       <c r="H375" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12094,7 +13314,7 @@
         <v>416</v>
       </c>
       <c r="H376" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12104,7 +13324,7 @@
       <c r="B377" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="C377" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D377" s="3" t="s">
@@ -12113,11 +13333,12 @@
       <c r="E377" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="F377" s="6"/>
       <c r="G377" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H377" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="378" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12141,7 +13362,7 @@
         <v>547</v>
       </c>
       <c r="H378" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -12164,7 +13385,7 @@
         <v>120</v>
       </c>
       <c r="H379" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12187,7 +13408,7 @@
         <v>120</v>
       </c>
       <c r="H380" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="381" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12210,7 +13431,7 @@
         <v>120</v>
       </c>
       <c r="H381" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="382" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -12233,7 +13454,7 @@
         <v>120</v>
       </c>
       <c r="H382" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="383" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12256,7 +13477,7 @@
         <v>120</v>
       </c>
       <c r="H383" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="384" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12279,7 +13500,7 @@
         <v>120</v>
       </c>
       <c r="H384" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -12302,7 +13523,7 @@
         <v>120</v>
       </c>
       <c r="H385" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="195" x14ac:dyDescent="0.25">
@@ -12325,7 +13546,7 @@
         <v>248</v>
       </c>
       <c r="H386" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -12348,7 +13569,7 @@
         <v>54</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12371,7 +13592,7 @@
         <v>54</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -12395,7 +13616,7 @@
         <v>547</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="390" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12419,7 +13640,7 @@
         <v>547</v>
       </c>
       <c r="H390" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -12443,7 +13664,7 @@
         <v>547</v>
       </c>
       <c r="H391" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12466,7 +13687,7 @@
         <v>429</v>
       </c>
       <c r="H392" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="393" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12489,7 +13710,7 @@
         <v>429</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12512,7 +13733,7 @@
         <v>416</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12536,7 +13757,7 @@
         <v>416</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="396" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12560,7 +13781,7 @@
         <v>416</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -12584,7 +13805,7 @@
         <v>416</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12607,7 +13828,7 @@
         <v>59</v>
       </c>
       <c r="H398" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -12617,7 +13838,7 @@
       <c r="B399" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C399" s="7" t="s">
+      <c r="C399" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D399" s="3" t="s">
@@ -12631,7 +13852,7 @@
         <v>85</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12654,7 +13875,7 @@
         <v>352</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -12677,7 +13898,7 @@
         <v>352</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="402" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -12700,7 +13921,7 @@
         <v>352</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12723,7 +13944,7 @@
         <v>230</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="404" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -12747,7 +13968,7 @@
         <v>369</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -12770,7 +13991,7 @@
         <v>120</v>
       </c>
       <c r="H405" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="406" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -12793,7 +14014,7 @@
         <v>120</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -12816,7 +14037,7 @@
         <v>120</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="408" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -12839,7 +14060,7 @@
         <v>120</v>
       </c>
       <c r="H408" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="409" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12862,7 +14083,7 @@
         <v>547</v>
       </c>
       <c r="H409" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -12885,7 +14106,7 @@
         <v>59</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -12908,7 +14129,7 @@
         <v>59</v>
       </c>
       <c r="H411" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -12918,7 +14139,7 @@
       <c r="B412" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C412" s="7" t="s">
+      <c r="C412" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D412" s="3" t="s">
@@ -12927,11 +14148,12 @@
       <c r="E412" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="F412" s="6"/>
       <c r="G412" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H412" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -12954,7 +14176,7 @@
         <v>352</v>
       </c>
       <c r="H413" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="414" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
@@ -12978,7 +14200,7 @@
         <v>369</v>
       </c>
       <c r="H414" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13002,7 +14224,7 @@
         <v>369</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -13025,7 +14247,7 @@
         <v>120</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -13048,7 +14270,7 @@
         <v>120</v>
       </c>
       <c r="H417" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13071,7 +14293,7 @@
         <v>120</v>
       </c>
       <c r="H418" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -13094,7 +14316,7 @@
         <v>120</v>
       </c>
       <c r="H419" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="420" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -13117,7 +14339,7 @@
         <v>120</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="421" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -13140,7 +14362,7 @@
         <v>120</v>
       </c>
       <c r="H421" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -13163,7 +14385,7 @@
         <v>120</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="423" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -13186,7 +14408,7 @@
         <v>120</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="424" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -13209,7 +14431,7 @@
         <v>120</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -13232,7 +14454,7 @@
         <v>120</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="210" x14ac:dyDescent="0.25">
@@ -13255,7 +14477,7 @@
         <v>120</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -13278,7 +14500,7 @@
         <v>120</v>
       </c>
       <c r="H427" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13301,7 +14523,7 @@
         <v>547</v>
       </c>
       <c r="H428" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -13324,7 +14546,7 @@
         <v>351</v>
       </c>
       <c r="H429" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -13347,7 +14569,7 @@
         <v>351</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="431" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13370,7 +14592,7 @@
         <v>351</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="432" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13393,7 +14615,7 @@
         <v>351</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="433" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -13416,7 +14638,7 @@
         <v>429</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="434" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -13439,7 +14661,7 @@
         <v>429</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13462,7 +14684,7 @@
         <v>547</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="436" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13472,7 +14694,7 @@
       <c r="B436" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C436" s="7" t="s">
+      <c r="C436" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D436" s="3" t="s">
@@ -13481,11 +14703,12 @@
       <c r="E436" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="F436" s="6"/>
       <c r="G436" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="437" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13509,7 +14732,7 @@
         <v>369</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="438" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -13532,7 +14755,7 @@
         <v>120</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="439" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13555,7 +14778,7 @@
         <v>120</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="440" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13578,7 +14801,7 @@
         <v>120</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="441" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -13601,7 +14824,7 @@
         <v>248</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="442" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -13624,7 +14847,7 @@
         <v>248</v>
       </c>
       <c r="H442" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -13647,7 +14870,7 @@
         <v>547</v>
       </c>
       <c r="H443" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="444" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13670,7 +14893,7 @@
         <v>416</v>
       </c>
       <c r="H444" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
@@ -13693,7 +14916,7 @@
         <v>420</v>
       </c>
       <c r="H445" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="446" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -13716,7 +14939,7 @@
         <v>352</v>
       </c>
       <c r="H446" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="447" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13740,7 +14963,7 @@
         <v>369</v>
       </c>
       <c r="H447" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="448" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -13763,7 +14986,7 @@
         <v>120</v>
       </c>
       <c r="H448" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="449" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13786,7 +15009,7 @@
         <v>420</v>
       </c>
       <c r="H449" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="450" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -13809,7 +15032,7 @@
         <v>120</v>
       </c>
       <c r="H450" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="451" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13832,7 +15055,7 @@
         <v>547</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="452" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13855,7 +15078,7 @@
         <v>547</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="453" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13878,7 +15101,7 @@
         <v>547</v>
       </c>
       <c r="H453" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="454" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13901,7 +15124,7 @@
         <v>59</v>
       </c>
       <c r="H454" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="455" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -13911,7 +15134,7 @@
       <c r="B455" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C455" s="7" t="s">
+      <c r="C455" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D455" s="3" t="s">
@@ -13925,7 +15148,7 @@
         <v>85</v>
       </c>
       <c r="H455" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="456" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13948,7 +15171,7 @@
         <v>352</v>
       </c>
       <c r="H456" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -13971,7 +15194,7 @@
         <v>547</v>
       </c>
       <c r="H457" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -13995,7 +15218,7 @@
         <v>369</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="459" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14018,7 +15241,7 @@
         <v>120</v>
       </c>
       <c r="H459" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="460" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14041,7 +15264,7 @@
         <v>120</v>
       </c>
       <c r="H460" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="461" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14064,7 +15287,7 @@
         <v>547</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="462" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -14087,7 +15310,7 @@
         <v>248</v>
       </c>
       <c r="H462" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="463" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14110,7 +15333,7 @@
         <v>547</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="464" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14133,7 +15356,7 @@
         <v>429</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="465" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14156,7 +15379,7 @@
         <v>416</v>
       </c>
       <c r="H465" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="466" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14179,7 +15402,7 @@
         <v>547</v>
       </c>
       <c r="H466" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="467" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -14202,7 +15425,7 @@
         <v>59</v>
       </c>
       <c r="H467" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
@@ -14225,7 +15448,7 @@
         <v>59</v>
       </c>
       <c r="H468" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="469" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14235,7 +15458,7 @@
       <c r="B469" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C469" s="7" t="s">
+      <c r="C469" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D469" s="3" t="s">
@@ -14248,7 +15471,7 @@
         <v>85</v>
       </c>
       <c r="H469" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="470" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14271,7 +15494,7 @@
         <v>352</v>
       </c>
       <c r="H470" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -14294,7 +15517,7 @@
         <v>547</v>
       </c>
       <c r="H471" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -14317,7 +15540,7 @@
         <v>547</v>
       </c>
       <c r="H472" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="473" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -14340,7 +15563,7 @@
         <v>120</v>
       </c>
       <c r="H473" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -14363,7 +15586,7 @@
         <v>120</v>
       </c>
       <c r="H474" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="475" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -14386,7 +15609,7 @@
         <v>120</v>
       </c>
       <c r="H475" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="476" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14409,7 +15632,7 @@
         <v>547</v>
       </c>
       <c r="H476" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
@@ -14432,7 +15655,7 @@
         <v>429</v>
       </c>
       <c r="H477" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="478" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14455,7 +15678,7 @@
         <v>416</v>
       </c>
       <c r="H478" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="479" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14478,7 +15701,7 @@
         <v>416</v>
       </c>
       <c r="H479" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="480" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14501,7 +15724,7 @@
         <v>547</v>
       </c>
       <c r="H480" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="481" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -14524,7 +15747,7 @@
         <v>547</v>
       </c>
       <c r="H481" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="482" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14547,7 +15770,7 @@
         <v>547</v>
       </c>
       <c r="H482" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="483" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14570,7 +15793,7 @@
         <v>547</v>
       </c>
       <c r="H483" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="484" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -14593,7 +15816,7 @@
         <v>59</v>
       </c>
       <c r="H484" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="485" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14616,7 +15839,7 @@
         <v>59</v>
       </c>
       <c r="H485" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="486" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14626,7 +15849,7 @@
       <c r="B486" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C486" s="7" t="s">
+      <c r="C486" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D486" s="3" t="s">
@@ -14639,7 +15862,7 @@
         <v>85</v>
       </c>
       <c r="H486" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="487" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14649,7 +15872,7 @@
       <c r="B487" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C487" s="7" t="s">
+      <c r="C487" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D487" s="3" t="s">
@@ -14662,7 +15885,7 @@
         <v>85</v>
       </c>
       <c r="H487" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="488" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14672,7 +15895,7 @@
       <c r="B488" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C488" s="7" t="s">
+      <c r="C488" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D488" s="3" t="s">
@@ -14685,7 +15908,7 @@
         <v>85</v>
       </c>
       <c r="H488" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="489" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14695,7 +15918,7 @@
       <c r="B489" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C489" s="7" t="s">
+      <c r="C489" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D489" s="3" t="s">
@@ -14708,7 +15931,7 @@
         <v>85</v>
       </c>
       <c r="H489" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="490" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14718,7 +15941,7 @@
       <c r="B490" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C490" s="7" t="s">
+      <c r="C490" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D490" s="3" t="s">
@@ -14731,7 +15954,7 @@
         <v>85</v>
       </c>
       <c r="H490" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="491" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -14754,7 +15977,7 @@
         <v>352</v>
       </c>
       <c r="H491" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="492" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -14777,7 +16000,7 @@
         <v>120</v>
       </c>
       <c r="H492" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="493" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -14800,7 +16023,7 @@
         <v>120</v>
       </c>
       <c r="H493" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -14823,7 +16046,7 @@
         <v>120</v>
       </c>
       <c r="H494" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="495" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -14846,7 +16069,7 @@
         <v>120</v>
       </c>
       <c r="H495" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="496" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -14869,7 +16092,7 @@
         <v>120</v>
       </c>
       <c r="H496" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="497" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14892,7 +16115,7 @@
         <v>120</v>
       </c>
       <c r="H497" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="498" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14915,7 +16138,7 @@
         <v>547</v>
       </c>
       <c r="H498" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="499" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14938,7 +16161,7 @@
         <v>351</v>
       </c>
       <c r="H499" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="500" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14961,7 +16184,7 @@
         <v>351</v>
       </c>
       <c r="H500" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="501" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -14984,7 +16207,7 @@
         <v>351</v>
       </c>
       <c r="H501" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
@@ -15007,7 +16230,7 @@
         <v>351</v>
       </c>
       <c r="H502" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="503" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15030,7 +16253,7 @@
         <v>351</v>
       </c>
       <c r="H503" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="504" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15053,7 +16276,7 @@
         <v>351</v>
       </c>
       <c r="H504" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="505" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15076,7 +16299,7 @@
         <v>351</v>
       </c>
       <c r="H505" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="506" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -15099,7 +16322,7 @@
         <v>351</v>
       </c>
       <c r="H506" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="507" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -15122,7 +16345,7 @@
         <v>351</v>
       </c>
       <c r="H507" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="508" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -15145,7 +16368,7 @@
         <v>351</v>
       </c>
       <c r="H508" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="509" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15168,7 +16391,7 @@
         <v>351</v>
       </c>
       <c r="H509" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="510" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -15191,7 +16414,7 @@
         <v>547</v>
       </c>
       <c r="H510" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
@@ -15214,7 +16437,7 @@
         <v>429</v>
       </c>
       <c r="H511" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="512" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15237,7 +16460,7 @@
         <v>416</v>
       </c>
       <c r="H512" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="513" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15260,7 +16483,7 @@
         <v>416</v>
       </c>
       <c r="H513" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="514" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15283,7 +16506,7 @@
         <v>547</v>
       </c>
       <c r="H514" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
@@ -15306,7 +16529,7 @@
         <v>547</v>
       </c>
       <c r="H515" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="516" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15329,7 +16552,7 @@
         <v>59</v>
       </c>
       <c r="H516" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
@@ -15339,7 +16562,7 @@
       <c r="B517" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C517" s="7" t="s">
+      <c r="C517" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D517" s="3" t="s">
@@ -15353,7 +16576,7 @@
         <v>85</v>
       </c>
       <c r="H517" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
@@ -15363,7 +16586,7 @@
       <c r="B518" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C518" s="7" t="s">
+      <c r="C518" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D518" s="3" t="s">
@@ -15376,7 +16599,7 @@
         <v>85</v>
       </c>
       <c r="H518" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="519" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15386,7 +16609,7 @@
       <c r="B519" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C519" s="7" t="s">
+      <c r="C519" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D519" s="3" t="s">
@@ -15399,7 +16622,7 @@
         <v>85</v>
       </c>
       <c r="H519" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="520" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -15422,7 +16645,7 @@
         <v>420</v>
       </c>
       <c r="H520" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="521" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -15445,7 +16668,7 @@
         <v>352</v>
       </c>
       <c r="H521" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="522" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -15468,7 +16691,7 @@
         <v>547</v>
       </c>
       <c r="H522" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="523" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15491,7 +16714,7 @@
         <v>120</v>
       </c>
       <c r="H523" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="524" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15514,7 +16737,7 @@
         <v>120</v>
       </c>
       <c r="H524" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="525" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -15537,7 +16760,7 @@
         <v>120</v>
       </c>
       <c r="H525" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="526" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -15560,7 +16783,7 @@
         <v>547</v>
       </c>
       <c r="H526" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
@@ -15583,7 +16806,7 @@
         <v>429</v>
       </c>
       <c r="H527" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
@@ -15606,7 +16829,7 @@
         <v>429</v>
       </c>
       <c r="H528" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="529" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15629,7 +16852,7 @@
         <v>416</v>
       </c>
       <c r="H529" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="530" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15652,7 +16875,7 @@
         <v>416</v>
       </c>
       <c r="H530" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="531" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15675,7 +16898,7 @@
         <v>416</v>
       </c>
       <c r="H531" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="532" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -15698,7 +16921,7 @@
         <v>416</v>
       </c>
       <c r="H532" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="533" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15721,7 +16944,7 @@
         <v>416</v>
       </c>
       <c r="H533" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
@@ -15738,13 +16961,13 @@
         <v>46</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G534" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H534" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="535" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -15767,7 +16990,7 @@
         <v>59</v>
       </c>
       <c r="H535" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
@@ -15777,7 +17000,7 @@
       <c r="B536" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C536" s="7" t="s">
+      <c r="C536" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D536" s="3" t="s">
@@ -15790,7 +17013,7 @@
         <v>85</v>
       </c>
       <c r="H536" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
@@ -15813,7 +17036,7 @@
         <v>420</v>
       </c>
       <c r="H537" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="538" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15836,7 +17059,7 @@
         <v>352</v>
       </c>
       <c r="H538" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
@@ -15853,13 +17076,13 @@
         <v>47</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G539" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H539" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
@@ -15882,7 +17105,7 @@
         <v>230</v>
       </c>
       <c r="H540" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="541" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -15905,7 +17128,7 @@
         <v>120</v>
       </c>
       <c r="H541" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="542" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15928,7 +17151,7 @@
         <v>120</v>
       </c>
       <c r="H542" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="543" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -15951,7 +17174,7 @@
         <v>248</v>
       </c>
       <c r="H543" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
@@ -15968,13 +17191,13 @@
         <v>45</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G544" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H544" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="545" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15991,13 +17214,13 @@
         <v>45</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G545" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H545" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="546" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16014,13 +17237,13 @@
         <v>45</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G546" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H546" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="547" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16037,13 +17260,13 @@
         <v>45</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G547" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H547" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
@@ -16066,7 +17289,7 @@
         <v>429</v>
       </c>
       <c r="H548" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
@@ -16083,13 +17306,13 @@
         <v>48</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G549" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H549" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
@@ -16106,13 +17329,13 @@
         <v>48</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G550" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H550" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="551" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16129,13 +17352,13 @@
         <v>48</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G551" s="2" t="s">
         <v>547</v>
       </c>
       <c r="H551" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
@@ -16158,7 +17381,7 @@
         <v>547</v>
       </c>
       <c r="H552" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="553" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16181,7 +17404,7 @@
         <v>547</v>
       </c>
       <c r="H553" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="554" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -16204,7 +17427,7 @@
         <v>59</v>
       </c>
       <c r="H554" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
@@ -16214,7 +17437,7 @@
       <c r="B555" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C555" s="7" t="s">
+      <c r="C555" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D555" s="3" t="s">
@@ -16227,7 +17450,7 @@
         <v>85</v>
       </c>
       <c r="H555" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="556" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16250,7 +17473,7 @@
         <v>352</v>
       </c>
       <c r="H556" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="557" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -16273,7 +17496,7 @@
         <v>352</v>
       </c>
       <c r="H557" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="558" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -16296,7 +17519,7 @@
         <v>352</v>
       </c>
       <c r="H558" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="559" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -16319,7 +17542,7 @@
         <v>352</v>
       </c>
       <c r="H559" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="560" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -16342,7 +17565,7 @@
         <v>352</v>
       </c>
       <c r="H560" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="561" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16365,7 +17588,7 @@
         <v>351</v>
       </c>
       <c r="H561" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
@@ -16388,7 +17611,7 @@
         <v>351</v>
       </c>
       <c r="H562" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="563" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16411,7 +17634,7 @@
         <v>351</v>
       </c>
       <c r="H563" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="564" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16434,7 +17657,7 @@
         <v>351</v>
       </c>
       <c r="H564" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="565" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -16457,7 +17680,7 @@
         <v>351</v>
       </c>
       <c r="H565" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
@@ -16480,7 +17703,7 @@
         <v>351</v>
       </c>
       <c r="H566" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="567" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16503,7 +17726,7 @@
         <v>351</v>
       </c>
       <c r="H567" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="568" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16526,7 +17749,7 @@
         <v>547</v>
       </c>
       <c r="H568" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="569" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16549,7 +17772,7 @@
         <v>547</v>
       </c>
       <c r="H569" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
@@ -16572,7 +17795,7 @@
         <v>547</v>
       </c>
       <c r="H570" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="571" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16595,7 +17818,7 @@
         <v>547</v>
       </c>
       <c r="H571" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="572" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16618,7 +17841,7 @@
         <v>416</v>
       </c>
       <c r="H572" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="573" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -16641,7 +17864,7 @@
         <v>416</v>
       </c>
       <c r="H573" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="574" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16664,7 +17887,7 @@
         <v>416</v>
       </c>
       <c r="H574" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="575" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16687,7 +17910,7 @@
         <v>416</v>
       </c>
       <c r="H575" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="576" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16710,7 +17933,7 @@
         <v>416</v>
       </c>
       <c r="H576" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="577" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16733,7 +17956,7 @@
         <v>416</v>
       </c>
       <c r="H577" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="578" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16756,7 +17979,7 @@
         <v>59</v>
       </c>
       <c r="H578" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="579" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -16779,7 +18002,7 @@
         <v>352</v>
       </c>
       <c r="H579" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="580" spans="1:8" ht="210" x14ac:dyDescent="0.25">
@@ -16802,7 +18025,7 @@
         <v>120</v>
       </c>
       <c r="H580" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="581" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16825,7 +18048,7 @@
         <v>248</v>
       </c>
       <c r="H581" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
@@ -16848,7 +18071,7 @@
         <v>351</v>
       </c>
       <c r="H582" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="583" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16871,7 +18094,7 @@
         <v>351</v>
       </c>
       <c r="H583" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="584" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16894,7 +18117,7 @@
         <v>351</v>
       </c>
       <c r="H584" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="585" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16917,7 +18140,7 @@
         <v>351</v>
       </c>
       <c r="H585" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="586" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16940,7 +18163,7 @@
         <v>351</v>
       </c>
       <c r="H586" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="587" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -16963,7 +18186,7 @@
         <v>429</v>
       </c>
       <c r="H587" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="588" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16986,7 +18209,7 @@
         <v>416</v>
       </c>
       <c r="H588" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
@@ -17009,7 +18232,7 @@
         <v>59</v>
       </c>
       <c r="H589" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
@@ -17032,7 +18255,7 @@
         <v>59</v>
       </c>
       <c r="H590" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="591" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -17042,7 +18265,7 @@
       <c r="B591" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C591" s="7" t="s">
+      <c r="C591" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D591" s="3" t="s">
@@ -17055,7 +18278,7 @@
         <v>85</v>
       </c>
       <c r="H591" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="592" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -17078,7 +18301,7 @@
         <v>352</v>
       </c>
       <c r="H592" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="593" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -17101,7 +18324,7 @@
         <v>352</v>
       </c>
       <c r="H593" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="594" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -17124,7 +18347,7 @@
         <v>352</v>
       </c>
       <c r="H594" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
@@ -17147,7 +18370,7 @@
         <v>352</v>
       </c>
       <c r="H595" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="596" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -17170,7 +18393,7 @@
         <v>230</v>
       </c>
       <c r="H596" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="597" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -17193,7 +18416,7 @@
         <v>120</v>
       </c>
       <c r="H597" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
@@ -17216,7 +18439,7 @@
         <v>248</v>
       </c>
       <c r="H598" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="599" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -17239,7 +18462,7 @@
         <v>547</v>
       </c>
       <c r="H599" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
@@ -17262,7 +18485,7 @@
         <v>547</v>
       </c>
       <c r="H600" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
@@ -17285,7 +18508,7 @@
         <v>429</v>
       </c>
       <c r="H601" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="602" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -17308,7 +18531,7 @@
         <v>416</v>
       </c>
       <c r="H602" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="603" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -17331,7 +18554,7 @@
         <v>59</v>
       </c>
       <c r="H603" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="604" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -17341,7 +18564,7 @@
       <c r="B604" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C604" s="7" t="s">
+      <c r="C604" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D604" s="3" t="s">
@@ -17355,7 +18578,7 @@
         <v>85</v>
       </c>
       <c r="H604" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="605" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -17378,7 +18601,7 @@
         <v>352</v>
       </c>
       <c r="H605" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="606" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -17402,7 +18625,7 @@
         <v>369</v>
       </c>
       <c r="H606" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="607" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -17425,7 +18648,7 @@
         <v>120</v>
       </c>
       <c r="H607" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="608" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -17448,7 +18671,7 @@
         <v>248</v>
       </c>
       <c r="H608" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="609" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -17471,7 +18694,7 @@
         <v>407</v>
       </c>
       <c r="H609" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="610" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -17494,11 +18717,115 @@
         <v>416</v>
       </c>
       <c r="H610" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A611" s="2">
+        <v>610</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E611" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="F611" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="G611" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H611" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A612" s="2">
+        <v>611</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E612" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="F612" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="G612" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H612" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A613" s="2">
+        <v>612</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D613" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E613" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="F613" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="G613" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H613" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A614" s="2">
+        <v>613</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="F614" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="G614" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H614" s="2" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G610">
+  <autoFilter ref="B1:G614">
     <sortState ref="B2:G610">
       <sortCondition ref="G1:G610"/>
     </sortState>
@@ -17510,6 +18837,7 @@
     <sortCondition ref="G2:G610"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18962,4 +20290,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$B$1:$H$614</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$B$1:$H$615</definedName>
     <definedName name="Resources">#REF!</definedName>
     <definedName name="Topics">#REF!</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4299" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="931">
   <si>
     <t>Resource</t>
   </si>
@@ -3145,16 +3145,10 @@
     <t>Have already agreed to move first paragraph up.  The primary purpose of the Conformance statement is to just define the interface, not the behavior behind the scenes.  So it should cover "list of interfaces", but not architecture diagram - though you could certainly add the latter as an extension :&gt;</t>
   </si>
   <si>
-    <t>Will reword to "Profiles of each of these 3 types can be used together" to help avoid confusion.  (Each profile has a single type, but you can have all 3 types of profiles playing together.)</t>
-  </si>
-  <si>
     <t>Determined by the code - value sets are orthogonal</t>
   </si>
   <si>
     <t>Will be handled by exposing explicit path.</t>
-  </si>
-  <si>
-    <t>Correct the enumeration of group types.</t>
   </si>
   <si>
     <t>See above</t>
@@ -3167,21 +3161,9 @@
     <t>If not sure, click through to the full definition.  (The "how to read" section will identify the fact you can do this)</t>
   </si>
   <si>
-    <t>Will add Quantity as a type for characteristic.value</t>
-  </si>
-  <si>
-    <t>Will make characteristics.exclude 1..1</t>
-  </si>
-  <si>
-    <t>Well, for animals, you can use code to distinguish chickens, cows, etc. (even specific breeds or strains).  I'm not aware of any similar coding system for people.  However, it's not a "firm" prohibition, so will move it to a note and remove it from constraint.</t>
-  </si>
-  <si>
     <t>Should we rename "IssueReport" to "SystemIssueReport"?</t>
   </si>
   <si>
-    <t>Will add "description"</t>
-  </si>
-  <si>
     <t>Will change to "IssueReport resources"</t>
   </si>
   <si>
@@ -3219,10 +3201,6 @@
   </si>
   <si>
     <t>Will institute a QA process that flags all paragraphs containing "should", "shall", "must", "may", "might", "can" and allows for human review.  Will also provide a style guide of what terms to use for conformance criteria assertions, such as whether conformance labeling should be made for non-testable assertions.</t>
-  </si>
-  <si>
-    <t>Will add a constraint that, if members and quantity are both present, number of members can't be more than quantity.  Will also add a note that says that if the quantity is greater than the number of members, that means that the set of listed members is not complete.
-There's lots of value in having a group that doesn't list members.  E.g. "All people within 2 miles of point X" or "females aged 40-65".</t>
   </si>
   <si>
     <t>Will change these phrases to be in quotes and add more descriptive text:
@@ -3632,13 +3610,55 @@
   </si>
   <si>
     <t>Is it inside the 80% to search for procedures performed by a particular person?</t>
+  </si>
+  <si>
+    <t>Pub tooling</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Will add a constraint that, if members and quantity are both present, number of members can't be more than quantity.  Will also add a note that says that if the quantity is greater than the number of members, that means that the set of listed members is not complete.
+There's lots of value in having a group that doesn't list members.  E.g. "All people within 2 miles of point X" or "females aged 40-65".
+Done</t>
+  </si>
+  <si>
+    <t>Correct the enumeration of group types.
+Done</t>
+  </si>
+  <si>
+    <t>Will add Quantity as a type for characteristic.value
+Done</t>
+  </si>
+  <si>
+    <t>Will make characteristics.exclude 1..1
+Done</t>
+  </si>
+  <si>
+    <t>Well, for animals, you can use code to distinguish chickens, cows, etc. (even specific breeds or strains).  I'm not aware of any similar coding system for people.  However, it's not a "firm" prohibition, so will move it to a note and remove it from constraint.
+Done</t>
+  </si>
+  <si>
+    <t>The text (HTML rendering) should address this.  Will try to make this clear in the examples.</t>
+  </si>
+  <si>
+    <t>Rename "batch" to "transaction"</t>
+  </si>
+  <si>
+    <t>Will reword to "Profiles of each of these 3 types can be used together" to help avoid confusion.  (Each profile has a single type, but you can have all 3 types of profiles playing together.)  Will also provide an explicit example of how they can be used together.</t>
+  </si>
+  <si>
+    <t>Both (plus messaging request &amp; response).  Will make this clear by exposing explicit paths.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"batch" doesn't properly reflect </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3722,6 +3742,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3755,13 +3783,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3853,10 +3882,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4157,7 +4190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I614"/>
+  <dimension ref="A1:I615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -4364,7 +4397,7 @@
         <v>742</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>352</v>
@@ -4419,7 +4452,9 @@
       <c r="F9" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="22" t="s">
+        <v>919</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>547</v>
       </c>
@@ -4472,7 +4507,9 @@
       <c r="F11" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="22" t="s">
+        <v>919</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>120</v>
       </c>
@@ -4526,7 +4563,9 @@
       <c r="F13" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="22" t="s">
+        <v>919</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>407</v>
       </c>
@@ -4580,7 +4619,7 @@
         <v>750</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>54</v>
@@ -4609,7 +4648,7 @@
         <v>751</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>54</v>
@@ -4638,7 +4677,7 @@
         <v>752</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>547</v>
@@ -4666,7 +4705,9 @@
       <c r="F18" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="22" t="s">
+        <v>919</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>416</v>
       </c>
@@ -4746,7 +4787,7 @@
         <v>759</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>416</v>
@@ -4799,7 +4840,7 @@
         <v>483</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="2" t="s">
@@ -4934,7 +4975,9 @@
       <c r="F28" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="G28" s="26"/>
+      <c r="G28" s="26" t="s">
+        <v>920</v>
+      </c>
       <c r="H28" s="2" t="s">
         <v>369</v>
       </c>
@@ -4984,8 +5027,8 @@
       <c r="E30" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>766</v>
+      <c r="F30" s="11" t="s">
+        <v>928</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>248</v>
@@ -5011,7 +5054,7 @@
         <v>485</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>416</v>
@@ -5037,7 +5080,7 @@
         <v>484</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>768</v>
+        <v>929</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>416</v>
@@ -5063,7 +5106,7 @@
         <v>486</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>416</v>
@@ -5072,7 +5115,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5089,7 +5132,7 @@
         <v>64</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>791</v>
+        <v>921</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="2" t="s">
@@ -5143,7 +5186,7 @@
         <v>489</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>769</v>
+        <v>922</v>
       </c>
       <c r="G36" s="21"/>
       <c r="H36" s="2" t="s">
@@ -5170,7 +5213,7 @@
         <v>487</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>352</v>
@@ -5196,7 +5239,7 @@
         <v>488</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>773</v>
+        <v>923</v>
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="2" t="s">
@@ -5223,7 +5266,7 @@
         <v>490</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>774</v>
+        <v>924</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="2" t="s">
@@ -5233,7 +5276,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5250,7 +5293,7 @@
         <v>155</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="2" t="s">
@@ -5277,7 +5320,7 @@
         <v>417</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>416</v>
@@ -5303,10 +5346,10 @@
         <v>68</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>59</v>
@@ -5358,8 +5401,8 @@
       <c r="E44" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>777</v>
+      <c r="F44" s="17" t="s">
+        <v>926</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="2" t="s">
@@ -5386,7 +5429,7 @@
         <v>161</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="2" t="s">
@@ -5413,7 +5456,7 @@
         <v>162</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="2" t="s">
@@ -5440,7 +5483,7 @@
         <v>271</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="2" t="s">
@@ -5467,7 +5510,7 @@
         <v>321</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="2" t="s">
@@ -5494,7 +5537,7 @@
         <v>447</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="2" t="s">
@@ -5521,7 +5564,7 @@
         <v>418</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>416</v>
@@ -5573,7 +5616,7 @@
         <v>514</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="2" t="s">
@@ -5600,7 +5643,7 @@
         <v>513</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="G53" s="21"/>
       <c r="H53" s="2" t="s">
@@ -5627,7 +5670,7 @@
         <v>163</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="2" t="s">
@@ -5654,7 +5697,7 @@
         <v>492</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="2" t="s">
@@ -5681,7 +5724,7 @@
         <v>71</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G56" s="21"/>
       <c r="H56" s="2" t="s">
@@ -5737,7 +5780,7 @@
         <v>725</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>85</v>
@@ -5790,10 +5833,10 @@
         <v>515</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>352</v>
@@ -5819,7 +5862,7 @@
         <v>516</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="2" t="s">
@@ -5846,7 +5889,7 @@
         <v>167</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G62" s="21"/>
       <c r="H62" s="2" t="s">
@@ -5873,10 +5916,10 @@
         <v>168</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>120</v>
@@ -5902,10 +5945,10 @@
         <v>169</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>120</v>
@@ -5931,10 +5974,10 @@
         <v>170</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>120</v>
@@ -5960,7 +6003,7 @@
         <v>269</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G66" s="19"/>
       <c r="H66" s="2" t="s">
@@ -5987,7 +6030,7 @@
         <v>418</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G67" s="21"/>
       <c r="H67" s="2" t="s">
@@ -6041,10 +6084,10 @@
         <v>208</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>120</v>
@@ -6070,7 +6113,7 @@
         <v>209</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="G70" s="21"/>
       <c r="H70" s="2" t="s">
@@ -6097,7 +6140,7 @@
         <v>210</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="G71" s="21"/>
       <c r="H71" s="2" t="s">
@@ -6124,7 +6167,7 @@
         <v>211</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="2" t="s">
@@ -6151,7 +6194,7 @@
         <v>212</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G73" s="21"/>
       <c r="H73" s="2" t="s">
@@ -6178,7 +6221,7 @@
         <v>459</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="G74" s="21"/>
       <c r="H74" s="2" t="s">
@@ -6205,7 +6248,7 @@
         <v>517</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>416</v>
@@ -6231,7 +6274,7 @@
         <v>518</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>416</v>
@@ -6257,7 +6300,7 @@
         <v>682</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G77" s="20" t="s">
         <v>470</v>
@@ -6286,7 +6329,7 @@
         <v>687</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>470</v>
@@ -6318,7 +6361,7 @@
         <v>728</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>85</v>
@@ -6396,7 +6439,7 @@
         <v>424</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G82" s="20" t="s">
         <v>470</v>
@@ -6425,7 +6468,7 @@
         <v>683</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G83" s="21"/>
       <c r="H83" s="2" t="s">
@@ -6452,7 +6495,7 @@
         <v>684</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="2" t="s">
@@ -6479,7 +6522,7 @@
         <v>686</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G85" s="20" t="s">
         <v>470</v>
@@ -6508,7 +6551,7 @@
         <v>688</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>547</v>
@@ -6534,7 +6577,7 @@
         <v>685</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>547</v>
@@ -6560,7 +6603,7 @@
         <v>382</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G88" s="28" t="s">
         <v>470</v>
@@ -6589,7 +6632,7 @@
         <v>383</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G89" s="26"/>
       <c r="H89" s="2" t="s">
@@ -6616,7 +6659,7 @@
         <v>384</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G90" s="26"/>
       <c r="H90" s="2" t="s">
@@ -6643,7 +6686,7 @@
         <v>385</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G91" s="26"/>
       <c r="H91" s="2" t="s">
@@ -6670,7 +6713,7 @@
         <v>386</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G92" s="26"/>
       <c r="H92" s="2" t="s">
@@ -6697,7 +6740,7 @@
         <v>214</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G93" s="21"/>
       <c r="H93" s="2" t="s">
@@ -6724,7 +6767,7 @@
         <v>215</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G94" s="21"/>
       <c r="H94" s="2" t="s">
@@ -6751,7 +6794,7 @@
         <v>216</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G95" s="21"/>
       <c r="H95" s="2" t="s">
@@ -6778,7 +6821,7 @@
         <v>217</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G96" s="21"/>
       <c r="H96" s="2" t="s">
@@ -6805,7 +6848,7 @@
         <v>218</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G97" s="21"/>
       <c r="H97" s="2" t="s">
@@ -6832,7 +6875,7 @@
         <v>219</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G98" s="21"/>
       <c r="H98" s="2" t="s">
@@ -6859,7 +6902,7 @@
         <v>220</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G99" s="21"/>
       <c r="H99" s="2" t="s">
@@ -6886,7 +6929,7 @@
         <v>221</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G100" s="21"/>
       <c r="H100" s="2" t="s">
@@ -6913,7 +6956,7 @@
         <v>222</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G101" s="20" t="s">
         <v>470</v>
@@ -6942,7 +6985,7 @@
         <v>681</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="G102" s="20" t="s">
         <v>470</v>
@@ -6971,7 +7014,7 @@
         <v>462</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>429</v>
@@ -6997,7 +7040,7 @@
         <v>519</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>416</v>
@@ -7023,7 +7066,7 @@
         <v>520</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="G105" s="21"/>
       <c r="H105" s="2" t="s">
@@ -7077,7 +7120,7 @@
         <v>599</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G107" s="21"/>
       <c r="H107" s="2" t="s">
@@ -7104,10 +7147,10 @@
         <v>600</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>352</v>
@@ -7133,7 +7176,7 @@
         <v>583</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G109" s="21"/>
       <c r="H109" s="2" t="s">
@@ -7160,7 +7203,7 @@
         <v>587</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="G110" s="21"/>
       <c r="H110" s="2" t="s">
@@ -7187,7 +7230,7 @@
         <v>405</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G111" s="26"/>
       <c r="H111" s="2" t="s">
@@ -7214,7 +7257,7 @@
         <v>137</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G112" s="21"/>
       <c r="H112" s="2" t="s">
@@ -7241,7 +7284,7 @@
         <v>138</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G113" s="21"/>
       <c r="H113" s="2" t="s">
@@ -7268,7 +7311,7 @@
         <v>139</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G114" s="21"/>
       <c r="H114" s="2" t="s">
@@ -7295,10 +7338,10 @@
         <v>590</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>547</v>
@@ -7324,7 +7367,7 @@
         <v>582</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="G116" s="21"/>
       <c r="H116" s="2" t="s">
@@ -7351,7 +7394,7 @@
         <v>585</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="G117" s="21"/>
       <c r="H117" s="2" t="s">
@@ -7378,7 +7421,7 @@
         <v>584</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="G118" s="21"/>
       <c r="H118" s="2" t="s">
@@ -7405,7 +7448,7 @@
         <v>436</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G119" s="21"/>
       <c r="H119" s="2" t="s">
@@ -7432,7 +7475,7 @@
         <v>437</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G120" s="21"/>
       <c r="H120" s="2" t="s">
@@ -7459,7 +7502,7 @@
         <v>493</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G121" s="21"/>
       <c r="H121" s="2" t="s">
@@ -7486,7 +7529,7 @@
         <v>586</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="G122" s="21"/>
       <c r="H122" s="2" t="s">
@@ -7542,7 +7585,7 @@
         <v>245</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="G124" s="20" t="s">
         <v>8</v>
@@ -7571,7 +7614,7 @@
         <v>361</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="G125" s="20" t="s">
         <v>8</v>
@@ -7600,7 +7643,7 @@
         <v>404</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="G126" s="25"/>
       <c r="H126" s="2" t="s">
@@ -7627,7 +7670,7 @@
         <v>140</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G127" s="21"/>
       <c r="H127" s="2" t="s">
@@ -7654,7 +7697,7 @@
         <v>141</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="G128" s="21"/>
       <c r="H128" s="2" t="s">
@@ -7681,7 +7724,7 @@
         <v>142</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G129" s="21"/>
       <c r="H129" s="2" t="s">
@@ -7708,7 +7751,7 @@
         <v>143</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G130" s="21"/>
       <c r="H130" s="2" t="s">
@@ -7735,7 +7778,7 @@
         <v>258</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G131" s="21"/>
       <c r="H131" s="2" t="s">
@@ -7762,7 +7805,7 @@
         <v>588</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G132" s="21"/>
       <c r="H132" s="2" t="s">
@@ -7789,7 +7832,7 @@
         <v>438</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G133" s="21"/>
       <c r="H133" s="2" t="s">
@@ -7887,7 +7930,7 @@
         <v>144</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G137" s="21"/>
       <c r="H137" s="2" t="s">
@@ -8104,7 +8147,7 @@
         <v>495</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="G146" s="21"/>
       <c r="H146" s="2" t="s">
@@ -8181,7 +8224,7 @@
         <v>156</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="G149" s="21"/>
       <c r="H149" s="2" t="s">
@@ -8208,7 +8251,7 @@
         <v>157</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="G150" s="21"/>
       <c r="H150" s="2" t="s">
@@ -8235,7 +8278,7 @@
         <v>158</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="G151" s="21"/>
       <c r="H151" s="2" t="s">
@@ -8331,7 +8374,7 @@
         <v>310</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G155" s="21"/>
       <c r="H155" s="2" t="s">
@@ -8611,7 +8654,7 @@
         <v>445</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="G167" s="21"/>
       <c r="H167" s="2" t="s">
@@ -8809,7 +8852,7 @@
         <v>735</v>
       </c>
       <c r="G175" s="20" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>85</v>
@@ -8885,7 +8928,7 @@
         <v>388</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="G178" s="26"/>
       <c r="H178" s="2" t="s">
@@ -9004,7 +9047,7 @@
         <v>524</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G183" s="21"/>
       <c r="H183" s="2" t="s">
@@ -9031,7 +9074,7 @@
         <v>525</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G184" s="21"/>
       <c r="H184" s="2" t="s">
@@ -9058,7 +9101,7 @@
         <v>526</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G185" s="21"/>
       <c r="H185" s="2" t="s">
@@ -9225,7 +9268,7 @@
         <v>132</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>120</v>
@@ -9416,7 +9459,7 @@
         <v>247</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="G200" s="21"/>
       <c r="H200" s="2" t="s">
@@ -9608,7 +9651,7 @@
         <v>399</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="G208" s="26"/>
       <c r="H208" s="2" t="s">
@@ -9635,7 +9678,7 @@
         <v>400</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="G209" s="26"/>
       <c r="H209" s="2" t="s">
@@ -9662,7 +9705,7 @@
         <v>401</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="G210" s="26"/>
       <c r="H210" s="2" t="s">
@@ -9689,7 +9732,7 @@
         <v>402</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G211" s="29"/>
       <c r="H211" s="2" t="s">
@@ -9785,7 +9828,7 @@
         <v>290</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="G215" s="20" t="s">
         <v>470</v>
@@ -9952,7 +9995,7 @@
         <v>297</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="G222" s="19"/>
       <c r="H222" s="2" t="s">
@@ -10232,7 +10275,7 @@
         <v>443</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="G234" s="21"/>
       <c r="H234" s="2" t="s">
@@ -10282,7 +10325,7 @@
         <v>529</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G236" s="21"/>
       <c r="H236" s="2" t="s">
@@ -10335,7 +10378,7 @@
         <v>738</v>
       </c>
       <c r="G238" s="20" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="H238" s="2" t="s">
         <v>85</v>
@@ -10430,7 +10473,7 @@
         <v>460</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="G242" s="21"/>
       <c r="H242" s="2" t="s">
@@ -10457,7 +10500,7 @@
         <v>461</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="G243" s="19"/>
       <c r="H243" s="2" t="s">
@@ -10507,7 +10550,7 @@
         <v>532</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="G245" s="21"/>
       <c r="H245" s="2" t="s">
@@ -10560,10 +10603,10 @@
         <v>223</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="G247" s="20" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>120</v>
@@ -10635,7 +10678,7 @@
         <v>463</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="G250" s="21"/>
       <c r="H250" s="2" t="s">
@@ -10662,7 +10705,7 @@
         <v>534</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G251" s="21"/>
       <c r="H251" s="2" t="s">
@@ -10689,7 +10732,7 @@
         <v>533</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G252" s="21"/>
       <c r="H252" s="2" t="s">
@@ -10739,10 +10782,10 @@
         <v>60</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="G254" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>59</v>
@@ -10794,7 +10837,7 @@
         <v>239</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G256" s="19"/>
       <c r="H256" s="2" t="s">
@@ -10821,7 +10864,7 @@
         <v>355</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>352</v>
@@ -10847,7 +10890,7 @@
         <v>231</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>230</v>
@@ -10873,7 +10916,7 @@
         <v>370</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>369</v>
@@ -10899,7 +10942,7 @@
         <v>371</v>
       </c>
       <c r="F260" s="14" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="G260" s="26"/>
       <c r="H260" s="2" t="s">
@@ -10926,7 +10969,7 @@
         <v>123</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G261" s="21"/>
       <c r="H261" s="2" t="s">
@@ -10953,7 +10996,7 @@
         <v>124</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="G262" s="21"/>
       <c r="H262" s="2" t="s">
@@ -10980,10 +11023,10 @@
         <v>249</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="G263" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>248</v>
@@ -11009,7 +11052,7 @@
         <v>250</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>248</v>
@@ -11035,7 +11078,7 @@
         <v>408</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="G265" s="21"/>
       <c r="H265" s="2" t="s">
@@ -11062,10 +11105,10 @@
         <v>276</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G266" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>351</v>
@@ -11091,7 +11134,7 @@
         <v>277</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="G267" s="21"/>
       <c r="H267" s="2" t="s">
@@ -11118,10 +11161,10 @@
         <v>278</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G268" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>351</v>
@@ -11147,10 +11190,10 @@
         <v>279</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="G269" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H269" s="2" t="s">
         <v>351</v>
@@ -11203,7 +11246,7 @@
         <v>431</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>429</v>
@@ -11255,7 +11298,7 @@
         <v>232</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>230</v>
@@ -11281,10 +11324,10 @@
         <v>372</v>
       </c>
       <c r="F274" s="15" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="G274" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>369</v>
@@ -11310,7 +11353,7 @@
         <v>373</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="G275" s="29"/>
       <c r="H275" s="2" t="s">
@@ -11337,7 +11380,7 @@
         <v>125</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G276" s="21"/>
       <c r="H276" s="2" t="s">
@@ -11364,7 +11407,7 @@
         <v>126</v>
       </c>
       <c r="F277" s="11" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="G277" s="21"/>
       <c r="H277" s="2" t="s">
@@ -11391,7 +11434,7 @@
         <v>251</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G278" s="19"/>
       <c r="H278" s="2" t="s">
@@ -11445,7 +11488,7 @@
         <v>433</v>
       </c>
       <c r="F280" s="11" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="G280" s="21"/>
       <c r="H280" s="2" t="s">
@@ -11472,7 +11515,7 @@
         <v>496</v>
       </c>
       <c r="F281" s="11" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G281" s="21"/>
       <c r="H281" s="2" t="s">
@@ -11499,7 +11542,7 @@
         <v>61</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="G282" s="19"/>
       <c r="H282" s="2" t="s">
@@ -11526,10 +11569,10 @@
         <v>241</v>
       </c>
       <c r="F283" s="9" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="G283" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H283" s="2" t="s">
         <v>238</v>
@@ -11555,10 +11598,10 @@
         <v>357</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="G284" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H284" s="2" t="s">
         <v>352</v>
@@ -11584,7 +11627,7 @@
         <v>374</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="G285" s="26"/>
       <c r="H285" s="2" t="s">
@@ -11611,7 +11654,7 @@
         <v>375</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G286" s="29"/>
       <c r="H286" s="2" t="s">
@@ -11638,7 +11681,7 @@
         <v>376</v>
       </c>
       <c r="F287" s="14" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="G287" s="26"/>
       <c r="H287" s="2" t="s">
@@ -11665,7 +11708,7 @@
         <v>127</v>
       </c>
       <c r="F288" s="11" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="G288" s="21"/>
       <c r="H288" s="2" t="s">
@@ -11692,7 +11735,7 @@
         <v>128</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="G289" s="21"/>
       <c r="H289" s="2" t="s">
@@ -11719,7 +11762,7 @@
         <v>129</v>
       </c>
       <c r="F290" s="11" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="G290" s="21"/>
       <c r="H290" s="2" t="s">
@@ -11746,7 +11789,7 @@
         <v>130</v>
       </c>
       <c r="F291" s="11" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="G291" s="21"/>
       <c r="H291" s="2" t="s">
@@ -11773,7 +11816,7 @@
         <v>409</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>407</v>
@@ -11799,7 +11842,7 @@
         <v>434</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="G293" s="21"/>
       <c r="H293" s="2" t="s">
@@ -11826,7 +11869,7 @@
         <v>497</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="H294" s="2" t="s">
         <v>416</v>
@@ -11852,10 +11895,10 @@
         <v>621</v>
       </c>
       <c r="F295" s="9" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G295" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H295" s="2" t="s">
         <v>547</v>
@@ -11881,10 +11924,10 @@
         <v>363</v>
       </c>
       <c r="F296" s="9" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="G296" s="20" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="H296" s="2" t="s">
         <v>352</v>
@@ -11910,10 +11953,10 @@
         <v>620</v>
       </c>
       <c r="F297" s="9" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="G297" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H297" s="2" t="s">
         <v>547</v>
@@ -11939,7 +11982,7 @@
         <v>153</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="G298" s="21"/>
       <c r="H298" s="2" t="s">
@@ -11966,7 +12009,7 @@
         <v>154</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G299" s="21"/>
       <c r="H299" s="2" t="s">
@@ -11993,7 +12036,7 @@
         <v>413</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="H300" s="2" t="s">
         <v>407</v>
@@ -12019,10 +12062,10 @@
         <v>622</v>
       </c>
       <c r="F301" s="9" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="G301" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H301" s="2" t="s">
         <v>547</v>
@@ -12101,7 +12144,7 @@
         <v>423</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="G304" s="21"/>
       <c r="H304" s="2" t="s">
@@ -12128,10 +12171,10 @@
         <v>605</v>
       </c>
       <c r="F305" s="9" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G305" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H305" s="2" t="s">
         <v>352</v>
@@ -12157,7 +12200,7 @@
         <v>204</v>
       </c>
       <c r="F306" s="11" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G306" s="21"/>
       <c r="H306" s="2" t="s">
@@ -12184,7 +12227,7 @@
         <v>205</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="H307" s="2" t="s">
         <v>120</v>
@@ -12210,10 +12253,10 @@
         <v>456</v>
       </c>
       <c r="F308" s="9" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="G308" s="23" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>429</v>
@@ -12239,7 +12282,7 @@
         <v>498</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="H309" s="2" t="s">
         <v>416</v>
@@ -12265,10 +12308,10 @@
         <v>606</v>
       </c>
       <c r="F310" s="9" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="G310" s="23" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H310" s="2" t="s">
         <v>352</v>
@@ -12294,10 +12337,10 @@
         <v>607</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="G311" s="23" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="H311" s="2" t="s">
         <v>352</v>
@@ -12323,10 +12366,10 @@
         <v>678</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G312" s="23" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H312" s="2" t="s">
         <v>547</v>
@@ -12352,10 +12395,10 @@
         <v>680</v>
       </c>
       <c r="F313" s="9" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G313" s="23" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>547</v>
@@ -12381,10 +12424,10 @@
         <v>387</v>
       </c>
       <c r="F314" s="15" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="G314" s="23" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H314" s="2" t="s">
         <v>369</v>
@@ -12410,7 +12453,7 @@
         <v>206</v>
       </c>
       <c r="F315" s="11" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="H315" s="2" t="s">
         <v>120</v>
@@ -12436,7 +12479,7 @@
         <v>207</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="H316" s="2" t="s">
         <v>120</v>
@@ -12462,7 +12505,7 @@
         <v>262</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="H317" s="2" t="s">
         <v>248</v>
@@ -12488,7 +12531,7 @@
         <v>263</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>248</v>
@@ -12514,10 +12557,10 @@
         <v>677</v>
       </c>
       <c r="F319" s="9" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G319" s="23" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>547</v>
@@ -12543,10 +12586,10 @@
         <v>676</v>
       </c>
       <c r="F320" s="9" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G320" s="23" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>547</v>
@@ -12572,10 +12615,10 @@
         <v>679</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G321" s="23" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>547</v>
@@ -12601,7 +12644,7 @@
         <v>457</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>429</v>
@@ -12627,10 +12670,10 @@
         <v>458</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="G323" s="23" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H323" s="2" t="s">
         <v>429</v>
@@ -12656,10 +12699,10 @@
         <v>499</v>
       </c>
       <c r="F324" s="9" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="G324" s="23" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>416</v>
@@ -12965,7 +13008,7 @@
         <v>412</v>
       </c>
       <c r="F337" s="16" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>407</v>
@@ -13014,7 +13057,7 @@
         <v>442</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="G339" s="19"/>
       <c r="H339" s="2" t="s">
@@ -13041,7 +13084,7 @@
         <v>538</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="G340" s="21"/>
       <c r="H340" s="2" t="s">
@@ -13068,7 +13111,7 @@
         <v>536</v>
       </c>
       <c r="F341" s="11" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="G341" s="21"/>
       <c r="H341" s="2" t="s">
@@ -13095,7 +13138,7 @@
         <v>537</v>
       </c>
       <c r="F342" s="11" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="G342" s="21"/>
       <c r="H342" s="2" t="s">
@@ -13122,7 +13165,7 @@
         <v>226</v>
       </c>
       <c r="F343" s="11" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="G343" s="21"/>
       <c r="H343" s="2" t="s">
@@ -13149,7 +13192,7 @@
         <v>227</v>
       </c>
       <c r="F344" s="11" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="G344" s="21"/>
       <c r="H344" s="2" t="s">
@@ -13176,7 +13219,7 @@
         <v>228</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="G345" s="21"/>
       <c r="H345" s="2" t="s">
@@ -13203,7 +13246,7 @@
         <v>411</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>407</v>
@@ -13229,10 +13272,10 @@
         <v>500</v>
       </c>
       <c r="F347" s="9" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G347" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>416</v>
@@ -13258,10 +13301,10 @@
         <v>92</v>
       </c>
       <c r="F348" s="9" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G348" s="20" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="H348" s="2" t="s">
         <v>85</v>
@@ -19359,13 +19402,13 @@
         <v>49</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="F611" s="9" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G611" s="20" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H611" s="2" t="s">
         <v>547</v>
@@ -19388,10 +19431,10 @@
         <v>45</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="F612" s="11" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="G612" s="21"/>
       <c r="H612" s="2" t="s">
@@ -19415,13 +19458,13 @@
         <v>46</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="F613" s="9" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G613" s="20" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="H613" s="2" t="s">
         <v>547</v>
@@ -19444,10 +19487,10 @@
         <v>45</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="F614" s="11" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="G614" s="21"/>
       <c r="H614" s="2" t="s">
@@ -19457,8 +19500,28 @@
         <v>708</v>
       </c>
     </row>
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C615" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E615" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F615" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="H615" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I615" s="31" t="s">
+        <v>708</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:H614">
+  <autoFilter ref="B1:H615">
     <sortState ref="B2:H610">
       <sortCondition ref="H1:H610"/>
     </sortState>
@@ -19469,8 +19532,11 @@
     <sortCondition ref="D2:D610"/>
     <sortCondition ref="H2:H610"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="I615" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4334" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4334" uniqueCount="958">
   <si>
     <t>Resource</t>
   </si>
@@ -3000,9 +3000,6 @@
     <t>All resources have ids.  Are you saying all resources need "external" ids?  Not sure we can make a blanket statement that that's in the 80% for all.  For device log, external ids are unlikely.  They're only for communication from device to server and unlikely the device will be assigning an id (or capable of recognizing such an id in the future)</t>
   </si>
   <si>
-    <t>Not clear what this means or how it's different from previous comment</t>
-  </si>
-  <si>
     <t>Are you responding to specific places where a different term is used?</t>
   </si>
   <si>
@@ -3030,9 +3027,6 @@
     <t>Would need evidence status is actually needed on the other resources</t>
   </si>
   <si>
-    <t>Questionaire may evolve to be both definition and completed version.  However, "Questionaire" is a common term for both versions</t>
-  </si>
-  <si>
     <t>Answered above</t>
   </si>
   <si>
@@ -3072,9 +3066,6 @@
     <t>Not essential.  I can reference a syringe without giving it an id.</t>
   </si>
   <si>
-    <t>Need a convention on use and interpretation of 0..1 boolean, 0..1 code</t>
-  </si>
-  <si>
     <t>Make clearer to WGs exactly what the rules are for mustUnderstand and ensure all of our resources are up-to-date.  Specifically "This element changes the interpretation of other elements in the resource"</t>
   </si>
   <si>
@@ -3127,18 +3118,12 @@
   </si>
   <si>
     <t>Don't understand the issue</t>
-  </si>
-  <si>
-    <t>Not clear why this would be needed.  We're not trying to express profiles created elsewhere, and there's a unique id on every instance already - expressed as a URI.  Do you have a use-case that would suggest this is in the 80%?</t>
   </si>
   <si>
     <t>The premise is that there should be sufficient information in a conformance statement to allow a client application to auto-configure to talk to that server based on what operations it supports as well as to allow conformance testing.
 Use of the Conformance resource is mandatory for all RESTful implementations.  We will see during the DSTU whether the benefits outweighs the costs of having this data as discrete.</t>
   </si>
   <si>
-    <t>What more do you want other than the examples provided - part of architectural design, part of RFP?</t>
-  </si>
-  <si>
     <t>Move the last paragraph of the description to the top</t>
   </si>
   <si>
@@ -3161,18 +3146,12 @@
     <t>If not sure, click through to the full definition.  (The "how to read" section will identify the fact you can do this)</t>
   </si>
   <si>
-    <t>Should we rename "IssueReport" to "SystemIssueReport"?</t>
-  </si>
-  <si>
     <t>Will change to "IssueReport resources"</t>
   </si>
   <si>
     <t>Will fix formatting</t>
   </si>
   <si>
-    <t>I think the codes do define what "error" and "warning" means.  If you think they could be clearer, please suggest enhancements.  If you're asking whether we should declare what should cause an error vs. a warning, that's going to be determined by the design of the system (and its tolerance for various problems)</t>
-  </si>
-  <si>
     <t>Will make "type" 1..1</t>
   </si>
   <si>
@@ -3200,22 +3179,7 @@
     <t>Fix typo</t>
   </si>
   <si>
-    <t>Will institute a QA process that flags all paragraphs containing "should", "shall", "must", "may", "might", "can" and allows for human review.  Will also provide a style guide of what terms to use for conformance criteria assertions, such as whether conformance labeling should be made for non-testable assertions.</t>
-  </si>
-  <si>
-    <t>Will change these phrases to be in quotes and add more descriptive text:
-"transactions of consequence" (transactions which change data must only be processed once, such as inserts, updates, etc.) and "transactions of currency" (transactions that do not change data and can be processed multiple times without effect, such as queries)
-However (before you wave your hand), will add the question of "are queries 'of consequence' when they result in updates to audit and other logs"</t>
-  </si>
-  <si>
-    <t>Should we be consistent in always saying "listener" or "receiver" or should we provide an explanation of the different terms?</t>
-  </si>
-  <si>
     <t>Bundles are the collection of stuff that makes up a single message.  Batch is a mechanism of processing multiple resources simultaneously in a single transaction.  We're likely going to rename Batch to Transaction.  Take a look at the definition of bundle as specified in the link.  If things are still unclear, suggest an enhancement.</t>
-  </si>
-  <si>
-    <t>Will change label from "background" to "purpose" and will add more guidance on the use of Profile.binding.concept vs. ValueSet.
-Need to determine what that guidance should be.</t>
   </si>
   <si>
     <t>Need guidance on naming of search parameters: someName, somename, some_name</t>
@@ -3729,6 +3693,70 @@
   <si>
     <t>Will add heading and drop informal comment
 Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #6 No general hard-coded rules, if you have isModifier, you need to explain what it means to *not* have a value in the instance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #41 Scope was broad, has been limited. Is now *only* outcome of a system operation, not clinical content anymore (eg. Drug interaction issues). Report doesn't say very much, Issue has too many (clinical) meanings, SystemIssueReport is too long. SystemReport? SystemIssue? SystemIssues? 
+ Is this resource intended for errors and warnings? Can an operation succeed and still report this resource back? How would one do that?  OperationOutcome (because we name our REST functions REST operations, or should do so consistently if we dont).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #59 Implementing the reliable messaging is going to be optional, and you declare it in the conformance profile. Update accordingly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#62 I'll write some usecases to clarify.
+</t>
+  </si>
+  <si>
+    <t>#63 Update accordingly: Will change these phrases to be in quotes and add more descriptive text:
+"transactions of consequence" (transactions which change data must only be processed once, such as inserts, updates, etc.) and "transactions of currency" (transactions that do not change data and can be processed multiple times without effect, such as queries)
+However (before you wave your hand), will add the question of "are queries 'of consequence' when they result in updates to audit and other logs"</t>
+  </si>
+  <si>
+    <t>#64 Be consistent, no difference meant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#68 Drop it. </t>
+  </si>
+  <si>
+    <t>#76 Not in 80%, remove.</t>
+  </si>
+  <si>
+    <t>#77 Stays in, explain that it's not about visit info being on the form, but about tracking context</t>
+  </si>
+  <si>
+    <t>#78 Name stays Questionnaire, moreso because we will make it possible for Questionnaire to include the actual questions. [solution for this will cover simple case, can always profile for more complex situation with mandatory stuff, invariants etc.]</t>
+  </si>
+  <si>
+    <t>#81 source is in the 80%</t>
+  </si>
+  <si>
+    <t>#84 make optional, other sources can then be put in extension, leaving subject empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #100 remove the todo. You can use "remarks". Include narrative to show relationship between supplied answers about missing answers and remarks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #101 another differentiator with structured represenation is that the interpretation of the information on the form depends on the context of the form, while the structured representation contains enough information to be used in isolation.
+</t>
+  </si>
+  <si>
+    <t>#4 Guidance: they generally should have (some form of) an identifier for external workflow. Write up in documentation.</t>
+  </si>
+  <si>
+    <t>#23 Conformance should have identifier too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #26 nominate lloyd to add an example.
+</t>
+  </si>
+  <si>
+    <t>#46 add a bit more documentation about this. There's now also a list of possible codes.</t>
   </si>
 </sst>
 </file>
@@ -3954,15 +3982,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4268,14 +4288,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F313" sqref="F313"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4321,7 +4340,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4348,7 +4367,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4375,7 +4394,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4402,7 +4421,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4418,8 +4437,8 @@
       <c r="E5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>718</v>
+      <c r="F5" s="9" t="s">
+        <v>954</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="2" t="s">
@@ -4429,7 +4448,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4446,7 +4465,7 @@
         <v>115</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="2" t="s">
@@ -4456,7 +4475,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4473,10 +4492,10 @@
         <v>353</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>742</v>
+        <v>940</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>352</v>
@@ -4485,7 +4504,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4502,7 +4521,7 @@
         <v>354</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="2" t="s">
@@ -4512,7 +4531,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4529,10 +4548,10 @@
         <v>546</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>547</v>
@@ -4541,7 +4560,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4558,7 +4577,7 @@
         <v>121</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>120</v>
@@ -4567,7 +4586,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4584,10 +4603,10 @@
         <v>122</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>120</v>
@@ -4596,7 +4615,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4613,7 +4632,7 @@
         <v>266</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="2" t="s">
@@ -4623,7 +4642,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4640,10 +4659,10 @@
         <v>410</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>407</v>
@@ -4652,7 +4671,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4669,7 +4688,7 @@
         <v>415</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>407</v>
@@ -4678,7 +4697,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4695,10 +4714,10 @@
         <v>55</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>54</v>
@@ -4707,7 +4726,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4724,10 +4743,10 @@
         <v>56</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>54</v>
@@ -4736,7 +4755,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4753,10 +4772,10 @@
         <v>640</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>547</v>
@@ -4765,7 +4784,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4782,10 +4801,10 @@
         <v>482</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>416</v>
@@ -4794,7 +4813,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4811,7 +4830,7 @@
         <v>479</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>416</v>
@@ -4820,7 +4839,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4837,7 +4856,7 @@
         <v>478</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>416</v>
@@ -4846,7 +4865,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4863,10 +4882,10 @@
         <v>480</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>416</v>
@@ -4875,7 +4894,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4892,7 +4911,7 @@
         <v>481</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="2" t="s">
@@ -4902,7 +4921,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4919,7 +4938,7 @@
         <v>483</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="2" t="s">
@@ -4929,12 +4948,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -4945,8 +4964,8 @@
       <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>761</v>
+      <c r="F24" s="9" t="s">
+        <v>955</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="2" t="s">
@@ -4956,12 +4975,12 @@
         <v>709</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -4973,7 +4992,7 @@
         <v>91</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>85</v>
@@ -4982,12 +5001,12 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -4999,7 +5018,7 @@
         <v>359</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>352</v>
@@ -5008,12 +5027,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -5024,8 +5043,8 @@
       <c r="E27" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>763</v>
+      <c r="F27" s="9" t="s">
+        <v>956</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="2" t="s">
@@ -5035,12 +5054,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -5052,10 +5071,10 @@
         <v>380</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>369</v>
@@ -5064,12 +5083,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -5081,7 +5100,7 @@
         <v>134</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>120</v>
@@ -5090,12 +5109,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
@@ -5107,7 +5126,7 @@
         <v>254</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>248</v>
@@ -5116,12 +5135,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -5133,7 +5152,7 @@
         <v>485</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>416</v>
@@ -5142,12 +5161,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -5159,7 +5178,7 @@
         <v>484</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>416</v>
@@ -5168,12 +5187,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -5185,7 +5204,7 @@
         <v>486</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>416</v>
@@ -5194,7 +5213,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5211,7 +5230,7 @@
         <v>64</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="2" t="s">
@@ -5221,7 +5240,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5238,7 +5257,7 @@
         <v>100</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="2" t="s">
@@ -5248,7 +5267,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5265,7 +5284,7 @@
         <v>489</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="2" t="s">
@@ -5275,7 +5294,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5292,7 +5311,7 @@
         <v>487</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>352</v>
@@ -5301,7 +5320,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5318,7 +5337,7 @@
         <v>488</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="2" t="s">
@@ -5328,7 +5347,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5345,7 +5364,7 @@
         <v>490</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="2" t="s">
@@ -5355,7 +5374,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5372,7 +5391,7 @@
         <v>155</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="2" t="s">
@@ -5382,7 +5401,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5399,7 +5418,7 @@
         <v>417</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>416</v>
@@ -5408,7 +5427,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5425,10 +5444,10 @@
         <v>68</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>771</v>
+        <v>941</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>59</v>
@@ -5437,7 +5456,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5454,7 +5473,7 @@
         <v>104</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="2" t="s">
@@ -5464,7 +5483,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5481,7 +5500,7 @@
         <v>491</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="2" t="s">
@@ -5491,7 +5510,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5508,7 +5527,7 @@
         <v>161</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="2" t="s">
@@ -5518,7 +5537,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5535,7 +5554,7 @@
         <v>162</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="2" t="s">
@@ -5545,7 +5564,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5561,8 +5580,8 @@
       <c r="E47" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>774</v>
+      <c r="F47" s="9" t="s">
+        <v>957</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="2" t="s">
@@ -5572,7 +5591,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5589,7 +5608,7 @@
         <v>321</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="2" t="s">
@@ -5599,7 +5618,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5616,7 +5635,7 @@
         <v>447</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="2" t="s">
@@ -5626,7 +5645,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5643,7 +5662,7 @@
         <v>418</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>416</v>
@@ -5652,7 +5671,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5669,7 +5688,7 @@
         <v>105</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>85</v>
@@ -5678,7 +5697,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5695,7 +5714,7 @@
         <v>514</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="2" t="s">
@@ -5705,7 +5724,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5722,7 +5741,7 @@
         <v>513</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="2" t="s">
@@ -5732,7 +5751,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5749,7 +5768,7 @@
         <v>163</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="2" t="s">
@@ -5759,7 +5778,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5776,7 +5795,7 @@
         <v>492</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="2" t="s">
@@ -5786,7 +5805,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5803,7 +5822,7 @@
         <v>71</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="2" t="s">
@@ -5813,7 +5832,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5830,7 +5849,7 @@
         <v>654</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>85</v>
@@ -5839,7 +5858,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5856,10 +5875,10 @@
         <v>655</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>85</v>
@@ -5868,7 +5887,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5885,7 +5904,7 @@
         <v>653</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G59" s="26"/>
       <c r="H59" s="2" t="s">
@@ -5895,7 +5914,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5912,10 +5931,10 @@
         <v>515</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>781</v>
+        <v>942</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>352</v>
@@ -5924,7 +5943,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5941,7 +5960,7 @@
         <v>516</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="2" t="s">
@@ -5951,7 +5970,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5968,7 +5987,7 @@
         <v>167</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="2" t="s">
@@ -5978,7 +5997,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5995,10 +6014,10 @@
         <v>168</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>784</v>
+        <v>943</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>120</v>
@@ -6007,7 +6026,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6024,10 +6043,10 @@
         <v>169</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>785</v>
+        <v>944</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>120</v>
@@ -6036,7 +6055,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6053,10 +6072,10 @@
         <v>170</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>786</v>
+        <v>945</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>120</v>
@@ -6065,7 +6084,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6082,7 +6101,7 @@
         <v>269</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="2" t="s">
@@ -6092,7 +6111,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6109,7 +6128,7 @@
         <v>418</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="2" t="s">
@@ -6119,12 +6138,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
@@ -6136,7 +6155,7 @@
         <v>116</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="2" t="s">
@@ -6146,12 +6165,12 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
@@ -6163,10 +6182,10 @@
         <v>208</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>788</v>
+        <v>946</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>120</v>
@@ -6175,12 +6194,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
@@ -6192,7 +6211,7 @@
         <v>209</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="2" t="s">
@@ -6202,12 +6221,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
@@ -6219,7 +6238,7 @@
         <v>210</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="2" t="s">
@@ -6229,12 +6248,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
@@ -6246,7 +6265,7 @@
         <v>211</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="2" t="s">
@@ -6256,12 +6275,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
@@ -6273,7 +6292,7 @@
         <v>212</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="2" t="s">
@@ -6283,12 +6302,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
@@ -6300,7 +6319,7 @@
         <v>459</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="2" t="s">
@@ -6310,12 +6329,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
@@ -6327,7 +6346,7 @@
         <v>517</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>416</v>
@@ -6336,12 +6355,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
@@ -6353,7 +6372,7 @@
         <v>518</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>416</v>
@@ -6362,7 +6381,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6379,7 +6398,7 @@
         <v>682</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>896</v>
+        <v>947</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>470</v>
@@ -6391,7 +6410,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6408,7 +6427,7 @@
         <v>687</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>896</v>
+        <v>948</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>470</v>
@@ -6420,7 +6439,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6437,10 +6456,10 @@
         <v>664</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>728</v>
+        <v>949</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>85</v>
@@ -6449,7 +6468,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6466,7 +6485,7 @@
         <v>663</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>85</v>
@@ -6475,7 +6494,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6492,7 +6511,7 @@
         <v>665</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>85</v>
@@ -6501,7 +6520,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6518,7 +6537,7 @@
         <v>424</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>896</v>
+        <v>950</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>470</v>
@@ -6530,7 +6549,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6547,7 +6566,7 @@
         <v>683</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="2" t="s">
@@ -6557,7 +6576,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6574,7 +6593,7 @@
         <v>684</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="2" t="s">
@@ -6584,7 +6603,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6601,7 +6620,7 @@
         <v>686</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>896</v>
+        <v>951</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>470</v>
@@ -6613,7 +6632,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6630,7 +6649,7 @@
         <v>688</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>547</v>
@@ -6639,7 +6658,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6656,7 +6675,7 @@
         <v>685</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>547</v>
@@ -6665,7 +6684,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6682,7 +6701,7 @@
         <v>382</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>470</v>
@@ -6694,7 +6713,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6711,7 +6730,7 @@
         <v>383</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="2" t="s">
@@ -6721,7 +6740,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6738,7 +6757,7 @@
         <v>384</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G90" s="25"/>
       <c r="H90" s="2" t="s">
@@ -6748,7 +6767,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6765,7 +6784,7 @@
         <v>385</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G91" s="25"/>
       <c r="H91" s="2" t="s">
@@ -6775,7 +6794,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6792,7 +6811,7 @@
         <v>386</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G92" s="25"/>
       <c r="H92" s="2" t="s">
@@ -6802,7 +6821,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -6819,7 +6838,7 @@
         <v>214</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="2" t="s">
@@ -6829,7 +6848,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -6846,7 +6865,7 @@
         <v>215</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="2" t="s">
@@ -6856,7 +6875,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -6873,7 +6892,7 @@
         <v>216</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="2" t="s">
@@ -6883,7 +6902,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -6900,7 +6919,7 @@
         <v>217</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="2" t="s">
@@ -6910,7 +6929,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -6927,7 +6946,7 @@
         <v>218</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="2" t="s">
@@ -6937,7 +6956,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -6954,7 +6973,7 @@
         <v>219</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="2" t="s">
@@ -6964,7 +6983,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -6981,7 +7000,7 @@
         <v>220</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G99" s="20"/>
       <c r="H99" s="2" t="s">
@@ -6991,7 +7010,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7008,7 +7027,7 @@
         <v>221</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="2" t="s">
@@ -7018,7 +7037,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7035,7 +7054,7 @@
         <v>222</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>896</v>
+        <v>952</v>
       </c>
       <c r="G101" s="19" t="s">
         <v>470</v>
@@ -7047,7 +7066,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7064,7 +7083,7 @@
         <v>681</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>896</v>
+        <v>953</v>
       </c>
       <c r="G102" s="19" t="s">
         <v>470</v>
@@ -7076,7 +7095,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7093,7 +7112,7 @@
         <v>462</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>429</v>
@@ -7102,7 +7121,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7119,7 +7138,7 @@
         <v>519</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>416</v>
@@ -7128,7 +7147,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7145,7 +7164,7 @@
         <v>520</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="2" t="s">
@@ -7155,7 +7174,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7172,7 +7191,7 @@
         <v>94</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G106" s="18"/>
       <c r="H106" s="2" t="s">
@@ -7182,7 +7201,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7199,7 +7218,7 @@
         <v>599</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G107" s="20"/>
       <c r="H107" s="2" t="s">
@@ -7209,7 +7228,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7226,10 +7245,10 @@
         <v>600</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>352</v>
@@ -7238,7 +7257,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7255,7 +7274,7 @@
         <v>583</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="2" t="s">
@@ -7265,7 +7284,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7282,7 +7301,7 @@
         <v>587</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="2" t="s">
@@ -7292,7 +7311,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7309,7 +7328,7 @@
         <v>405</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G111" s="25"/>
       <c r="H111" s="2" t="s">
@@ -7319,7 +7338,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -7336,7 +7355,7 @@
         <v>137</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="2" t="s">
@@ -7346,7 +7365,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -7363,7 +7382,7 @@
         <v>138</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="2" t="s">
@@ -7373,7 +7392,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7390,7 +7409,7 @@
         <v>139</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="2" t="s">
@@ -7400,7 +7419,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -7417,10 +7436,10 @@
         <v>590</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>547</v>
@@ -7429,7 +7448,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -7446,7 +7465,7 @@
         <v>582</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="2" t="s">
@@ -7456,7 +7475,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -7473,7 +7492,7 @@
         <v>585</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="2" t="s">
@@ -7483,7 +7502,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -7500,7 +7519,7 @@
         <v>584</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="2" t="s">
@@ -7510,7 +7529,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -7527,7 +7546,7 @@
         <v>436</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G119" s="20"/>
       <c r="H119" s="2" t="s">
@@ -7537,7 +7556,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -7554,7 +7573,7 @@
         <v>437</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="2" t="s">
@@ -7564,7 +7583,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -7581,7 +7600,7 @@
         <v>493</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="2" t="s">
@@ -7591,7 +7610,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -7608,7 +7627,7 @@
         <v>586</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="2" t="s">
@@ -7618,7 +7637,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -7635,7 +7654,7 @@
         <v>96</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G123" s="19" t="s">
         <v>8</v>
@@ -7647,7 +7666,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -7664,7 +7683,7 @@
         <v>245</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="G124" s="19" t="s">
         <v>8</v>
@@ -7676,7 +7695,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -7693,7 +7712,7 @@
         <v>361</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>8</v>
@@ -7705,7 +7724,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -7722,7 +7741,7 @@
         <v>404</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="G126" s="24"/>
       <c r="H126" s="2" t="s">
@@ -7732,7 +7751,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -7749,7 +7768,7 @@
         <v>140</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="2" t="s">
@@ -7759,7 +7778,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -7776,7 +7795,7 @@
         <v>141</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="2" t="s">
@@ -7786,7 +7805,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -7803,7 +7822,7 @@
         <v>142</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="2" t="s">
@@ -7813,7 +7832,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -7830,7 +7849,7 @@
         <v>143</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="2" t="s">
@@ -7840,7 +7859,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -7857,7 +7876,7 @@
         <v>258</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="2" t="s">
@@ -7867,7 +7886,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -7884,7 +7903,7 @@
         <v>588</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="2" t="s">
@@ -7894,7 +7913,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -7911,7 +7930,7 @@
         <v>438</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="2" t="s">
@@ -7921,7 +7940,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -7944,7 +7963,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -7967,7 +7986,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -7992,7 +8011,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -8009,7 +8028,7 @@
         <v>144</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="2" t="s">
@@ -8019,7 +8038,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -8042,7 +8061,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -8065,7 +8084,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -8088,7 +8107,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -8111,7 +8130,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -8134,7 +8153,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -8157,7 +8176,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -8180,7 +8199,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -8197,7 +8216,7 @@
         <v>101</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G145" s="19" t="s">
         <v>8</v>
@@ -8209,7 +8228,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -8226,7 +8245,7 @@
         <v>495</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="2" t="s">
@@ -8236,7 +8255,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -8261,7 +8280,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -8286,7 +8305,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -8303,7 +8322,7 @@
         <v>156</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="2" t="s">
@@ -8313,7 +8332,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -8330,7 +8349,7 @@
         <v>157</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="G150" s="20"/>
       <c r="H150" s="2" t="s">
@@ -8340,7 +8359,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -8357,7 +8376,7 @@
         <v>158</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G151" s="20"/>
       <c r="H151" s="2" t="s">
@@ -8367,7 +8386,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -8390,7 +8409,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -8413,7 +8432,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -8436,7 +8455,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -8453,7 +8472,7 @@
         <v>310</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="G155" s="20"/>
       <c r="H155" s="2" t="s">
@@ -8463,7 +8482,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -8486,7 +8505,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -8509,7 +8528,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -8532,7 +8551,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -8555,7 +8574,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -8578,7 +8597,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -8601,7 +8620,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -8624,7 +8643,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -8647,7 +8666,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -8670,7 +8689,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -8693,7 +8712,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -8716,7 +8735,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -8733,7 +8752,7 @@
         <v>445</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G167" s="20"/>
       <c r="H167" s="2" t="s">
@@ -8743,7 +8762,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -8766,7 +8785,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -8789,7 +8808,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -8812,7 +8831,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -8835,7 +8854,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -8858,7 +8877,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -8875,7 +8894,7 @@
         <v>658</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>85</v>
@@ -8884,7 +8903,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -8901,7 +8920,7 @@
         <v>656</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="2" t="s">
@@ -8911,7 +8930,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -8928,10 +8947,10 @@
         <v>657</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>85</v>
@@ -8940,7 +8959,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -8957,7 +8976,7 @@
         <v>659</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G176" s="20"/>
       <c r="H176" s="2" t="s">
@@ -8967,7 +8986,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -8990,7 +9009,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -9007,7 +9026,7 @@
         <v>388</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="G178" s="25"/>
       <c r="H178" s="2" t="s">
@@ -9017,7 +9036,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -9040,7 +9059,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -9063,7 +9082,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -9086,7 +9105,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -9109,7 +9128,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -9126,7 +9145,7 @@
         <v>524</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="G183" s="20"/>
       <c r="H183" s="2" t="s">
@@ -9136,7 +9155,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -9153,7 +9172,7 @@
         <v>525</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="2" t="s">
@@ -9163,7 +9182,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -9180,7 +9199,7 @@
         <v>526</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="G185" s="20"/>
       <c r="H185" s="2" t="s">
@@ -9190,7 +9209,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -9213,7 +9232,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -9236,7 +9255,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -9259,7 +9278,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -9282,7 +9301,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -9307,7 +9326,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -9330,7 +9349,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -9347,7 +9366,7 @@
         <v>132</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>120</v>
@@ -9356,7 +9375,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -9379,7 +9398,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -9402,7 +9421,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -9425,7 +9444,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -9448,7 +9467,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -9471,7 +9490,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -9494,7 +9513,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -9511,7 +9530,7 @@
         <v>99</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="2" t="s">
@@ -9521,7 +9540,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -9538,7 +9557,7 @@
         <v>247</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="2" t="s">
@@ -9548,7 +9567,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -9571,7 +9590,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -9594,7 +9613,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -9617,7 +9636,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -9640,7 +9659,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -9663,7 +9682,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -9688,7 +9707,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -9713,7 +9732,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -9730,7 +9749,7 @@
         <v>399</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="G208" s="25"/>
       <c r="H208" s="2" t="s">
@@ -9740,7 +9759,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -9757,7 +9776,7 @@
         <v>400</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="G209" s="25"/>
       <c r="H209" s="2" t="s">
@@ -9767,7 +9786,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -9784,7 +9803,7 @@
         <v>401</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="G210" s="25"/>
       <c r="H210" s="2" t="s">
@@ -9794,7 +9813,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -9811,7 +9830,7 @@
         <v>402</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="G211" s="28"/>
       <c r="H211" s="2" t="s">
@@ -9821,7 +9840,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -9844,7 +9863,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -9867,7 +9886,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -9890,7 +9909,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -9907,7 +9926,7 @@
         <v>290</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="G215" s="19" t="s">
         <v>470</v>
@@ -9919,7 +9938,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -9942,7 +9961,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -9965,7 +9984,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -9988,7 +10007,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -10011,7 +10030,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -10034,7 +10053,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -10057,7 +10076,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -10074,7 +10093,7 @@
         <v>297</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="G222" s="18"/>
       <c r="H222" s="2" t="s">
@@ -10084,7 +10103,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -10107,7 +10126,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -10130,7 +10149,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -10153,7 +10172,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -10176,7 +10195,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -10199,7 +10218,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -10222,7 +10241,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -10245,7 +10264,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -10268,7 +10287,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -10291,7 +10310,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -10314,7 +10333,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -10337,7 +10356,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -10354,7 +10373,7 @@
         <v>443</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="G234" s="20"/>
       <c r="H234" s="2" t="s">
@@ -10364,7 +10383,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -10387,7 +10406,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -10404,7 +10423,7 @@
         <v>529</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="2" t="s">
@@ -10414,7 +10433,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -10437,7 +10456,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -10454,10 +10473,10 @@
         <v>117</v>
       </c>
       <c r="F238" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G238" s="19" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="H238" s="2" t="s">
         <v>85</v>
@@ -10466,7 +10485,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -10489,7 +10508,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -10512,7 +10531,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -10535,7 +10554,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -10552,7 +10571,7 @@
         <v>460</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="2" t="s">
@@ -10562,7 +10581,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -10579,7 +10598,7 @@
         <v>461</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="G243" s="18"/>
       <c r="H243" s="2" t="s">
@@ -10589,7 +10608,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -10612,7 +10631,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -10629,7 +10648,7 @@
         <v>532</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="2" t="s">
@@ -10639,7 +10658,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -10656,7 +10675,7 @@
         <v>118</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H246" s="2" t="s">
         <v>85</v>
@@ -10665,7 +10684,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -10682,10 +10701,10 @@
         <v>223</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="G247" s="19" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>120</v>
@@ -10694,7 +10713,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -10717,7 +10736,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -10740,7 +10759,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -10757,7 +10776,7 @@
         <v>463</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="2" t="s">
@@ -10767,7 +10786,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -10784,7 +10803,7 @@
         <v>534</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="G251" s="20"/>
       <c r="H251" s="2" t="s">
@@ -10794,7 +10813,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -10811,7 +10830,7 @@
         <v>533</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="G252" s="20"/>
       <c r="H252" s="2" t="s">
@@ -10821,7 +10840,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -10844,7 +10863,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -10861,10 +10880,10 @@
         <v>60</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="G254" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>59</v>
@@ -10873,7 +10892,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -10890,10 +10909,10 @@
         <v>249</v>
       </c>
       <c r="F255" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G255" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>248</v>
@@ -10902,7 +10921,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -10919,10 +10938,10 @@
         <v>276</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="G256" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H256" s="2" t="s">
         <v>351</v>
@@ -10931,7 +10950,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -10948,10 +10967,10 @@
         <v>278</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="G257" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>351</v>
@@ -10960,7 +10979,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -10977,10 +10996,10 @@
         <v>279</v>
       </c>
       <c r="F258" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="G258" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>351</v>
@@ -10989,7 +11008,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -11006,10 +11025,10 @@
         <v>372</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="G259" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>369</v>
@@ -11018,7 +11037,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -11035,10 +11054,10 @@
         <v>241</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="G260" s="19" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>238</v>
@@ -11047,7 +11066,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -11064,10 +11083,10 @@
         <v>357</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="G261" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>352</v>
@@ -11093,10 +11112,10 @@
         <v>621</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="G262" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>547</v>
@@ -11122,10 +11141,10 @@
         <v>363</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="G263" s="19" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>352</v>
@@ -11151,10 +11170,10 @@
         <v>620</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="G264" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>547</v>
@@ -11180,10 +11199,10 @@
         <v>622</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="G265" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>547</v>
@@ -11192,7 +11211,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -11209,10 +11228,10 @@
         <v>605</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="G266" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>352</v>
@@ -11221,7 +11240,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -11238,10 +11257,10 @@
         <v>456</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G267" s="22" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>429</v>
@@ -11250,7 +11269,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -11267,10 +11286,10 @@
         <v>606</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="G268" s="22" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>352</v>
@@ -11279,7 +11298,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -11296,10 +11315,10 @@
         <v>607</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="G269" s="22" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="H269" s="2" t="s">
         <v>352</v>
@@ -11308,7 +11327,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -11325,10 +11344,10 @@
         <v>678</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="G270" s="22" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>547</v>
@@ -11337,7 +11356,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -11354,10 +11373,10 @@
         <v>680</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="G271" s="22" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>547</v>
@@ -11366,7 +11385,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -11383,10 +11402,10 @@
         <v>387</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="G272" s="22" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>369</v>
@@ -11395,7 +11414,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -11412,10 +11431,10 @@
         <v>677</v>
       </c>
       <c r="F273" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="G273" s="22" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>547</v>
@@ -11424,7 +11443,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -11441,10 +11460,10 @@
         <v>676</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="G274" s="22" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>547</v>
@@ -11453,7 +11472,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -11470,10 +11489,10 @@
         <v>679</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="G275" s="22" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>547</v>
@@ -11482,7 +11501,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -11499,10 +11518,10 @@
         <v>458</v>
       </c>
       <c r="F276" s="9" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="G276" s="22" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>429</v>
@@ -11511,7 +11530,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -11528,10 +11547,10 @@
         <v>499</v>
       </c>
       <c r="F277" s="9" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="G277" s="22" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>416</v>
@@ -11540,7 +11559,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -11557,7 +11576,7 @@
         <v>88</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H278" s="2" t="s">
         <v>85</v>
@@ -11566,7 +11585,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -11583,7 +11602,7 @@
         <v>239</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="G279" s="18"/>
       <c r="H279" s="2" t="s">
@@ -11593,7 +11612,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -11610,7 +11629,7 @@
         <v>355</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>352</v>
@@ -11619,7 +11638,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -11636,7 +11655,7 @@
         <v>231</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>230</v>
@@ -11645,7 +11664,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -11662,7 +11681,7 @@
         <v>370</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>369</v>
@@ -11671,7 +11690,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -11688,7 +11707,7 @@
         <v>371</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="G283" s="25"/>
       <c r="H283" s="2" t="s">
@@ -11698,7 +11717,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -11715,7 +11734,7 @@
         <v>123</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="G284" s="20"/>
       <c r="H284" s="2" t="s">
@@ -11725,7 +11744,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -11742,7 +11761,7 @@
         <v>124</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="2" t="s">
@@ -11752,7 +11771,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -11769,7 +11788,7 @@
         <v>250</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>248</v>
@@ -11778,7 +11797,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -11795,7 +11814,7 @@
         <v>408</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="2" t="s">
@@ -11805,7 +11824,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -11822,7 +11841,7 @@
         <v>277</v>
       </c>
       <c r="F288" s="11" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="G288" s="20"/>
       <c r="H288" s="2" t="s">
@@ -11832,7 +11851,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -11849,7 +11868,7 @@
         <v>430</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G289" s="18"/>
       <c r="H289" s="2" t="s">
@@ -11859,7 +11878,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -11876,7 +11895,7 @@
         <v>431</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>429</v>
@@ -11885,7 +11904,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -11902,7 +11921,7 @@
         <v>89</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H291" s="2" t="s">
         <v>85</v>
@@ -11911,7 +11930,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -11928,7 +11947,7 @@
         <v>232</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>230</v>
@@ -11937,7 +11956,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -11954,7 +11973,7 @@
         <v>373</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="G293" s="28"/>
       <c r="H293" s="2" t="s">
@@ -11964,7 +11983,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -11981,7 +12000,7 @@
         <v>125</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="G294" s="20"/>
       <c r="H294" s="2" t="s">
@@ -11991,7 +12010,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -12008,7 +12027,7 @@
         <v>126</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="2" t="s">
@@ -12018,7 +12037,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -12035,7 +12054,7 @@
         <v>251</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="G296" s="18"/>
       <c r="H296" s="2" t="s">
@@ -12045,7 +12064,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -12062,7 +12081,7 @@
         <v>432</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G297" s="18"/>
       <c r="H297" s="2" t="s">
@@ -12072,7 +12091,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -12089,7 +12108,7 @@
         <v>433</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="G298" s="20"/>
       <c r="H298" s="2" t="s">
@@ -12099,7 +12118,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -12116,7 +12135,7 @@
         <v>496</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="2" t="s">
@@ -12126,7 +12145,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -12143,7 +12162,7 @@
         <v>61</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="G300" s="18"/>
       <c r="H300" s="2" t="s">
@@ -12153,7 +12172,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -12170,7 +12189,7 @@
         <v>374</v>
       </c>
       <c r="F301" s="14" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="G301" s="25"/>
       <c r="H301" s="2" t="s">
@@ -12180,7 +12199,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -12197,7 +12216,7 @@
         <v>375</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="G302" s="28"/>
       <c r="H302" s="2" t="s">
@@ -12207,7 +12226,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -12224,7 +12243,7 @@
         <v>376</v>
       </c>
       <c r="F303" s="14" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="G303" s="25"/>
       <c r="H303" s="2" t="s">
@@ -12234,7 +12253,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -12251,7 +12270,7 @@
         <v>127</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="2" t="s">
@@ -12261,7 +12280,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -12278,7 +12297,7 @@
         <v>128</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="2" t="s">
@@ -12288,7 +12307,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -12305,7 +12324,7 @@
         <v>129</v>
       </c>
       <c r="F306" s="11" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="G306" s="20"/>
       <c r="H306" s="2" t="s">
@@ -12315,7 +12334,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -12332,7 +12351,7 @@
         <v>130</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="G307" s="20"/>
       <c r="H307" s="2" t="s">
@@ -12342,7 +12361,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -12359,7 +12378,7 @@
         <v>409</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>407</v>
@@ -12368,7 +12387,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -12385,7 +12404,7 @@
         <v>434</v>
       </c>
       <c r="F309" s="11" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="G309" s="20"/>
       <c r="H309" s="2" t="s">
@@ -12395,7 +12414,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -12412,7 +12431,7 @@
         <v>497</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="H310" s="2" t="s">
         <v>416</v>
@@ -12438,7 +12457,7 @@
         <v>153</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="2" t="s">
@@ -12465,7 +12484,7 @@
         <v>154</v>
       </c>
       <c r="F312" s="11" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="2" t="s">
@@ -12492,7 +12511,7 @@
         <v>413</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>407</v>
@@ -12518,7 +12537,7 @@
         <v>444</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G314" s="18"/>
       <c r="H314" s="2" t="s">
@@ -12528,7 +12547,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -12545,7 +12564,7 @@
         <v>114</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H315" s="2" t="s">
         <v>85</v>
@@ -12554,7 +12573,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -12571,7 +12590,7 @@
         <v>423</v>
       </c>
       <c r="F316" s="11" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="G316" s="20"/>
       <c r="H316" s="2" t="s">
@@ -12581,7 +12600,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -12598,7 +12617,7 @@
         <v>204</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="G317" s="20"/>
       <c r="H317" s="2" t="s">
@@ -12608,7 +12627,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -12625,7 +12644,7 @@
         <v>205</v>
       </c>
       <c r="F318" s="11" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>120</v>
@@ -12634,7 +12653,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -12651,7 +12670,7 @@
         <v>498</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>416</v>
@@ -12660,7 +12679,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -12677,7 +12696,7 @@
         <v>206</v>
       </c>
       <c r="F320" s="11" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>120</v>
@@ -12686,7 +12705,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -12703,7 +12722,7 @@
         <v>207</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>120</v>
@@ -12712,7 +12731,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -12729,7 +12748,7 @@
         <v>262</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>248</v>
@@ -12738,7 +12757,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -12755,7 +12774,7 @@
         <v>263</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="H323" s="2" t="s">
         <v>248</v>
@@ -12764,7 +12783,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -12781,7 +12800,7 @@
         <v>457</v>
       </c>
       <c r="F324" s="11" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>429</v>
@@ -12790,7 +12809,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -12807,7 +12826,7 @@
         <v>98</v>
       </c>
       <c r="F325" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G325" s="18"/>
       <c r="H325" s="2" t="s">
@@ -12817,7 +12836,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -12840,7 +12859,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -12863,7 +12882,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -12886,7 +12905,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -12909,7 +12928,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -12932,7 +12951,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -12955,7 +12974,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -12978,7 +12997,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -13001,7 +13020,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -13024,7 +13043,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -13047,7 +13066,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -13070,7 +13089,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -13087,7 +13106,7 @@
         <v>412</v>
       </c>
       <c r="F337" s="15" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>407</v>
@@ -13096,7 +13115,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -13119,7 +13138,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -13136,7 +13155,7 @@
         <v>442</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="G339" s="18"/>
       <c r="H339" s="2" t="s">
@@ -13146,7 +13165,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -13163,7 +13182,7 @@
         <v>538</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="G340" s="20"/>
       <c r="H340" s="2" t="s">
@@ -13173,7 +13192,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -13190,7 +13209,7 @@
         <v>536</v>
       </c>
       <c r="F341" s="11" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="G341" s="20"/>
       <c r="H341" s="2" t="s">
@@ -13200,7 +13219,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -13217,7 +13236,7 @@
         <v>537</v>
       </c>
       <c r="F342" s="11" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="G342" s="20"/>
       <c r="H342" s="2" t="s">
@@ -13227,7 +13246,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -13244,7 +13263,7 @@
         <v>226</v>
       </c>
       <c r="F343" s="11" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="G343" s="20"/>
       <c r="H343" s="2" t="s">
@@ -13254,7 +13273,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -13271,7 +13290,7 @@
         <v>227</v>
       </c>
       <c r="F344" s="11" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="G344" s="20"/>
       <c r="H344" s="2" t="s">
@@ -13281,7 +13300,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -13298,7 +13317,7 @@
         <v>228</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="G345" s="20"/>
       <c r="H345" s="2" t="s">
@@ -13308,7 +13327,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -13325,7 +13344,7 @@
         <v>411</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>407</v>
@@ -13334,7 +13353,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -13351,10 +13370,10 @@
         <v>500</v>
       </c>
       <c r="F347" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="G347" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>416</v>
@@ -13363,7 +13382,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -13380,10 +13399,10 @@
         <v>92</v>
       </c>
       <c r="F348" s="9" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="G348" s="19" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="H348" s="2" t="s">
         <v>85</v>
@@ -13392,7 +13411,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -13415,7 +13434,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -13438,7 +13457,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -13461,7 +13480,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -13486,7 +13505,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -13509,7 +13528,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -13532,7 +13551,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -13555,7 +13574,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -13578,7 +13597,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -13601,7 +13620,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -13624,7 +13643,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -13641,7 +13660,7 @@
         <v>93</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H359" s="2" t="s">
         <v>85</v>
@@ -13650,7 +13669,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -13673,7 +13692,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -13698,7 +13717,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -13721,7 +13740,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -13744,7 +13763,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -13767,7 +13786,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -13790,7 +13809,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -13813,7 +13832,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -13836,7 +13855,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -13859,7 +13878,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -13882,7 +13901,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -13905,7 +13924,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -13928,7 +13947,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -13951,7 +13970,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -13974,7 +13993,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -13997,7 +14016,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -14020,7 +14039,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -14043,7 +14062,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -14068,7 +14087,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -14093,7 +14112,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -14116,7 +14135,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -14139,7 +14158,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -14162,7 +14181,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -14185,7 +14204,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -14208,7 +14227,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -14231,7 +14250,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -14254,7 +14273,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -14277,7 +14296,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -14300,7 +14319,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -14323,7 +14342,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -14348,7 +14367,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -14373,7 +14392,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -14398,7 +14417,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -14421,7 +14440,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -14444,7 +14463,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -14467,7 +14486,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -14492,7 +14511,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -14517,7 +14536,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -14542,7 +14561,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -14565,7 +14584,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -14590,7 +14609,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -14613,7 +14632,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -14636,7 +14655,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -14659,7 +14678,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -14682,7 +14701,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -14707,7 +14726,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -14730,7 +14749,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -14753,7 +14772,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -14776,7 +14795,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -14799,7 +14818,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -14822,7 +14841,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -14845,7 +14864,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -14868,7 +14887,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -14893,7 +14912,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -14916,7 +14935,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -14941,7 +14960,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -14966,7 +14985,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -14989,7 +15008,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -15012,7 +15031,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -15035,7 +15054,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -15058,7 +15077,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -15081,7 +15100,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -15104,7 +15123,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -15127,7 +15146,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -15150,7 +15169,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -15173,7 +15192,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -15196,7 +15215,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -15219,7 +15238,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -15242,7 +15261,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -15265,7 +15284,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -15288,7 +15307,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -15311,7 +15330,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -15334,7 +15353,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -15357,7 +15376,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -15380,7 +15399,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -15403,7 +15422,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -15426,7 +15445,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -15451,7 +15470,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -15476,7 +15495,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -15499,7 +15518,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -15522,7 +15541,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -15545,7 +15564,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -15568,7 +15587,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -15591,7 +15610,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -15614,7 +15633,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -15637,7 +15656,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -15660,7 +15679,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -15683,7 +15702,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -15708,7 +15727,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -15731,7 +15750,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -15754,7 +15773,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -15777,7 +15796,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -15800,7 +15819,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -15823,7 +15842,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -15846,7 +15865,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -15869,7 +15888,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -15894,7 +15913,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -15917,7 +15936,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -15940,7 +15959,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -15965,7 +15984,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -15988,7 +16007,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -16011,7 +16030,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -16034,7 +16053,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -16057,7 +16076,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -16080,7 +16099,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -16103,7 +16122,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -16126,7 +16145,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -16149,7 +16168,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -16172,7 +16191,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -16195,7 +16214,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -16218,7 +16237,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -16241,7 +16260,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -16264,7 +16283,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -16287,7 +16306,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -16310,7 +16329,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -16333,7 +16352,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -16356,7 +16375,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -16379,7 +16398,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -16402,7 +16421,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -16425,7 +16444,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -16448,7 +16467,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -16471,7 +16490,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -16494,7 +16513,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -16517,7 +16536,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -16540,7 +16559,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -16563,7 +16582,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -16586,7 +16605,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -16609,7 +16628,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -16632,7 +16651,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -16655,7 +16674,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -16678,7 +16697,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -16701,7 +16720,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -16724,7 +16743,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -16747,7 +16766,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -16770,7 +16789,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -16793,7 +16812,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -16816,7 +16835,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -16839,7 +16858,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -16862,7 +16881,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -16885,7 +16904,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -16908,7 +16927,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -16931,7 +16950,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -16954,7 +16973,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -16977,7 +16996,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -17000,7 +17019,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -17023,7 +17042,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -17046,7 +17065,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -17069,7 +17088,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -17092,7 +17111,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -17115,7 +17134,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -17138,7 +17157,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -17161,7 +17180,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -17184,7 +17203,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -17207,7 +17226,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -17230,7 +17249,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -17253,7 +17272,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -17276,7 +17295,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -17299,7 +17318,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -17324,7 +17343,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -17347,7 +17366,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -17370,7 +17389,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -17393,7 +17412,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -17416,7 +17435,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -17439,7 +17458,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -17462,7 +17481,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -17485,7 +17504,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -17508,7 +17527,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -17531,7 +17550,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -17554,7 +17573,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -17577,7 +17596,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -17600,7 +17619,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -17623,7 +17642,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -17646,7 +17665,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -17669,7 +17688,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -17692,7 +17711,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -17715,7 +17734,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -17738,7 +17757,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -17761,7 +17780,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -17784,7 +17803,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -17807,7 +17826,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -17830,7 +17849,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -17853,7 +17872,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -17876,7 +17895,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -17899,7 +17918,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -17922,7 +17941,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -17945,7 +17964,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -17968,7 +17987,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="546" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -17991,7 +18010,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="547" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -18014,7 +18033,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -18037,7 +18056,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -18060,7 +18079,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -18083,7 +18102,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="551" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -18106,7 +18125,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -18129,7 +18148,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -18152,7 +18171,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -18175,7 +18194,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -18198,7 +18217,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -18221,7 +18240,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -18244,7 +18263,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -18267,7 +18286,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -18290,7 +18309,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -18313,7 +18332,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -18336,7 +18355,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -18359,7 +18378,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -18382,7 +18401,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -18405,7 +18424,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -18428,7 +18447,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -18451,7 +18470,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -18474,7 +18493,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -18497,7 +18516,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -18520,7 +18539,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -18543,7 +18562,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -18566,7 +18585,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -18589,7 +18608,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -18612,7 +18631,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -18635,7 +18654,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -18658,7 +18677,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -18681,7 +18700,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -18704,7 +18723,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="578" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -18727,7 +18746,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -18750,7 +18769,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>579</v>
       </c>
@@ -18773,7 +18792,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>580</v>
       </c>
@@ -18796,7 +18815,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -18819,7 +18838,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -18842,7 +18861,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -18865,7 +18884,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>584</v>
       </c>
@@ -18888,7 +18907,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>585</v>
       </c>
@@ -18911,7 +18930,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>586</v>
       </c>
@@ -18934,7 +18953,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>587</v>
       </c>
@@ -18957,7 +18976,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>588</v>
       </c>
@@ -18980,7 +18999,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>589</v>
       </c>
@@ -19003,7 +19022,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="591" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>590</v>
       </c>
@@ -19026,7 +19045,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="592" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>591</v>
       </c>
@@ -19049,7 +19068,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>592</v>
       </c>
@@ -19072,7 +19091,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>593</v>
       </c>
@@ -19095,7 +19114,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>594</v>
       </c>
@@ -19118,7 +19137,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>595</v>
       </c>
@@ -19141,7 +19160,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>596</v>
       </c>
@@ -19164,7 +19183,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>597</v>
       </c>
@@ -19187,7 +19206,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>598</v>
       </c>
@@ -19210,7 +19229,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>599</v>
       </c>
@@ -19233,7 +19252,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>600</v>
       </c>
@@ -19256,7 +19275,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>601</v>
       </c>
@@ -19279,7 +19298,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>602</v>
       </c>
@@ -19302,7 +19321,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="604" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>603</v>
       </c>
@@ -19327,7 +19346,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>604</v>
       </c>
@@ -19350,7 +19369,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>605</v>
       </c>
@@ -19375,7 +19394,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="607" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>606</v>
       </c>
@@ -19398,7 +19417,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>607</v>
       </c>
@@ -19421,7 +19440,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="609" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>608</v>
       </c>
@@ -19444,7 +19463,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="610" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>609</v>
       </c>
@@ -19467,7 +19486,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="611" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>610</v>
       </c>
@@ -19481,13 +19500,13 @@
         <v>49</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="F611" s="9" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="G611" s="19" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="H611" s="2" t="s">
         <v>547</v>
@@ -19496,7 +19515,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>611</v>
       </c>
@@ -19510,10 +19529,10 @@
         <v>45</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="F612" s="11" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="G612" s="20"/>
       <c r="H612" s="2" t="s">
@@ -19523,7 +19542,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="613" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>612</v>
       </c>
@@ -19537,13 +19556,13 @@
         <v>46</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="F613" s="9" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="G613" s="19" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="H613" s="2" t="s">
         <v>547</v>
@@ -19552,7 +19571,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="614" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>613</v>
       </c>
@@ -19566,10 +19585,10 @@
         <v>45</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="F614" s="11" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="G614" s="20"/>
       <c r="H614" s="2" t="s">
@@ -19579,12 +19598,12 @@
         <v>708</v>
       </c>
     </row>
-    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>6</v>
@@ -19593,10 +19612,10 @@
         <v>45</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="F615" s="11" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>547</v>
@@ -19605,7 +19624,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="616" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>615</v>
       </c>
@@ -19619,10 +19638,10 @@
         <v>46</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="F616" s="9" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="H616" s="2" t="s">
         <v>547</v>
@@ -19631,7 +19650,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>616</v>
       </c>
@@ -19645,10 +19664,10 @@
         <v>45</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="F617" s="11" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="H617" s="2" t="s">
         <v>547</v>
@@ -19657,54 +19676,45 @@
         <v>708</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="E618" s="2" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="F618" s="9" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F619" s="11" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E620" s="2" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="F620" s="11" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F621" s="2" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
     </row>
     <row r="622" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E622" s="2" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="G622" s="22" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H619">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="FamilyHistory"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="B254:H324">
-      <sortCondition sortBy="cellColor" ref="F1:F617" dxfId="1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B1:H619"/>
   <sortState ref="B2:I610">
     <sortCondition ref="B2:B610"/>
     <sortCondition ref="C2:C610"/>
@@ -19712,7 +19722,7 @@
     <sortCondition ref="H2:H610"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21179,17 +21189,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -3982,16 +3982,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4288,13 +4279,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13382,7 +13374,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -13411,7 +13403,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -13434,7 +13426,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -13457,7 +13449,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -13480,7 +13472,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -13505,7 +13497,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -13528,7 +13520,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -13551,7 +13543,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -13574,7 +13566,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -13597,7 +13589,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -13620,7 +13612,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -13643,7 +13635,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -13669,7 +13661,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -13692,7 +13684,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -13717,7 +13709,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -13740,7 +13732,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -13763,7 +13755,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -13786,7 +13778,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -13809,7 +13801,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -13832,7 +13824,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -13855,7 +13847,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -13878,7 +13870,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -13901,7 +13893,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -13924,7 +13916,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -13947,7 +13939,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -13970,7 +13962,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -13993,7 +13985,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -14016,7 +14008,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -14039,7 +14031,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -14062,7 +14054,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -14087,7 +14079,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -14112,7 +14104,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -14135,7 +14127,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -14158,7 +14150,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -14181,7 +14173,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -14204,7 +14196,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -14227,7 +14219,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -14250,7 +14242,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -14273,7 +14265,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -14296,7 +14288,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -14319,7 +14311,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -14342,7 +14334,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -14367,7 +14359,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -14392,7 +14384,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -14417,7 +14409,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -14440,7 +14432,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -14463,7 +14455,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -14486,7 +14478,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -14511,7 +14503,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -14536,7 +14528,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -14561,7 +14553,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -14584,7 +14576,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -14609,7 +14601,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -14632,7 +14624,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -14655,7 +14647,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -14678,7 +14670,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -14701,7 +14693,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -14726,7 +14718,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -14749,7 +14741,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -14772,7 +14764,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -14795,7 +14787,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -14818,7 +14810,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -14841,7 +14833,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -14864,7 +14856,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -14887,7 +14879,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -14912,7 +14904,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -14935,7 +14927,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -14960,7 +14952,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -14985,7 +14977,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -15008,7 +15000,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -15031,7 +15023,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -15054,7 +15046,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -15077,7 +15069,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -15100,7 +15092,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -15123,7 +15115,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -15146,7 +15138,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -15169,7 +15161,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -15192,7 +15184,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -15215,7 +15207,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -15238,7 +15230,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -15261,7 +15253,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -15284,7 +15276,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -15307,7 +15299,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -15330,7 +15322,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -15353,7 +15345,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -15376,7 +15368,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -15399,7 +15391,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -15422,7 +15414,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -15445,7 +15437,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -15470,7 +15462,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -15495,7 +15487,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -15518,7 +15510,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -15541,7 +15533,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -15564,7 +15556,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -15587,7 +15579,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -15610,7 +15602,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -15633,7 +15625,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -15656,7 +15648,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -15679,7 +15671,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -15702,7 +15694,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -15727,7 +15719,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -15750,7 +15742,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -15773,7 +15765,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -15796,7 +15788,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -15819,7 +15811,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -15842,7 +15834,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -15865,7 +15857,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -15888,7 +15880,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -15913,7 +15905,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -15936,7 +15928,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -15959,7 +15951,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -15984,7 +15976,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -16007,7 +15999,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -16030,7 +16022,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -16053,7 +16045,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -16076,7 +16068,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -16099,7 +16091,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -16122,7 +16114,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -16145,7 +16137,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -16168,7 +16160,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -16191,7 +16183,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -16214,7 +16206,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -16237,7 +16229,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -16260,7 +16252,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -16283,7 +16275,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -16306,7 +16298,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -16329,7 +16321,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -16352,7 +16344,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -16375,7 +16367,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -16398,7 +16390,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -16421,7 +16413,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -16444,7 +16436,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -16467,7 +16459,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -16490,7 +16482,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -16513,7 +16505,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -16536,7 +16528,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -16559,7 +16551,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -16582,7 +16574,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -16605,7 +16597,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -16628,7 +16620,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -16651,7 +16643,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -16674,7 +16666,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -16697,7 +16689,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -16720,7 +16712,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -16743,7 +16735,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -16766,7 +16758,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -16789,7 +16781,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -16812,7 +16804,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -16835,7 +16827,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -16858,7 +16850,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -16881,7 +16873,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -16904,7 +16896,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -16927,7 +16919,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -16950,7 +16942,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -16973,7 +16965,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -16996,7 +16988,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -17019,7 +17011,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -17042,7 +17034,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -17065,7 +17057,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -17088,7 +17080,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -17111,7 +17103,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -17134,7 +17126,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -17157,7 +17149,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -17180,7 +17172,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -17203,7 +17195,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -17226,7 +17218,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -17249,7 +17241,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -17272,7 +17264,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -17295,7 +17287,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -17318,7 +17310,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -17343,7 +17335,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -17366,7 +17358,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -17389,7 +17381,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -17412,7 +17404,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -17435,7 +17427,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -17458,7 +17450,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -17481,7 +17473,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -17504,7 +17496,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -17527,7 +17519,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -17550,7 +17542,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -17573,7 +17565,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -17596,7 +17588,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -17619,7 +17611,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -17642,7 +17634,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -17665,7 +17657,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -17688,7 +17680,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -17711,7 +17703,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -17734,7 +17726,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -17757,7 +17749,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -17780,7 +17772,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -17803,7 +17795,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -17826,7 +17818,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -17849,7 +17841,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -17872,7 +17864,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -17895,7 +17887,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -17918,7 +17910,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -17941,7 +17933,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -17964,7 +17956,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -17987,7 +17979,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="546" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -18010,7 +18002,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="547" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -18033,7 +18025,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -18056,7 +18048,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -18079,7 +18071,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -18102,7 +18094,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="551" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -18125,7 +18117,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -18148,7 +18140,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -18171,7 +18163,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -18194,7 +18186,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -18217,7 +18209,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -18240,7 +18232,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -18263,7 +18255,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -18286,7 +18278,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -18309,7 +18301,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -18332,7 +18324,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -18355,7 +18347,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -18378,7 +18370,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -18401,7 +18393,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -18424,7 +18416,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -18447,7 +18439,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -18470,7 +18462,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -18493,7 +18485,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -18516,7 +18508,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -18539,7 +18531,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -18562,7 +18554,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -18585,7 +18577,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -18608,7 +18600,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -18631,7 +18623,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -18654,7 +18646,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -18677,7 +18669,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -18700,7 +18692,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -18723,7 +18715,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="578" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -18746,7 +18738,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -18769,7 +18761,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>579</v>
       </c>
@@ -18792,7 +18784,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>580</v>
       </c>
@@ -18815,7 +18807,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -18838,7 +18830,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -18861,7 +18853,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -18884,7 +18876,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>584</v>
       </c>
@@ -18907,7 +18899,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>585</v>
       </c>
@@ -18930,7 +18922,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>586</v>
       </c>
@@ -18953,7 +18945,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>587</v>
       </c>
@@ -18976,7 +18968,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>588</v>
       </c>
@@ -18999,7 +18991,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>589</v>
       </c>
@@ -19022,7 +19014,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="591" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>590</v>
       </c>
@@ -19045,7 +19037,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="592" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>591</v>
       </c>
@@ -19068,7 +19060,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>592</v>
       </c>
@@ -19091,7 +19083,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>593</v>
       </c>
@@ -19114,7 +19106,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>594</v>
       </c>
@@ -19137,7 +19129,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>595</v>
       </c>
@@ -19160,7 +19152,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>596</v>
       </c>
@@ -19183,7 +19175,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>597</v>
       </c>
@@ -19206,7 +19198,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>598</v>
       </c>
@@ -19229,7 +19221,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>599</v>
       </c>
@@ -19252,7 +19244,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>600</v>
       </c>
@@ -19275,7 +19267,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>601</v>
       </c>
@@ -19298,7 +19290,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>602</v>
       </c>
@@ -19321,7 +19313,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="604" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>603</v>
       </c>
@@ -19346,7 +19338,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>604</v>
       </c>
@@ -19369,7 +19361,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>605</v>
       </c>
@@ -19394,7 +19386,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="607" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>606</v>
       </c>
@@ -19417,7 +19409,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>607</v>
       </c>
@@ -19440,7 +19432,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="609" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>608</v>
       </c>
@@ -19463,7 +19455,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="610" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>609</v>
       </c>
@@ -19624,7 +19616,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="616" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>615</v>
       </c>
@@ -19650,7 +19642,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>616</v>
       </c>
@@ -19676,7 +19668,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="E618" s="2" t="s">
         <v>919</v>
       </c>
@@ -19684,7 +19676,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F619" s="11" t="s">
         <v>922</v>
       </c>
@@ -19714,7 +19706,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H619"/>
+  <autoFilter ref="B1:H619">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Core"/>
+        <filter val="Core (CGIT)"/>
+        <filter val="Core (DICOM)"/>
+        <filter val="Core (IHE)"/>
+        <filter val="Core (PC)"/>
+        <filter val="Core (SD)"/>
+        <filter val="Core (Vocab)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B2:I610">
     <sortCondition ref="B2:B610"/>
     <sortCondition ref="C2:C610"/>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -3090,9 +3090,6 @@
     <t>Provide guidance on use of name "recorder" vs. "author" - when appropriate for business usage</t>
   </si>
   <si>
-    <t>Provide guidance on use of name "type" vs. "code" - when appropriate for business usage</t>
-  </si>
-  <si>
     <t>Methodology discussion on correspondance between elements in "referenced" resources (subject, visit, etc.)</t>
   </si>
   <si>
@@ -3757,6 +3754,9 @@
   </si>
   <si>
     <t>#46 add a bit more documentation about this. There's now also a list of possible codes.</t>
+  </si>
+  <si>
+    <t>Provide guidance on use of name "type" vs. "code" - when appropriate for business usage - general guidance is to use "type", not "code".  Will update specs accordingly.</t>
   </si>
 </sst>
 </file>
@@ -4283,10 +4283,10 @@
   <dimension ref="A1:I622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4429,8 +4429,8 @@
       <c r="E5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>954</v>
+      <c r="F5" s="11" t="s">
+        <v>953</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="2" t="s">
@@ -4483,11 +4483,11 @@
       <c r="E7" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>940</v>
+      <c r="F7" s="11" t="s">
+        <v>939</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>352</v>
@@ -4543,7 +4543,7 @@
         <v>741</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>547</v>
@@ -4598,7 +4598,7 @@
         <v>743</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>120</v>
@@ -4654,7 +4654,7 @@
         <v>745</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>407</v>
@@ -4709,7 +4709,7 @@
         <v>747</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>54</v>
@@ -4718,7 +4718,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4734,11 +4734,11 @@
       <c r="E16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>748</v>
+      <c r="F16" s="11" t="s">
+        <v>957</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>54</v>
@@ -4764,10 +4764,10 @@
         <v>640</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>547</v>
@@ -4793,10 +4793,10 @@
         <v>482</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>416</v>
@@ -4822,7 +4822,7 @@
         <v>479</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>416</v>
@@ -4848,7 +4848,7 @@
         <v>478</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>416</v>
@@ -4874,10 +4874,10 @@
         <v>480</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>416</v>
@@ -4903,7 +4903,7 @@
         <v>481</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="2" t="s">
@@ -4930,7 +4930,7 @@
         <v>483</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="2" t="s">
@@ -4945,7 +4945,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -4956,8 +4956,8 @@
       <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>955</v>
+      <c r="F24" s="11" t="s">
+        <v>954</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="2" t="s">
@@ -4972,7 +4972,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -4998,7 +4998,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -5010,7 +5010,7 @@
         <v>359</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>352</v>
@@ -5024,7 +5024,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -5035,8 +5035,8 @@
       <c r="E27" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>956</v>
+      <c r="F27" s="11" t="s">
+        <v>955</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="2" t="s">
@@ -5051,7 +5051,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -5063,10 +5063,10 @@
         <v>380</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>369</v>
@@ -5080,7 +5080,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -5092,7 +5092,7 @@
         <v>134</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>120</v>
@@ -5106,7 +5106,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
@@ -5118,7 +5118,7 @@
         <v>254</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>248</v>
@@ -5132,7 +5132,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -5144,7 +5144,7 @@
         <v>485</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>416</v>
@@ -5158,7 +5158,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -5170,7 +5170,7 @@
         <v>484</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>416</v>
@@ -5184,7 +5184,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -5196,7 +5196,7 @@
         <v>486</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>416</v>
@@ -5222,7 +5222,7 @@
         <v>64</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="2" t="s">
@@ -5276,7 +5276,7 @@
         <v>489</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="2" t="s">
@@ -5303,7 +5303,7 @@
         <v>487</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>352</v>
@@ -5329,7 +5329,7 @@
         <v>488</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="2" t="s">
@@ -5356,7 +5356,7 @@
         <v>490</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="2" t="s">
@@ -5383,7 +5383,7 @@
         <v>155</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="2" t="s">
@@ -5410,7 +5410,7 @@
         <v>417</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>416</v>
@@ -5435,11 +5435,11 @@
       <c r="E42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>941</v>
+      <c r="F42" s="11" t="s">
+        <v>940</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>59</v>
@@ -5492,7 +5492,7 @@
         <v>491</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="2" t="s">
@@ -5519,7 +5519,7 @@
         <v>161</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="2" t="s">
@@ -5546,7 +5546,7 @@
         <v>162</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="2" t="s">
@@ -5572,8 +5572,8 @@
       <c r="E47" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>957</v>
+      <c r="F47" s="11" t="s">
+        <v>956</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="2" t="s">
@@ -5600,7 +5600,7 @@
         <v>321</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="2" t="s">
@@ -5627,7 +5627,7 @@
         <v>447</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="2" t="s">
@@ -5654,7 +5654,7 @@
         <v>418</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>416</v>
@@ -5706,7 +5706,7 @@
         <v>514</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="2" t="s">
@@ -5733,7 +5733,7 @@
         <v>513</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="2" t="s">
@@ -5760,7 +5760,7 @@
         <v>163</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="2" t="s">
@@ -5787,7 +5787,7 @@
         <v>492</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="2" t="s">
@@ -5814,7 +5814,7 @@
         <v>71</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="2" t="s">
@@ -5870,7 +5870,7 @@
         <v>724</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>85</v>
@@ -5922,11 +5922,11 @@
       <c r="E60" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>942</v>
+      <c r="F60" s="11" t="s">
+        <v>941</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>352</v>
@@ -5952,7 +5952,7 @@
         <v>516</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="2" t="s">
@@ -5979,7 +5979,7 @@
         <v>167</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="2" t="s">
@@ -6005,11 +6005,11 @@
       <c r="E63" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>943</v>
+      <c r="F63" s="11" t="s">
+        <v>942</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>120</v>
@@ -6035,10 +6035,10 @@
         <v>169</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>120</v>
@@ -6063,11 +6063,11 @@
       <c r="E65" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>945</v>
+      <c r="F65" s="11" t="s">
+        <v>944</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>120</v>
@@ -6093,7 +6093,7 @@
         <v>269</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="2" t="s">
@@ -6120,7 +6120,7 @@
         <v>418</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="2" t="s">
@@ -6135,7 +6135,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
@@ -6162,7 +6162,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
@@ -6173,11 +6173,11 @@
       <c r="E69" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>946</v>
+      <c r="F69" s="11" t="s">
+        <v>945</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>120</v>
@@ -6191,7 +6191,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
@@ -6203,7 +6203,7 @@
         <v>209</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="2" t="s">
@@ -6218,7 +6218,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
@@ -6230,7 +6230,7 @@
         <v>210</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="2" t="s">
@@ -6245,7 +6245,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
@@ -6257,7 +6257,7 @@
         <v>211</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="2" t="s">
@@ -6272,7 +6272,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
@@ -6284,7 +6284,7 @@
         <v>212</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="2" t="s">
@@ -6299,7 +6299,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
@@ -6311,7 +6311,7 @@
         <v>459</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="2" t="s">
@@ -6326,7 +6326,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
@@ -6338,7 +6338,7 @@
         <v>517</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>416</v>
@@ -6352,7 +6352,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
@@ -6364,7 +6364,7 @@
         <v>518</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>416</v>
@@ -6389,8 +6389,8 @@
       <c r="E77" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>947</v>
+      <c r="F77" s="11" t="s">
+        <v>946</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>470</v>
@@ -6418,8 +6418,8 @@
       <c r="E78" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="F78" s="9" t="s">
-        <v>948</v>
+      <c r="F78" s="11" t="s">
+        <v>947</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>470</v>
@@ -6447,11 +6447,11 @@
       <c r="E79" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="F79" s="9" t="s">
-        <v>949</v>
+      <c r="F79" s="11" t="s">
+        <v>948</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>85</v>
@@ -6528,8 +6528,8 @@
       <c r="E82" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F82" s="9" t="s">
-        <v>950</v>
+      <c r="F82" s="11" t="s">
+        <v>949</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>470</v>
@@ -6558,7 +6558,7 @@
         <v>683</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="2" t="s">
@@ -6585,7 +6585,7 @@
         <v>684</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="2" t="s">
@@ -6611,8 +6611,8 @@
       <c r="E85" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>951</v>
+      <c r="F85" s="11" t="s">
+        <v>950</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>470</v>
@@ -6641,7 +6641,7 @@
         <v>688</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>547</v>
@@ -6667,7 +6667,7 @@
         <v>685</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>547</v>
@@ -6693,7 +6693,7 @@
         <v>382</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>470</v>
@@ -6722,7 +6722,7 @@
         <v>383</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="2" t="s">
@@ -6749,7 +6749,7 @@
         <v>384</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G90" s="25"/>
       <c r="H90" s="2" t="s">
@@ -6776,7 +6776,7 @@
         <v>385</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G91" s="25"/>
       <c r="H91" s="2" t="s">
@@ -6803,7 +6803,7 @@
         <v>386</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G92" s="25"/>
       <c r="H92" s="2" t="s">
@@ -6830,7 +6830,7 @@
         <v>214</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="2" t="s">
@@ -6857,7 +6857,7 @@
         <v>215</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="2" t="s">
@@ -6884,7 +6884,7 @@
         <v>216</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="2" t="s">
@@ -6911,7 +6911,7 @@
         <v>217</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="2" t="s">
@@ -6938,7 +6938,7 @@
         <v>218</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="2" t="s">
@@ -6965,7 +6965,7 @@
         <v>219</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="2" t="s">
@@ -6992,7 +6992,7 @@
         <v>220</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G99" s="20"/>
       <c r="H99" s="2" t="s">
@@ -7019,7 +7019,7 @@
         <v>221</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="2" t="s">
@@ -7045,8 +7045,8 @@
       <c r="E101" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F101" s="9" t="s">
-        <v>952</v>
+      <c r="F101" s="11" t="s">
+        <v>951</v>
       </c>
       <c r="G101" s="19" t="s">
         <v>470</v>
@@ -7074,8 +7074,8 @@
       <c r="E102" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="F102" s="9" t="s">
-        <v>953</v>
+      <c r="F102" s="11" t="s">
+        <v>952</v>
       </c>
       <c r="G102" s="19" t="s">
         <v>470</v>
@@ -7104,7 +7104,7 @@
         <v>462</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>429</v>
@@ -7130,7 +7130,7 @@
         <v>519</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>416</v>
@@ -7156,7 +7156,7 @@
         <v>520</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="2" t="s">
@@ -7182,7 +7182,7 @@
       <c r="E106" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="9" t="s">
         <v>731</v>
       </c>
       <c r="G106" s="18"/>
@@ -7210,7 +7210,7 @@
         <v>599</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G107" s="20"/>
       <c r="H107" s="2" t="s">
@@ -7236,11 +7236,11 @@
       <c r="E108" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="F108" s="9" t="s">
-        <v>862</v>
+      <c r="F108" s="11" t="s">
+        <v>861</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>352</v>
@@ -7266,7 +7266,7 @@
         <v>583</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="2" t="s">
@@ -7293,7 +7293,7 @@
         <v>587</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="2" t="s">
@@ -7320,7 +7320,7 @@
         <v>405</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G111" s="25"/>
       <c r="H111" s="2" t="s">
@@ -7347,7 +7347,7 @@
         <v>137</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="2" t="s">
@@ -7374,7 +7374,7 @@
         <v>138</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="2" t="s">
@@ -7401,7 +7401,7 @@
         <v>139</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="2" t="s">
@@ -7428,10 +7428,10 @@
         <v>590</v>
       </c>
       <c r="F115" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="G115" s="19" t="s">
         <v>881</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>882</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>547</v>
@@ -7457,7 +7457,7 @@
         <v>582</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="2" t="s">
@@ -7484,7 +7484,7 @@
         <v>585</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="2" t="s">
@@ -7511,7 +7511,7 @@
         <v>584</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="2" t="s">
@@ -7538,7 +7538,7 @@
         <v>436</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G119" s="20"/>
       <c r="H119" s="2" t="s">
@@ -7565,7 +7565,7 @@
         <v>437</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="2" t="s">
@@ -7592,7 +7592,7 @@
         <v>493</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="2" t="s">
@@ -7619,7 +7619,7 @@
         <v>586</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="2" t="s">
@@ -7645,7 +7645,7 @@
       <c r="E123" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="11" t="s">
         <v>729</v>
       </c>
       <c r="G123" s="19" t="s">
@@ -7674,8 +7674,8 @@
       <c r="E124" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F124" s="9" t="s">
-        <v>868</v>
+      <c r="F124" s="11" t="s">
+        <v>867</v>
       </c>
       <c r="G124" s="19" t="s">
         <v>8</v>
@@ -7703,8 +7703,8 @@
       <c r="E125" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F125" s="9" t="s">
-        <v>869</v>
+      <c r="F125" s="11" t="s">
+        <v>868</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>8</v>
@@ -7733,7 +7733,7 @@
         <v>404</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G126" s="24"/>
       <c r="H126" s="2" t="s">
@@ -7760,7 +7760,7 @@
         <v>140</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="2" t="s">
@@ -7787,7 +7787,7 @@
         <v>141</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="2" t="s">
@@ -7814,7 +7814,7 @@
         <v>142</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="2" t="s">
@@ -7841,7 +7841,7 @@
         <v>143</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="2" t="s">
@@ -7868,7 +7868,7 @@
         <v>258</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="2" t="s">
@@ -7895,7 +7895,7 @@
         <v>588</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="2" t="s">
@@ -7922,7 +7922,7 @@
         <v>438</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="2" t="s">
@@ -8020,7 +8020,7 @@
         <v>144</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="2" t="s">
@@ -8237,7 +8237,7 @@
         <v>495</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="2" t="s">
@@ -8314,7 +8314,7 @@
         <v>156</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="2" t="s">
@@ -8341,7 +8341,7 @@
         <v>157</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G150" s="20"/>
       <c r="H150" s="2" t="s">
@@ -8368,7 +8368,7 @@
         <v>158</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G151" s="20"/>
       <c r="H151" s="2" t="s">
@@ -8464,7 +8464,7 @@
         <v>310</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G155" s="20"/>
       <c r="H155" s="2" t="s">
@@ -8744,7 +8744,7 @@
         <v>445</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G167" s="20"/>
       <c r="H167" s="2" t="s">
@@ -8942,7 +8942,7 @@
         <v>733</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>85</v>
@@ -9018,7 +9018,7 @@
         <v>388</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G178" s="25"/>
       <c r="H178" s="2" t="s">
@@ -9137,7 +9137,7 @@
         <v>524</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G183" s="20"/>
       <c r="H183" s="2" t="s">
@@ -9164,7 +9164,7 @@
         <v>525</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="2" t="s">
@@ -9191,7 +9191,7 @@
         <v>526</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G185" s="20"/>
       <c r="H185" s="2" t="s">
@@ -9358,7 +9358,7 @@
         <v>132</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>120</v>
@@ -9549,7 +9549,7 @@
         <v>247</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="2" t="s">
@@ -9741,7 +9741,7 @@
         <v>399</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G208" s="25"/>
       <c r="H208" s="2" t="s">
@@ -9768,7 +9768,7 @@
         <v>400</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G209" s="25"/>
       <c r="H209" s="2" t="s">
@@ -9795,7 +9795,7 @@
         <v>401</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G210" s="25"/>
       <c r="H210" s="2" t="s">
@@ -9822,7 +9822,7 @@
         <v>402</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G211" s="28"/>
       <c r="H211" s="2" t="s">
@@ -9918,7 +9918,7 @@
         <v>290</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G215" s="19" t="s">
         <v>470</v>
@@ -10085,7 +10085,7 @@
         <v>297</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G222" s="18"/>
       <c r="H222" s="2" t="s">
@@ -10365,7 +10365,7 @@
         <v>443</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G234" s="20"/>
       <c r="H234" s="2" t="s">
@@ -10415,7 +10415,7 @@
         <v>529</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="2" t="s">
@@ -10468,7 +10468,7 @@
         <v>736</v>
       </c>
       <c r="G238" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H238" s="2" t="s">
         <v>85</v>
@@ -10563,7 +10563,7 @@
         <v>460</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="2" t="s">
@@ -10590,7 +10590,7 @@
         <v>461</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G243" s="18"/>
       <c r="H243" s="2" t="s">
@@ -10640,7 +10640,7 @@
         <v>532</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="2" t="s">
@@ -10693,10 +10693,10 @@
         <v>223</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G247" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>120</v>
@@ -10768,7 +10768,7 @@
         <v>463</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="2" t="s">
@@ -10795,7 +10795,7 @@
         <v>534</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G251" s="20"/>
       <c r="H251" s="2" t="s">
@@ -10822,7 +10822,7 @@
         <v>533</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G252" s="20"/>
       <c r="H252" s="2" t="s">
@@ -10872,10 +10872,10 @@
         <v>60</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G254" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>59</v>
@@ -10901,10 +10901,10 @@
         <v>249</v>
       </c>
       <c r="F255" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G255" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>248</v>
@@ -10930,10 +10930,10 @@
         <v>276</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G256" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H256" s="2" t="s">
         <v>351</v>
@@ -10959,10 +10959,10 @@
         <v>278</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G257" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>351</v>
@@ -10988,10 +10988,10 @@
         <v>279</v>
       </c>
       <c r="F258" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G258" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>351</v>
@@ -11017,10 +11017,10 @@
         <v>372</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G259" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>369</v>
@@ -11046,10 +11046,10 @@
         <v>241</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G260" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>238</v>
@@ -11075,10 +11075,10 @@
         <v>357</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G261" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>352</v>
@@ -11104,10 +11104,10 @@
         <v>621</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G262" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>547</v>
@@ -11133,10 +11133,10 @@
         <v>363</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G263" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>352</v>
@@ -11162,10 +11162,10 @@
         <v>620</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G264" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>547</v>
@@ -11191,10 +11191,10 @@
         <v>622</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G265" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>547</v>
@@ -11220,10 +11220,10 @@
         <v>605</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G266" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>352</v>
@@ -11249,10 +11249,10 @@
         <v>456</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G267" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>429</v>
@@ -11278,10 +11278,10 @@
         <v>606</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G268" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>352</v>
@@ -11307,10 +11307,10 @@
         <v>607</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G269" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H269" s="2" t="s">
         <v>352</v>
@@ -11336,10 +11336,10 @@
         <v>678</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G270" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>547</v>
@@ -11365,10 +11365,10 @@
         <v>680</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G271" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>547</v>
@@ -11394,10 +11394,10 @@
         <v>387</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G272" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>369</v>
@@ -11423,10 +11423,10 @@
         <v>677</v>
       </c>
       <c r="F273" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G273" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>547</v>
@@ -11452,10 +11452,10 @@
         <v>676</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G274" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>547</v>
@@ -11481,10 +11481,10 @@
         <v>679</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G275" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>547</v>
@@ -11510,10 +11510,10 @@
         <v>458</v>
       </c>
       <c r="F276" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G276" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>429</v>
@@ -11539,10 +11539,10 @@
         <v>499</v>
       </c>
       <c r="F277" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G277" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>416</v>
@@ -11594,7 +11594,7 @@
         <v>239</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G279" s="18"/>
       <c r="H279" s="2" t="s">
@@ -11621,7 +11621,7 @@
         <v>355</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>352</v>
@@ -11647,7 +11647,7 @@
         <v>231</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>230</v>
@@ -11673,7 +11673,7 @@
         <v>370</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>369</v>
@@ -11699,7 +11699,7 @@
         <v>371</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G283" s="25"/>
       <c r="H283" s="2" t="s">
@@ -11726,7 +11726,7 @@
         <v>123</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G284" s="20"/>
       <c r="H284" s="2" t="s">
@@ -11753,7 +11753,7 @@
         <v>124</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="2" t="s">
@@ -11780,7 +11780,7 @@
         <v>250</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>248</v>
@@ -11806,7 +11806,7 @@
         <v>408</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="2" t="s">
@@ -11833,7 +11833,7 @@
         <v>277</v>
       </c>
       <c r="F288" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G288" s="20"/>
       <c r="H288" s="2" t="s">
@@ -11860,7 +11860,7 @@
         <v>430</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G289" s="18"/>
       <c r="H289" s="2" t="s">
@@ -11887,7 +11887,7 @@
         <v>431</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>429</v>
@@ -11939,7 +11939,7 @@
         <v>232</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>230</v>
@@ -11965,7 +11965,7 @@
         <v>373</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G293" s="28"/>
       <c r="H293" s="2" t="s">
@@ -11992,7 +11992,7 @@
         <v>125</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G294" s="20"/>
       <c r="H294" s="2" t="s">
@@ -12019,7 +12019,7 @@
         <v>126</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="2" t="s">
@@ -12046,7 +12046,7 @@
         <v>251</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G296" s="18"/>
       <c r="H296" s="2" t="s">
@@ -12073,7 +12073,7 @@
         <v>432</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G297" s="18"/>
       <c r="H297" s="2" t="s">
@@ -12100,7 +12100,7 @@
         <v>433</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G298" s="20"/>
       <c r="H298" s="2" t="s">
@@ -12127,7 +12127,7 @@
         <v>496</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="2" t="s">
@@ -12154,7 +12154,7 @@
         <v>61</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G300" s="18"/>
       <c r="H300" s="2" t="s">
@@ -12181,7 +12181,7 @@
         <v>374</v>
       </c>
       <c r="F301" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G301" s="25"/>
       <c r="H301" s="2" t="s">
@@ -12208,7 +12208,7 @@
         <v>375</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G302" s="28"/>
       <c r="H302" s="2" t="s">
@@ -12235,7 +12235,7 @@
         <v>376</v>
       </c>
       <c r="F303" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G303" s="25"/>
       <c r="H303" s="2" t="s">
@@ -12262,7 +12262,7 @@
         <v>127</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="2" t="s">
@@ -12289,7 +12289,7 @@
         <v>128</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="2" t="s">
@@ -12316,7 +12316,7 @@
         <v>129</v>
       </c>
       <c r="F306" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G306" s="20"/>
       <c r="H306" s="2" t="s">
@@ -12343,7 +12343,7 @@
         <v>130</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G307" s="20"/>
       <c r="H307" s="2" t="s">
@@ -12370,7 +12370,7 @@
         <v>409</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>407</v>
@@ -12396,7 +12396,7 @@
         <v>434</v>
       </c>
       <c r="F309" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G309" s="20"/>
       <c r="H309" s="2" t="s">
@@ -12423,7 +12423,7 @@
         <v>497</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H310" s="2" t="s">
         <v>416</v>
@@ -12449,7 +12449,7 @@
         <v>153</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="2" t="s">
@@ -12476,7 +12476,7 @@
         <v>154</v>
       </c>
       <c r="F312" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="2" t="s">
@@ -12503,7 +12503,7 @@
         <v>413</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>407</v>
@@ -12529,7 +12529,7 @@
         <v>444</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G314" s="18"/>
       <c r="H314" s="2" t="s">
@@ -12582,7 +12582,7 @@
         <v>423</v>
       </c>
       <c r="F316" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G316" s="20"/>
       <c r="H316" s="2" t="s">
@@ -12609,7 +12609,7 @@
         <v>204</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G317" s="20"/>
       <c r="H317" s="2" t="s">
@@ -12636,7 +12636,7 @@
         <v>205</v>
       </c>
       <c r="F318" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>120</v>
@@ -12662,7 +12662,7 @@
         <v>498</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>416</v>
@@ -12688,7 +12688,7 @@
         <v>206</v>
       </c>
       <c r="F320" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>120</v>
@@ -12714,7 +12714,7 @@
         <v>207</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>120</v>
@@ -12740,7 +12740,7 @@
         <v>262</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>248</v>
@@ -12766,7 +12766,7 @@
         <v>263</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H323" s="2" t="s">
         <v>248</v>
@@ -12792,7 +12792,7 @@
         <v>457</v>
       </c>
       <c r="F324" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>429</v>
@@ -13098,7 +13098,7 @@
         <v>412</v>
       </c>
       <c r="F337" s="15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>407</v>
@@ -13147,7 +13147,7 @@
         <v>442</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G339" s="18"/>
       <c r="H339" s="2" t="s">
@@ -13174,7 +13174,7 @@
         <v>538</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G340" s="20"/>
       <c r="H340" s="2" t="s">
@@ -13201,7 +13201,7 @@
         <v>536</v>
       </c>
       <c r="F341" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G341" s="20"/>
       <c r="H341" s="2" t="s">
@@ -13228,7 +13228,7 @@
         <v>537</v>
       </c>
       <c r="F342" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G342" s="20"/>
       <c r="H342" s="2" t="s">
@@ -13255,7 +13255,7 @@
         <v>226</v>
       </c>
       <c r="F343" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G343" s="20"/>
       <c r="H343" s="2" t="s">
@@ -13282,7 +13282,7 @@
         <v>227</v>
       </c>
       <c r="F344" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G344" s="20"/>
       <c r="H344" s="2" t="s">
@@ -13309,7 +13309,7 @@
         <v>228</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G345" s="20"/>
       <c r="H345" s="2" t="s">
@@ -13336,7 +13336,7 @@
         <v>411</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>407</v>
@@ -13362,10 +13362,10 @@
         <v>500</v>
       </c>
       <c r="F347" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G347" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>416</v>
@@ -13391,10 +13391,10 @@
         <v>92</v>
       </c>
       <c r="F348" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G348" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H348" s="2" t="s">
         <v>85</v>
@@ -19492,13 +19492,13 @@
         <v>49</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F611" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G611" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H611" s="2" t="s">
         <v>547</v>
@@ -19521,10 +19521,10 @@
         <v>45</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F612" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G612" s="20"/>
       <c r="H612" s="2" t="s">
@@ -19548,13 +19548,13 @@
         <v>46</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F613" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G613" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H613" s="2" t="s">
         <v>547</v>
@@ -19577,10 +19577,10 @@
         <v>45</v>
       </c>
       <c r="E614" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="F614" s="11" t="s">
         <v>854</v>
-      </c>
-      <c r="F614" s="11" t="s">
-        <v>855</v>
       </c>
       <c r="G614" s="20"/>
       <c r="H614" s="2" t="s">
@@ -19595,7 +19595,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>6</v>
@@ -19604,10 +19604,10 @@
         <v>45</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F615" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>547</v>
@@ -19630,10 +19630,10 @@
         <v>46</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F616" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H616" s="2" t="s">
         <v>547</v>
@@ -19656,10 +19656,10 @@
         <v>45</v>
       </c>
       <c r="E617" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="F617" s="11" t="s">
         <v>910</v>
-      </c>
-      <c r="F617" s="11" t="s">
-        <v>911</v>
       </c>
       <c r="H617" s="2" t="s">
         <v>547</v>
@@ -19670,39 +19670,39 @@
     </row>
     <row r="618" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="E618" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="F618" s="9" t="s">
         <v>919</v>
-      </c>
-      <c r="F618" s="9" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F619" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E620" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="F620" s="11" t="s">
         <v>927</v>
-      </c>
-      <c r="F620" s="11" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F621" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="622" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E622" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="F622" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="G622" s="22" t="s">
         <v>934</v>
-      </c>
-      <c r="F622" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="G622" s="22" t="s">
-        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -21193,17 +21193,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$B$1:$H$619</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$B$1:$H$622</definedName>
     <definedName name="Resources">#REF!</definedName>
     <definedName name="Topics">#REF!</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4334" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="960">
   <si>
     <t>Resource</t>
   </si>
@@ -3757,6 +3757,12 @@
   </si>
   <si>
     <t>Provide guidance on use of name "type" vs. "code" - when appropriate for business usage - general guidance is to use "type", not "code".  Will update specs accordingly.</t>
+  </si>
+  <si>
+    <t>No.  Change to a single "editor"</t>
+  </si>
+  <si>
+    <t>Need a place to capture family history information that can't be attributed to a single relative</t>
   </si>
 </sst>
 </file>
@@ -4283,10 +4289,10 @@
   <dimension ref="A1:I622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19668,45 +19674,141 @@
         <v>708</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A618" s="2">
+        <v>617</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E618" s="2" t="s">
         <v>918</v>
       </c>
       <c r="F618" s="9" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H618" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I618" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A619" s="2">
+        <v>618</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E619" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="F619" s="11" t="s">
         <v>921</v>
       </c>
+      <c r="H619" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I619" s="2" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A620" s="2">
+        <v>619</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E620" s="2" t="s">
         <v>926</v>
       </c>
       <c r="F620" s="11" t="s">
         <v>927</v>
       </c>
+      <c r="H620" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I620" s="2" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F621" s="2" t="s">
+      <c r="A621" s="2">
+        <v>620</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D621" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E621" s="2" t="s">
         <v>929</v>
       </c>
+      <c r="F621" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="H621" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I621" s="2" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="622" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A622" s="2">
+        <v>621</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E622" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="F622" s="2" t="s">
+      <c r="F622" s="9" t="s">
         <v>935</v>
       </c>
       <c r="G622" s="22" t="s">
         <v>934</v>
       </c>
+      <c r="H622" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I622" s="2" t="s">
+        <v>708</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H619">
+  <autoFilter ref="B1:H622">
     <filterColumn colId="0">
       <filters>
         <filter val="Core"/>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="963">
   <si>
     <t>Resource</t>
   </si>
@@ -3167,9 +3167,6 @@
     <t>Will clarify that the contact is for issues with the message/transmission, not clinical issues</t>
   </si>
   <si>
-    <t>Discuss</t>
-  </si>
-  <si>
     <t>Will add text explaining how this list is maintained &amp; supplemented</t>
   </si>
   <si>
@@ -3533,12 +3530,6 @@
     <t>By the time we go normative, we should have the boundaries pretty well-defined and will be very cautious about introducing new resources.  During DSTU, overlaps are possible as are other things that will require implementation flexibility/adaptation.</t>
   </si>
   <si>
-    <t>It's a code.  Do we need a name too?  We have originalText . . .</t>
-  </si>
-  <si>
-    <t>Is it inside the 80% to search for procedures performed by a particular person?</t>
-  </si>
-  <si>
     <t>Pub tooling</t>
   </si>
   <si>
@@ -3601,10 +3592,6 @@
   </si>
   <si>
     <t>No change needed due to constraint added in 253</t>
-  </si>
-  <si>
-    <t>Suggest changing to codeable concept to allow translations from other code systems as well as originalText.
-Code list doesn't look complete, not sure how this adds value.  Will discuss further when Jean's available</t>
   </si>
   <si>
     <t>See 255</t>
@@ -3763,6 +3750,31 @@
   </si>
   <si>
     <t>Need a place to capture family history information that can't be attributed to a single relative</t>
+  </si>
+  <si>
+    <t>Suggest changing to codeable concept to allow translations from other code systems as well as originalText.
+Code list doesn't look complete, not sure how this adds value.  Will discuss further when Jean's available
+2013/06/05: Agreed to make CodeableConcept and will revisit vocabulary.</t>
+  </si>
+  <si>
+    <t>The label "relatedItem" is over-broad for the set of codes provided which deal only with causality (and the certainty thereof).  As well, there's a potential overlap with AdverseReaction.  Suggest changing the names (relatedItem, type) to be more specific to the semantics.  As well, need to provide clear deliniation around what data gets conveyed using AdverseReaction vs. Problem.  Must provide guidance that can be used by implementers of existing systems.</t>
+  </si>
+  <si>
+    <t>Agree to make change</t>
+  </si>
+  <si>
+    <t>Candidate to drop from Core.  May consider adding other, narrower associations given evidence of existing system support.</t>
+  </si>
+  <si>
+    <t>Is it inside the 80% to search for procedures performed by a particular person?
+Yes: Systems usually support this to support both audit and billing purposes.  Also important for "certification" purposes (how many has a given practitioner done in a given year)</t>
+  </si>
+  <si>
+    <t>It's a code.  Do we need a name too?  We have originalText . . .
+Will rename "type" to "code".  Need to provide, at minimum, guidance on potential terminologies.  Ideally a couple of example value sets.</t>
+  </si>
+  <si>
+    <t>Rename "type" to "code" and add it as a search criteria.  Also add "lastUpdated" date and a "category" for history over-all with examples like "psychological", "general", "oncology".</t>
   </si>
 </sst>
 </file>
@@ -3988,7 +4000,16 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4288,11 +4309,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I622"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E256" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E257" sqref="E257"/>
+      <selection pane="bottomRight" activeCell="F623" sqref="F623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4338,7 +4359,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4365,7 +4386,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4392,7 +4413,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4419,7 +4440,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4436,7 +4457,7 @@
         <v>107</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="2" t="s">
@@ -4446,7 +4467,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4473,7 +4494,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4490,10 +4511,10 @@
         <v>353</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>352</v>
@@ -4502,7 +4523,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4529,7 +4550,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4549,7 +4570,7 @@
         <v>741</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>547</v>
@@ -4558,7 +4579,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4584,7 +4605,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4604,7 +4625,7 @@
         <v>743</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>120</v>
@@ -4613,7 +4634,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4640,7 +4661,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4660,7 +4681,7 @@
         <v>745</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>407</v>
@@ -4669,7 +4690,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4695,7 +4716,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4715,7 +4736,7 @@
         <v>747</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>54</v>
@@ -4724,7 +4745,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4741,10 +4762,10 @@
         <v>56</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>54</v>
@@ -4753,7 +4774,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4773,7 +4794,7 @@
         <v>748</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>547</v>
@@ -4782,7 +4803,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4802,7 +4823,7 @@
         <v>749</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>416</v>
@@ -4811,7 +4832,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4837,7 +4858,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4863,7 +4884,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4883,7 +4904,7 @@
         <v>755</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>416</v>
@@ -4892,7 +4913,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4919,7 +4940,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4946,12 +4967,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -4963,7 +4984,7 @@
         <v>63</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="2" t="s">
@@ -4973,12 +4994,12 @@
         <v>709</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -4999,12 +5020,12 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -5025,12 +5046,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -5042,7 +5063,7 @@
         <v>379</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="2" t="s">
@@ -5052,12 +5073,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -5072,7 +5093,7 @@
         <v>758</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>369</v>
@@ -5081,12 +5102,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -5107,12 +5128,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
@@ -5124,7 +5145,7 @@
         <v>254</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>248</v>
@@ -5133,12 +5154,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -5159,12 +5180,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -5176,7 +5197,7 @@
         <v>484</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>416</v>
@@ -5185,12 +5206,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -5211,7 +5232,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5228,7 +5249,7 @@
         <v>64</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="2" t="s">
@@ -5238,7 +5259,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5265,7 +5286,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5282,7 +5303,7 @@
         <v>489</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="2" t="s">
@@ -5292,7 +5313,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5318,7 +5339,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5335,7 +5356,7 @@
         <v>488</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="2" t="s">
@@ -5345,7 +5366,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5362,7 +5383,7 @@
         <v>490</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="2" t="s">
@@ -5372,7 +5393,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5389,7 +5410,7 @@
         <v>155</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="2" t="s">
@@ -5399,7 +5420,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5425,7 +5446,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5442,10 +5463,10 @@
         <v>68</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>59</v>
@@ -5454,7 +5475,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5481,7 +5502,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5498,7 +5519,7 @@
         <v>491</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="2" t="s">
@@ -5508,7 +5529,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5535,7 +5556,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5562,7 +5583,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5579,7 +5600,7 @@
         <v>271</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="2" t="s">
@@ -5589,7 +5610,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5616,7 +5637,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5633,7 +5654,7 @@
         <v>447</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="2" t="s">
@@ -5643,7 +5664,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5660,7 +5681,7 @@
         <v>418</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>416</v>
@@ -5669,7 +5690,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5695,7 +5716,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5722,7 +5743,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5749,7 +5770,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5776,7 +5797,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5803,7 +5824,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5830,7 +5851,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5856,7 +5877,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5876,7 +5897,7 @@
         <v>724</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>85</v>
@@ -5885,7 +5906,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5912,7 +5933,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5929,10 +5950,10 @@
         <v>515</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>352</v>
@@ -5941,7 +5962,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5958,7 +5979,7 @@
         <v>516</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="2" t="s">
@@ -5968,7 +5989,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5985,7 +6006,7 @@
         <v>167</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="2" t="s">
@@ -5995,7 +6016,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6012,10 +6033,10 @@
         <v>168</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>120</v>
@@ -6024,7 +6045,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6041,10 +6062,10 @@
         <v>169</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>120</v>
@@ -6053,7 +6074,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6070,10 +6091,10 @@
         <v>170</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>120</v>
@@ -6082,7 +6103,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6099,7 +6120,7 @@
         <v>269</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="2" t="s">
@@ -6109,7 +6130,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6126,7 +6147,7 @@
         <v>418</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="2" t="s">
@@ -6136,12 +6157,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
@@ -6163,12 +6184,12 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
@@ -6180,10 +6201,10 @@
         <v>208</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>120</v>
@@ -6192,12 +6213,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
@@ -6209,7 +6230,7 @@
         <v>209</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="2" t="s">
@@ -6219,12 +6240,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
@@ -6236,7 +6257,7 @@
         <v>210</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="2" t="s">
@@ -6246,12 +6267,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
@@ -6263,7 +6284,7 @@
         <v>211</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="2" t="s">
@@ -6273,12 +6294,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
@@ -6290,7 +6311,7 @@
         <v>212</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="2" t="s">
@@ -6300,12 +6321,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
@@ -6317,7 +6338,7 @@
         <v>459</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="2" t="s">
@@ -6327,12 +6348,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
@@ -6344,7 +6365,7 @@
         <v>517</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>416</v>
@@ -6353,12 +6374,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
@@ -6370,7 +6391,7 @@
         <v>518</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>416</v>
@@ -6379,7 +6400,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6396,7 +6417,7 @@
         <v>682</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>470</v>
@@ -6408,7 +6429,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6425,7 +6446,7 @@
         <v>687</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>470</v>
@@ -6437,7 +6458,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6454,10 +6475,10 @@
         <v>664</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>85</v>
@@ -6466,7 +6487,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6492,7 +6513,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6518,7 +6539,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6535,7 +6556,7 @@
         <v>424</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>470</v>
@@ -6547,7 +6568,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6564,7 +6585,7 @@
         <v>683</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="2" t="s">
@@ -6574,7 +6595,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6591,7 +6612,7 @@
         <v>684</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="2" t="s">
@@ -6601,7 +6622,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6618,7 +6639,7 @@
         <v>686</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>470</v>
@@ -6630,7 +6651,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6647,7 +6668,7 @@
         <v>688</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>547</v>
@@ -6656,7 +6677,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6673,7 +6694,7 @@
         <v>685</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>547</v>
@@ -6682,7 +6703,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6699,7 +6720,7 @@
         <v>382</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>470</v>
@@ -6711,7 +6732,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6728,7 +6749,7 @@
         <v>383</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="2" t="s">
@@ -6738,7 +6759,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6755,7 +6776,7 @@
         <v>384</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G90" s="25"/>
       <c r="H90" s="2" t="s">
@@ -6765,7 +6786,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6782,7 +6803,7 @@
         <v>385</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G91" s="25"/>
       <c r="H91" s="2" t="s">
@@ -6792,7 +6813,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6809,7 +6830,7 @@
         <v>386</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G92" s="25"/>
       <c r="H92" s="2" t="s">
@@ -6819,7 +6840,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -6836,7 +6857,7 @@
         <v>214</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="2" t="s">
@@ -6846,7 +6867,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -6863,7 +6884,7 @@
         <v>215</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="2" t="s">
@@ -6873,7 +6894,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -6890,7 +6911,7 @@
         <v>216</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="2" t="s">
@@ -6900,7 +6921,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -6917,7 +6938,7 @@
         <v>217</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="2" t="s">
@@ -6927,7 +6948,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -6944,7 +6965,7 @@
         <v>218</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="2" t="s">
@@ -6954,7 +6975,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -6971,7 +6992,7 @@
         <v>219</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="2" t="s">
@@ -6981,7 +7002,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -6998,7 +7019,7 @@
         <v>220</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G99" s="20"/>
       <c r="H99" s="2" t="s">
@@ -7008,7 +7029,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7025,7 +7046,7 @@
         <v>221</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="2" t="s">
@@ -7035,7 +7056,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7052,7 +7073,7 @@
         <v>222</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G101" s="19" t="s">
         <v>470</v>
@@ -7064,7 +7085,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7081,7 +7102,7 @@
         <v>681</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G102" s="19" t="s">
         <v>470</v>
@@ -7093,7 +7114,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7110,7 +7131,7 @@
         <v>462</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>429</v>
@@ -7119,7 +7140,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7136,7 +7157,7 @@
         <v>519</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>416</v>
@@ -7145,7 +7166,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7162,7 +7183,7 @@
         <v>520</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="2" t="s">
@@ -7172,7 +7193,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7199,7 +7220,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7216,7 +7237,7 @@
         <v>599</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G107" s="20"/>
       <c r="H107" s="2" t="s">
@@ -7226,7 +7247,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7243,10 +7264,10 @@
         <v>600</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>352</v>
@@ -7255,7 +7276,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7272,7 +7293,7 @@
         <v>583</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="2" t="s">
@@ -7282,7 +7303,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7299,7 +7320,7 @@
         <v>587</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="2" t="s">
@@ -7309,7 +7330,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7326,7 +7347,7 @@
         <v>405</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G111" s="25"/>
       <c r="H111" s="2" t="s">
@@ -7336,7 +7357,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -7353,7 +7374,7 @@
         <v>137</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="2" t="s">
@@ -7363,7 +7384,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -7380,7 +7401,7 @@
         <v>138</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="2" t="s">
@@ -7390,7 +7411,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7407,7 +7428,7 @@
         <v>139</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="2" t="s">
@@ -7417,7 +7438,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -7434,10 +7455,10 @@
         <v>590</v>
       </c>
       <c r="F115" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="G115" s="19" t="s">
         <v>880</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>881</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>547</v>
@@ -7446,7 +7467,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -7463,7 +7484,7 @@
         <v>582</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="2" t="s">
@@ -7473,7 +7494,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -7490,7 +7511,7 @@
         <v>585</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="2" t="s">
@@ -7500,7 +7521,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -7517,7 +7538,7 @@
         <v>584</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="2" t="s">
@@ -7527,7 +7548,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -7544,7 +7565,7 @@
         <v>436</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G119" s="20"/>
       <c r="H119" s="2" t="s">
@@ -7554,7 +7575,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -7571,7 +7592,7 @@
         <v>437</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="2" t="s">
@@ -7581,7 +7602,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -7598,7 +7619,7 @@
         <v>493</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="2" t="s">
@@ -7608,7 +7629,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -7625,7 +7646,7 @@
         <v>586</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="2" t="s">
@@ -7635,7 +7656,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -7664,7 +7685,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -7681,7 +7702,7 @@
         <v>245</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G124" s="19" t="s">
         <v>8</v>
@@ -7693,7 +7714,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -7710,7 +7731,7 @@
         <v>361</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>8</v>
@@ -7722,7 +7743,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -7739,7 +7760,7 @@
         <v>404</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G126" s="24"/>
       <c r="H126" s="2" t="s">
@@ -7749,7 +7770,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -7766,7 +7787,7 @@
         <v>140</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="2" t="s">
@@ -7776,7 +7797,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -7793,7 +7814,7 @@
         <v>141</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="2" t="s">
@@ -7803,7 +7824,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -7820,7 +7841,7 @@
         <v>142</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="2" t="s">
@@ -7830,7 +7851,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -7847,7 +7868,7 @@
         <v>143</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="2" t="s">
@@ -7857,7 +7878,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -7874,7 +7895,7 @@
         <v>258</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="2" t="s">
@@ -7884,7 +7905,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -7901,7 +7922,7 @@
         <v>588</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="2" t="s">
@@ -7911,7 +7932,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -7928,7 +7949,7 @@
         <v>438</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="2" t="s">
@@ -7938,7 +7959,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -7961,7 +7982,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -7984,7 +8005,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -8009,7 +8030,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -8026,7 +8047,7 @@
         <v>144</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="2" t="s">
@@ -8036,7 +8057,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -8059,7 +8080,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -8082,7 +8103,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -8105,7 +8126,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -8128,7 +8149,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -8151,7 +8172,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -8174,7 +8195,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -8197,7 +8218,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -8226,7 +8247,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -8243,7 +8264,7 @@
         <v>495</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="2" t="s">
@@ -8253,7 +8274,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -8278,7 +8299,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -8303,7 +8324,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -8320,7 +8341,7 @@
         <v>156</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="2" t="s">
@@ -8330,7 +8351,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -8347,7 +8368,7 @@
         <v>157</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G150" s="20"/>
       <c r="H150" s="2" t="s">
@@ -8357,7 +8378,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -8374,7 +8395,7 @@
         <v>158</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G151" s="20"/>
       <c r="H151" s="2" t="s">
@@ -8384,7 +8405,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -8407,7 +8428,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -8430,7 +8451,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -8453,7 +8474,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -8470,7 +8491,7 @@
         <v>310</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G155" s="20"/>
       <c r="H155" s="2" t="s">
@@ -8480,7 +8501,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -8503,7 +8524,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -8526,7 +8547,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -8549,7 +8570,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -8572,7 +8593,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -8595,7 +8616,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -8618,7 +8639,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -8641,7 +8662,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -8664,7 +8685,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -8687,7 +8708,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -8710,7 +8731,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -8733,7 +8754,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -8750,7 +8771,7 @@
         <v>445</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G167" s="20"/>
       <c r="H167" s="2" t="s">
@@ -8760,7 +8781,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -8783,7 +8804,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -8806,7 +8827,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -8829,7 +8850,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -8852,7 +8873,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -8875,7 +8896,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -8901,7 +8922,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -8928,7 +8949,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -8948,7 +8969,7 @@
         <v>733</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>85</v>
@@ -8957,7 +8978,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -8984,7 +9005,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -9007,7 +9028,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -9024,7 +9045,7 @@
         <v>388</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G178" s="25"/>
       <c r="H178" s="2" t="s">
@@ -9034,7 +9055,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -9057,7 +9078,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -9080,7 +9101,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -9103,7 +9124,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -9126,7 +9147,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -9143,7 +9164,7 @@
         <v>524</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G183" s="20"/>
       <c r="H183" s="2" t="s">
@@ -9153,7 +9174,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -9170,7 +9191,7 @@
         <v>525</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="2" t="s">
@@ -9180,7 +9201,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -9197,7 +9218,7 @@
         <v>526</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G185" s="20"/>
       <c r="H185" s="2" t="s">
@@ -9207,7 +9228,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -9230,7 +9251,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -9253,7 +9274,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -9276,7 +9297,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -9299,7 +9320,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -9324,7 +9345,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -9347,7 +9368,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -9364,7 +9385,7 @@
         <v>132</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>120</v>
@@ -9373,7 +9394,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -9396,7 +9417,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -9419,7 +9440,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -9442,7 +9463,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -9465,7 +9486,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -9488,7 +9509,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -9511,7 +9532,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -9538,7 +9559,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -9555,7 +9576,7 @@
         <v>247</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="2" t="s">
@@ -9565,7 +9586,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -9588,7 +9609,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -9611,7 +9632,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -9634,7 +9655,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -9657,7 +9678,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -9680,7 +9701,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -9705,7 +9726,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -9730,7 +9751,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -9747,7 +9768,7 @@
         <v>399</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G208" s="25"/>
       <c r="H208" s="2" t="s">
@@ -9757,7 +9778,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -9774,7 +9795,7 @@
         <v>400</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G209" s="25"/>
       <c r="H209" s="2" t="s">
@@ -9784,7 +9805,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -9801,7 +9822,7 @@
         <v>401</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G210" s="25"/>
       <c r="H210" s="2" t="s">
@@ -9811,7 +9832,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -9828,7 +9849,7 @@
         <v>402</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G211" s="28"/>
       <c r="H211" s="2" t="s">
@@ -9838,7 +9859,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -9861,7 +9882,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -9884,7 +9905,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -9907,7 +9928,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -9924,7 +9945,7 @@
         <v>290</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G215" s="19" t="s">
         <v>470</v>
@@ -9936,7 +9957,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -9959,7 +9980,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -9982,7 +10003,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -10005,7 +10026,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -10028,7 +10049,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -10051,7 +10072,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -10074,7 +10095,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -10091,7 +10112,7 @@
         <v>297</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G222" s="18"/>
       <c r="H222" s="2" t="s">
@@ -10101,7 +10122,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -10124,7 +10145,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -10147,7 +10168,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -10170,7 +10191,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -10193,7 +10214,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -10216,7 +10237,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -10239,7 +10260,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -10262,7 +10283,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -10285,7 +10306,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -10308,7 +10329,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -10331,7 +10352,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -10354,7 +10375,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -10371,7 +10392,7 @@
         <v>443</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G234" s="20"/>
       <c r="H234" s="2" t="s">
@@ -10381,7 +10402,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -10404,7 +10425,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -10421,7 +10442,7 @@
         <v>529</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="2" t="s">
@@ -10431,7 +10452,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -10454,7 +10475,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -10474,7 +10495,7 @@
         <v>736</v>
       </c>
       <c r="G238" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H238" s="2" t="s">
         <v>85</v>
@@ -10483,7 +10504,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -10506,7 +10527,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -10529,7 +10550,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -10552,7 +10573,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -10569,7 +10590,7 @@
         <v>460</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="2" t="s">
@@ -10579,7 +10600,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -10596,7 +10617,7 @@
         <v>461</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G243" s="18"/>
       <c r="H243" s="2" t="s">
@@ -10606,7 +10627,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -10629,7 +10650,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -10646,7 +10667,7 @@
         <v>532</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="2" t="s">
@@ -10656,7 +10677,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -10682,7 +10703,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -10699,10 +10720,10 @@
         <v>223</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G247" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>120</v>
@@ -10711,7 +10732,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -10734,7 +10755,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -10757,7 +10778,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -10774,7 +10795,7 @@
         <v>463</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="2" t="s">
@@ -10784,7 +10805,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -10801,7 +10822,7 @@
         <v>534</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G251" s="20"/>
       <c r="H251" s="2" t="s">
@@ -10811,7 +10832,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -10828,7 +10849,7 @@
         <v>533</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G252" s="20"/>
       <c r="H252" s="2" t="s">
@@ -10838,7 +10859,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -10861,7 +10882,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -10878,10 +10899,10 @@
         <v>60</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="G254" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>59</v>
@@ -10890,7 +10911,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -10907,10 +10928,10 @@
         <v>249</v>
       </c>
       <c r="F255" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="G255" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>248</v>
@@ -10919,7 +10940,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -10936,10 +10957,10 @@
         <v>276</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G256" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H256" s="2" t="s">
         <v>351</v>
@@ -10948,7 +10969,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -10964,11 +10985,11 @@
       <c r="E257" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F257" s="9" t="s">
-        <v>915</v>
+      <c r="F257" s="11" t="s">
+        <v>956</v>
       </c>
       <c r="G257" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>351</v>
@@ -10977,7 +10998,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -10994,10 +11015,10 @@
         <v>279</v>
       </c>
       <c r="F258" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="G258" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>351</v>
@@ -11006,7 +11027,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -11023,10 +11044,10 @@
         <v>372</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="G259" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>369</v>
@@ -11035,7 +11056,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -11052,10 +11073,10 @@
         <v>241</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G260" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>238</v>
@@ -11064,7 +11085,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -11081,10 +11102,10 @@
         <v>357</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="G261" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>352</v>
@@ -11093,7 +11114,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -11110,10 +11131,10 @@
         <v>621</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G262" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>547</v>
@@ -11122,7 +11143,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -11139,10 +11160,10 @@
         <v>363</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G263" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>352</v>
@@ -11151,7 +11172,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -11168,10 +11189,10 @@
         <v>620</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="G264" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>547</v>
@@ -11180,7 +11201,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -11197,10 +11218,10 @@
         <v>622</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G265" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>547</v>
@@ -11226,10 +11247,10 @@
         <v>605</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>773</v>
+        <v>957</v>
       </c>
       <c r="G266" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>352</v>
@@ -11238,7 +11259,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -11255,10 +11276,10 @@
         <v>456</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G267" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>429</v>
@@ -11267,7 +11288,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -11284,10 +11305,10 @@
         <v>606</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G268" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>352</v>
@@ -11296,7 +11317,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -11313,10 +11334,10 @@
         <v>607</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G269" s="22" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H269" s="2" t="s">
         <v>352</v>
@@ -11325,7 +11346,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -11342,10 +11363,10 @@
         <v>678</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="G270" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>547</v>
@@ -11354,7 +11375,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -11371,10 +11392,10 @@
         <v>680</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="G271" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>547</v>
@@ -11383,7 +11404,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -11400,10 +11421,10 @@
         <v>387</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G272" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>369</v>
@@ -11412,7 +11433,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -11429,10 +11450,10 @@
         <v>677</v>
       </c>
       <c r="F273" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="G273" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>547</v>
@@ -11457,11 +11478,11 @@
       <c r="E274" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="F274" s="9" t="s">
-        <v>773</v>
+      <c r="F274" s="11" t="s">
+        <v>958</v>
       </c>
       <c r="G274" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>547</v>
@@ -11487,10 +11508,10 @@
         <v>679</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>773</v>
+        <v>959</v>
       </c>
       <c r="G275" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>547</v>
@@ -11499,7 +11520,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -11515,11 +11536,11 @@
       <c r="E276" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F276" s="9" t="s">
-        <v>894</v>
+      <c r="F276" s="11" t="s">
+        <v>961</v>
       </c>
       <c r="G276" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>429</v>
@@ -11528,7 +11549,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -11544,11 +11565,11 @@
       <c r="E277" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F277" s="9" t="s">
-        <v>895</v>
+      <c r="F277" s="11" t="s">
+        <v>960</v>
       </c>
       <c r="G277" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>416</v>
@@ -11557,7 +11578,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -11583,7 +11604,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -11600,7 +11621,7 @@
         <v>239</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G279" s="18"/>
       <c r="H279" s="2" t="s">
@@ -11610,7 +11631,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -11627,7 +11648,7 @@
         <v>355</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>352</v>
@@ -11636,7 +11657,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -11653,7 +11674,7 @@
         <v>231</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>230</v>
@@ -11662,7 +11683,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -11679,7 +11700,7 @@
         <v>370</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>369</v>
@@ -11688,7 +11709,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -11705,7 +11726,7 @@
         <v>371</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G283" s="25"/>
       <c r="H283" s="2" t="s">
@@ -11715,7 +11736,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -11732,7 +11753,7 @@
         <v>123</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G284" s="20"/>
       <c r="H284" s="2" t="s">
@@ -11742,7 +11763,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -11759,7 +11780,7 @@
         <v>124</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="2" t="s">
@@ -11769,7 +11790,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -11786,7 +11807,7 @@
         <v>250</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>248</v>
@@ -11795,7 +11816,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -11812,7 +11833,7 @@
         <v>408</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="2" t="s">
@@ -11822,7 +11843,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -11839,7 +11860,7 @@
         <v>277</v>
       </c>
       <c r="F288" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G288" s="20"/>
       <c r="H288" s="2" t="s">
@@ -11849,7 +11870,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -11876,7 +11897,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -11893,7 +11914,7 @@
         <v>431</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>429</v>
@@ -11902,7 +11923,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -11928,7 +11949,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -11945,7 +11966,7 @@
         <v>232</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>230</v>
@@ -11954,7 +11975,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -11971,7 +11992,7 @@
         <v>373</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G293" s="28"/>
       <c r="H293" s="2" t="s">
@@ -11981,7 +12002,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -11998,7 +12019,7 @@
         <v>125</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G294" s="20"/>
       <c r="H294" s="2" t="s">
@@ -12008,7 +12029,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -12025,7 +12046,7 @@
         <v>126</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="2" t="s">
@@ -12035,7 +12056,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -12052,7 +12073,7 @@
         <v>251</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G296" s="18"/>
       <c r="H296" s="2" t="s">
@@ -12062,7 +12083,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -12089,7 +12110,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -12106,7 +12127,7 @@
         <v>433</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G298" s="20"/>
       <c r="H298" s="2" t="s">
@@ -12116,7 +12137,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -12133,7 +12154,7 @@
         <v>496</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="2" t="s">
@@ -12143,7 +12164,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -12160,7 +12181,7 @@
         <v>61</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G300" s="18"/>
       <c r="H300" s="2" t="s">
@@ -12170,7 +12191,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -12187,7 +12208,7 @@
         <v>374</v>
       </c>
       <c r="F301" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G301" s="25"/>
       <c r="H301" s="2" t="s">
@@ -12197,7 +12218,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -12214,7 +12235,7 @@
         <v>375</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G302" s="28"/>
       <c r="H302" s="2" t="s">
@@ -12224,7 +12245,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -12241,7 +12262,7 @@
         <v>376</v>
       </c>
       <c r="F303" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G303" s="25"/>
       <c r="H303" s="2" t="s">
@@ -12251,7 +12272,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -12268,7 +12289,7 @@
         <v>127</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="2" t="s">
@@ -12278,7 +12299,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -12295,7 +12316,7 @@
         <v>128</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="2" t="s">
@@ -12305,7 +12326,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -12322,7 +12343,7 @@
         <v>129</v>
       </c>
       <c r="F306" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G306" s="20"/>
       <c r="H306" s="2" t="s">
@@ -12332,7 +12353,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -12349,7 +12370,7 @@
         <v>130</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G307" s="20"/>
       <c r="H307" s="2" t="s">
@@ -12359,7 +12380,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -12376,7 +12397,7 @@
         <v>409</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>407</v>
@@ -12385,7 +12406,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -12402,7 +12423,7 @@
         <v>434</v>
       </c>
       <c r="F309" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G309" s="20"/>
       <c r="H309" s="2" t="s">
@@ -12412,7 +12433,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -12429,7 +12450,7 @@
         <v>497</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H310" s="2" t="s">
         <v>416</v>
@@ -12438,7 +12459,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -12455,7 +12476,7 @@
         <v>153</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="2" t="s">
@@ -12465,7 +12486,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -12482,7 +12503,7 @@
         <v>154</v>
       </c>
       <c r="F312" s="11" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="2" t="s">
@@ -12492,7 +12513,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -12509,7 +12530,7 @@
         <v>413</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>407</v>
@@ -12518,7 +12539,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -12545,7 +12566,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -12571,7 +12592,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -12588,7 +12609,7 @@
         <v>423</v>
       </c>
       <c r="F316" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G316" s="20"/>
       <c r="H316" s="2" t="s">
@@ -12598,7 +12619,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -12615,7 +12636,7 @@
         <v>204</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G317" s="20"/>
       <c r="H317" s="2" t="s">
@@ -12625,7 +12646,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -12642,7 +12663,7 @@
         <v>205</v>
       </c>
       <c r="F318" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>120</v>
@@ -12651,7 +12672,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -12668,7 +12689,7 @@
         <v>498</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>416</v>
@@ -12677,7 +12698,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -12694,7 +12715,7 @@
         <v>206</v>
       </c>
       <c r="F320" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>120</v>
@@ -12703,7 +12724,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -12720,7 +12741,7 @@
         <v>207</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>120</v>
@@ -12729,7 +12750,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -12746,7 +12767,7 @@
         <v>262</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>248</v>
@@ -12755,7 +12776,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -12772,7 +12793,7 @@
         <v>263</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H323" s="2" t="s">
         <v>248</v>
@@ -12781,7 +12802,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -12798,7 +12819,7 @@
         <v>457</v>
       </c>
       <c r="F324" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>429</v>
@@ -12807,7 +12828,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -12834,7 +12855,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -12857,7 +12878,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -12880,7 +12901,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -12903,7 +12924,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -12926,7 +12947,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -12949,7 +12970,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -12972,7 +12993,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -12995,7 +13016,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -13018,7 +13039,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -13041,7 +13062,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -13064,7 +13085,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -13087,7 +13108,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -13104,7 +13125,7 @@
         <v>412</v>
       </c>
       <c r="F337" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>407</v>
@@ -13113,7 +13134,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -13136,7 +13157,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -13153,7 +13174,7 @@
         <v>442</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G339" s="18"/>
       <c r="H339" s="2" t="s">
@@ -13163,7 +13184,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -13180,7 +13201,7 @@
         <v>538</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G340" s="20"/>
       <c r="H340" s="2" t="s">
@@ -13190,7 +13211,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -13207,7 +13228,7 @@
         <v>536</v>
       </c>
       <c r="F341" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G341" s="20"/>
       <c r="H341" s="2" t="s">
@@ -13217,7 +13238,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -13234,7 +13255,7 @@
         <v>537</v>
       </c>
       <c r="F342" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G342" s="20"/>
       <c r="H342" s="2" t="s">
@@ -13244,7 +13265,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -13261,7 +13282,7 @@
         <v>226</v>
       </c>
       <c r="F343" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G343" s="20"/>
       <c r="H343" s="2" t="s">
@@ -13271,7 +13292,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -13288,7 +13309,7 @@
         <v>227</v>
       </c>
       <c r="F344" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G344" s="20"/>
       <c r="H344" s="2" t="s">
@@ -13298,7 +13319,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -13315,7 +13336,7 @@
         <v>228</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G345" s="20"/>
       <c r="H345" s="2" t="s">
@@ -13325,7 +13346,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -13342,7 +13363,7 @@
         <v>411</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>407</v>
@@ -13351,7 +13372,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -13368,10 +13389,10 @@
         <v>500</v>
       </c>
       <c r="F347" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G347" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>416</v>
@@ -13397,10 +13418,10 @@
         <v>92</v>
       </c>
       <c r="F348" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G348" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H348" s="2" t="s">
         <v>85</v>
@@ -19484,7 +19505,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="611" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>610</v>
       </c>
@@ -19498,13 +19519,13 @@
         <v>49</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F611" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G611" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H611" s="2" t="s">
         <v>547</v>
@@ -19513,7 +19534,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>611</v>
       </c>
@@ -19527,10 +19548,10 @@
         <v>45</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F612" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G612" s="20"/>
       <c r="H612" s="2" t="s">
@@ -19554,13 +19575,13 @@
         <v>46</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="F613" s="9" t="s">
-        <v>773</v>
+        <v>816</v>
+      </c>
+      <c r="F613" s="11" t="s">
+        <v>962</v>
       </c>
       <c r="G613" s="19" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H613" s="2" t="s">
         <v>547</v>
@@ -19569,7 +19590,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="614" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>613</v>
       </c>
@@ -19583,10 +19604,10 @@
         <v>45</v>
       </c>
       <c r="E614" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="F614" s="11" t="s">
         <v>853</v>
-      </c>
-      <c r="F614" s="11" t="s">
-        <v>854</v>
       </c>
       <c r="G614" s="20"/>
       <c r="H614" s="2" t="s">
@@ -19596,12 +19617,12 @@
         <v>708</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>6</v>
@@ -19610,10 +19631,10 @@
         <v>45</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F615" s="11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>547</v>
@@ -19636,10 +19657,10 @@
         <v>46</v>
       </c>
       <c r="E616" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="F616" s="9" t="s">
         <v>908</v>
-      </c>
-      <c r="F616" s="9" t="s">
-        <v>911</v>
       </c>
       <c r="H616" s="2" t="s">
         <v>547</v>
@@ -19662,10 +19683,10 @@
         <v>45</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F617" s="11" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="H617" s="2" t="s">
         <v>547</v>
@@ -19674,7 +19695,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>617</v>
       </c>
@@ -19688,10 +19709,10 @@
         <v>45</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="F618" s="9" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="H618" s="2" t="s">
         <v>547</v>
@@ -19700,7 +19721,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="619" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>618</v>
       </c>
@@ -19714,10 +19735,10 @@
         <v>45</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="F619" s="11" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="H619" s="2" t="s">
         <v>547</v>
@@ -19726,7 +19747,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>619</v>
       </c>
@@ -19740,10 +19761,10 @@
         <v>49</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F620" s="11" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="H620" s="2" t="s">
         <v>547</v>
@@ -19752,7 +19773,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>620</v>
       </c>
@@ -19766,10 +19787,10 @@
         <v>46</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F621" s="11" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="H621" s="2" t="s">
         <v>547</v>
@@ -19778,7 +19799,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="622" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>621</v>
       </c>
@@ -19792,13 +19813,13 @@
         <v>45</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F622" s="9" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G622" s="22" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="H622" s="2" t="s">
         <v>547</v>
@@ -19818,6 +19839,14 @@
         <filter val="Core (PC)"/>
         <filter val="Core (SD)"/>
         <filter val="Core (Vocab)"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="PC"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$B$1:$H$622</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$A$1:$I$622</definedName>
     <definedName name="Resources">#REF!</definedName>
     <definedName name="Topics">#REF!</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4378" uniqueCount="974">
   <si>
     <t>Resource</t>
   </si>
@@ -3776,6 +3776,39 @@
   <si>
     <t>Rename "type" to "code" and add it as a search criteria.  Also add "lastUpdated" date and a "category" for history over-all with examples like "psychological", "general", "oncology".</t>
   </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Done, but the xpath makes it unambiguous too</t>
+  </si>
+  <si>
+    <t>Maybe not. See 482.</t>
+  </si>
+  <si>
+    <t>It says "See below", where there are more details...</t>
+  </si>
+  <si>
+    <t>RelatedPerson is gone</t>
+  </si>
+  <si>
+    <t>To link records, see notes</t>
+  </si>
+  <si>
+    <t>Not all have, that is correct. May be methodology question</t>
+  </si>
+  <si>
+    <t>Because it is only relevant for patients, but birthDate is relevant in demographics, so for other resources (relatedPerson, Practitioner). However, this whole construction is under discussion.</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Removed.</t>
+  </si>
+  <si>
+    <t>That's because of Demographics. Again, we might have to reconsider and just copy &amp; paste</t>
+  </si>
 </sst>
 </file>
 
@@ -3866,7 +3899,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3888,6 +3921,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3904,7 +3943,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3992,6 +4031,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4310,10 +4358,10 @@
   <dimension ref="A1:I622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F623" sqref="F623"/>
+      <selection pane="bottomRight" activeCell="D484" sqref="D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10969,7 +11017,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -11230,7 +11278,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -11462,7 +11510,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -11491,7 +11539,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -11520,7 +11568,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -11549,7 +11597,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -16486,7 +16534,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -16509,7 +16557,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -16532,30 +16580,34 @@
         <v>708</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="2">
+    <row r="482" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A482" s="30">
         <v>481</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B482" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C482" s="2" t="s">
+      <c r="C482" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D482" s="3" t="s">
+      <c r="D482" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E482" s="2" t="s">
+      <c r="E482" s="30" t="s">
         <v>668</v>
       </c>
-      <c r="H482" s="2" t="s">
+      <c r="F482" s="30" t="s">
+        <v>963</v>
+      </c>
+      <c r="G482" s="32"/>
+      <c r="H482" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="I482" s="2" t="s">
+      <c r="I482" s="30" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -16578,7 +16630,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -16601,7 +16653,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -16617,6 +16669,9 @@
       <c r="E485" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="F485" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="H485" s="2" t="s">
         <v>59</v>
       </c>
@@ -16624,30 +16679,34 @@
         <v>709</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="2">
+    <row r="486" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A486" s="30">
         <v>485</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="B486" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C486" s="2" t="s">
+      <c r="C486" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D486" s="3" t="s">
+      <c r="D486" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E486" s="2" t="s">
+      <c r="E486" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="H486" s="2" t="s">
+      <c r="F486" s="30" t="s">
+        <v>963</v>
+      </c>
+      <c r="G486" s="32"/>
+      <c r="H486" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="I486" s="2" t="s">
+      <c r="I486" s="30" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -16670,7 +16729,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -16693,7 +16752,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -16709,6 +16768,9 @@
       <c r="E489" s="2" t="s">
         <v>650</v>
       </c>
+      <c r="F489" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="H489" s="2" t="s">
         <v>85</v>
       </c>
@@ -16716,7 +16778,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -16739,7 +16801,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -16755,6 +16817,9 @@
       <c r="E491" s="2" t="s">
         <v>508</v>
       </c>
+      <c r="F491" s="2" t="s">
+        <v>964</v>
+      </c>
       <c r="H491" s="2" t="s">
         <v>352</v>
       </c>
@@ -16762,30 +16827,31 @@
         <v>707</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="2">
+    <row r="492" spans="1:9" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A492" s="30">
         <v>491</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="B492" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C492" s="2" t="s">
+      <c r="C492" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D492" s="2" t="s">
+      <c r="D492" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E492" s="2" t="s">
+      <c r="E492" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="H492" s="2" t="s">
+      <c r="G492" s="32"/>
+      <c r="H492" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="I492" s="2" t="s">
+      <c r="I492" s="30" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -16801,6 +16867,9 @@
       <c r="E493" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="F493" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="H493" s="2" t="s">
         <v>120</v>
       </c>
@@ -16808,7 +16877,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -16824,6 +16893,9 @@
       <c r="E494" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="F494" s="2" t="s">
+        <v>965</v>
+      </c>
       <c r="H494" s="2" t="s">
         <v>120</v>
       </c>
@@ -16831,7 +16903,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -16854,7 +16926,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -16870,6 +16942,9 @@
       <c r="E496" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="F496" s="2" t="s">
+        <v>966</v>
+      </c>
       <c r="H496" s="2" t="s">
         <v>120</v>
       </c>
@@ -16877,7 +16952,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -16893,6 +16968,9 @@
       <c r="E497" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="F497" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="H497" s="2" t="s">
         <v>120</v>
       </c>
@@ -16900,7 +16978,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -16916,6 +16994,9 @@
       <c r="E498" s="2" t="s">
         <v>669</v>
       </c>
+      <c r="F498" s="2" t="s">
+        <v>967</v>
+      </c>
       <c r="H498" s="2" t="s">
         <v>547</v>
       </c>
@@ -16923,7 +17004,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -16939,6 +17020,9 @@
       <c r="E499" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="F499" s="2" t="s">
+        <v>968</v>
+      </c>
       <c r="H499" s="2" t="s">
         <v>351</v>
       </c>
@@ -16946,30 +17030,34 @@
         <v>702</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="2">
+    <row r="500" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A500" s="30">
         <v>499</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B500" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C500" s="2" t="s">
+      <c r="C500" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D500" s="2" t="s">
+      <c r="D500" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E500" s="2" t="s">
+      <c r="E500" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="H500" s="2" t="s">
+      <c r="F500" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="G500" s="32"/>
+      <c r="H500" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="I500" s="2" t="s">
+      <c r="I500" s="30" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -16992,7 +17080,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -17015,7 +17103,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -17031,6 +17119,9 @@
       <c r="E503" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="F503" s="2" t="s">
+        <v>970</v>
+      </c>
       <c r="H503" s="2" t="s">
         <v>351</v>
       </c>
@@ -17038,7 +17129,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -17061,7 +17152,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -17084,53 +17175,61 @@
         <v>702</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="2">
+    <row r="506" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A506" s="30">
         <v>505</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B506" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C506" s="2" t="s">
+      <c r="C506" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D506" s="2" t="s">
+      <c r="D506" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E506" s="2" t="s">
+      <c r="E506" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="H506" s="2" t="s">
+      <c r="F506" s="30" t="s">
+        <v>971</v>
+      </c>
+      <c r="G506" s="32"/>
+      <c r="H506" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="I506" s="2" t="s">
+      <c r="I506" s="30" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="2">
+    <row r="507" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A507" s="30">
         <v>506</v>
       </c>
-      <c r="B507" s="2" t="s">
+      <c r="B507" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C507" s="2" t="s">
+      <c r="C507" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D507" s="2" t="s">
+      <c r="D507" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E507" s="2" t="s">
+      <c r="E507" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="H507" s="2" t="s">
+      <c r="F507" s="30" t="s">
+        <v>971</v>
+      </c>
+      <c r="G507" s="32"/>
+      <c r="H507" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="I507" s="2" t="s">
+      <c r="I507" s="30" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -17146,6 +17245,9 @@
       <c r="E508" s="2" t="s">
         <v>342</v>
       </c>
+      <c r="F508" s="2" t="s">
+        <v>972</v>
+      </c>
       <c r="H508" s="2" t="s">
         <v>351</v>
       </c>
@@ -17153,53 +17255,58 @@
         <v>702</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="2">
+    <row r="509" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A509" s="30">
         <v>508</v>
       </c>
-      <c r="B509" s="2" t="s">
+      <c r="B509" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C509" s="2" t="s">
+      <c r="C509" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D509" s="2" t="s">
+      <c r="D509" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E509" s="2" t="s">
+      <c r="E509" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="H509" s="2" t="s">
+      <c r="F509" s="30" t="s">
+        <v>973</v>
+      </c>
+      <c r="G509" s="32"/>
+      <c r="H509" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="I509" s="2" t="s">
+      <c r="I509" s="30" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="2">
+    <row r="510" spans="1:9" s="30" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A510" s="30">
         <v>509</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="B510" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C510" s="2" t="s">
+      <c r="C510" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D510" s="3" t="s">
+      <c r="D510" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E510" s="2" t="s">
+      <c r="E510" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="H510" s="2" t="s">
+      <c r="G510" s="32"/>
+      <c r="H510" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="I510" s="2" t="s">
+      <c r="I510" s="30" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -17222,7 +17329,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -17245,7 +17352,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -19561,7 +19668,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="613" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>612</v>
       </c>
@@ -19829,24 +19936,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H622">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:I622">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Core"/>
-        <filter val="Core (CGIT)"/>
-        <filter val="Core (DICOM)"/>
-        <filter val="Core (IHE)"/>
-        <filter val="Core (PC)"/>
-        <filter val="Core (SD)"/>
-        <filter val="Core (Vocab)"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="PC"/>
+        <filter val="Patient"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4378" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4386" uniqueCount="981">
   <si>
     <t>Resource</t>
   </si>
@@ -3808,6 +3808,27 @@
   </si>
   <si>
     <t>That's because of Demographics. Again, we might have to reconsider and just copy &amp; paste</t>
+  </si>
+  <si>
+    <t>Is gone</t>
+  </si>
+  <si>
+    <t>Changed to ContactEntity, normalized from Demographics</t>
+  </si>
+  <si>
+    <t>Gone</t>
+  </si>
+  <si>
+    <t>The scope has been changed considerably. Please verify it's correct now.</t>
+  </si>
+  <si>
+    <t>Scope description for both has been changed.</t>
+  </si>
+  <si>
+    <t>Has been changed to ContactEntity</t>
+  </si>
+  <si>
+    <t>Well, since we don't have a proposed set of codes for this code, it's hard to keep the core useable, since making it 1..1 would mean this resource is hard to use out-of-the-box, you might just not know a reasonable set of codes.</t>
   </si>
 </sst>
 </file>
@@ -3943,7 +3964,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4041,6 +4062,9 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -4048,16 +4072,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4361,7 +4376,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D484" sqref="D484"/>
+      <selection pane="bottomRight" activeCell="A466" sqref="A466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16212,7 +16227,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -16228,6 +16243,9 @@
       <c r="E466" s="2" t="s">
         <v>644</v>
       </c>
+      <c r="F466" s="2" t="s">
+        <v>974</v>
+      </c>
       <c r="H466" s="2" t="s">
         <v>547</v>
       </c>
@@ -16235,7 +16253,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -16258,7 +16276,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -16274,6 +16292,9 @@
       <c r="E468" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="F468" s="2" t="s">
+        <v>975</v>
+      </c>
       <c r="H468" s="2" t="s">
         <v>59</v>
       </c>
@@ -16281,7 +16302,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -16297,6 +16318,9 @@
       <c r="E469" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="F469" s="2" t="s">
+        <v>975</v>
+      </c>
       <c r="H469" s="2" t="s">
         <v>85</v>
       </c>
@@ -16304,7 +16328,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -16320,6 +16344,9 @@
       <c r="E470" s="2" t="s">
         <v>507</v>
       </c>
+      <c r="F470" s="2" t="s">
+        <v>976</v>
+      </c>
       <c r="H470" s="2" t="s">
         <v>352</v>
       </c>
@@ -16327,53 +16354,58 @@
         <v>707</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="2">
+    <row r="471" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="30">
         <v>470</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B471" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C471" s="2" t="s">
+      <c r="C471" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D471" s="6" t="s">
+      <c r="D471" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="E471" s="2" t="s">
+      <c r="E471" s="30" t="s">
         <v>647</v>
       </c>
-      <c r="H471" s="2" t="s">
+      <c r="G471" s="32"/>
+      <c r="H471" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="I471" s="2" t="s">
+      <c r="I471" s="30" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="2">
+    <row r="472" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A472" s="30">
         <v>471</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B472" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C472" s="2" t="s">
+      <c r="C472" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D472" s="6" t="s">
+      <c r="D472" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="E472" s="2" t="s">
+      <c r="E472" s="30" t="s">
         <v>646</v>
       </c>
-      <c r="H472" s="2" t="s">
+      <c r="F472" s="30" t="s">
+        <v>980</v>
+      </c>
+      <c r="G472" s="32"/>
+      <c r="H472" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="I472" s="2" t="s">
+      <c r="I472" s="30" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -16389,6 +16421,9 @@
       <c r="E473" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="F473" s="2" t="s">
+        <v>977</v>
+      </c>
       <c r="H473" s="2" t="s">
         <v>120</v>
       </c>
@@ -16396,7 +16431,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -16419,7 +16454,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -16435,6 +16470,9 @@
       <c r="E475" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="F475" s="2" t="s">
+        <v>978</v>
+      </c>
       <c r="H475" s="2" t="s">
         <v>120</v>
       </c>
@@ -16442,7 +16480,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -16458,6 +16496,9 @@
       <c r="E476" s="2" t="s">
         <v>645</v>
       </c>
+      <c r="F476" s="2" t="s">
+        <v>979</v>
+      </c>
       <c r="H476" s="2" t="s">
         <v>547</v>
       </c>
@@ -16465,30 +16506,31 @@
         <v>708</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="2">
+    <row r="477" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="30">
         <v>476</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B477" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C477" s="2" t="s">
+      <c r="C477" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D477" s="2" t="s">
+      <c r="D477" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E477" s="2" t="s">
+      <c r="E477" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="H477" s="2" t="s">
+      <c r="G477" s="32"/>
+      <c r="H477" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="I477" s="2" t="s">
+      <c r="I477" s="30" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -16511,7 +16553,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -16534,7 +16576,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -16557,7 +16599,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -16580,7 +16622,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="482" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="30">
         <v>481</v>
       </c>
@@ -16607,7 +16649,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -16630,7 +16672,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -16653,7 +16695,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -16679,7 +16721,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="486" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="30">
         <v>485</v>
       </c>
@@ -16706,7 +16748,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -16729,7 +16771,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -16752,7 +16794,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -16778,7 +16820,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -16801,7 +16843,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -16827,7 +16869,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="492" spans="1:9" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" s="30" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="30">
         <v>491</v>
       </c>
@@ -16851,7 +16893,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -16877,7 +16919,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -16903,7 +16945,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -16926,7 +16968,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -16952,7 +16994,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -16978,7 +17020,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -17004,7 +17046,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -17030,7 +17072,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="500" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="30">
         <v>499</v>
       </c>
@@ -17057,7 +17099,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -17080,7 +17122,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -17103,7 +17145,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -17129,7 +17171,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -17152,7 +17194,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -17175,7 +17217,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="506" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="30">
         <v>505</v>
       </c>
@@ -17202,7 +17244,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="507" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="30">
         <v>506</v>
       </c>
@@ -17229,7 +17271,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -17255,7 +17297,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="509" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="30">
         <v>508</v>
       </c>
@@ -17282,7 +17324,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="510" spans="1:9" s="30" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" s="30" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="30">
         <v>509</v>
       </c>
@@ -17306,7 +17348,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -17329,7 +17371,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -17352,7 +17394,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -19939,7 +19981,7 @@
   <autoFilter ref="A1:I622">
     <filterColumn colId="2">
       <filters>
-        <filter val="Patient"/>
+        <filter val="Organization"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4386" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="983">
   <si>
     <t>Resource</t>
   </si>
@@ -3829,6 +3829,12 @@
   </si>
   <si>
     <t>Well, since we don't have a proposed set of codes for this code, it's hard to keep the core useable, since making it 1..1 would mean this resource is hard to use out-of-the-box, you might just not know a reasonable set of codes.</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -4370,13 +4376,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I622"/>
+  <dimension ref="A1:J622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A466" sqref="A466"/>
+      <selection pane="bottomRight" activeCell="J318" sqref="J318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,7 +4399,7 @@
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>715</v>
       </c>
@@ -4421,8 +4427,11 @@
       <c r="I1" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4449,7 +4458,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4476,7 +4485,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4503,7 +4512,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4530,7 +4539,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4557,7 +4566,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4586,7 +4595,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4613,7 +4622,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4642,7 +4651,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4668,7 +4677,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4697,7 +4706,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4724,7 +4733,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4753,7 +4762,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4779,7 +4788,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4808,7 +4817,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -11032,7 +11041,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -11061,7 +11070,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -11090,7 +11099,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -11119,7 +11128,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -11148,7 +11157,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -11177,7 +11186,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -11206,7 +11215,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -11235,7 +11244,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -11264,7 +11273,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -11293,7 +11302,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -11321,8 +11330,11 @@
       <c r="I266" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J266" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -11350,8 +11362,11 @@
       <c r="I267" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J267" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -11380,7 +11395,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -11409,7 +11424,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -11438,7 +11453,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -11467,7 +11482,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -12362,7 +12377,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -12389,7 +12404,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -12416,7 +12431,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -12443,7 +12458,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -12469,7 +12484,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -12496,7 +12511,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -12522,7 +12537,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -12549,7 +12564,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -12576,7 +12591,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -12602,7 +12617,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -12629,7 +12644,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -12654,8 +12669,11 @@
       <c r="I315" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J315" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -12681,8 +12699,11 @@
       <c r="I316" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J316" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -12708,8 +12729,11 @@
       <c r="I317" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J317" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -12734,8 +12758,11 @@
       <c r="I318" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J318" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -12760,8 +12787,11 @@
       <c r="I319" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J319" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -16227,7 +16257,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -16253,7 +16283,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -16276,7 +16306,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -16302,7 +16332,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -16328,7 +16358,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -16354,7 +16384,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="471" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="30">
         <v>470</v>
       </c>
@@ -16378,7 +16408,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="472" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="30">
         <v>471</v>
       </c>
@@ -16405,7 +16435,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -16431,7 +16461,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -16454,7 +16484,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -16480,7 +16510,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -16506,7 +16536,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="477" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="30">
         <v>476</v>
       </c>
@@ -16530,7 +16560,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -16553,7 +16583,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -19981,7 +20011,7 @@
   <autoFilter ref="A1:I622">
     <filterColumn colId="2">
       <filters>
-        <filter val="Organization"/>
+        <filter val="Problem"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="984">
   <si>
     <t>Resource</t>
   </si>
@@ -3835,6 +3835,9 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>I think it does follow the naming convention?</t>
   </si>
 </sst>
 </file>
@@ -4379,10 +4382,10 @@
   <dimension ref="A1:J622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E527" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J318" sqref="J318"/>
+      <selection pane="bottomRight" activeCell="E533" sqref="E533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11302,7 +11305,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -11334,7 +11337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -12644,7 +12647,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -12673,7 +12676,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -12703,7 +12706,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -12733,7 +12736,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -12762,7 +12765,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -15921,7 +15924,7 @@
       <c r="D451" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E451" s="2" t="s">
+      <c r="E451" s="30" t="s">
         <v>628</v>
       </c>
       <c r="H451" s="2" t="s">
@@ -15944,7 +15947,7 @@
       <c r="D452" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E452" s="2" t="s">
+      <c r="E452" s="30" t="s">
         <v>629</v>
       </c>
       <c r="H452" s="2" t="s">
@@ -15967,7 +15970,7 @@
       <c r="D453" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E453" s="2" t="s">
+      <c r="E453" s="30" t="s">
         <v>632</v>
       </c>
       <c r="H453" s="2" t="s">
@@ -15990,7 +15993,7 @@
       <c r="D454" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E454" s="2" t="s">
+      <c r="E454" s="30" t="s">
         <v>69</v>
       </c>
       <c r="H454" s="2" t="s">
@@ -16013,7 +16016,7 @@
       <c r="D455" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E455" s="6" t="s">
+      <c r="E455" s="33" t="s">
         <v>106</v>
       </c>
       <c r="F455" s="6"/>
@@ -16038,7 +16041,7 @@
       <c r="D456" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E456" s="2" t="s">
+      <c r="E456" s="30" t="s">
         <v>505</v>
       </c>
       <c r="H456" s="2" t="s">
@@ -16061,7 +16064,7 @@
       <c r="D457" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E457" s="2" t="s">
+      <c r="E457" s="30" t="s">
         <v>631</v>
       </c>
       <c r="H457" s="2" t="s">
@@ -16087,7 +16090,9 @@
       <c r="E458" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="F458" s="4"/>
+      <c r="F458" s="4" t="s">
+        <v>894</v>
+      </c>
       <c r="G458" s="28"/>
       <c r="H458" s="2" t="s">
         <v>369</v>
@@ -16112,6 +16117,9 @@
       <c r="E459" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="F459" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="H459" s="2" t="s">
         <v>120</v>
       </c>
@@ -16135,6 +16143,9 @@
       <c r="E460" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="F460" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="H460" s="2" t="s">
         <v>120</v>
       </c>
@@ -16158,6 +16169,9 @@
       <c r="E461" s="2" t="s">
         <v>627</v>
       </c>
+      <c r="F461" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="H461" s="2" t="s">
         <v>547</v>
       </c>
@@ -16178,7 +16192,7 @@
       <c r="D462" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E462" s="2" t="s">
+      <c r="E462" s="30" t="s">
         <v>270</v>
       </c>
       <c r="H462" s="2" t="s">
@@ -16201,7 +16215,7 @@
       <c r="D463" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E463" s="2" t="s">
+      <c r="E463" s="30" t="s">
         <v>630</v>
       </c>
       <c r="H463" s="2" t="s">
@@ -16250,6 +16264,9 @@
       <c r="E465" s="2" t="s">
         <v>506</v>
       </c>
+      <c r="F465" s="2" t="s">
+        <v>983</v>
+      </c>
       <c r="H465" s="2" t="s">
         <v>416</v>
       </c>
@@ -17447,7 +17464,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -17470,7 +17487,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -17493,7 +17510,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -17516,7 +17533,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -17541,7 +17558,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -17564,7 +17581,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -17587,7 +17604,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -17610,7 +17627,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -17623,7 +17640,7 @@
       <c r="D521" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E521" s="2" t="s">
+      <c r="E521" s="30" t="s">
         <v>364</v>
       </c>
       <c r="H521" s="2" t="s">
@@ -17633,7 +17650,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -17646,7 +17663,7 @@
       <c r="D522" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E522" s="2" t="s">
+      <c r="E522" s="30" t="s">
         <v>675</v>
       </c>
       <c r="H522" s="2" t="s">
@@ -17656,7 +17673,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -17672,6 +17689,9 @@
       <c r="E523" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="F523" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="H523" s="2" t="s">
         <v>120</v>
       </c>
@@ -17679,7 +17699,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -17695,6 +17715,9 @@
       <c r="E524" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="F524" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="H524" s="2" t="s">
         <v>120</v>
       </c>
@@ -17702,7 +17725,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -17718,6 +17741,9 @@
       <c r="E525" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="F525" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="H525" s="2" t="s">
         <v>120</v>
       </c>
@@ -17725,7 +17751,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -17738,7 +17764,7 @@
       <c r="D526" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E526" s="2" t="s">
+      <c r="E526" s="30" t="s">
         <v>673</v>
       </c>
       <c r="H526" s="2" t="s">
@@ -17748,7 +17774,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -17764,6 +17790,9 @@
       <c r="E527" s="2" t="s">
         <v>453</v>
       </c>
+      <c r="F527" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="H527" s="2" t="s">
         <v>429</v>
       </c>
@@ -17771,7 +17800,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -17794,7 +17823,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -17817,7 +17846,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -17840,7 +17869,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -17863,7 +17892,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -17886,7 +17915,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -17899,7 +17928,7 @@
       <c r="D533" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E533" s="2" t="s">
+      <c r="E533" s="30" t="s">
         <v>555</v>
       </c>
       <c r="H533" s="2" t="s">
@@ -19835,7 +19864,7 @@
       <c r="D616" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E616" s="2" t="s">
+      <c r="E616" s="30" t="s">
         <v>905</v>
       </c>
       <c r="F616" s="9" t="s">
@@ -20011,7 +20040,7 @@
   <autoFilter ref="A1:I622">
     <filterColumn colId="2">
       <filters>
-        <filter val="Problem"/>
+        <filter val="Practitioner"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4403" uniqueCount="984">
   <si>
     <t>Resource</t>
   </si>
@@ -4385,7 +4385,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E527" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E533" sqref="E533"/>
+      <selection pane="bottomRight" activeCell="C533" sqref="C533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17663,8 +17663,11 @@
       <c r="D522" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E522" s="30" t="s">
+      <c r="E522" s="2" t="s">
         <v>675</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>894</v>
       </c>
       <c r="H522" s="2" t="s">
         <v>547</v>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$A$1:$I$622</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Review Comments'!$A$1:$J$622</definedName>
     <definedName name="Resources">#REF!</definedName>
     <definedName name="Topics">#REF!</definedName>
   </definedNames>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4403" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4461" uniqueCount="1006">
   <si>
     <t>Resource</t>
   </si>
@@ -3051,9 +3051,6 @@
     <t>Call out in a "note" that the content type is conveyed as part of the Picture.content Attachment data type</t>
   </si>
   <si>
-    <t>Verify that DocumentReference and Document attributes are aligned</t>
-  </si>
-  <si>
     <t>Change Provenance.activity.location to use Location resource</t>
   </si>
   <si>
@@ -3360,9 +3357,6 @@
   </si>
   <si>
     <t>Not critical and consistent order makes copy &amp; paste easier and makes it easier for people to see the wording's the same in all 3 places.</t>
-  </si>
-  <si>
-    <t>Will make this 0..1 in DocumentReference too.</t>
   </si>
   <si>
     <t>There isn't information on them in FHIR.  However, CDA should be a reference to the CDA spec given that not all FHIR readers will be familiar with CDA.</t>
@@ -3838,6 +3832,80 @@
   </si>
   <si>
     <t>I think it does follow the naming convention?</t>
+  </si>
+  <si>
+    <t>Verify that DocumentReference and Document attributes are aligned. 
+GG: Don't agree. They don't need to be the same - the rules for document are tighter than for document reference, and the data is more extensive. They shouldn't disagree with each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will make this 0..1 in DocumentReference too.
+GG: Why? What's the impact of doing this? What's the intent? </t>
+  </si>
+  <si>
+    <t>GG: add end-point reference. Whoops</t>
+  </si>
+  <si>
+    <t>GG: there's not enough words</t>
+  </si>
+  <si>
+    <t>GG: Document = CDA, DocumentReference = XDSDocumentEntry</t>
+  </si>
+  <si>
+    <t>clarified</t>
+  </si>
+  <si>
+    <t>a document about a group of subjects</t>
+  </si>
+  <si>
+    <t>fixed-  type and subtype now</t>
+  </si>
+  <si>
+    <t>GG: good question, but this is what is presently being used by XDS. Specific proposals welcome</t>
+  </si>
+  <si>
+    <t>created can be an instant, but doesn't have to be (date time allows for instant, but is less stringent)</t>
+  </si>
+  <si>
+    <t>because the underlying document status can't be strictly controlled</t>
+  </si>
+  <si>
+    <t>language is a reserved word. No use case known anywhere for more than one primary language</t>
+  </si>
+  <si>
+    <t>That's not what it is. Clarified</t>
+  </si>
+  <si>
+    <t>because you might provide a service reference instead</t>
+  </si>
+  <si>
+    <t>no need for consistency in this regard. "location" is the natural name for both concepts</t>
+  </si>
+  <si>
+    <t>reference to XDS getDocument, for instance. Todo: add an example</t>
+  </si>
+  <si>
+    <t>XDS use it</t>
+  </si>
+  <si>
+    <t>XDS use it - but it's important - date of relevance of document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDS use it - it gets used navigating the index </t>
+  </si>
+  <si>
+    <t>XDS use it - dubious usage for 80%. Discussion welcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDS don't use it, so it won't make 80%. There are also lots of use cases where there is no visit. </t>
+  </si>
+  <si>
+    <t>yes, but this is a business rule, not a technical issue, so delegated to profiles</t>
+  </si>
+  <si>
+    <t>see same comment against DocumentReference</t>
+  </si>
+  <si>
+    <t>Which information should be removed? I can't see anyway to improve things</t>
   </si>
 </sst>
 </file>
@@ -4382,10 +4450,10 @@
   <dimension ref="A1:J622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E527" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C533" sqref="C533"/>
+      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4431,7 +4499,7 @@
         <v>698</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -4532,7 +4600,7 @@
         <v>107</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="2" t="s">
@@ -4586,10 +4654,10 @@
         <v>353</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>352</v>
@@ -4615,7 +4683,7 @@
         <v>354</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="2" t="s">
@@ -4642,10 +4710,10 @@
         <v>546</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>547</v>
@@ -4671,7 +4739,7 @@
         <v>121</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>120</v>
@@ -4697,10 +4765,10 @@
         <v>122</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>120</v>
@@ -4726,7 +4794,7 @@
         <v>266</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="2" t="s">
@@ -4753,10 +4821,10 @@
         <v>410</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>407</v>
@@ -4782,7 +4850,7 @@
         <v>415</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>407</v>
@@ -4808,10 +4876,10 @@
         <v>55</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>54</v>
@@ -4837,10 +4905,10 @@
         <v>56</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>54</v>
@@ -4866,10 +4934,10 @@
         <v>640</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>547</v>
@@ -4895,10 +4963,10 @@
         <v>482</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>416</v>
@@ -4924,7 +4992,7 @@
         <v>479</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>416</v>
@@ -4950,7 +5018,7 @@
         <v>478</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>416</v>
@@ -4976,10 +5044,10 @@
         <v>480</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>416</v>
@@ -5005,7 +5073,7 @@
         <v>481</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="2" t="s">
@@ -5032,7 +5100,7 @@
         <v>483</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="2" t="s">
@@ -5047,7 +5115,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -5059,7 +5127,7 @@
         <v>63</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="2" t="s">
@@ -5074,7 +5142,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -5100,7 +5168,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -5112,7 +5180,7 @@
         <v>359</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>352</v>
@@ -5126,7 +5194,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -5138,7 +5206,7 @@
         <v>379</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="2" t="s">
@@ -5153,7 +5221,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -5165,10 +5233,10 @@
         <v>380</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>369</v>
@@ -5182,7 +5250,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -5194,7 +5262,7 @@
         <v>134</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>120</v>
@@ -5208,7 +5276,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
@@ -5220,7 +5288,7 @@
         <v>254</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>248</v>
@@ -5234,7 +5302,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -5246,7 +5314,7 @@
         <v>485</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>416</v>
@@ -5260,7 +5328,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -5272,7 +5340,7 @@
         <v>484</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>416</v>
@@ -5286,7 +5354,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -5298,7 +5366,7 @@
         <v>486</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>416</v>
@@ -5324,7 +5392,7 @@
         <v>64</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="2" t="s">
@@ -5378,7 +5446,7 @@
         <v>489</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="2" t="s">
@@ -5405,7 +5473,7 @@
         <v>487</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>352</v>
@@ -5431,7 +5499,7 @@
         <v>488</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="2" t="s">
@@ -5458,7 +5526,7 @@
         <v>490</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="2" t="s">
@@ -5485,7 +5553,7 @@
         <v>155</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="2" t="s">
@@ -5512,7 +5580,7 @@
         <v>417</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>416</v>
@@ -5538,10 +5606,10 @@
         <v>68</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>59</v>
@@ -5594,7 +5662,7 @@
         <v>491</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="2" t="s">
@@ -5621,7 +5689,7 @@
         <v>161</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="2" t="s">
@@ -5648,7 +5716,7 @@
         <v>162</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="2" t="s">
@@ -5675,7 +5743,7 @@
         <v>271</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="2" t="s">
@@ -5702,7 +5770,7 @@
         <v>321</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="2" t="s">
@@ -5729,7 +5797,7 @@
         <v>447</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="2" t="s">
@@ -5756,7 +5824,7 @@
         <v>418</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>416</v>
@@ -5808,7 +5876,7 @@
         <v>514</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="2" t="s">
@@ -5835,7 +5903,7 @@
         <v>513</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="2" t="s">
@@ -5862,7 +5930,7 @@
         <v>163</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="2" t="s">
@@ -5889,7 +5957,7 @@
         <v>492</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="2" t="s">
@@ -5916,7 +5984,7 @@
         <v>71</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="2" t="s">
@@ -5972,7 +6040,7 @@
         <v>724</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>85</v>
@@ -6025,10 +6093,10 @@
         <v>515</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>352</v>
@@ -6054,7 +6122,7 @@
         <v>516</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="2" t="s">
@@ -6081,7 +6149,7 @@
         <v>167</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="2" t="s">
@@ -6108,10 +6176,10 @@
         <v>168</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>120</v>
@@ -6137,10 +6205,10 @@
         <v>169</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>120</v>
@@ -6166,10 +6234,10 @@
         <v>170</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>120</v>
@@ -6195,7 +6263,7 @@
         <v>269</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="2" t="s">
@@ -6222,7 +6290,7 @@
         <v>418</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="2" t="s">
@@ -6237,7 +6305,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
@@ -6264,7 +6332,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
@@ -6276,10 +6344,10 @@
         <v>208</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>120</v>
@@ -6293,7 +6361,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
@@ -6305,7 +6373,7 @@
         <v>209</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="2" t="s">
@@ -6320,7 +6388,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
@@ -6332,7 +6400,7 @@
         <v>210</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="2" t="s">
@@ -6347,7 +6415,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
@@ -6359,7 +6427,7 @@
         <v>211</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="2" t="s">
@@ -6374,7 +6442,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
@@ -6386,7 +6454,7 @@
         <v>212</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="2" t="s">
@@ -6401,7 +6469,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
@@ -6413,7 +6481,7 @@
         <v>459</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="2" t="s">
@@ -6428,7 +6496,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
@@ -6440,7 +6508,7 @@
         <v>517</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>416</v>
@@ -6454,7 +6522,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
@@ -6466,7 +6534,7 @@
         <v>518</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>416</v>
@@ -6492,7 +6560,7 @@
         <v>682</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>470</v>
@@ -6521,7 +6589,7 @@
         <v>687</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>470</v>
@@ -6550,10 +6618,10 @@
         <v>664</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>85</v>
@@ -6631,7 +6699,7 @@
         <v>424</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>470</v>
@@ -6660,7 +6728,7 @@
         <v>683</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="2" t="s">
@@ -6687,7 +6755,7 @@
         <v>684</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="2" t="s">
@@ -6714,7 +6782,7 @@
         <v>686</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>470</v>
@@ -6743,7 +6811,7 @@
         <v>688</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>547</v>
@@ -6769,7 +6837,7 @@
         <v>685</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>547</v>
@@ -6795,7 +6863,7 @@
         <v>382</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>470</v>
@@ -6824,7 +6892,7 @@
         <v>383</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="2" t="s">
@@ -6851,7 +6919,7 @@
         <v>384</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G90" s="25"/>
       <c r="H90" s="2" t="s">
@@ -6878,7 +6946,7 @@
         <v>385</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G91" s="25"/>
       <c r="H91" s="2" t="s">
@@ -6905,7 +6973,7 @@
         <v>386</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G92" s="25"/>
       <c r="H92" s="2" t="s">
@@ -6932,7 +7000,7 @@
         <v>214</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="2" t="s">
@@ -6959,7 +7027,7 @@
         <v>215</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="2" t="s">
@@ -6986,7 +7054,7 @@
         <v>216</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="2" t="s">
@@ -7013,7 +7081,7 @@
         <v>217</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="2" t="s">
@@ -7040,7 +7108,7 @@
         <v>218</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="2" t="s">
@@ -7067,7 +7135,7 @@
         <v>219</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="2" t="s">
@@ -7094,7 +7162,7 @@
         <v>220</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G99" s="20"/>
       <c r="H99" s="2" t="s">
@@ -7121,7 +7189,7 @@
         <v>221</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="2" t="s">
@@ -7148,7 +7216,7 @@
         <v>222</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G101" s="19" t="s">
         <v>470</v>
@@ -7177,7 +7245,7 @@
         <v>681</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G102" s="19" t="s">
         <v>470</v>
@@ -7206,7 +7274,7 @@
         <v>462</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>429</v>
@@ -7232,7 +7300,7 @@
         <v>519</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>416</v>
@@ -7258,7 +7326,7 @@
         <v>520</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="2" t="s">
@@ -7312,7 +7380,7 @@
         <v>599</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G107" s="20"/>
       <c r="H107" s="2" t="s">
@@ -7339,10 +7407,10 @@
         <v>600</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>352</v>
@@ -7368,7 +7436,7 @@
         <v>583</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="2" t="s">
@@ -7395,7 +7463,7 @@
         <v>587</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="2" t="s">
@@ -7422,7 +7490,7 @@
         <v>405</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G111" s="25"/>
       <c r="H111" s="2" t="s">
@@ -7449,7 +7517,7 @@
         <v>137</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="2" t="s">
@@ -7476,7 +7544,7 @@
         <v>138</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="2" t="s">
@@ -7503,7 +7571,7 @@
         <v>139</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="2" t="s">
@@ -7530,10 +7598,10 @@
         <v>590</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>547</v>
@@ -7559,7 +7627,7 @@
         <v>582</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="2" t="s">
@@ -7586,7 +7654,7 @@
         <v>585</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="2" t="s">
@@ -7613,7 +7681,7 @@
         <v>584</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="2" t="s">
@@ -7640,7 +7708,7 @@
         <v>436</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G119" s="20"/>
       <c r="H119" s="2" t="s">
@@ -7667,7 +7735,7 @@
         <v>437</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="2" t="s">
@@ -7694,7 +7762,7 @@
         <v>493</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="2" t="s">
@@ -7721,7 +7789,7 @@
         <v>586</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="2" t="s">
@@ -7777,7 +7845,7 @@
         <v>245</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G124" s="19" t="s">
         <v>8</v>
@@ -7806,7 +7874,7 @@
         <v>361</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>8</v>
@@ -7835,7 +7903,7 @@
         <v>404</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G126" s="24"/>
       <c r="H126" s="2" t="s">
@@ -7862,7 +7930,7 @@
         <v>140</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="2" t="s">
@@ -7889,7 +7957,7 @@
         <v>141</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="2" t="s">
@@ -7916,7 +7984,7 @@
         <v>142</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="2" t="s">
@@ -7943,7 +8011,7 @@
         <v>143</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="2" t="s">
@@ -7970,7 +8038,7 @@
         <v>258</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="2" t="s">
@@ -7997,7 +8065,7 @@
         <v>588</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="2" t="s">
@@ -8024,7 +8092,7 @@
         <v>438</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="2" t="s">
@@ -8122,7 +8190,7 @@
         <v>144</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="2" t="s">
@@ -8339,7 +8407,7 @@
         <v>495</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="2" t="s">
@@ -8416,7 +8484,7 @@
         <v>156</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="2" t="s">
@@ -8443,7 +8511,7 @@
         <v>157</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G150" s="20"/>
       <c r="H150" s="2" t="s">
@@ -8470,7 +8538,7 @@
         <v>158</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G151" s="20"/>
       <c r="H151" s="2" t="s">
@@ -8566,7 +8634,7 @@
         <v>310</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G155" s="20"/>
       <c r="H155" s="2" t="s">
@@ -8846,7 +8914,7 @@
         <v>445</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G167" s="20"/>
       <c r="H167" s="2" t="s">
@@ -9044,7 +9112,7 @@
         <v>733</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>85</v>
@@ -9120,7 +9188,7 @@
         <v>388</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G178" s="25"/>
       <c r="H178" s="2" t="s">
@@ -9239,7 +9307,7 @@
         <v>524</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G183" s="20"/>
       <c r="H183" s="2" t="s">
@@ -9266,7 +9334,7 @@
         <v>525</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="2" t="s">
@@ -9293,7 +9361,7 @@
         <v>526</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G185" s="20"/>
       <c r="H185" s="2" t="s">
@@ -9460,7 +9528,7 @@
         <v>132</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>120</v>
@@ -9469,7 +9537,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -9492,7 +9560,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -9515,7 +9583,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -9538,7 +9606,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -9561,7 +9629,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -9584,7 +9652,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -9607,7 +9675,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -9623,8 +9691,8 @@
       <c r="E199" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F199" s="11" t="s">
-        <v>735</v>
+      <c r="F199" s="9" t="s">
+        <v>982</v>
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="2" t="s">
@@ -9634,7 +9702,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -9650,8 +9718,8 @@
       <c r="E200" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F200" s="11" t="s">
-        <v>838</v>
+      <c r="F200" s="9" t="s">
+        <v>983</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="2" t="s">
@@ -9661,7 +9729,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -9677,14 +9745,20 @@
       <c r="E201" s="2" t="s">
         <v>602</v>
       </c>
+      <c r="F201" s="2" t="s">
+        <v>989</v>
+      </c>
       <c r="H201" s="2" t="s">
         <v>352</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J201" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -9700,14 +9774,20 @@
       <c r="E202" s="2" t="s">
         <v>601</v>
       </c>
+      <c r="F202" s="2" t="s">
+        <v>990</v>
+      </c>
       <c r="H202" s="2" t="s">
         <v>352</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J202" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -9723,14 +9803,20 @@
       <c r="E203" s="2" t="s">
         <v>603</v>
       </c>
+      <c r="F203" s="2" t="s">
+        <v>984</v>
+      </c>
       <c r="H203" s="2" t="s">
         <v>352</v>
       </c>
       <c r="I203" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J203" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -9753,7 +9839,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -9776,7 +9862,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -9800,8 +9886,11 @@
       <c r="I206" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J206" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -9825,8 +9914,11 @@
       <c r="I207" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J207" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -9843,7 +9935,7 @@
         <v>399</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G208" s="25"/>
       <c r="H208" s="2" t="s">
@@ -9852,8 +9944,11 @@
       <c r="I208" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J208" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -9870,7 +9965,7 @@
         <v>400</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G209" s="25"/>
       <c r="H209" s="2" t="s">
@@ -9880,7 +9975,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -9897,7 +9992,7 @@
         <v>401</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G210" s="25"/>
       <c r="H210" s="2" t="s">
@@ -9907,7 +10002,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -9924,7 +10019,7 @@
         <v>402</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G211" s="28"/>
       <c r="H211" s="2" t="s">
@@ -9933,8 +10028,11 @@
       <c r="I211" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J211" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -9950,14 +10048,20 @@
       <c r="E212" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="F212" s="2" t="s">
+        <v>986</v>
+      </c>
       <c r="H212" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I212" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J212" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -9973,6 +10077,9 @@
       <c r="E213" s="2" t="s">
         <v>618</v>
       </c>
+      <c r="F213" s="2" t="s">
+        <v>985</v>
+      </c>
       <c r="H213" s="2" t="s">
         <v>547</v>
       </c>
@@ -9980,7 +10087,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -10002,8 +10109,11 @@
       <c r="I214" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J214" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -10020,7 +10130,7 @@
         <v>290</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G215" s="19" t="s">
         <v>470</v>
@@ -10032,7 +10142,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -10048,14 +10158,20 @@
       <c r="E216" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="F216" s="2" t="s">
+        <v>987</v>
+      </c>
       <c r="H216" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I216" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J216" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -10071,14 +10187,20 @@
       <c r="E217" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="F217" s="2" t="s">
+        <v>988</v>
+      </c>
       <c r="H217" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I217" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J217" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -10100,8 +10222,11 @@
       <c r="I218" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J218" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -10117,14 +10242,20 @@
       <c r="E219" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="F219" s="2" t="s">
+        <v>991</v>
+      </c>
       <c r="H219" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I219" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J219" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -10140,14 +10271,20 @@
       <c r="E220" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="F220" s="2" t="s">
+        <v>992</v>
+      </c>
       <c r="H220" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J220" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -10163,14 +10300,20 @@
       <c r="E221" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="F221" s="2" t="s">
+        <v>987</v>
+      </c>
       <c r="H221" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J221" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -10187,7 +10330,7 @@
         <v>297</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G222" s="18"/>
       <c r="H222" s="2" t="s">
@@ -10196,8 +10339,11 @@
       <c r="I222" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J222" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -10213,14 +10359,20 @@
       <c r="E223" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="F223" s="2" t="s">
+        <v>993</v>
+      </c>
       <c r="H223" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J223" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -10236,14 +10388,20 @@
       <c r="E224" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="F224" s="2" t="s">
+        <v>994</v>
+      </c>
       <c r="H224" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J224" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -10259,14 +10417,20 @@
       <c r="E225" s="2" t="s">
         <v>300</v>
       </c>
+      <c r="F225" s="2" t="s">
+        <v>987</v>
+      </c>
       <c r="H225" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I225" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J225" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -10282,14 +10446,20 @@
       <c r="E226" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="F226" s="2" t="s">
+        <v>996</v>
+      </c>
       <c r="H226" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I226" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J226" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -10305,14 +10475,20 @@
       <c r="E227" s="2" t="s">
         <v>302</v>
       </c>
+      <c r="F227" s="2" t="s">
+        <v>995</v>
+      </c>
       <c r="H227" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I227" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J227" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -10328,14 +10504,20 @@
       <c r="E228" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="F228" s="2" t="s">
+        <v>997</v>
+      </c>
       <c r="H228" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J228" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -10351,14 +10533,20 @@
       <c r="E229" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="F229" s="2" t="s">
+        <v>998</v>
+      </c>
       <c r="H229" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I229" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J229" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -10374,14 +10562,20 @@
       <c r="E230" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="F230" s="2" t="s">
+        <v>1000</v>
+      </c>
       <c r="H230" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I230" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J230" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -10397,14 +10591,20 @@
       <c r="E231" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="F231" s="2" t="s">
+        <v>999</v>
+      </c>
       <c r="H231" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I231" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J231" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -10420,14 +10620,20 @@
       <c r="E232" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="F232" s="2" t="s">
+        <v>1001</v>
+      </c>
       <c r="H232" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I232" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J232" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -10443,14 +10649,20 @@
       <c r="E233" s="2" t="s">
         <v>617</v>
       </c>
+      <c r="F233" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="H233" s="2" t="s">
         <v>547</v>
       </c>
       <c r="I233" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J233" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -10467,7 +10679,7 @@
         <v>443</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G234" s="20"/>
       <c r="H234" s="2" t="s">
@@ -10477,7 +10689,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -10500,7 +10712,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -10517,7 +10729,7 @@
         <v>529</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="2" t="s">
@@ -10527,7 +10739,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -10550,7 +10762,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -10567,10 +10779,10 @@
         <v>117</v>
       </c>
       <c r="F238" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G238" s="19" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H238" s="2" t="s">
         <v>85</v>
@@ -10579,7 +10791,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -10602,7 +10814,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -10665,7 +10877,7 @@
         <v>460</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="2" t="s">
@@ -10692,7 +10904,7 @@
         <v>461</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G243" s="18"/>
       <c r="H243" s="2" t="s">
@@ -10742,7 +10954,7 @@
         <v>532</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="2" t="s">
@@ -10795,10 +11007,10 @@
         <v>223</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G247" s="19" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>120</v>
@@ -10870,7 +11082,7 @@
         <v>463</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="2" t="s">
@@ -10897,7 +11109,7 @@
         <v>534</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G251" s="20"/>
       <c r="H251" s="2" t="s">
@@ -10924,7 +11136,7 @@
         <v>533</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G252" s="20"/>
       <c r="H252" s="2" t="s">
@@ -10974,10 +11186,10 @@
         <v>60</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G254" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>59</v>
@@ -11003,10 +11215,10 @@
         <v>249</v>
       </c>
       <c r="F255" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G255" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>248</v>
@@ -11032,10 +11244,10 @@
         <v>276</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G256" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H256" s="2" t="s">
         <v>351</v>
@@ -11061,10 +11273,10 @@
         <v>278</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G257" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>351</v>
@@ -11090,10 +11302,10 @@
         <v>279</v>
       </c>
       <c r="F258" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G258" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>351</v>
@@ -11119,10 +11331,10 @@
         <v>372</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G259" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>369</v>
@@ -11148,10 +11360,10 @@
         <v>241</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G260" s="19" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>238</v>
@@ -11177,10 +11389,10 @@
         <v>357</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G261" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>352</v>
@@ -11206,10 +11418,10 @@
         <v>621</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G262" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>547</v>
@@ -11235,10 +11447,10 @@
         <v>363</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G263" s="19" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>352</v>
@@ -11264,10 +11476,10 @@
         <v>620</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G264" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>547</v>
@@ -11293,10 +11505,10 @@
         <v>622</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G265" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>547</v>
@@ -11322,10 +11534,10 @@
         <v>605</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G266" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>352</v>
@@ -11354,10 +11566,10 @@
         <v>456</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G267" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>429</v>
@@ -11366,7 +11578,7 @@
         <v>702</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -11386,10 +11598,10 @@
         <v>606</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G268" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>352</v>
@@ -11415,10 +11627,10 @@
         <v>607</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G269" s="22" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H269" s="2" t="s">
         <v>352</v>
@@ -11444,10 +11656,10 @@
         <v>678</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G270" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>547</v>
@@ -11473,10 +11685,10 @@
         <v>680</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G271" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>547</v>
@@ -11502,10 +11714,10 @@
         <v>387</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G272" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>369</v>
@@ -11531,10 +11743,10 @@
         <v>677</v>
       </c>
       <c r="F273" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G273" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>547</v>
@@ -11560,10 +11772,10 @@
         <v>676</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G274" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>547</v>
@@ -11589,10 +11801,10 @@
         <v>679</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G275" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>547</v>
@@ -11618,10 +11830,10 @@
         <v>458</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G276" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>429</v>
@@ -11647,10 +11859,10 @@
         <v>499</v>
       </c>
       <c r="F277" s="11" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G277" s="22" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>416</v>
@@ -11702,7 +11914,7 @@
         <v>239</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G279" s="18"/>
       <c r="H279" s="2" t="s">
@@ -11729,7 +11941,7 @@
         <v>355</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>352</v>
@@ -11755,7 +11967,7 @@
         <v>231</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H281" s="2" t="s">
         <v>230</v>
@@ -11781,7 +11993,7 @@
         <v>370</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>369</v>
@@ -11807,7 +12019,7 @@
         <v>371</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G283" s="25"/>
       <c r="H283" s="2" t="s">
@@ -11834,7 +12046,7 @@
         <v>123</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G284" s="20"/>
       <c r="H284" s="2" t="s">
@@ -11861,7 +12073,7 @@
         <v>124</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="2" t="s">
@@ -11888,7 +12100,7 @@
         <v>250</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>248</v>
@@ -11914,7 +12126,7 @@
         <v>408</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="2" t="s">
@@ -11941,7 +12153,7 @@
         <v>277</v>
       </c>
       <c r="F288" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G288" s="20"/>
       <c r="H288" s="2" t="s">
@@ -11968,7 +12180,7 @@
         <v>430</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G289" s="18"/>
       <c r="H289" s="2" t="s">
@@ -11995,7 +12207,7 @@
         <v>431</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>429</v>
@@ -12021,7 +12233,7 @@
         <v>89</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H291" s="2" t="s">
         <v>85</v>
@@ -12047,7 +12259,7 @@
         <v>232</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H292" s="2" t="s">
         <v>230</v>
@@ -12073,7 +12285,7 @@
         <v>373</v>
       </c>
       <c r="F293" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G293" s="28"/>
       <c r="H293" s="2" t="s">
@@ -12100,7 +12312,7 @@
         <v>125</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G294" s="20"/>
       <c r="H294" s="2" t="s">
@@ -12127,7 +12339,7 @@
         <v>126</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="2" t="s">
@@ -12154,7 +12366,7 @@
         <v>251</v>
       </c>
       <c r="F296" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G296" s="18"/>
       <c r="H296" s="2" t="s">
@@ -12181,7 +12393,7 @@
         <v>432</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G297" s="18"/>
       <c r="H297" s="2" t="s">
@@ -12208,7 +12420,7 @@
         <v>433</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G298" s="20"/>
       <c r="H298" s="2" t="s">
@@ -12235,7 +12447,7 @@
         <v>496</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="2" t="s">
@@ -12262,7 +12474,7 @@
         <v>61</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G300" s="18"/>
       <c r="H300" s="2" t="s">
@@ -12289,7 +12501,7 @@
         <v>374</v>
       </c>
       <c r="F301" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G301" s="25"/>
       <c r="H301" s="2" t="s">
@@ -12316,7 +12528,7 @@
         <v>375</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G302" s="28"/>
       <c r="H302" s="2" t="s">
@@ -12343,7 +12555,7 @@
         <v>376</v>
       </c>
       <c r="F303" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G303" s="25"/>
       <c r="H303" s="2" t="s">
@@ -12370,7 +12582,7 @@
         <v>127</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="2" t="s">
@@ -12397,7 +12609,7 @@
         <v>128</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="2" t="s">
@@ -12424,7 +12636,7 @@
         <v>129</v>
       </c>
       <c r="F306" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G306" s="20"/>
       <c r="H306" s="2" t="s">
@@ -12451,7 +12663,7 @@
         <v>130</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G307" s="20"/>
       <c r="H307" s="2" t="s">
@@ -12478,7 +12690,7 @@
         <v>409</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H308" s="2" t="s">
         <v>407</v>
@@ -12504,7 +12716,7 @@
         <v>434</v>
       </c>
       <c r="F309" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G309" s="20"/>
       <c r="H309" s="2" t="s">
@@ -12531,7 +12743,7 @@
         <v>497</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H310" s="2" t="s">
         <v>416</v>
@@ -12557,7 +12769,7 @@
         <v>153</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="2" t="s">
@@ -12584,7 +12796,7 @@
         <v>154</v>
       </c>
       <c r="F312" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="2" t="s">
@@ -12611,7 +12823,7 @@
         <v>413</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>407</v>
@@ -12637,7 +12849,7 @@
         <v>444</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G314" s="18"/>
       <c r="H314" s="2" t="s">
@@ -12673,7 +12885,7 @@
         <v>704</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -12693,7 +12905,7 @@
         <v>423</v>
       </c>
       <c r="F316" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G316" s="20"/>
       <c r="H316" s="2" t="s">
@@ -12703,7 +12915,7 @@
         <v>704</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -12723,7 +12935,7 @@
         <v>204</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G317" s="20"/>
       <c r="H317" s="2" t="s">
@@ -12733,7 +12945,7 @@
         <v>711</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -12753,7 +12965,7 @@
         <v>205</v>
       </c>
       <c r="F318" s="11" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>120</v>
@@ -12762,7 +12974,7 @@
         <v>711</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -12782,7 +12994,7 @@
         <v>498</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>416</v>
@@ -12791,7 +13003,7 @@
         <v>708</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -12811,7 +13023,7 @@
         <v>206</v>
       </c>
       <c r="F320" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>120</v>
@@ -12820,7 +13032,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -12837,7 +13049,7 @@
         <v>207</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>120</v>
@@ -12846,7 +13058,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -12863,7 +13075,7 @@
         <v>262</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>248</v>
@@ -12872,7 +13084,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -12889,7 +13101,7 @@
         <v>263</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H323" s="2" t="s">
         <v>248</v>
@@ -12898,7 +13110,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -12915,7 +13127,7 @@
         <v>457</v>
       </c>
       <c r="F324" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>429</v>
@@ -12924,7 +13136,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -12941,7 +13153,7 @@
         <v>98</v>
       </c>
       <c r="F325" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G325" s="18"/>
       <c r="H325" s="2" t="s">
@@ -12950,8 +13162,11 @@
       <c r="I325" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J325" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -12967,14 +13182,20 @@
       <c r="E326" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="F326" s="2" t="s">
+        <v>1003</v>
+      </c>
       <c r="H326" s="2" t="s">
         <v>238</v>
       </c>
       <c r="I326" s="2" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J326" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -12996,8 +13217,11 @@
       <c r="I327" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J327" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -13020,7 +13244,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -13036,14 +13260,20 @@
       <c r="E329" s="2" t="s">
         <v>596</v>
       </c>
+      <c r="F329" s="2" t="s">
+        <v>987</v>
+      </c>
       <c r="H329" s="2" t="s">
         <v>352</v>
       </c>
       <c r="I329" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J329" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -13066,7 +13296,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -13089,7 +13319,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -13112,7 +13342,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -13135,7 +13365,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -13158,7 +13388,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -13174,14 +13404,20 @@
       <c r="E335" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="F335" s="2" t="s">
+        <v>1004</v>
+      </c>
       <c r="H335" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J335" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -13197,14 +13433,20 @@
       <c r="E336" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="F336" s="2" t="s">
+        <v>1005</v>
+      </c>
       <c r="H336" s="2" t="s">
         <v>248</v>
       </c>
       <c r="I336" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J336" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -13221,7 +13463,7 @@
         <v>412</v>
       </c>
       <c r="F337" s="15" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>407</v>
@@ -13230,7 +13472,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -13253,7 +13495,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -13270,7 +13512,7 @@
         <v>442</v>
       </c>
       <c r="F339" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G339" s="18"/>
       <c r="H339" s="2" t="s">
@@ -13280,7 +13522,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -13297,7 +13539,7 @@
         <v>538</v>
       </c>
       <c r="F340" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G340" s="20"/>
       <c r="H340" s="2" t="s">
@@ -13307,7 +13549,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -13324,7 +13566,7 @@
         <v>536</v>
       </c>
       <c r="F341" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G341" s="20"/>
       <c r="H341" s="2" t="s">
@@ -13334,7 +13576,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -13351,7 +13593,7 @@
         <v>537</v>
       </c>
       <c r="F342" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G342" s="20"/>
       <c r="H342" s="2" t="s">
@@ -13378,7 +13620,7 @@
         <v>226</v>
       </c>
       <c r="F343" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G343" s="20"/>
       <c r="H343" s="2" t="s">
@@ -13405,7 +13647,7 @@
         <v>227</v>
       </c>
       <c r="F344" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G344" s="20"/>
       <c r="H344" s="2" t="s">
@@ -13432,7 +13674,7 @@
         <v>228</v>
       </c>
       <c r="F345" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G345" s="20"/>
       <c r="H345" s="2" t="s">
@@ -13459,7 +13701,7 @@
         <v>411</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>407</v>
@@ -13485,10 +13727,10 @@
         <v>500</v>
       </c>
       <c r="F347" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G347" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>416</v>
@@ -13514,10 +13756,10 @@
         <v>92</v>
       </c>
       <c r="F348" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G348" s="19" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H348" s="2" t="s">
         <v>85</v>
@@ -13775,7 +14017,7 @@
         <v>93</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H359" s="2" t="s">
         <v>85</v>
@@ -16091,7 +16333,7 @@
         <v>393</v>
       </c>
       <c r="F458" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G458" s="28"/>
       <c r="H458" s="2" t="s">
@@ -16118,7 +16360,7 @@
         <v>164</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H459" s="2" t="s">
         <v>120</v>
@@ -16144,7 +16386,7 @@
         <v>165</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H460" s="2" t="s">
         <v>120</v>
@@ -16170,7 +16412,7 @@
         <v>627</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H461" s="2" t="s">
         <v>547</v>
@@ -16265,7 +16507,7 @@
         <v>506</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H465" s="2" t="s">
         <v>416</v>
@@ -16291,7 +16533,7 @@
         <v>644</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H466" s="2" t="s">
         <v>547</v>
@@ -16340,7 +16582,7 @@
         <v>76</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H468" s="2" t="s">
         <v>59</v>
@@ -16366,7 +16608,7 @@
         <v>112</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H469" s="2" t="s">
         <v>85</v>
@@ -16392,7 +16634,7 @@
         <v>507</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H470" s="2" t="s">
         <v>352</v>
@@ -16442,7 +16684,7 @@
         <v>646</v>
       </c>
       <c r="F472" s="30" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G472" s="32"/>
       <c r="H472" s="30" t="s">
@@ -16469,7 +16711,7 @@
         <v>190</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H473" s="2" t="s">
         <v>120</v>
@@ -16518,7 +16760,7 @@
         <v>192</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H475" s="2" t="s">
         <v>120</v>
@@ -16544,7 +16786,7 @@
         <v>645</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H476" s="2" t="s">
         <v>547</v>
@@ -16686,7 +16928,7 @@
         <v>668</v>
       </c>
       <c r="F482" s="30" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G482" s="32"/>
       <c r="H482" s="30" t="s">
@@ -16759,7 +17001,7 @@
         <v>78</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H485" s="2" t="s">
         <v>59</v>
@@ -16785,7 +17027,7 @@
         <v>652</v>
       </c>
       <c r="F486" s="30" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G486" s="32"/>
       <c r="H486" s="30" t="s">
@@ -16858,7 +17100,7 @@
         <v>650</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H489" s="2" t="s">
         <v>85</v>
@@ -16907,7 +17149,7 @@
         <v>508</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H491" s="2" t="s">
         <v>352</v>
@@ -16957,7 +17199,7 @@
         <v>194</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H493" s="2" t="s">
         <v>120</v>
@@ -16983,7 +17225,7 @@
         <v>195</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H494" s="2" t="s">
         <v>120</v>
@@ -17032,7 +17274,7 @@
         <v>197</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H496" s="2" t="s">
         <v>120</v>
@@ -17058,7 +17300,7 @@
         <v>198</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H497" s="2" t="s">
         <v>120</v>
@@ -17084,7 +17326,7 @@
         <v>669</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H498" s="2" t="s">
         <v>547</v>
@@ -17110,7 +17352,7 @@
         <v>333</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H499" s="2" t="s">
         <v>351</v>
@@ -17136,7 +17378,7 @@
         <v>334</v>
       </c>
       <c r="F500" s="30" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G500" s="32"/>
       <c r="H500" s="30" t="s">
@@ -17209,7 +17451,7 @@
         <v>337</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H503" s="2" t="s">
         <v>351</v>
@@ -17281,7 +17523,7 @@
         <v>340</v>
       </c>
       <c r="F506" s="30" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="G506" s="32"/>
       <c r="H506" s="30" t="s">
@@ -17308,7 +17550,7 @@
         <v>341</v>
       </c>
       <c r="F507" s="30" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="G507" s="32"/>
       <c r="H507" s="30" t="s">
@@ -17335,7 +17577,7 @@
         <v>342</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H508" s="2" t="s">
         <v>351</v>
@@ -17361,7 +17603,7 @@
         <v>343</v>
       </c>
       <c r="F509" s="30" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G509" s="32"/>
       <c r="H509" s="30" t="s">
@@ -17464,7 +17706,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -17487,7 +17729,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -17510,7 +17752,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -17533,7 +17775,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -17558,7 +17800,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -17581,7 +17823,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -17604,7 +17846,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -17627,7 +17869,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -17650,7 +17892,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -17667,7 +17909,7 @@
         <v>675</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H522" s="2" t="s">
         <v>547</v>
@@ -17676,7 +17918,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -17693,7 +17935,7 @@
         <v>200</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H523" s="2" t="s">
         <v>120</v>
@@ -17702,7 +17944,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -17719,7 +17961,7 @@
         <v>201</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H524" s="2" t="s">
         <v>120</v>
@@ -17728,7 +17970,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -17745,7 +17987,7 @@
         <v>202</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H525" s="2" t="s">
         <v>120</v>
@@ -17754,7 +17996,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -17777,7 +18019,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -17794,7 +18036,7 @@
         <v>453</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H527" s="2" t="s">
         <v>429</v>
@@ -17803,7 +18045,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -17826,7 +18068,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -17849,7 +18091,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -17872,7 +18114,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -17895,7 +18137,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -17918,7 +18160,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -19730,13 +19972,13 @@
         <v>49</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F611" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G611" s="19" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H611" s="2" t="s">
         <v>547</v>
@@ -19759,10 +20001,10 @@
         <v>45</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F612" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G612" s="20"/>
       <c r="H612" s="2" t="s">
@@ -19786,13 +20028,13 @@
         <v>46</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F613" s="11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G613" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H613" s="2" t="s">
         <v>547</v>
@@ -19815,10 +20057,10 @@
         <v>45</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F614" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G614" s="20"/>
       <c r="H614" s="2" t="s">
@@ -19833,7 +20075,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>6</v>
@@ -19842,10 +20084,10 @@
         <v>45</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F615" s="11" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>547</v>
@@ -19868,10 +20110,10 @@
         <v>46</v>
       </c>
       <c r="E616" s="30" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F616" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H616" s="2" t="s">
         <v>547</v>
@@ -19894,10 +20136,10 @@
         <v>45</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F617" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H617" s="2" t="s">
         <v>547</v>
@@ -19920,10 +20162,10 @@
         <v>45</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F618" s="9" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H618" s="2" t="s">
         <v>547</v>
@@ -19946,10 +20188,10 @@
         <v>45</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F619" s="11" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H619" s="2" t="s">
         <v>547</v>
@@ -19972,10 +20214,10 @@
         <v>49</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F620" s="11" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H620" s="2" t="s">
         <v>547</v>
@@ -19998,10 +20240,10 @@
         <v>46</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F621" s="11" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H621" s="2" t="s">
         <v>547</v>
@@ -20024,13 +20266,13 @@
         <v>45</v>
       </c>
       <c r="E622" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="F622" s="9" t="s">
         <v>929</v>
       </c>
-      <c r="F622" s="9" t="s">
-        <v>931</v>
-      </c>
       <c r="G622" s="22" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H622" s="2" t="s">
         <v>547</v>
@@ -20040,11 +20282,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I622">
+  <autoFilter ref="A1:J622">
     <filterColumn colId="2">
       <filters>
-        <filter val="Practitioner"/>
+        <filter val="Document"/>
+        <filter val="DocumentReference"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B2:I610">
@@ -21521,17 +21767,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4461" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4461" uniqueCount="1011">
   <si>
     <t>Resource</t>
   </si>
@@ -3411,12 +3411,6 @@
     <t>The patient is the subject, query on source would be querying on who gave the information (which may also be the patient)</t>
   </si>
   <si>
-    <t>No, it's the name of the _Q_ uestionnaire, but there's no real reason why it should not be name (since this Resource is questionnaire)</t>
-  </si>
-  <si>
-    <t>It's referring to the future resource RelatedPerson, should I drop that?</t>
-  </si>
-  <si>
     <t>Legal to have a section with both questions and sub-sections.</t>
   </si>
   <si>
@@ -3701,27 +3695,7 @@
     <t xml:space="preserve">#68 Drop it. </t>
   </si>
   <si>
-    <t>#76 Not in 80%, remove.</t>
-  </si>
-  <si>
-    <t>#77 Stays in, explain that it's not about visit info being on the form, but about tracking context</t>
-  </si>
-  <si>
-    <t>#78 Name stays Questionnaire, moreso because we will make it possible for Questionnaire to include the actual questions. [solution for this will cover simple case, can always profile for more complex situation with mandatory stuff, invariants etc.]</t>
-  </si>
-  <si>
     <t>#81 source is in the 80%</t>
-  </si>
-  <si>
-    <t>#84 make optional, other sources can then be put in extension, leaving subject empty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #100 remove the todo. You can use "remarks". Include narrative to show relationship between supplied answers about missing answers and remarks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> #101 another differentiator with structured represenation is that the interpretation of the information on the form depends on the context of the form, while the structured representation contains enough information to be used in isolation.
-</t>
   </si>
   <si>
     <t>#4 Guidance: they generally should have (some form of) an identifier for external workflow. Write up in documentation.</t>
@@ -3906,6 +3880,47 @@
   </si>
   <si>
     <t>Which information should be removed? I can't see anyway to improve things</t>
+  </si>
+  <si>
+    <t>#76 Not in 80%, remove. DONE</t>
+  </si>
+  <si>
+    <t>#77 Stays in, explain that it's not about visit info being on the form, but about tracking context. DONE</t>
+  </si>
+  <si>
+    <t>#78 Name stays Questionnaire, moreso because we will make it possible for Questionnaire to include the actual questions. [solution for this will cover simple case, can always profile for more complex situation with mandatory stuff, invariants etc.] DONE</t>
+  </si>
+  <si>
+    <t>&lt;- DONE</t>
+  </si>
+  <si>
+    <t>#84 make optional, other sources can then be put in extension, leaving subject empty. DONE</t>
+  </si>
+  <si>
+    <t>It's referring to the future resource RelatedPerson, should I drop that? DONE can now be RelatedPerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;- Text will be rewritten. </t>
+  </si>
+  <si>
+    <t>&lt;- Probably publisher issue, removed them from Short Name and Definition. DONE</t>
+  </si>
+  <si>
+    <t>&lt;- Has been rewritten. DONE</t>
+  </si>
+  <si>
+    <t>&lt;- Text has been rewritten. DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #100 remove the todo. You can use "remarks". Include narrative to show relationship between supplied answers about missing answers and remarks. DONE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #101 another differentiator with structured represenation is that the interpretation of the information on the form depends on the context of the form, while the structured representation contains enough information to be used in isolation. DONE (I think we covered this in the new section about using Questionnaires versus using "true" Resources)
+</t>
+  </si>
+  <si>
+    <t>No, it's the name of the _Q_ uestionnaire, but there's no real reason why it should not be name (since this Resource is questionnaire). DONE</t>
   </si>
 </sst>
 </file>
@@ -4450,10 +4465,10 @@
   <dimension ref="A1:J622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E199" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E199" sqref="E199"/>
+      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4465,8 +4480,8 @@
     <col min="5" max="5" width="56.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="82.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="39.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="39.140625" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -4499,7 +4514,7 @@
         <v>698</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -4600,7 +4615,7 @@
         <v>107</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="2" t="s">
@@ -4654,10 +4669,10 @@
         <v>353</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>352</v>
@@ -4713,7 +4728,7 @@
         <v>740</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>547</v>
@@ -4768,7 +4783,7 @@
         <v>742</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>120</v>
@@ -4824,7 +4839,7 @@
         <v>744</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>407</v>
@@ -4879,7 +4894,7 @@
         <v>746</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>54</v>
@@ -4905,10 +4920,10 @@
         <v>56</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>54</v>
@@ -4937,7 +4952,7 @@
         <v>747</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>547</v>
@@ -4966,7 +4981,7 @@
         <v>748</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>416</v>
@@ -5047,7 +5062,7 @@
         <v>754</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>416</v>
@@ -5115,7 +5130,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -5127,7 +5142,7 @@
         <v>63</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="2" t="s">
@@ -5142,7 +5157,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -5168,7 +5183,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -5194,7 +5209,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -5206,7 +5221,7 @@
         <v>379</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="2" t="s">
@@ -5221,7 +5236,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -5236,7 +5251,7 @@
         <v>757</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>369</v>
@@ -5250,7 +5265,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -5276,7 +5291,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
@@ -5288,7 +5303,7 @@
         <v>254</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>248</v>
@@ -5302,7 +5317,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -5328,7 +5343,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -5340,7 +5355,7 @@
         <v>484</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>416</v>
@@ -5354,7 +5369,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -5392,7 +5407,7 @@
         <v>64</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="2" t="s">
@@ -5446,7 +5461,7 @@
         <v>489</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="2" t="s">
@@ -5499,7 +5514,7 @@
         <v>488</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="2" t="s">
@@ -5526,7 +5541,7 @@
         <v>490</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="2" t="s">
@@ -5553,7 +5568,7 @@
         <v>155</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="2" t="s">
@@ -5606,10 +5621,10 @@
         <v>68</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>59</v>
@@ -5662,7 +5677,7 @@
         <v>491</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="2" t="s">
@@ -5743,7 +5758,7 @@
         <v>271</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="2" t="s">
@@ -6040,7 +6055,7 @@
         <v>724</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>85</v>
@@ -6093,10 +6108,10 @@
         <v>515</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>352</v>
@@ -6176,10 +6191,10 @@
         <v>168</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>120</v>
@@ -6205,10 +6220,10 @@
         <v>169</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>120</v>
@@ -6234,10 +6249,10 @@
         <v>170</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>120</v>
@@ -6305,7 +6320,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
@@ -6332,7 +6347,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
@@ -6344,10 +6359,10 @@
         <v>208</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>120</v>
@@ -6361,7 +6376,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
@@ -6388,7 +6403,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
@@ -6415,7 +6430,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
@@ -6442,7 +6457,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
@@ -6469,7 +6484,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
@@ -6496,7 +6511,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
@@ -6522,7 +6537,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
@@ -6543,7 +6558,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6560,7 +6575,7 @@
         <v>682</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>940</v>
+        <v>998</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>470</v>
@@ -6572,7 +6587,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6589,7 +6604,7 @@
         <v>687</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>941</v>
+        <v>999</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>470</v>
@@ -6601,7 +6616,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6618,10 +6633,10 @@
         <v>664</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>942</v>
+        <v>1000</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>85</v>
@@ -6630,7 +6645,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6656,7 +6671,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6682,7 +6697,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6699,7 +6714,7 @@
         <v>424</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>470</v>
@@ -6711,7 +6726,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6728,7 +6743,7 @@
         <v>683</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>881</v>
+        <v>1001</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="2" t="s">
@@ -6738,7 +6753,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6755,7 +6770,7 @@
         <v>684</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>881</v>
+        <v>1001</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="2" t="s">
@@ -6765,7 +6780,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6782,7 +6797,7 @@
         <v>686</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>944</v>
+        <v>1002</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>470</v>
@@ -6794,7 +6809,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6811,7 +6826,7 @@
         <v>688</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>547</v>
@@ -6820,7 +6835,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6837,7 +6852,7 @@
         <v>685</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>855</v>
+        <v>1003</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>547</v>
@@ -6846,7 +6861,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6863,7 +6878,7 @@
         <v>382</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>881</v>
+        <v>1001</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>470</v>
@@ -6875,7 +6890,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6892,7 +6907,7 @@
         <v>383</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>881</v>
+        <v>1001</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="2" t="s">
@@ -6902,7 +6917,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6919,7 +6934,7 @@
         <v>384</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>881</v>
+        <v>1001</v>
       </c>
       <c r="G90" s="25"/>
       <c r="H90" s="2" t="s">
@@ -6929,7 +6944,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6946,7 +6961,7 @@
         <v>385</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G91" s="25"/>
       <c r="H91" s="2" t="s">
@@ -6956,7 +6971,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6973,7 +6988,7 @@
         <v>386</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>881</v>
+        <v>1004</v>
       </c>
       <c r="G92" s="25"/>
       <c r="H92" s="2" t="s">
@@ -6983,7 +6998,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7000,7 +7015,7 @@
         <v>214</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>881</v>
+        <v>1005</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="2" t="s">
@@ -7010,7 +7025,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7027,7 +7042,7 @@
         <v>215</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>881</v>
+        <v>1006</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="2" t="s">
@@ -7037,7 +7052,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7054,7 +7069,7 @@
         <v>216</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>881</v>
+        <v>1001</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="2" t="s">
@@ -7064,7 +7079,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7081,7 +7096,7 @@
         <v>217</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>881</v>
+        <v>1007</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="2" t="s">
@@ -7091,7 +7106,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7108,7 +7123,7 @@
         <v>218</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="2" t="s">
@@ -7118,7 +7133,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7135,7 +7150,7 @@
         <v>219</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>881</v>
+        <v>1001</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="2" t="s">
@@ -7145,7 +7160,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7162,7 +7177,7 @@
         <v>220</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>881</v>
+        <v>1001</v>
       </c>
       <c r="G99" s="20"/>
       <c r="H99" s="2" t="s">
@@ -7172,7 +7187,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7189,7 +7204,7 @@
         <v>221</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>881</v>
+        <v>1001</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="2" t="s">
@@ -7199,7 +7214,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7216,7 +7231,7 @@
         <v>222</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>945</v>
+        <v>1008</v>
       </c>
       <c r="G101" s="19" t="s">
         <v>470</v>
@@ -7228,7 +7243,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7245,7 +7260,7 @@
         <v>681</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>946</v>
+        <v>1009</v>
       </c>
       <c r="G102" s="19" t="s">
         <v>470</v>
@@ -7257,7 +7272,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7283,7 +7298,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7309,7 +7324,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7326,7 +7341,7 @@
         <v>520</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>854</v>
+        <v>1010</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="2" t="s">
@@ -7380,7 +7395,7 @@
         <v>599</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G107" s="20"/>
       <c r="H107" s="2" t="s">
@@ -7407,10 +7422,10 @@
         <v>600</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>352</v>
@@ -7436,7 +7451,7 @@
         <v>583</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="2" t="s">
@@ -7463,7 +7478,7 @@
         <v>587</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="2" t="s">
@@ -7490,7 +7505,7 @@
         <v>405</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G111" s="25"/>
       <c r="H111" s="2" t="s">
@@ -7517,7 +7532,7 @@
         <v>137</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="2" t="s">
@@ -7544,7 +7559,7 @@
         <v>138</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="2" t="s">
@@ -7571,7 +7586,7 @@
         <v>139</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="2" t="s">
@@ -7598,10 +7613,10 @@
         <v>590</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>547</v>
@@ -7627,7 +7642,7 @@
         <v>582</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="2" t="s">
@@ -7654,7 +7669,7 @@
         <v>585</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="2" t="s">
@@ -7681,7 +7696,7 @@
         <v>584</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="2" t="s">
@@ -7708,7 +7723,7 @@
         <v>436</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G119" s="20"/>
       <c r="H119" s="2" t="s">
@@ -7735,7 +7750,7 @@
         <v>437</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="2" t="s">
@@ -7762,7 +7777,7 @@
         <v>493</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="2" t="s">
@@ -7789,7 +7804,7 @@
         <v>586</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="2" t="s">
@@ -7845,7 +7860,7 @@
         <v>245</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G124" s="19" t="s">
         <v>8</v>
@@ -7874,7 +7889,7 @@
         <v>361</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>8</v>
@@ -7903,7 +7918,7 @@
         <v>404</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G126" s="24"/>
       <c r="H126" s="2" t="s">
@@ -7930,7 +7945,7 @@
         <v>140</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="2" t="s">
@@ -7957,7 +7972,7 @@
         <v>141</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="2" t="s">
@@ -7984,7 +7999,7 @@
         <v>142</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="2" t="s">
@@ -8011,7 +8026,7 @@
         <v>143</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="2" t="s">
@@ -8038,7 +8053,7 @@
         <v>258</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="2" t="s">
@@ -8065,7 +8080,7 @@
         <v>588</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="2" t="s">
@@ -9112,7 +9127,7 @@
         <v>733</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>85</v>
@@ -9675,7 +9690,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -9692,7 +9707,7 @@
         <v>99</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="2" t="s">
@@ -9702,7 +9717,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -9719,7 +9734,7 @@
         <v>247</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="2" t="s">
@@ -9746,7 +9761,7 @@
         <v>602</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>352</v>
@@ -9755,7 +9770,7 @@
         <v>707</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -9775,7 +9790,7 @@
         <v>601</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>352</v>
@@ -9784,7 +9799,7 @@
         <v>707</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -9804,7 +9819,7 @@
         <v>603</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>352</v>
@@ -9813,10 +9828,10 @@
         <v>707</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -9839,7 +9854,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -9887,7 +9902,7 @@
         <v>700</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -9915,7 +9930,7 @@
         <v>700</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -9945,10 +9960,10 @@
         <v>700</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -9975,7 +9990,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -10029,7 +10044,7 @@
         <v>700</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -10049,7 +10064,7 @@
         <v>152</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>120</v>
@@ -10058,10 +10073,10 @@
         <v>704</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -10078,7 +10093,7 @@
         <v>618</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>547</v>
@@ -10110,10 +10125,10 @@
         <v>708</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -10159,7 +10174,7 @@
         <v>291</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>351</v>
@@ -10168,7 +10183,7 @@
         <v>702</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10188,7 +10203,7 @@
         <v>292</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>351</v>
@@ -10197,7 +10212,7 @@
         <v>702</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10223,7 +10238,7 @@
         <v>702</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10243,7 +10258,7 @@
         <v>294</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>351</v>
@@ -10252,7 +10267,7 @@
         <v>702</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -10272,7 +10287,7 @@
         <v>295</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="H220" s="2" t="s">
         <v>351</v>
@@ -10281,7 +10296,7 @@
         <v>702</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10301,7 +10316,7 @@
         <v>296</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>351</v>
@@ -10310,7 +10325,7 @@
         <v>702</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -10340,7 +10355,7 @@
         <v>702</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -10360,7 +10375,7 @@
         <v>298</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>351</v>
@@ -10369,7 +10384,7 @@
         <v>702</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10389,7 +10404,7 @@
         <v>299</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>351</v>
@@ -10398,7 +10413,7 @@
         <v>702</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10418,7 +10433,7 @@
         <v>300</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="H225" s="2" t="s">
         <v>351</v>
@@ -10427,7 +10442,7 @@
         <v>702</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10447,7 +10462,7 @@
         <v>301</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>351</v>
@@ -10456,7 +10471,7 @@
         <v>702</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10476,7 +10491,7 @@
         <v>302</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>351</v>
@@ -10485,7 +10500,7 @@
         <v>702</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10505,7 +10520,7 @@
         <v>303</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>351</v>
@@ -10514,7 +10529,7 @@
         <v>702</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10534,7 +10549,7 @@
         <v>304</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>351</v>
@@ -10543,7 +10558,7 @@
         <v>702</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10563,7 +10578,7 @@
         <v>305</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>351</v>
@@ -10572,7 +10587,7 @@
         <v>702</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10592,7 +10607,7 @@
         <v>306</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>351</v>
@@ -10601,7 +10616,7 @@
         <v>702</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -10621,7 +10636,7 @@
         <v>307</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>351</v>
@@ -10630,7 +10645,7 @@
         <v>702</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -10650,7 +10665,7 @@
         <v>617</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>547</v>
@@ -10659,10 +10674,10 @@
         <v>708</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -10689,7 +10704,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -10712,7 +10727,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -10782,7 +10797,7 @@
         <v>735</v>
       </c>
       <c r="G238" s="19" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H238" s="2" t="s">
         <v>85</v>
@@ -11010,7 +11025,7 @@
         <v>846</v>
       </c>
       <c r="G247" s="19" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>120</v>
@@ -11186,10 +11201,10 @@
         <v>60</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G254" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>59</v>
@@ -11215,10 +11230,10 @@
         <v>249</v>
       </c>
       <c r="F255" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G255" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>248</v>
@@ -11247,7 +11262,7 @@
         <v>793</v>
       </c>
       <c r="G256" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H256" s="2" t="s">
         <v>351</v>
@@ -11273,10 +11288,10 @@
         <v>278</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="G257" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>351</v>
@@ -11302,10 +11317,10 @@
         <v>279</v>
       </c>
       <c r="F258" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G258" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>351</v>
@@ -11331,10 +11346,10 @@
         <v>372</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G259" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>369</v>
@@ -11363,7 +11378,7 @@
         <v>804</v>
       </c>
       <c r="G260" s="19" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>238</v>
@@ -11389,10 +11404,10 @@
         <v>357</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G261" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>352</v>
@@ -11418,10 +11433,10 @@
         <v>621</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G262" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>547</v>
@@ -11447,10 +11462,10 @@
         <v>363</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G263" s="19" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>352</v>
@@ -11476,10 +11491,10 @@
         <v>620</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G264" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>547</v>
@@ -11505,10 +11520,10 @@
         <v>622</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G265" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>547</v>
@@ -11534,10 +11549,10 @@
         <v>605</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="G266" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>352</v>
@@ -11566,10 +11581,10 @@
         <v>456</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G267" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>429</v>
@@ -11578,7 +11593,7 @@
         <v>702</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -11598,10 +11613,10 @@
         <v>606</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G268" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>352</v>
@@ -11627,10 +11642,10 @@
         <v>607</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G269" s="22" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H269" s="2" t="s">
         <v>352</v>
@@ -11656,10 +11671,10 @@
         <v>678</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G270" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>547</v>
@@ -11685,10 +11700,10 @@
         <v>680</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G271" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>547</v>
@@ -11714,10 +11729,10 @@
         <v>387</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G272" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>369</v>
@@ -11743,10 +11758,10 @@
         <v>677</v>
       </c>
       <c r="F273" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G273" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>547</v>
@@ -11772,10 +11787,10 @@
         <v>676</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="G274" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>547</v>
@@ -11801,10 +11816,10 @@
         <v>679</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="G275" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>547</v>
@@ -11830,10 +11845,10 @@
         <v>458</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="G276" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>429</v>
@@ -11859,10 +11874,10 @@
         <v>499</v>
       </c>
       <c r="F277" s="11" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="G277" s="22" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H277" s="2" t="s">
         <v>416</v>
@@ -12769,7 +12784,7 @@
         <v>153</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="2" t="s">
@@ -12796,7 +12811,7 @@
         <v>154</v>
       </c>
       <c r="F312" s="11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="2" t="s">
@@ -12885,7 +12900,7 @@
         <v>704</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -12915,7 +12930,7 @@
         <v>704</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -12945,7 +12960,7 @@
         <v>711</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -12965,7 +12980,7 @@
         <v>205</v>
       </c>
       <c r="F318" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>120</v>
@@ -12974,7 +12989,7 @@
         <v>711</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -12994,7 +13009,7 @@
         <v>498</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>416</v>
@@ -13003,7 +13018,7 @@
         <v>708</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -13023,7 +13038,7 @@
         <v>206</v>
       </c>
       <c r="F320" s="11" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>120</v>
@@ -13049,7 +13064,7 @@
         <v>207</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>120</v>
@@ -13075,7 +13090,7 @@
         <v>262</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>248</v>
@@ -13101,7 +13116,7 @@
         <v>263</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H323" s="2" t="s">
         <v>248</v>
@@ -13163,7 +13178,7 @@
         <v>710</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -13183,7 +13198,7 @@
         <v>246</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="H326" s="2" t="s">
         <v>238</v>
@@ -13192,7 +13207,7 @@
         <v>699</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="270" hidden="1" x14ac:dyDescent="0.25">
@@ -13218,10 +13233,10 @@
         <v>707</v>
       </c>
       <c r="J327" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -13261,7 +13276,7 @@
         <v>596</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="H329" s="2" t="s">
         <v>352</v>
@@ -13270,10 +13285,10 @@
         <v>707</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -13296,7 +13311,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -13319,7 +13334,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -13342,7 +13357,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -13365,7 +13380,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -13405,7 +13420,7 @@
         <v>152</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="H335" s="2" t="s">
         <v>120</v>
@@ -13414,7 +13429,7 @@
         <v>704</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -13434,7 +13449,7 @@
         <v>275</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="H336" s="2" t="s">
         <v>248</v>
@@ -13443,10 +13458,10 @@
         <v>711</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -13472,7 +13487,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -13495,7 +13510,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -13522,7 +13537,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -13549,7 +13564,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -13576,7 +13591,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -13727,10 +13742,10 @@
         <v>500</v>
       </c>
       <c r="F347" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G347" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>416</v>
@@ -13759,7 +13774,7 @@
         <v>778</v>
       </c>
       <c r="G348" s="19" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H348" s="2" t="s">
         <v>85</v>
@@ -16333,7 +16348,7 @@
         <v>393</v>
       </c>
       <c r="F458" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G458" s="28"/>
       <c r="H458" s="2" t="s">
@@ -16360,7 +16375,7 @@
         <v>164</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H459" s="2" t="s">
         <v>120</v>
@@ -16386,7 +16401,7 @@
         <v>165</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H460" s="2" t="s">
         <v>120</v>
@@ -16412,7 +16427,7 @@
         <v>627</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H461" s="2" t="s">
         <v>547</v>
@@ -16507,7 +16522,7 @@
         <v>506</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="H465" s="2" t="s">
         <v>416</v>
@@ -16533,7 +16548,7 @@
         <v>644</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="H466" s="2" t="s">
         <v>547</v>
@@ -16582,7 +16597,7 @@
         <v>76</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="H468" s="2" t="s">
         <v>59</v>
@@ -16608,7 +16623,7 @@
         <v>112</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="H469" s="2" t="s">
         <v>85</v>
@@ -16634,7 +16649,7 @@
         <v>507</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="H470" s="2" t="s">
         <v>352</v>
@@ -16684,7 +16699,7 @@
         <v>646</v>
       </c>
       <c r="F472" s="30" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="G472" s="32"/>
       <c r="H472" s="30" t="s">
@@ -16711,7 +16726,7 @@
         <v>190</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="H473" s="2" t="s">
         <v>120</v>
@@ -16760,7 +16775,7 @@
         <v>192</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="H475" s="2" t="s">
         <v>120</v>
@@ -16786,7 +16801,7 @@
         <v>645</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="H476" s="2" t="s">
         <v>547</v>
@@ -16928,7 +16943,7 @@
         <v>668</v>
       </c>
       <c r="F482" s="30" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="G482" s="32"/>
       <c r="H482" s="30" t="s">
@@ -17001,7 +17016,7 @@
         <v>78</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H485" s="2" t="s">
         <v>59</v>
@@ -17027,7 +17042,7 @@
         <v>652</v>
       </c>
       <c r="F486" s="30" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="G486" s="32"/>
       <c r="H486" s="30" t="s">
@@ -17100,7 +17115,7 @@
         <v>650</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H489" s="2" t="s">
         <v>85</v>
@@ -17149,7 +17164,7 @@
         <v>508</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="H491" s="2" t="s">
         <v>352</v>
@@ -17199,7 +17214,7 @@
         <v>194</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H493" s="2" t="s">
         <v>120</v>
@@ -17225,7 +17240,7 @@
         <v>195</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="H494" s="2" t="s">
         <v>120</v>
@@ -17274,7 +17289,7 @@
         <v>197</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="H496" s="2" t="s">
         <v>120</v>
@@ -17300,7 +17315,7 @@
         <v>198</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H497" s="2" t="s">
         <v>120</v>
@@ -17326,7 +17341,7 @@
         <v>669</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="H498" s="2" t="s">
         <v>547</v>
@@ -17352,7 +17367,7 @@
         <v>333</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="H499" s="2" t="s">
         <v>351</v>
@@ -17378,7 +17393,7 @@
         <v>334</v>
       </c>
       <c r="F500" s="30" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="G500" s="32"/>
       <c r="H500" s="30" t="s">
@@ -17451,7 +17466,7 @@
         <v>337</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="H503" s="2" t="s">
         <v>351</v>
@@ -17523,7 +17538,7 @@
         <v>340</v>
       </c>
       <c r="F506" s="30" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="G506" s="32"/>
       <c r="H506" s="30" t="s">
@@ -17550,7 +17565,7 @@
         <v>341</v>
       </c>
       <c r="F507" s="30" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="G507" s="32"/>
       <c r="H507" s="30" t="s">
@@ -17577,7 +17592,7 @@
         <v>342</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="H508" s="2" t="s">
         <v>351</v>
@@ -17603,7 +17618,7 @@
         <v>343</v>
       </c>
       <c r="F509" s="30" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="G509" s="32"/>
       <c r="H509" s="30" t="s">
@@ -17909,7 +17924,7 @@
         <v>675</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H522" s="2" t="s">
         <v>547</v>
@@ -17935,7 +17950,7 @@
         <v>200</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H523" s="2" t="s">
         <v>120</v>
@@ -17961,7 +17976,7 @@
         <v>201</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H524" s="2" t="s">
         <v>120</v>
@@ -17987,7 +18002,7 @@
         <v>202</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H525" s="2" t="s">
         <v>120</v>
@@ -18036,7 +18051,7 @@
         <v>453</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H527" s="2" t="s">
         <v>429</v>
@@ -19978,7 +19993,7 @@
         <v>775</v>
       </c>
       <c r="G611" s="19" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H611" s="2" t="s">
         <v>547</v>
@@ -20031,10 +20046,10 @@
         <v>815</v>
       </c>
       <c r="F613" s="11" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="G613" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H613" s="2" t="s">
         <v>547</v>
@@ -20075,7 +20090,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>6</v>
@@ -20084,10 +20099,10 @@
         <v>45</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F615" s="11" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>547</v>
@@ -20110,10 +20125,10 @@
         <v>46</v>
       </c>
       <c r="E616" s="30" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F616" s="9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H616" s="2" t="s">
         <v>547</v>
@@ -20136,10 +20151,10 @@
         <v>45</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F617" s="11" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H617" s="2" t="s">
         <v>547</v>
@@ -20162,10 +20177,10 @@
         <v>45</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F618" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H618" s="2" t="s">
         <v>547</v>
@@ -20188,10 +20203,10 @@
         <v>45</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="F619" s="11" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H619" s="2" t="s">
         <v>547</v>
@@ -20214,10 +20229,10 @@
         <v>49</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F620" s="11" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H620" s="2" t="s">
         <v>547</v>
@@ -20240,10 +20255,10 @@
         <v>46</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F621" s="11" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="H621" s="2" t="s">
         <v>547</v>
@@ -20266,13 +20281,13 @@
         <v>45</v>
       </c>
       <c r="E622" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F622" s="9" t="s">
         <v>927</v>
       </c>
-      <c r="F622" s="9" t="s">
-        <v>929</v>
-      </c>
       <c r="G622" s="22" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H622" s="2" t="s">
         <v>547</v>
@@ -20285,12 +20300,8 @@
   <autoFilter ref="A1:J622">
     <filterColumn colId="2">
       <filters>
-        <filter val="Document"/>
-        <filter val="DocumentReference"/>
+        <filter val="Questionnaire"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <sortState ref="B2:I610">

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4461" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4483" uniqueCount="1027">
   <si>
     <t>Resource</t>
   </si>
@@ -3921,6 +3921,54 @@
   </si>
   <si>
     <t>No, it's the name of the _Q_ uestionnaire, but there's no real reason why it should not be name (since this Resource is questionnaire). DONE</t>
+  </si>
+  <si>
+    <t>No.  Immunization profile refers to a point in time determination of a patient's immunization recommendation and status (with optional justification).</t>
+  </si>
+  <si>
+    <t>Reported is intended to indicate that immunization event information was provided second-hand…and may include concepts such as provided by parent, gleaned from immunization card, etc.  - not just reported by the patient.  Immunization domain experts thought the distinction between immunization event information provided by the provider who administered the vaccination and immunization event information provided second hand was important.  Differentiating the second hand information was not deemed to be of value.  Not sure how modified, etc. would be used in this context.</t>
+  </si>
+  <si>
+    <t>This has since been changed to 1..1</t>
+  </si>
+  <si>
+    <t>Description has been broadened as suggested</t>
+  </si>
+  <si>
+    <t>Reported is intended to indicate that immunization event information was provided second-hand…and may include concepts such as provided by parent, gleaned from immunization card, etc.  - not just reported by the patient.  Immunization domain experts thought the distinction between immunization event information provided by the provider who administered the vaccination and immunization event information provided second hand was important.  Differentiating the second hand information was not deemed to be of value.</t>
+  </si>
+  <si>
+    <t>Additional examples to be crafted.  Subject is now 1..1</t>
+  </si>
+  <si>
+    <t>Description of the resource to be updated with information contained in the resource proposal.  As for your questions, immunization + adverse reaction conveys adverse reaction information that was recorded along with the immunization event information (this could be added at a later date/time).  The adverse event report that is referenced by the immunization profile is intended to indicate one or more adverse event reports have been used in the determination of the patients immunization recomendation and status.</t>
+  </si>
+  <si>
+    <t>Description of the resource to be updated with information contained in the resource proposal</t>
+  </si>
+  <si>
+    <t>Will consider changing order of elements for clarity</t>
+  </si>
+  <si>
+    <t>It is believed that there is enough differentation to warrant a separate resource (e.g. protocol information, administered vs. reported, immunization reasons, refusal reasons, etc.)</t>
+  </si>
+  <si>
+    <t>Thanks</t>
+  </si>
+  <si>
+    <t>Search criteria to be updated for consistency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommendation is a term put forward by immunization domain experts.  Not sure how ID, status, modified, etc. would be used in this context.  </t>
+  </si>
+  <si>
+    <t>Descriptions have since been updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of the resource to be updated with information contained in the resource proposal. </t>
+  </si>
+  <si>
+    <t>Will consider adding additional search criteria.</t>
   </si>
 </sst>
 </file>
@@ -4056,7 +4104,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4155,6 +4203,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4461,14 +4512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4517,7 +4567,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4544,7 +4594,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4571,7 +4621,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4598,7 +4648,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4625,7 +4675,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4652,7 +4702,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4681,7 +4731,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4708,7 +4758,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4737,7 +4787,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4763,7 +4813,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4792,7 +4842,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4819,7 +4869,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4848,7 +4898,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4874,7 +4924,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4903,7 +4953,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4932,7 +4982,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4961,7 +5011,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4990,7 +5040,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5016,7 +5066,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5042,7 +5092,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5071,7 +5121,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5098,7 +5148,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5125,7 +5175,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5152,7 +5202,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5178,7 +5228,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5204,7 +5254,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5231,7 +5281,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5260,7 +5310,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5286,7 +5336,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5312,7 +5362,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5338,7 +5388,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5364,7 +5414,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5390,7 +5440,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5417,7 +5467,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5444,7 +5494,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5471,7 +5521,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5497,7 +5547,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5524,7 +5574,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5551,7 +5601,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5578,7 +5628,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5604,7 +5654,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5633,7 +5683,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5660,7 +5710,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5687,7 +5737,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5714,7 +5764,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5741,7 +5791,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5768,7 +5818,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5795,7 +5845,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5822,7 +5872,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5848,7 +5898,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5874,7 +5924,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5901,7 +5951,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5928,7 +5978,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5955,7 +6005,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5982,7 +6032,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -6009,7 +6059,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -6035,7 +6085,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -6064,7 +6114,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -6091,7 +6141,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6120,7 +6170,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6147,7 +6197,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6174,7 +6224,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6203,7 +6253,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6232,7 +6282,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6261,7 +6311,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6288,7 +6338,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6315,7 +6365,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6342,7 +6392,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6371,7 +6421,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6398,7 +6448,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6425,7 +6475,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6452,7 +6502,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6479,7 +6529,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6506,7 +6556,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6532,7 +6582,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -7351,7 +7401,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7378,7 +7428,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7405,7 +7455,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7434,7 +7484,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7461,7 +7511,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7488,7 +7538,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7515,7 +7565,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -7542,7 +7592,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -7569,7 +7619,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7596,7 +7646,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -7625,7 +7675,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -7652,7 +7702,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -7679,7 +7729,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -7706,7 +7756,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -7733,7 +7783,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -7760,7 +7810,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -7787,7 +7837,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -7814,7 +7864,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -7843,7 +7893,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -7872,7 +7922,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -7901,7 +7951,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -7928,7 +7978,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -7955,7 +8005,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -7982,7 +8032,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -8009,7 +8059,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -8036,7 +8086,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -8063,7 +8113,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -8090,7 +8140,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -8117,7 +8167,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -8140,7 +8190,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -8163,7 +8213,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -8188,7 +8238,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -8215,7 +8265,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -8238,7 +8288,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -8261,7 +8311,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -8284,7 +8334,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -8307,7 +8357,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -8330,7 +8380,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -8353,7 +8403,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -8376,7 +8426,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -8405,7 +8455,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -8432,7 +8482,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -8457,7 +8507,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -8482,7 +8532,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -8509,7 +8559,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -8536,7 +8586,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -8563,7 +8613,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -8586,7 +8636,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -8609,7 +8659,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -8632,7 +8682,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -8659,7 +8709,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -8682,7 +8732,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -8705,7 +8755,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -8728,7 +8778,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -8751,7 +8801,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -8774,7 +8824,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -8797,7 +8847,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -8820,7 +8870,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -8843,7 +8893,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -8866,7 +8916,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -8889,7 +8939,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -8912,7 +8962,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -8939,7 +8989,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -8962,7 +9012,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -8985,7 +9035,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -9008,7 +9058,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -9031,7 +9081,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -9054,7 +9104,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -9080,7 +9130,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -9107,7 +9157,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -9136,7 +9186,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -9163,7 +9213,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -9186,7 +9236,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -9213,7 +9263,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -9236,7 +9286,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -9259,7 +9309,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -9282,7 +9332,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -9305,7 +9355,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -9332,7 +9382,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -9359,7 +9409,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -9386,7 +9436,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -9409,7 +9459,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -9432,7 +9482,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -9455,7 +9505,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -9478,7 +9528,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -9503,7 +9553,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -9526,7 +9576,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -9552,7 +9602,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -9575,7 +9625,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -9598,7 +9648,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -9621,7 +9671,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -9644,7 +9694,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -9667,7 +9717,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -9690,7 +9740,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -9717,7 +9767,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -9744,7 +9794,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -9773,7 +9823,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -9802,7 +9852,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -9831,7 +9881,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -9854,7 +9904,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -9877,7 +9927,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -9905,7 +9955,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -9933,7 +9983,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -9963,7 +10013,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -9990,7 +10040,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -10017,7 +10067,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -10047,7 +10097,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -10076,7 +10126,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -10102,7 +10152,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -10128,7 +10178,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -10157,7 +10207,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -10186,7 +10236,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -10215,7 +10265,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -10241,7 +10291,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -10270,7 +10320,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -10299,7 +10349,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -10328,7 +10378,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -10358,7 +10408,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -10387,7 +10437,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -10416,7 +10466,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -10445,7 +10495,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -10474,7 +10524,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -10503,7 +10553,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -10532,7 +10582,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -10561,7 +10611,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -10590,7 +10640,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -10619,7 +10669,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -10648,7 +10698,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -10677,7 +10727,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -10704,7 +10754,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -10727,7 +10777,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -10754,7 +10804,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -10777,7 +10827,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -10806,7 +10856,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -10829,7 +10879,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -10852,7 +10902,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -10875,7 +10925,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -10902,7 +10952,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -10929,7 +10979,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -10952,7 +11002,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -10979,7 +11029,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -11005,7 +11055,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -11034,7 +11084,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -11057,7 +11107,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -11080,7 +11130,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -11107,7 +11157,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -11134,7 +11184,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -11161,7 +11211,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -11184,7 +11234,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -11213,7 +11263,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -11242,7 +11292,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -11271,7 +11321,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -11300,7 +11350,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -11329,7 +11379,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -11358,7 +11408,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -11387,7 +11437,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -11416,7 +11466,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -11445,7 +11495,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -11474,7 +11524,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -11503,7 +11553,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -11532,7 +11582,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -11564,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -11596,7 +11646,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -11625,7 +11675,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -11654,7 +11704,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -11683,7 +11733,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -11712,7 +11762,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -11741,7 +11791,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -11770,7 +11820,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -11799,7 +11849,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -11828,7 +11878,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -11857,7 +11907,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -11886,7 +11936,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -11912,7 +11962,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -11939,7 +11989,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -11965,7 +12015,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -11991,7 +12041,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -12017,7 +12067,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -12044,7 +12094,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -12071,7 +12121,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -12098,7 +12148,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -12124,7 +12174,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -12151,7 +12201,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -12178,7 +12228,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -12205,7 +12255,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -12231,7 +12281,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -12257,7 +12307,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -12283,7 +12333,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -12310,7 +12360,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -12337,7 +12387,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -12364,7 +12414,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -12391,7 +12441,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -12418,7 +12468,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -12445,7 +12495,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -12472,7 +12522,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -12499,7 +12549,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -12526,7 +12576,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -12553,7 +12603,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -12580,7 +12630,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -12607,7 +12657,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -12634,7 +12684,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -12661,7 +12711,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -12688,7 +12738,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -12714,7 +12764,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -12741,7 +12791,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -12767,7 +12817,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -12794,7 +12844,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -12821,7 +12871,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -12847,7 +12897,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -12874,7 +12924,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -12903,7 +12953,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -12933,7 +12983,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -12963,7 +13013,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -12992,7 +13042,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -13021,7 +13071,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -13047,7 +13097,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -13073,7 +13123,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -13099,7 +13149,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -13125,7 +13175,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -13151,7 +13201,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -13181,7 +13231,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -13210,7 +13260,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -13236,7 +13286,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -13259,7 +13309,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -13288,7 +13338,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -13311,7 +13361,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -13334,7 +13384,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -13357,7 +13407,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -13380,7 +13430,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -13403,7 +13453,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -13432,7 +13482,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -13461,7 +13511,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -13487,7 +13537,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -13510,7 +13560,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -13537,7 +13587,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -13564,7 +13614,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -13591,7 +13641,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -13618,7 +13668,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -13645,7 +13695,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -13672,7 +13722,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -13699,7 +13749,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -13725,7 +13775,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -13754,7 +13804,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -13783,7 +13833,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -13806,7 +13856,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -13829,7 +13879,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -13852,7 +13902,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -13877,7 +13927,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -13900,7 +13950,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -13923,7 +13973,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -13946,7 +13996,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -13969,7 +14019,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -13992,7 +14042,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -14015,7 +14065,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -14041,7 +14091,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -14064,7 +14114,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -14089,7 +14139,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -14112,7 +14162,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -14135,7 +14185,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -14158,7 +14208,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -14181,7 +14231,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -14204,7 +14254,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -14227,7 +14277,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -14250,7 +14300,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -14273,7 +14323,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -14296,7 +14346,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -14319,7 +14369,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -14342,7 +14392,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -14365,7 +14415,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -14388,7 +14438,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -14411,7 +14461,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -14434,7 +14484,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -14459,7 +14509,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -14484,7 +14534,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -14507,7 +14557,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -14530,7 +14580,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -14553,7 +14603,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -14576,7 +14626,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -14599,7 +14649,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -14622,7 +14672,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -14645,7 +14695,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -14668,7 +14718,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -14691,7 +14741,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -14714,7 +14764,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -14739,7 +14789,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -14764,7 +14814,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -14789,7 +14839,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -14812,7 +14862,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -14835,7 +14885,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -14858,7 +14908,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -14883,7 +14933,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -14908,7 +14958,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -14933,7 +14983,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -14956,7 +15006,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -14981,7 +15031,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -15004,7 +15054,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -15027,7 +15077,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -15050,7 +15100,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -15073,7 +15123,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -15098,7 +15148,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -15121,7 +15171,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -15144,7 +15194,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -15167,7 +15217,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -15190,7 +15240,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -15213,7 +15263,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -15236,7 +15286,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -15259,7 +15309,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -15284,7 +15334,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -15307,7 +15357,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -15332,7 +15382,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -15357,7 +15407,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -15380,7 +15430,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -15403,7 +15453,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -15426,7 +15476,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -15449,7 +15499,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -15472,7 +15522,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -15495,7 +15545,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -15518,7 +15568,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -15541,7 +15591,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -15564,7 +15614,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -15587,7 +15637,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -15610,7 +15660,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -15633,7 +15683,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -15656,7 +15706,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -15679,7 +15729,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -15702,7 +15752,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -15725,7 +15775,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -15748,7 +15798,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -15771,7 +15821,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -15794,7 +15844,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -15817,7 +15867,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -15842,7 +15892,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -15867,7 +15917,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -15890,7 +15940,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -15913,7 +15963,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -15936,7 +15986,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -15959,7 +16009,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -15982,7 +16032,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -16005,7 +16055,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -16028,7 +16078,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -16051,7 +16101,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -16074,7 +16124,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -16099,7 +16149,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -16122,7 +16172,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -16145,7 +16195,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -16168,7 +16218,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -16191,7 +16241,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -16214,7 +16264,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -16237,7 +16287,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -16260,7 +16310,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -16285,7 +16335,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -16308,7 +16358,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -16331,7 +16381,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -16358,7 +16408,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -16384,7 +16434,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -16410,7 +16460,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -16436,7 +16486,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -16459,7 +16509,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -16482,7 +16532,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -16505,7 +16555,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -16531,7 +16581,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -16557,7 +16607,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -16580,7 +16630,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -16606,7 +16656,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -16632,7 +16682,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -16658,7 +16708,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="471" spans="1:9" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="30">
         <v>470</v>
       </c>
@@ -16682,7 +16732,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="472" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A472" s="30">
         <v>471</v>
       </c>
@@ -16709,7 +16759,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -16735,7 +16785,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -16758,7 +16808,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -16784,7 +16834,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -16810,7 +16860,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="477" spans="1:9" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="30">
         <v>476</v>
       </c>
@@ -16834,7 +16884,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -16857,7 +16907,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -16880,7 +16930,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -16903,7 +16953,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -16926,7 +16976,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="482" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="30">
         <v>481</v>
       </c>
@@ -16953,7 +17003,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -16976,7 +17026,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -16999,7 +17049,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -17025,7 +17075,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="486" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A486" s="30">
         <v>485</v>
       </c>
@@ -17052,7 +17102,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -17075,7 +17125,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -17098,7 +17148,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -17124,7 +17174,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -17147,7 +17197,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -17173,7 +17223,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="492" spans="1:9" s="30" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A492" s="30">
         <v>491</v>
       </c>
@@ -17197,7 +17247,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -17223,7 +17273,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -17249,7 +17299,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -17272,7 +17322,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -17298,7 +17348,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -17324,7 +17374,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -17350,7 +17400,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -17376,7 +17426,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="500" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="30">
         <v>499</v>
       </c>
@@ -17403,7 +17453,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -17426,7 +17476,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -17449,7 +17499,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -17475,7 +17525,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -17498,7 +17548,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -17521,7 +17571,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="506" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="30">
         <v>505</v>
       </c>
@@ -17548,7 +17598,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="507" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="30">
         <v>506</v>
       </c>
@@ -17575,7 +17625,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -17601,7 +17651,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="509" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A509" s="30">
         <v>508</v>
       </c>
@@ -17628,7 +17678,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="510" spans="1:9" s="30" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" s="30" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A510" s="30">
         <v>509</v>
       </c>
@@ -17652,7 +17702,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -17675,7 +17725,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -17698,7 +17748,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -17721,7 +17771,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -17744,7 +17794,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -17767,7 +17817,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -17790,7 +17840,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -17815,7 +17865,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -17838,7 +17888,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -17861,7 +17911,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -17884,7 +17934,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -17907,7 +17957,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -17933,7 +17983,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -17959,7 +18009,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -17985,7 +18035,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -18011,7 +18061,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -18034,7 +18084,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -18060,7 +18110,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -18083,7 +18133,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -18106,7 +18156,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -18129,7 +18179,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -18152,7 +18202,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -18175,7 +18225,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -18198,7 +18248,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -18221,7 +18271,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -18244,7 +18294,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -18267,7 +18317,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -18290,7 +18340,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -18313,7 +18363,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -18336,7 +18386,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -18359,7 +18409,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -18382,7 +18432,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -18405,7 +18455,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -18428,7 +18478,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -18451,7 +18501,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -18474,7 +18524,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="546" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -18497,7 +18547,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="547" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -18520,7 +18570,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -18543,7 +18593,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -18566,7 +18616,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -18589,7 +18639,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="551" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -18612,7 +18662,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -18635,7 +18685,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -18658,7 +18708,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -18681,7 +18731,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -18704,7 +18754,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -18727,7 +18777,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -18750,7 +18800,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -18773,7 +18823,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -18796,7 +18846,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -18819,7 +18869,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -18842,7 +18892,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -18865,7 +18915,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -18888,7 +18938,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -18911,7 +18961,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -18934,7 +18984,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -18957,7 +19007,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -18980,7 +19030,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -19003,7 +19053,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -19026,7 +19076,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -19049,7 +19099,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -19072,7 +19122,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -19095,7 +19145,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -19118,7 +19168,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -19141,7 +19191,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -19164,7 +19214,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -19187,7 +19237,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -19210,7 +19260,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="578" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -19233,7 +19283,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -19256,7 +19306,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>579</v>
       </c>
@@ -19279,7 +19329,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>580</v>
       </c>
@@ -19302,7 +19352,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -19325,7 +19375,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -19348,7 +19398,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -19371,7 +19421,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>584</v>
       </c>
@@ -19394,7 +19444,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>585</v>
       </c>
@@ -19417,7 +19467,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>586</v>
       </c>
@@ -19440,7 +19490,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>587</v>
       </c>
@@ -19463,7 +19513,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>588</v>
       </c>
@@ -19479,6 +19529,9 @@
       <c r="E589" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="F589" s="8" t="s">
+        <v>716</v>
+      </c>
       <c r="H589" s="2" t="s">
         <v>59</v>
       </c>
@@ -19486,7 +19539,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>589</v>
       </c>
@@ -19502,6 +19555,9 @@
       <c r="E590" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="F590" s="2" t="s">
+        <v>1011</v>
+      </c>
       <c r="H590" s="2" t="s">
         <v>59</v>
       </c>
@@ -19509,7 +19565,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="591" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>590</v>
       </c>
@@ -19525,6 +19581,9 @@
       <c r="E591" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="F591" s="2" t="s">
+        <v>1012</v>
+      </c>
       <c r="H591" s="2" t="s">
         <v>85</v>
       </c>
@@ -19532,7 +19591,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="592" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>591</v>
       </c>
@@ -19548,6 +19607,9 @@
       <c r="E592" s="2" t="s">
         <v>569</v>
       </c>
+      <c r="F592" s="11" t="s">
+        <v>1013</v>
+      </c>
       <c r="H592" s="2" t="s">
         <v>352</v>
       </c>
@@ -19555,7 +19617,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>592</v>
       </c>
@@ -19571,6 +19633,9 @@
       <c r="E593" s="2" t="s">
         <v>566</v>
       </c>
+      <c r="F593" s="11" t="s">
+        <v>1014</v>
+      </c>
       <c r="H593" s="2" t="s">
         <v>352</v>
       </c>
@@ -19578,7 +19643,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>593</v>
       </c>
@@ -19594,6 +19659,9 @@
       <c r="E594" s="2" t="s">
         <v>567</v>
       </c>
+      <c r="F594" s="2" t="s">
+        <v>1015</v>
+      </c>
       <c r="H594" s="2" t="s">
         <v>352</v>
       </c>
@@ -19601,7 +19669,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>594</v>
       </c>
@@ -19617,6 +19685,9 @@
       <c r="E595" s="2" t="s">
         <v>568</v>
       </c>
+      <c r="F595" s="11" t="s">
+        <v>1013</v>
+      </c>
       <c r="H595" s="2" t="s">
         <v>352</v>
       </c>
@@ -19624,7 +19695,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>595</v>
       </c>
@@ -19640,6 +19711,9 @@
       <c r="E596" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="F596" s="11" t="s">
+        <v>1016</v>
+      </c>
       <c r="H596" s="2" t="s">
         <v>230</v>
       </c>
@@ -19647,7 +19721,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>596</v>
       </c>
@@ -19663,6 +19737,9 @@
       <c r="E597" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="F597" s="11" t="s">
+        <v>1017</v>
+      </c>
       <c r="H597" s="2" t="s">
         <v>120</v>
       </c>
@@ -19670,7 +19747,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>597</v>
       </c>
@@ -19686,6 +19763,9 @@
       <c r="E598" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="F598" s="11" t="s">
+        <v>1018</v>
+      </c>
       <c r="H598" s="2" t="s">
         <v>248</v>
       </c>
@@ -19693,7 +19773,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>598</v>
       </c>
@@ -19709,6 +19789,9 @@
       <c r="E599" s="2" t="s">
         <v>625</v>
       </c>
+      <c r="F599" s="11" t="s">
+        <v>1019</v>
+      </c>
       <c r="H599" s="2" t="s">
         <v>547</v>
       </c>
@@ -19716,7 +19799,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>599</v>
       </c>
@@ -19732,6 +19815,9 @@
       <c r="E600" s="2" t="s">
         <v>626</v>
       </c>
+      <c r="F600" s="2" t="s">
+        <v>1020</v>
+      </c>
       <c r="H600" s="2" t="s">
         <v>547</v>
       </c>
@@ -19739,7 +19825,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>600</v>
       </c>
@@ -19755,6 +19841,9 @@
       <c r="E601" s="2" t="s">
         <v>446</v>
       </c>
+      <c r="F601" s="2" t="s">
+        <v>1021</v>
+      </c>
       <c r="H601" s="2" t="s">
         <v>429</v>
       </c>
@@ -19762,7 +19851,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>601</v>
       </c>
@@ -19778,6 +19867,9 @@
       <c r="E602" s="2" t="s">
         <v>510</v>
       </c>
+      <c r="F602" s="11" t="s">
+        <v>1022</v>
+      </c>
       <c r="H602" s="2" t="s">
         <v>416</v>
       </c>
@@ -19785,7 +19877,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>602</v>
       </c>
@@ -19801,6 +19893,9 @@
       <c r="E603" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="F603" s="8" t="s">
+        <v>716</v>
+      </c>
       <c r="H603" s="2" t="s">
         <v>59</v>
       </c>
@@ -19808,7 +19903,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="604" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>603</v>
       </c>
@@ -19824,7 +19919,9 @@
       <c r="E604" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F604" s="6"/>
+      <c r="F604" s="34" t="s">
+        <v>1023</v>
+      </c>
       <c r="G604" s="26"/>
       <c r="H604" s="2" t="s">
         <v>85</v>
@@ -19833,7 +19930,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>604</v>
       </c>
@@ -19849,6 +19946,9 @@
       <c r="E605" s="2" t="s">
         <v>511</v>
       </c>
+      <c r="F605" s="11" t="s">
+        <v>1018</v>
+      </c>
       <c r="H605" s="2" t="s">
         <v>352</v>
       </c>
@@ -19856,7 +19956,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>605</v>
       </c>
@@ -19872,7 +19972,9 @@
       <c r="E606" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="F606" s="4"/>
+      <c r="F606" s="11" t="s">
+        <v>1018</v>
+      </c>
       <c r="G606" s="28"/>
       <c r="H606" s="2" t="s">
         <v>369</v>
@@ -19881,7 +19983,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="607" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>606</v>
       </c>
@@ -19897,6 +19999,9 @@
       <c r="E607" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="F607" s="11" t="s">
+        <v>1018</v>
+      </c>
       <c r="H607" s="2" t="s">
         <v>120</v>
       </c>
@@ -19904,7 +20009,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>607</v>
       </c>
@@ -19920,6 +20025,9 @@
       <c r="E608" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="F608" s="11" t="s">
+        <v>1024</v>
+      </c>
       <c r="H608" s="2" t="s">
         <v>248</v>
       </c>
@@ -19927,7 +20035,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="609" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>608</v>
       </c>
@@ -19943,6 +20051,9 @@
       <c r="E609" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="F609" s="11" t="s">
+        <v>1025</v>
+      </c>
       <c r="H609" s="2" t="s">
         <v>407</v>
       </c>
@@ -19950,7 +20061,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="610" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>609</v>
       </c>
@@ -19966,6 +20077,9 @@
       <c r="E610" s="2" t="s">
         <v>512</v>
       </c>
+      <c r="F610" s="11" t="s">
+        <v>1026</v>
+      </c>
       <c r="H610" s="2" t="s">
         <v>416</v>
       </c>
@@ -19973,7 +20087,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="611" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>610</v>
       </c>
@@ -20002,7 +20116,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>611</v>
       </c>
@@ -20029,7 +20143,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="613" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>612</v>
       </c>
@@ -20058,7 +20172,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="614" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>613</v>
       </c>
@@ -20085,7 +20199,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>614</v>
       </c>
@@ -20111,7 +20225,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="616" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>615</v>
       </c>
@@ -20137,7 +20251,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>616</v>
       </c>
@@ -20163,7 +20277,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>617</v>
       </c>
@@ -20189,7 +20303,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="619" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>618</v>
       </c>
@@ -20215,7 +20329,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>619</v>
       </c>
@@ -20241,7 +20355,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>620</v>
       </c>
@@ -20267,7 +20381,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="622" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>621</v>
       </c>
@@ -20297,13 +20411,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J622">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Questionnaire"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J622"/>
   <sortState ref="B2:I610">
     <sortCondition ref="B2:B610"/>
     <sortCondition ref="C2:C610"/>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4483" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4500" uniqueCount="1033">
   <si>
     <t>Resource</t>
   </si>
@@ -3566,9 +3566,6 @@
     <t>Why aren't beds covered by the Location resource</t>
   </si>
   <si>
-    <t>They are.  Drop the Location.bed attribute</t>
-  </si>
-  <si>
     <t>Suggest adding Location.level</t>
   </si>
   <si>
@@ -3969,6 +3966,27 @@
   </si>
   <si>
     <t>Will consider adding additional search criteria.</t>
+  </si>
+  <si>
+    <t>Well, it is, and it also has a Period during which the patient was at that location</t>
+  </si>
+  <si>
+    <t>We think so too, however there may be contexts where the subject is not yet known.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>We've added more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's because we renamed Encounter ("an") to Visit ("a"). That's something search/replace doesn't do. Fortunately we renamed Visit back to Encounter. </t>
+  </si>
+  <si>
+    <t>Called Encounter.class now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location is the places the patient has been at (including for examinations), while accomodation is where the patient stays </t>
   </si>
 </sst>
 </file>
@@ -4512,13 +4530,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E544" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="A617" sqref="A617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4567,7 +4586,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4594,7 +4613,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4621,7 +4640,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4648,7 +4667,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4665,7 +4684,7 @@
         <v>107</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="2" t="s">
@@ -4675,7 +4694,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4702,7 +4721,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4719,7 +4738,7 @@
         <v>353</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>867</v>
@@ -4731,7 +4750,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4758,7 +4777,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4787,7 +4806,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4813,7 +4832,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4842,7 +4861,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4869,7 +4888,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4898,7 +4917,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4924,7 +4943,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4953,7 +4972,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4970,7 +4989,7 @@
         <v>56</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>868</v>
@@ -4982,7 +5001,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5011,7 +5030,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5040,7 +5059,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5066,7 +5085,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5092,7 +5111,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5121,7 +5140,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5148,7 +5167,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5175,12 +5194,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -5192,7 +5211,7 @@
         <v>63</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="2" t="s">
@@ -5202,12 +5221,12 @@
         <v>709</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -5228,12 +5247,12 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -5254,12 +5273,12 @@
         <v>707</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -5271,7 +5290,7 @@
         <v>379</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="2" t="s">
@@ -5281,12 +5300,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -5310,12 +5329,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -5336,12 +5355,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
@@ -5362,12 +5381,12 @@
         <v>711</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -5388,12 +5407,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -5414,12 +5433,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -5440,7 +5459,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5467,7 +5486,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5494,7 +5513,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5521,7 +5540,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5547,7 +5566,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5574,7 +5593,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5601,7 +5620,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5628,7 +5647,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5654,7 +5673,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5671,7 +5690,7 @@
         <v>68</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>868</v>
@@ -5683,7 +5702,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5710,7 +5729,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5737,7 +5756,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5764,7 +5783,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5791,7 +5810,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5808,7 +5827,7 @@
         <v>271</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="2" t="s">
@@ -5818,7 +5837,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5845,7 +5864,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5872,7 +5891,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5898,7 +5917,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5924,7 +5943,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5951,7 +5970,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5978,7 +5997,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -6005,7 +6024,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -6032,7 +6051,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -6059,7 +6078,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -6085,7 +6104,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -6114,7 +6133,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -6141,7 +6160,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6158,7 +6177,7 @@
         <v>515</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G60" s="19" t="s">
         <v>869</v>
@@ -6170,7 +6189,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6197,7 +6216,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6224,7 +6243,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6241,7 +6260,7 @@
         <v>168</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G63" s="19" t="s">
         <v>867</v>
@@ -6253,7 +6272,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6270,7 +6289,7 @@
         <v>169</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>870</v>
@@ -6282,7 +6301,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6299,7 +6318,7 @@
         <v>170</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G65" s="19" t="s">
         <v>869</v>
@@ -6311,7 +6330,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6338,7 +6357,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6365,12 +6384,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
@@ -6392,12 +6411,12 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
@@ -6409,7 +6428,7 @@
         <v>208</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>871</v>
@@ -6421,12 +6440,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
@@ -6448,12 +6467,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
@@ -6475,12 +6494,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
@@ -6502,12 +6521,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
@@ -6529,12 +6548,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
@@ -6556,12 +6575,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
@@ -6582,12 +6601,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
@@ -6608,7 +6627,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6625,7 +6644,7 @@
         <v>682</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>470</v>
@@ -6637,7 +6656,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6654,7 +6673,7 @@
         <v>687</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>470</v>
@@ -6666,7 +6685,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6683,7 +6702,7 @@
         <v>664</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G79" s="19" t="s">
         <v>873</v>
@@ -6695,7 +6714,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6721,7 +6740,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6747,7 +6766,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6764,7 +6783,7 @@
         <v>424</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>470</v>
@@ -6776,7 +6795,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6793,7 +6812,7 @@
         <v>683</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="2" t="s">
@@ -6803,7 +6822,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6820,7 +6839,7 @@
         <v>684</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="2" t="s">
@@ -6830,7 +6849,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6847,7 +6866,7 @@
         <v>686</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>470</v>
@@ -6859,7 +6878,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6885,7 +6904,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6902,7 +6921,7 @@
         <v>685</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>547</v>
@@ -6911,7 +6930,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6928,7 +6947,7 @@
         <v>382</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>470</v>
@@ -6940,7 +6959,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6957,7 +6976,7 @@
         <v>383</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="2" t="s">
@@ -6967,7 +6986,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6984,7 +7003,7 @@
         <v>384</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G90" s="25"/>
       <c r="H90" s="2" t="s">
@@ -6994,7 +7013,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7021,7 +7040,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7038,7 +7057,7 @@
         <v>386</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G92" s="25"/>
       <c r="H92" s="2" t="s">
@@ -7048,7 +7067,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7065,7 +7084,7 @@
         <v>214</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="2" t="s">
@@ -7075,7 +7094,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7092,7 +7111,7 @@
         <v>215</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="2" t="s">
@@ -7102,7 +7121,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7119,7 +7138,7 @@
         <v>216</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="2" t="s">
@@ -7129,7 +7148,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7146,7 +7165,7 @@
         <v>217</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="2" t="s">
@@ -7156,7 +7175,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7183,7 +7202,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7200,7 +7219,7 @@
         <v>219</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="2" t="s">
@@ -7210,7 +7229,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7227,7 +7246,7 @@
         <v>220</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G99" s="20"/>
       <c r="H99" s="2" t="s">
@@ -7237,7 +7256,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7254,7 +7273,7 @@
         <v>221</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="2" t="s">
@@ -7264,7 +7283,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7281,7 +7300,7 @@
         <v>222</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G101" s="19" t="s">
         <v>470</v>
@@ -7293,7 +7312,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7310,7 +7329,7 @@
         <v>681</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G102" s="19" t="s">
         <v>470</v>
@@ -7322,7 +7341,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7348,7 +7367,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7374,7 +7393,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7391,7 +7410,7 @@
         <v>520</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="2" t="s">
@@ -7401,7 +7420,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7428,7 +7447,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7455,7 +7474,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7484,7 +7503,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7511,7 +7530,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7538,7 +7557,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7565,7 +7584,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -7592,7 +7611,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -7619,7 +7638,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7646,7 +7665,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -7675,7 +7694,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -7702,7 +7721,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -7729,7 +7748,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -7756,7 +7775,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -7783,7 +7802,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -7810,7 +7829,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -7837,7 +7856,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -7864,7 +7883,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -7893,7 +7912,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -7922,7 +7941,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -7951,7 +7970,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -7978,7 +7997,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8005,7 +8024,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -8032,7 +8051,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -8059,7 +8078,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -8086,7 +8105,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -8113,7 +8132,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -8140,7 +8159,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -8167,7 +8186,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -8190,7 +8209,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -8213,7 +8232,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -8238,7 +8257,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -8265,7 +8284,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -8288,7 +8307,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -8311,7 +8330,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -8334,7 +8353,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -8357,7 +8376,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -8380,7 +8399,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -8403,7 +8422,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -8426,7 +8445,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -8455,7 +8474,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -8482,7 +8501,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -8507,7 +8526,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -8532,7 +8551,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -8559,7 +8578,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -8586,7 +8605,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -8613,7 +8632,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -8636,7 +8655,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -8659,7 +8678,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -8682,7 +8701,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -8709,7 +8728,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -8732,7 +8751,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -8755,7 +8774,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -8778,7 +8797,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -8801,7 +8820,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -8824,7 +8843,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -8847,7 +8866,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -8870,7 +8889,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -8893,7 +8912,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -8916,7 +8935,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -8939,7 +8958,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -8962,7 +8981,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -8989,7 +9008,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -9012,7 +9031,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -9035,7 +9054,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -9058,7 +9077,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -9081,7 +9100,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -9104,7 +9123,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -9130,7 +9149,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -9157,7 +9176,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -9186,7 +9205,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -9213,7 +9232,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -9236,7 +9255,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -9263,7 +9282,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -9286,7 +9305,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -9309,7 +9328,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -9332,7 +9351,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -9355,7 +9374,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -9382,7 +9401,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -9409,7 +9428,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -9436,7 +9455,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -9459,7 +9478,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -9482,7 +9501,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -9505,7 +9524,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -9528,7 +9547,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -9553,7 +9572,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -9576,7 +9595,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -9602,7 +9621,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -9625,7 +9644,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -9648,7 +9667,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -9671,7 +9690,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -9694,7 +9713,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -9717,7 +9736,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -9740,7 +9759,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -9757,7 +9776,7 @@
         <v>99</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="2" t="s">
@@ -9767,7 +9786,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -9784,7 +9803,7 @@
         <v>247</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="2" t="s">
@@ -9794,7 +9813,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -9811,7 +9830,7 @@
         <v>602</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>352</v>
@@ -9820,10 +9839,10 @@
         <v>707</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -9840,7 +9859,7 @@
         <v>601</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>352</v>
@@ -9849,10 +9868,10 @@
         <v>707</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -9869,7 +9888,7 @@
         <v>603</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>352</v>
@@ -9878,10 +9897,10 @@
         <v>707</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -9904,7 +9923,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -9927,7 +9946,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -9952,10 +9971,10 @@
         <v>700</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -9980,10 +9999,10 @@
         <v>700</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -10010,10 +10029,10 @@
         <v>700</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -10040,7 +10059,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -10067,7 +10086,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -10094,10 +10113,10 @@
         <v>700</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -10114,7 +10133,7 @@
         <v>152</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>120</v>
@@ -10123,10 +10142,10 @@
         <v>704</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -10143,7 +10162,7 @@
         <v>618</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>547</v>
@@ -10152,7 +10171,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -10175,10 +10194,10 @@
         <v>708</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -10207,7 +10226,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -10224,7 +10243,7 @@
         <v>291</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>351</v>
@@ -10233,10 +10252,10 @@
         <v>702</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -10253,7 +10272,7 @@
         <v>292</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>351</v>
@@ -10262,10 +10281,10 @@
         <v>702</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -10288,10 +10307,10 @@
         <v>702</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -10308,7 +10327,7 @@
         <v>294</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>351</v>
@@ -10317,10 +10336,10 @@
         <v>702</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -10337,7 +10356,7 @@
         <v>295</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H220" s="2" t="s">
         <v>351</v>
@@ -10346,10 +10365,10 @@
         <v>702</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -10366,7 +10385,7 @@
         <v>296</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>351</v>
@@ -10375,10 +10394,10 @@
         <v>702</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -10405,10 +10424,10 @@
         <v>702</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -10425,7 +10444,7 @@
         <v>298</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>351</v>
@@ -10434,10 +10453,10 @@
         <v>702</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -10454,7 +10473,7 @@
         <v>299</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>351</v>
@@ -10463,10 +10482,10 @@
         <v>702</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -10483,7 +10502,7 @@
         <v>300</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H225" s="2" t="s">
         <v>351</v>
@@ -10492,10 +10511,10 @@
         <v>702</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -10512,7 +10531,7 @@
         <v>301</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>351</v>
@@ -10521,10 +10540,10 @@
         <v>702</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -10541,7 +10560,7 @@
         <v>302</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>351</v>
@@ -10550,10 +10569,10 @@
         <v>702</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -10570,7 +10589,7 @@
         <v>303</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>351</v>
@@ -10579,10 +10598,10 @@
         <v>702</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -10599,7 +10618,7 @@
         <v>304</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>351</v>
@@ -10608,10 +10627,10 @@
         <v>702</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -10628,7 +10647,7 @@
         <v>305</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>351</v>
@@ -10637,10 +10656,10 @@
         <v>702</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -10657,7 +10676,7 @@
         <v>306</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>351</v>
@@ -10666,10 +10685,10 @@
         <v>702</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -10686,7 +10705,7 @@
         <v>307</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>351</v>
@@ -10695,10 +10714,10 @@
         <v>702</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -10715,7 +10734,7 @@
         <v>617</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>547</v>
@@ -10724,10 +10743,10 @@
         <v>708</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -10754,7 +10773,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -10777,7 +10796,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -10804,7 +10823,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -10827,7 +10846,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -10856,7 +10875,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -10879,7 +10898,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -10902,7 +10921,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -10925,7 +10944,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -10952,7 +10971,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -10979,7 +10998,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -11002,7 +11021,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -11029,7 +11048,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -11055,7 +11074,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -11084,7 +11103,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -11107,7 +11126,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -11130,7 +11149,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -11157,7 +11176,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -11184,7 +11203,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -11211,7 +11230,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -11234,7 +11253,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -11251,7 +11270,7 @@
         <v>60</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G254" s="19" t="s">
         <v>872</v>
@@ -11263,7 +11282,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -11280,7 +11299,7 @@
         <v>249</v>
       </c>
       <c r="F255" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G255" s="19" t="s">
         <v>872</v>
@@ -11292,7 +11311,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -11321,7 +11340,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -11338,7 +11357,7 @@
         <v>278</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G257" s="19" t="s">
         <v>872</v>
@@ -11350,7 +11369,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -11367,7 +11386,7 @@
         <v>279</v>
       </c>
       <c r="F258" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G258" s="19" t="s">
         <v>872</v>
@@ -11379,7 +11398,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -11396,7 +11415,7 @@
         <v>372</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G259" s="19" t="s">
         <v>872</v>
@@ -11408,7 +11427,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -11437,7 +11456,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -11454,7 +11473,7 @@
         <v>357</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G261" s="19" t="s">
         <v>872</v>
@@ -11466,7 +11485,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -11483,7 +11502,7 @@
         <v>621</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G262" s="19" t="s">
         <v>872</v>
@@ -11495,7 +11514,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -11512,7 +11531,7 @@
         <v>363</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G263" s="19" t="s">
         <v>878</v>
@@ -11524,7 +11543,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -11541,7 +11560,7 @@
         <v>620</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G264" s="19" t="s">
         <v>872</v>
@@ -11553,7 +11572,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -11570,7 +11589,7 @@
         <v>622</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G265" s="19" t="s">
         <v>872</v>
@@ -11582,7 +11601,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -11599,7 +11618,7 @@
         <v>605</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G266" s="19" t="s">
         <v>872</v>
@@ -11614,7 +11633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -11643,10 +11662,10 @@
         <v>702</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -11663,7 +11682,7 @@
         <v>606</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G268" s="22" t="s">
         <v>872</v>
@@ -11675,7 +11694,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -11704,7 +11723,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -11721,7 +11740,7 @@
         <v>678</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G270" s="22" t="s">
         <v>872</v>
@@ -11733,7 +11752,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -11750,7 +11769,7 @@
         <v>680</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G271" s="22" t="s">
         <v>872</v>
@@ -11762,7 +11781,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -11791,7 +11810,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -11808,7 +11827,7 @@
         <v>677</v>
       </c>
       <c r="F273" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G273" s="22" t="s">
         <v>872</v>
@@ -11820,7 +11839,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -11837,7 +11856,7 @@
         <v>676</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G274" s="22" t="s">
         <v>872</v>
@@ -11849,7 +11868,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -11866,7 +11885,7 @@
         <v>679</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G275" s="22" t="s">
         <v>872</v>
@@ -11878,7 +11897,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -11895,7 +11914,7 @@
         <v>458</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G276" s="22" t="s">
         <v>872</v>
@@ -11907,7 +11926,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -11924,7 +11943,7 @@
         <v>499</v>
       </c>
       <c r="F277" s="11" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G277" s="22" t="s">
         <v>872</v>
@@ -11936,7 +11955,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -11962,7 +11981,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -11989,7 +12008,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -12015,7 +12034,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -12041,7 +12060,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -12067,7 +12086,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -12094,7 +12113,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -12121,7 +12140,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -12148,7 +12167,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -12174,7 +12193,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -12201,7 +12220,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -12228,7 +12247,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -12255,7 +12274,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -12281,7 +12300,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -12307,7 +12326,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -12333,7 +12352,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -12360,7 +12379,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -12387,7 +12406,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -12414,7 +12433,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -12441,7 +12460,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -12468,7 +12487,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -12495,7 +12514,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -12522,7 +12541,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -12549,7 +12568,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -12576,7 +12595,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -12603,7 +12622,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -12630,7 +12649,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -12657,7 +12676,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -12684,7 +12703,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -12711,7 +12730,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -12738,7 +12757,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -12764,7 +12783,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -12791,7 +12810,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -12817,7 +12836,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -12834,7 +12853,7 @@
         <v>153</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="2" t="s">
@@ -12844,7 +12863,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -12861,7 +12880,7 @@
         <v>154</v>
       </c>
       <c r="F312" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="2" t="s">
@@ -12871,7 +12890,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -12897,7 +12916,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -12924,7 +12943,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -12950,10 +12969,10 @@
         <v>704</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -12980,10 +12999,10 @@
         <v>704</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -13010,10 +13029,10 @@
         <v>711</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -13039,10 +13058,10 @@
         <v>711</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -13068,10 +13087,10 @@
         <v>708</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -13097,7 +13116,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -13123,7 +13142,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -13149,7 +13168,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -13175,7 +13194,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -13201,7 +13220,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -13228,10 +13247,10 @@
         <v>710</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -13248,7 +13267,7 @@
         <v>246</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H326" s="2" t="s">
         <v>238</v>
@@ -13257,10 +13276,10 @@
         <v>699</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -13283,10 +13302,10 @@
         <v>707</v>
       </c>
       <c r="J327" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -13309,7 +13328,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -13326,7 +13345,7 @@
         <v>596</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H329" s="2" t="s">
         <v>352</v>
@@ -13335,10 +13354,10 @@
         <v>707</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -13361,7 +13380,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -13384,7 +13403,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -13407,7 +13426,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -13430,7 +13449,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -13453,7 +13472,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -13470,7 +13489,7 @@
         <v>152</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H335" s="2" t="s">
         <v>120</v>
@@ -13479,10 +13498,10 @@
         <v>704</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -13499,7 +13518,7 @@
         <v>275</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H336" s="2" t="s">
         <v>248</v>
@@ -13508,10 +13527,10 @@
         <v>711</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -13537,7 +13556,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -13560,7 +13579,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -13587,7 +13606,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -13614,7 +13633,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -13641,7 +13660,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -13668,7 +13687,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -13695,7 +13714,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -13722,7 +13741,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -13749,7 +13768,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -13775,7 +13794,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -13792,7 +13811,7 @@
         <v>500</v>
       </c>
       <c r="F347" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G347" s="19" t="s">
         <v>872</v>
@@ -13804,7 +13823,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -13833,7 +13852,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -13856,7 +13875,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -13879,7 +13898,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -13902,7 +13921,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -13927,7 +13946,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -13950,7 +13969,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -13973,7 +13992,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -13996,7 +14015,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -14019,7 +14038,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -14042,7 +14061,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -14065,7 +14084,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -14091,7 +14110,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -14114,7 +14133,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -14139,7 +14158,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -14162,7 +14181,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -14185,7 +14204,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -14208,7 +14227,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -14231,7 +14250,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -14254,7 +14273,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -14277,7 +14296,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -14300,7 +14319,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -14323,7 +14342,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -14346,7 +14365,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -14369,7 +14388,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -14392,7 +14411,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -14415,7 +14434,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -14438,7 +14457,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -14461,7 +14480,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -14484,7 +14503,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -14509,7 +14528,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -14534,7 +14553,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -14557,7 +14576,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -14580,7 +14599,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -14603,7 +14622,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -14626,7 +14645,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -14649,7 +14668,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -14672,7 +14691,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -14695,7 +14714,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -14718,7 +14737,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -14741,7 +14760,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -14764,7 +14783,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -14789,7 +14808,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -14814,7 +14833,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -14839,7 +14858,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -14862,7 +14881,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -14885,7 +14904,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -14908,7 +14927,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -14933,7 +14952,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -14958,7 +14977,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -14983,7 +15002,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -15006,7 +15025,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -15031,7 +15050,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -15054,7 +15073,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -15077,7 +15096,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -15100,7 +15119,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -15123,7 +15142,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -15148,7 +15167,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -15171,7 +15190,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -15194,7 +15213,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -15217,7 +15236,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -15240,7 +15259,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -15263,7 +15282,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -15286,7 +15305,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -15309,7 +15328,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -15334,7 +15353,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -15357,7 +15376,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -15382,7 +15401,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -15407,7 +15426,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -15430,7 +15449,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -15453,7 +15472,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -15476,7 +15495,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -15499,7 +15518,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -15522,7 +15541,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -15545,7 +15564,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -15568,7 +15587,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -15591,7 +15610,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -15614,7 +15633,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -15637,7 +15656,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -15660,7 +15679,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -15683,7 +15702,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -15706,7 +15725,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -15729,7 +15748,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -15752,7 +15771,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -15775,7 +15794,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -15798,7 +15817,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -15821,7 +15840,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -15844,7 +15863,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -15867,7 +15886,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -15892,7 +15911,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -15917,7 +15936,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -15940,7 +15959,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -15963,7 +15982,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -15986,7 +16005,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -16009,7 +16028,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -16032,7 +16051,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -16055,7 +16074,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -16078,7 +16097,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -16101,7 +16120,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -16124,7 +16143,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -16149,7 +16168,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -16172,7 +16191,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -16195,7 +16214,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -16218,7 +16237,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -16241,7 +16260,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -16264,7 +16283,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -16287,7 +16306,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -16310,7 +16329,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -16335,7 +16354,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -16358,7 +16377,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -16381,7 +16400,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -16408,7 +16427,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -16434,7 +16453,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -16460,7 +16479,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -16486,7 +16505,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -16509,7 +16528,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -16532,7 +16551,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -16555,7 +16574,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -16572,7 +16591,7 @@
         <v>506</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H465" s="2" t="s">
         <v>416</v>
@@ -16581,7 +16600,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -16598,7 +16617,7 @@
         <v>644</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H466" s="2" t="s">
         <v>547</v>
@@ -16607,7 +16626,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -16630,7 +16649,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -16647,7 +16666,7 @@
         <v>76</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H468" s="2" t="s">
         <v>59</v>
@@ -16656,7 +16675,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -16673,7 +16692,7 @@
         <v>112</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H469" s="2" t="s">
         <v>85</v>
@@ -16682,7 +16701,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -16699,7 +16718,7 @@
         <v>507</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H470" s="2" t="s">
         <v>352</v>
@@ -16708,7 +16727,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="471" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="30">
         <v>470</v>
       </c>
@@ -16732,7 +16751,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="472" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="30">
         <v>471</v>
       </c>
@@ -16749,7 +16768,7 @@
         <v>646</v>
       </c>
       <c r="F472" s="30" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G472" s="32"/>
       <c r="H472" s="30" t="s">
@@ -16759,7 +16778,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -16776,7 +16795,7 @@
         <v>190</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H473" s="2" t="s">
         <v>120</v>
@@ -16785,7 +16804,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -16808,7 +16827,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -16825,7 +16844,7 @@
         <v>192</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H475" s="2" t="s">
         <v>120</v>
@@ -16834,7 +16853,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -16851,7 +16870,7 @@
         <v>645</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H476" s="2" t="s">
         <v>547</v>
@@ -16860,7 +16879,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="477" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="30">
         <v>476</v>
       </c>
@@ -16884,7 +16903,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -16907,7 +16926,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -16930,7 +16949,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -16953,7 +16972,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -16976,7 +16995,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="482" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="30">
         <v>481</v>
       </c>
@@ -16993,7 +17012,7 @@
         <v>668</v>
       </c>
       <c r="F482" s="30" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G482" s="32"/>
       <c r="H482" s="30" t="s">
@@ -17003,7 +17022,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -17026,7 +17045,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -17049,7 +17068,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -17075,7 +17094,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="486" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="30">
         <v>485</v>
       </c>
@@ -17092,7 +17111,7 @@
         <v>652</v>
       </c>
       <c r="F486" s="30" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G486" s="32"/>
       <c r="H486" s="30" t="s">
@@ -17102,7 +17121,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -17125,7 +17144,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -17148,7 +17167,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -17174,7 +17193,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -17197,7 +17216,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -17214,7 +17233,7 @@
         <v>508</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H491" s="2" t="s">
         <v>352</v>
@@ -17223,7 +17242,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="492" spans="1:9" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" s="30" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="30">
         <v>491</v>
       </c>
@@ -17247,7 +17266,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -17273,7 +17292,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -17290,7 +17309,7 @@
         <v>195</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H494" s="2" t="s">
         <v>120</v>
@@ -17299,7 +17318,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -17322,7 +17341,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -17339,7 +17358,7 @@
         <v>197</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H496" s="2" t="s">
         <v>120</v>
@@ -17348,7 +17367,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -17374,7 +17393,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -17391,7 +17410,7 @@
         <v>669</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H498" s="2" t="s">
         <v>547</v>
@@ -17400,7 +17419,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -17417,7 +17436,7 @@
         <v>333</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H499" s="2" t="s">
         <v>351</v>
@@ -17426,7 +17445,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="500" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="30">
         <v>499</v>
       </c>
@@ -17443,7 +17462,7 @@
         <v>334</v>
       </c>
       <c r="F500" s="30" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G500" s="32"/>
       <c r="H500" s="30" t="s">
@@ -17453,7 +17472,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -17476,7 +17495,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -17499,7 +17518,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -17516,7 +17535,7 @@
         <v>337</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H503" s="2" t="s">
         <v>351</v>
@@ -17525,7 +17544,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -17548,7 +17567,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -17571,7 +17590,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="506" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="30">
         <v>505</v>
       </c>
@@ -17588,7 +17607,7 @@
         <v>340</v>
       </c>
       <c r="F506" s="30" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G506" s="32"/>
       <c r="H506" s="30" t="s">
@@ -17598,7 +17617,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="507" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="30">
         <v>506</v>
       </c>
@@ -17615,7 +17634,7 @@
         <v>341</v>
       </c>
       <c r="F507" s="30" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G507" s="32"/>
       <c r="H507" s="30" t="s">
@@ -17625,7 +17644,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -17642,7 +17661,7 @@
         <v>342</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H508" s="2" t="s">
         <v>351</v>
@@ -17651,7 +17670,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="509" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="30">
         <v>508</v>
       </c>
@@ -17668,7 +17687,7 @@
         <v>343</v>
       </c>
       <c r="F509" s="30" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G509" s="32"/>
       <c r="H509" s="30" t="s">
@@ -17678,7 +17697,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="510" spans="1:9" s="30" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" s="30" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="30">
         <v>509</v>
       </c>
@@ -17702,7 +17721,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -17725,7 +17744,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -17748,7 +17767,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -17771,7 +17790,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -17794,7 +17813,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -17817,7 +17836,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -17840,7 +17859,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -17865,7 +17884,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -17888,7 +17907,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -17911,7 +17930,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -17934,7 +17953,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -17957,7 +17976,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -17983,7 +18002,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -18009,7 +18028,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -18035,7 +18054,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -18061,7 +18080,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -18084,7 +18103,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -18110,7 +18129,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -18133,7 +18152,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -18156,7 +18175,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -18179,7 +18198,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -18202,7 +18221,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -18225,7 +18244,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -18248,7 +18267,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -18271,7 +18290,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -18294,7 +18313,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -18310,14 +18329,20 @@
       <c r="E536" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="F536" s="2" t="s">
+        <v>1026</v>
+      </c>
       <c r="H536" s="2" t="s">
         <v>85</v>
       </c>
       <c r="I536" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J536" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -18340,7 +18365,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -18356,6 +18381,9 @@
       <c r="E538" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="F538" s="2" t="s">
+        <v>1027</v>
+      </c>
       <c r="H538" s="2" t="s">
         <v>352</v>
       </c>
@@ -18363,7 +18391,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -18379,14 +18407,20 @@
       <c r="E539" s="2" t="s">
         <v>690</v>
       </c>
+      <c r="F539" s="2" t="s">
+        <v>1028</v>
+      </c>
       <c r="H539" s="2" t="s">
         <v>547</v>
       </c>
       <c r="I539" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J539" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -18402,14 +18436,20 @@
       <c r="E540" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="F540" s="2" t="s">
+        <v>1029</v>
+      </c>
       <c r="H540" s="2" t="s">
         <v>230</v>
       </c>
       <c r="I540" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="541" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J540" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -18431,8 +18471,11 @@
       <c r="I541" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="542" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J541" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -18448,14 +18491,20 @@
       <c r="E542" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="F542" s="2" t="s">
+        <v>1030</v>
+      </c>
       <c r="H542" s="2" t="s">
         <v>120</v>
       </c>
       <c r="I542" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="543" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J542" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -18477,8 +18526,11 @@
       <c r="I543" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J543" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -18500,8 +18552,11 @@
       <c r="I544" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="545" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J544" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -18523,8 +18578,11 @@
       <c r="I545" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="546" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J545" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -18547,7 +18605,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="547" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -18563,14 +18621,20 @@
       <c r="E547" s="2" t="s">
         <v>696</v>
       </c>
+      <c r="F547" s="2" t="s">
+        <v>1031</v>
+      </c>
       <c r="H547" s="2" t="s">
         <v>547</v>
       </c>
       <c r="I547" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J547" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -18592,8 +18656,11 @@
       <c r="I548" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J548" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -18616,7 +18683,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -18639,7 +18706,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="551" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -18662,7 +18729,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -18685,7 +18752,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -18708,7 +18775,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -18731,7 +18798,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -18754,7 +18821,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -18777,7 +18844,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -18800,7 +18867,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -18823,7 +18890,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -18846,7 +18913,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -18869,7 +18936,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -18892,7 +18959,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -18915,7 +18982,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -18938,7 +19005,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -18961,7 +19028,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -18984,7 +19051,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -19007,7 +19074,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -19030,7 +19097,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -19053,7 +19120,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -19076,7 +19143,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -19099,7 +19166,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -19122,7 +19189,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -19145,7 +19212,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -19168,7 +19235,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -19191,7 +19258,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -19214,7 +19281,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -19237,7 +19304,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -19260,7 +19327,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="578" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -19283,7 +19350,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -19306,7 +19373,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>579</v>
       </c>
@@ -19329,7 +19396,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>580</v>
       </c>
@@ -19352,7 +19419,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -19375,7 +19442,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -19398,7 +19465,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -19421,7 +19488,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>584</v>
       </c>
@@ -19444,7 +19511,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>585</v>
       </c>
@@ -19467,7 +19534,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>586</v>
       </c>
@@ -19490,7 +19557,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>587</v>
       </c>
@@ -19513,7 +19580,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>588</v>
       </c>
@@ -19539,7 +19606,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="590" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>589</v>
       </c>
@@ -19556,7 +19623,7 @@
         <v>66</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H590" s="2" t="s">
         <v>59</v>
@@ -19565,7 +19632,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="591" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>590</v>
       </c>
@@ -19582,7 +19649,7 @@
         <v>102</v>
       </c>
       <c r="F591" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H591" s="2" t="s">
         <v>85</v>
@@ -19591,7 +19658,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="592" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>591</v>
       </c>
@@ -19608,7 +19675,7 @@
         <v>569</v>
       </c>
       <c r="F592" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H592" s="2" t="s">
         <v>352</v>
@@ -19617,7 +19684,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>592</v>
       </c>
@@ -19634,7 +19701,7 @@
         <v>566</v>
       </c>
       <c r="F593" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H593" s="2" t="s">
         <v>352</v>
@@ -19643,7 +19710,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>593</v>
       </c>
@@ -19660,7 +19727,7 @@
         <v>567</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H594" s="2" t="s">
         <v>352</v>
@@ -19669,7 +19736,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>594</v>
       </c>
@@ -19686,7 +19753,7 @@
         <v>568</v>
       </c>
       <c r="F595" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H595" s="2" t="s">
         <v>352</v>
@@ -19695,7 +19762,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>595</v>
       </c>
@@ -19712,7 +19779,7 @@
         <v>233</v>
       </c>
       <c r="F596" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H596" s="2" t="s">
         <v>230</v>
@@ -19721,7 +19788,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>596</v>
       </c>
@@ -19738,7 +19805,7 @@
         <v>159</v>
       </c>
       <c r="F597" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H597" s="2" t="s">
         <v>120</v>
@@ -19747,7 +19814,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>597</v>
       </c>
@@ -19764,7 +19831,7 @@
         <v>273</v>
       </c>
       <c r="F598" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H598" s="2" t="s">
         <v>248</v>
@@ -19773,7 +19840,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>598</v>
       </c>
@@ -19790,7 +19857,7 @@
         <v>625</v>
       </c>
       <c r="F599" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H599" s="2" t="s">
         <v>547</v>
@@ -19799,7 +19866,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>599</v>
       </c>
@@ -19816,7 +19883,7 @@
         <v>626</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H600" s="2" t="s">
         <v>547</v>
@@ -19825,7 +19892,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>600</v>
       </c>
@@ -19842,7 +19909,7 @@
         <v>446</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H601" s="2" t="s">
         <v>429</v>
@@ -19851,7 +19918,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>601</v>
       </c>
@@ -19868,7 +19935,7 @@
         <v>510</v>
       </c>
       <c r="F602" s="11" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H602" s="2" t="s">
         <v>416</v>
@@ -19877,7 +19944,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>602</v>
       </c>
@@ -19903,7 +19970,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="604" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>603</v>
       </c>
@@ -19920,7 +19987,7 @@
         <v>103</v>
       </c>
       <c r="F604" s="34" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G604" s="26"/>
       <c r="H604" s="2" t="s">
@@ -19930,7 +19997,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>604</v>
       </c>
@@ -19947,7 +20014,7 @@
         <v>511</v>
       </c>
       <c r="F605" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H605" s="2" t="s">
         <v>352</v>
@@ -19956,7 +20023,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>605</v>
       </c>
@@ -19973,7 +20040,7 @@
         <v>394</v>
       </c>
       <c r="F606" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G606" s="28"/>
       <c r="H606" s="2" t="s">
@@ -19983,7 +20050,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="607" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>606</v>
       </c>
@@ -20000,7 +20067,7 @@
         <v>160</v>
       </c>
       <c r="F607" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H607" s="2" t="s">
         <v>120</v>
@@ -20009,7 +20076,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>607</v>
       </c>
@@ -20026,7 +20093,7 @@
         <v>272</v>
       </c>
       <c r="F608" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H608" s="2" t="s">
         <v>248</v>
@@ -20035,7 +20102,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="609" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>608</v>
       </c>
@@ -20052,7 +20119,7 @@
         <v>414</v>
       </c>
       <c r="F609" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H609" s="2" t="s">
         <v>407</v>
@@ -20061,7 +20128,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="610" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>609</v>
       </c>
@@ -20078,7 +20145,7 @@
         <v>512</v>
       </c>
       <c r="F610" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H610" s="2" t="s">
         <v>416</v>
@@ -20087,7 +20154,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="611" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>610</v>
       </c>
@@ -20116,7 +20183,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>611</v>
       </c>
@@ -20143,7 +20210,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="613" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>612</v>
       </c>
@@ -20160,7 +20227,7 @@
         <v>815</v>
       </c>
       <c r="F613" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G613" s="19" t="s">
         <v>872</v>
@@ -20172,7 +20239,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="614" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>613</v>
       </c>
@@ -20199,12 +20266,12 @@
         <v>708</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>6</v>
@@ -20225,7 +20292,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="616" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>615</v>
       </c>
@@ -20242,7 +20309,7 @@
         <v>901</v>
       </c>
       <c r="F616" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H616" s="2" t="s">
         <v>547</v>
@@ -20251,7 +20318,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>616</v>
       </c>
@@ -20268,7 +20335,7 @@
         <v>902</v>
       </c>
       <c r="F617" s="11" t="s">
-        <v>903</v>
+        <v>1032</v>
       </c>
       <c r="H617" s="2" t="s">
         <v>547</v>
@@ -20276,8 +20343,11 @@
       <c r="I617" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="618" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J617" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>617</v>
       </c>
@@ -20291,10 +20361,10 @@
         <v>45</v>
       </c>
       <c r="E618" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="F618" s="9" t="s">
         <v>910</v>
-      </c>
-      <c r="F618" s="9" t="s">
-        <v>911</v>
       </c>
       <c r="H618" s="2" t="s">
         <v>547</v>
@@ -20303,7 +20373,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="619" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>618</v>
       </c>
@@ -20317,10 +20387,10 @@
         <v>45</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F619" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H619" s="2" t="s">
         <v>547</v>
@@ -20329,7 +20399,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>619</v>
       </c>
@@ -20343,10 +20413,10 @@
         <v>49</v>
       </c>
       <c r="E620" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="F620" s="11" t="s">
         <v>918</v>
-      </c>
-      <c r="F620" s="11" t="s">
-        <v>919</v>
       </c>
       <c r="H620" s="2" t="s">
         <v>547</v>
@@ -20355,7 +20425,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>620</v>
       </c>
@@ -20369,10 +20439,10 @@
         <v>46</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F621" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H621" s="2" t="s">
         <v>547</v>
@@ -20381,7 +20451,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="622" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>621</v>
       </c>
@@ -20395,13 +20465,13 @@
         <v>45</v>
       </c>
       <c r="E622" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="F622" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="G622" s="22" t="s">
         <v>925</v>
-      </c>
-      <c r="F622" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="G622" s="22" t="s">
-        <v>926</v>
       </c>
       <c r="H622" s="2" t="s">
         <v>547</v>
@@ -20411,7 +20481,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J622"/>
+  <autoFilter ref="A1:J622">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Visit"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B2:I610">
     <sortCondition ref="B2:B610"/>
     <sortCondition ref="C2:C610"/>

--- a/ballots/2013-05 QA Review/FHIR May Results.xlsx
+++ b/ballots/2013-05 QA Review/FHIR May Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-75" windowWidth="15285" windowHeight="8805"/>
+    <workbookView xWindow="75" yWindow="-75" windowWidth="15285" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Review Comments" sheetId="1" r:id="rId1"/>
@@ -3965,9 +3965,6 @@
     <t xml:space="preserve">Description of the resource to be updated with information contained in the resource proposal. </t>
   </si>
   <si>
-    <t>Will consider adding additional search criteria.</t>
-  </si>
-  <si>
     <t>Well, it is, and it also has a Period during which the patient was at that location</t>
   </si>
   <si>
@@ -3987,6 +3984,9 @@
   </si>
   <si>
     <t xml:space="preserve">Location is the places the patient has been at (including for examinations), while accomodation is where the patient stays </t>
+  </si>
+  <si>
+    <t>vaccineType added as a search criteria.</t>
   </si>
 </sst>
 </file>
@@ -4530,14 +4530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E544" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A617" sqref="A617"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4586,7 +4585,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4694,7 +4693,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4832,7 +4831,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4861,7 +4860,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4888,7 +4887,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4917,7 +4916,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5001,7 +5000,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5085,7 +5084,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="330" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5355,7 +5354,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5593,7 +5592,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5783,7 +5782,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5891,7 +5890,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5970,7 +5969,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5997,7 +5996,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -6104,7 +6103,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -6133,7 +6132,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6189,7 +6188,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6272,7 +6271,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6330,7 +6329,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6357,7 +6356,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6411,7 +6410,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6440,7 +6439,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6521,7 +6520,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6575,7 +6574,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6656,7 +6655,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6795,7 +6794,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6878,7 +6877,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6959,7 +6958,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7040,7 +7039,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7121,7 +7120,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7175,7 +7174,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7202,7 +7201,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7229,7 +7228,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7283,7 +7282,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7312,7 +7311,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7393,7 +7392,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7557,7 +7556,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -7611,7 +7610,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -7802,7 +7801,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -7856,7 +7855,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -7883,7 +7882,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -7912,7 +7911,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -7941,7 +7940,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8024,7 +8023,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -8078,7 +8077,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -8132,7 +8131,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -8159,7 +8158,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -8232,7 +8231,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -8257,7 +8256,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -8307,7 +8306,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -8330,7 +8329,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -8353,7 +8352,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -8376,7 +8375,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -8445,7 +8444,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -8474,7 +8473,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -8501,7 +8500,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -8551,7 +8550,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -8578,7 +8577,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -8605,7 +8604,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -8632,7 +8631,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -8655,7 +8654,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -8701,7 +8700,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -8728,7 +8727,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -8774,7 +8773,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -8797,7 +8796,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -8820,7 +8819,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -8843,7 +8842,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -8866,7 +8865,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -8912,7 +8911,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -8935,7 +8934,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -8958,7 +8957,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -8981,7 +8980,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -9008,7 +9007,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -9077,7 +9076,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -9100,7 +9099,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -9123,7 +9122,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -9149,7 +9148,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -9176,7 +9175,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -9205,7 +9204,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -9255,7 +9254,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -9282,7 +9281,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -9305,7 +9304,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -9328,7 +9327,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -9351,7 +9350,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -9428,7 +9427,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -9455,7 +9454,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -9501,7 +9500,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -9547,7 +9546,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -9572,7 +9571,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -9595,7 +9594,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -9621,7 +9620,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -9667,7 +9666,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -9736,7 +9735,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -9759,7 +9758,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -9871,7 +9870,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -9923,7 +9922,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -9946,7 +9945,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -10002,7 +10001,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -10032,7 +10031,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -10059,7 +10058,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -10086,7 +10085,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -10145,7 +10144,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -10197,7 +10196,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -10226,7 +10225,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -10255,7 +10254,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -10284,7 +10283,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -10310,7 +10309,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -10339,7 +10338,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -10368,7 +10367,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -10397,7 +10396,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -10427,7 +10426,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -10456,7 +10455,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -10543,7 +10542,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -10572,7 +10571,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -10601,7 +10600,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -10659,7 +10658,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -10717,7 +10716,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -10746,7 +10745,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -10773,7 +10772,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -10796,7 +10795,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -10823,7 +10822,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -10846,7 +10845,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -10898,7 +10897,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -10921,7 +10920,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -10971,7 +10970,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -10998,7 +10997,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -11048,7 +11047,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -11103,7 +11102,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -11149,7 +11148,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -11203,7 +11202,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -11230,7 +11229,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -11253,7 +11252,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -11282,7 +11281,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -11311,7 +11310,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -11398,7 +11397,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -11427,7 +11426,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -11456,7 +11455,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -11485,7 +11484,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -11543,7 +11542,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -11601,7 +11600,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -11665,7 +11664,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -11694,7 +11693,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -11723,7 +11722,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -11752,7 +11751,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -11781,7 +11780,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -11810,7 +11809,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -11839,7 +11838,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -11868,7 +11867,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -11897,7 +11896,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -11926,7 +11925,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -11955,7 +11954,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -11981,7 +11980,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -12113,7 +12112,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -12140,7 +12139,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -12167,7 +12166,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -12193,7 +12192,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -12220,7 +12219,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -12247,7 +12246,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -12274,7 +12273,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -12300,7 +12299,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -12326,7 +12325,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -12352,7 +12351,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -12379,7 +12378,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -12406,7 +12405,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -12433,7 +12432,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -12460,7 +12459,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -12487,7 +12486,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -12514,7 +12513,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -12541,7 +12540,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -12568,7 +12567,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -12595,7 +12594,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -12622,7 +12621,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -12649,7 +12648,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -12703,7 +12702,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -12730,7 +12729,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -12757,7 +12756,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -12783,7 +12782,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -12836,7 +12835,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -12863,7 +12862,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -12890,7 +12889,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -12916,7 +12915,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -12943,7 +12942,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -12972,7 +12971,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -13002,7 +13001,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -13032,7 +13031,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -13061,7 +13060,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -13090,7 +13089,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -13116,7 +13115,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -13142,7 +13141,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -13168,7 +13167,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -13194,7 +13193,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -13220,7 +13219,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -13250,7 +13249,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -13279,7 +13278,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -13305,7 +13304,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -13328,7 +13327,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -13357,7 +13356,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -13380,7 +13379,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -13403,7 +13402,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -13426,7 +13425,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -13449,7 +13448,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -13472,7 +13471,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -13501,7 +13500,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -13530,7 +13529,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -13579,7 +13578,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -13606,7 +13605,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -13633,7 +13632,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -13660,7 +13659,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -13687,7 +13686,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -13714,7 +13713,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -13741,7 +13740,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -13768,7 +13767,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -13794,7 +13793,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -13823,7 +13822,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -13852,7 +13851,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -13875,7 +13874,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -13898,7 +13897,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -13921,7 +13920,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="67.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -13946,7 +13945,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -13969,7 +13968,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -13992,7 +13991,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -14015,7 +14014,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -14038,7 +14037,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -14061,7 +14060,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -14084,7 +14083,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -14110,7 +14109,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -14133,7 +14132,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -14158,7 +14157,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -14181,7 +14180,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -14204,7 +14203,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -14227,7 +14226,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -14250,7 +14249,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -14273,7 +14272,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -14296,7 +14295,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -14319,7 +14318,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -14342,7 +14341,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -14365,7 +14364,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -14388,7 +14387,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -14411,7 +14410,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -14434,7 +14433,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -14457,7 +14456,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -14480,7 +14479,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -14503,7 +14502,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -14528,7 +14527,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -14553,7 +14552,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -14576,7 +14575,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -14599,7 +14598,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -14622,7 +14621,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -14645,7 +14644,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -14668,7 +14667,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -14691,7 +14690,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -14714,7 +14713,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -14737,7 +14736,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -14760,7 +14759,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -14783,7 +14782,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -14808,7 +14807,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -14833,7 +14832,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -14858,7 +14857,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -14881,7 +14880,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -14904,7 +14903,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -14927,7 +14926,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -14952,7 +14951,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -14977,7 +14976,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -15002,7 +15001,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -15025,7 +15024,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -15073,7 +15072,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -15096,7 +15095,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -15119,7 +15118,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -15142,7 +15141,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -15167,7 +15166,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -15190,7 +15189,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -15213,7 +15212,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -15259,7 +15258,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -15282,7 +15281,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -15305,7 +15304,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -15328,7 +15327,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -15353,7 +15352,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -15376,7 +15375,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -15401,7 +15400,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -15426,7 +15425,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -15449,7 +15448,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -15472,7 +15471,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -15495,7 +15494,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -15518,7 +15517,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -15541,7 +15540,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -15564,7 +15563,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -15587,7 +15586,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -15610,7 +15609,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -15633,7 +15632,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -15656,7 +15655,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -15679,7 +15678,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -15702,7 +15701,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -15725,7 +15724,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -15748,7 +15747,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -15817,7 +15816,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -15840,7 +15839,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -15863,7 +15862,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -15886,7 +15885,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -15911,7 +15910,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -15936,7 +15935,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -15959,7 +15958,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -15982,7 +15981,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -16005,7 +16004,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -16028,7 +16027,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -16051,7 +16050,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -16074,7 +16073,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -16097,7 +16096,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -16120,7 +16119,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -16143,7 +16142,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -16168,7 +16167,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -16191,7 +16190,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -16214,7 +16213,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -16237,7 +16236,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -16260,7 +16259,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -16283,7 +16282,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -16306,7 +16305,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -16329,7 +16328,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -16354,7 +16353,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -16377,7 +16376,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -16400,7 +16399,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -16427,7 +16426,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -16453,7 +16452,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -16479,7 +16478,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -16505,7 +16504,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -16528,7 +16527,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -16551,7 +16550,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -16574,7 +16573,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -16600,7 +16599,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -16626,7 +16625,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -16649,7 +16648,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -16675,7 +16674,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -16701,7 +16700,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -16727,7 +16726,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="471" spans="1:9" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="30">
         <v>470</v>
       </c>
@@ -16751,7 +16750,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="472" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A472" s="30">
         <v>471</v>
       </c>
@@ -16778,7 +16777,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -16804,7 +16803,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -16827,7 +16826,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -16879,7 +16878,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="477" spans="1:9" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="30">
         <v>476</v>
       </c>
@@ -16903,7 +16902,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -16926,7 +16925,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -16949,7 +16948,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -16972,7 +16971,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -16995,7 +16994,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="482" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A482" s="30">
         <v>481</v>
       </c>
@@ -17022,7 +17021,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -17045,7 +17044,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -17068,7 +17067,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -17094,7 +17093,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="486" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A486" s="30">
         <v>485</v>
       </c>
@@ -17121,7 +17120,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -17144,7 +17143,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -17167,7 +17166,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -17193,7 +17192,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -17216,7 +17215,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -17242,7 +17241,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="492" spans="1:9" s="30" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" s="30" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A492" s="30">
         <v>491</v>
       </c>
@@ -17266,7 +17265,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -17292,7 +17291,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -17318,7 +17317,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -17341,7 +17340,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -17367,7 +17366,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -17393,7 +17392,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -17419,7 +17418,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -17445,7 +17444,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="500" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="30">
         <v>499</v>
       </c>
@@ -17472,7 +17471,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -17495,7 +17494,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -17518,7 +17517,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -17544,7 +17543,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -17567,7 +17566,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -17590,7 +17589,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="506" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="30">
         <v>505</v>
       </c>
@@ -17617,7 +17616,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="507" spans="1:9" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="30">
         <v>506</v>
       </c>
@@ -17644,7 +17643,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -17670,7 +17669,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="509" spans="1:9" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A509" s="30">
         <v>508</v>
       </c>
@@ -17697,7 +17696,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="510" spans="1:9" s="30" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" s="30" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A510" s="30">
         <v>509</v>
       </c>
@@ -17721,7 +17720,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -17744,7 +17743,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -17767,7 +17766,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -17790,7 +17789,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -17813,7 +17812,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -17836,7 +17835,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -17859,7 +17858,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -17884,7 +17883,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -17907,7 +17906,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -17930,7 +17929,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -17953,7 +17952,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -17976,7 +17975,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -18002,7 +18001,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -18028,7 +18027,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -18054,7 +18053,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -18080,7 +18079,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -18103,7 +18102,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -18129,7 +18128,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -18152,7 +18151,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="529" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -18175,7 +18174,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="530" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -18198,7 +18197,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -18221,7 +18220,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -18244,7 +18243,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="533" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -18330,7 +18329,7 @@
         <v>117</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H536" s="2" t="s">
         <v>85</v>
@@ -18382,7 +18381,7 @@
         <v>368</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H538" s="2" t="s">
         <v>352</v>
@@ -18408,7 +18407,7 @@
         <v>690</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H539" s="2" t="s">
         <v>547</v>
@@ -18437,7 +18436,7 @@
         <v>237</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H540" s="2" t="s">
         <v>230</v>
@@ -18492,7 +18491,7 @@
         <v>229</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H542" s="2" t="s">
         <v>120</v>
@@ -18622,7 +18621,7 @@
         <v>696</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H547" s="2" t="s">
         <v>547</v>
@@ -18729,7 +18728,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -18752,7 +18751,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -18775,7 +18774,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="554" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -18798,7 +18797,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -18821,7 +18820,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -18844,7 +18843,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -18867,7 +18866,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -18890,7 +18889,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -18913,7 +18912,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -18936,7 +18935,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -18959,7 +18958,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -18982,7 +18981,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -19005,7 +19004,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -19028,7 +19027,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -19051,7 +19050,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -19074,7 +19073,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -19097,7 +19096,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -19120,7 +19119,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -19143,7 +19142,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -19166,7 +19165,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -19189,7 +19188,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -19212,7 +19211,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -19235,7 +19234,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -19258,7 +19257,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -19281,7 +19280,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -19304,7 +19303,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -19327,7 +19326,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="578" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -19350,7 +19349,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -19373,7 +19372,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>579</v>
       </c>
@@ -19396,7 +19395,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>580</v>
       </c>
@@ -19419,7 +19418,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -19442,7 +19441,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -19465,7 +19464,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -19488,7 +19487,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>584</v>
       </c>
@@ -19511,7 +19510,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>585</v>
       </c>
@@ -19534,7 +19533,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>586</v>
       </c>
@@ -19557,7 +19556,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>587</v>
       </c>
@@ -19580,7 +19579,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>588</v>
       </c>
@@ -19606,7 +19605,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="590" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>589</v>
       </c>
@@ -19632,7 +19631,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="591" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>590</v>
       </c>
@@ -19658,7 +19657,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="592" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>591</v>
       </c>
@@ -19684,7 +19683,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>592</v>
       </c>
@@ -19710,7 +19709,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>593</v>
       </c>
@@ -19736,7 +19735,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>594</v>
       </c>
@@ -19762,7 +19761,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>595</v>
       </c>
@@ -19788,7 +19787,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>596</v>
       </c>
@@ -19814,7 +19813,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>597</v>
       </c>
@@ -19840,7 +19839,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>598</v>
       </c>
@@ -19866,7 +19865,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>599</v>
       </c>
@@ -19892,7 +19891,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>600</v>
       </c>
@@ -19918,7 +19917,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>601</v>
       </c>
@@ -19944,7 +19943,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>602</v>
       </c>
@@ -19970,7 +19969,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="604" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>603</v>
       </c>
@@ -19997,7 +19996,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>604</v>
       </c>
@@ -20023,7 +20022,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>605</v>
       </c>
@@ -20050,7 +20049,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="607" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>606</v>
       </c>
@@ -20076,7 +20075,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>607</v>
       </c>
@@ -20102,7 +20101,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>608</v>
       </c>
@@ -20128,7 +20127,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>609</v>
       </c>
@@ -20145,7 +20144,7 @@
         <v>512</v>
       </c>
       <c r="F610" s="11" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="H610" s="2" t="s">
         <v>416</v>
@@ -20154,7 +20153,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="611" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>610</v>
       </c>
@@ -20183,7 +20182,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="612" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>611</v>
       </c>
@@ -20210,7 +20209,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="613" spans="1:10" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>612</v>
       </c>
@@ -20239,7 +20238,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="614" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>613</v>
       </c>
@@ -20266,7 +20265,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>614</v>
       </c>
@@ -20292,7 +20291,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="616" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>615</v>
       </c>
@@ -20335,7 +20334,7 @@
         <v>902</v>
       </c>
       <c r="F617" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H617" s="2" t="s">
         <v>547</v>
@@ -20347,7 +20346,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>617</v>
       </c>
@@ -20373,7 +20372,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>618</v>
       </c>
@@ -20399,7 +20398,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>619</v>
       </c>
@@ -20425,7 +20424,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>620</v>
       </c>
@@ -20451,7 +20450,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="622" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>621</v>
       </c>
@@ -20481,13 +20480,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J622">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Visit"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J622"/>
   <sortState ref="B2:I610">
     <sortCondition ref="B2:B610"/>
     <sortCondition ref="C2:C610"/>
